--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{475B836D-56B3-44A6-AB23-87C881047BBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,12 +30,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{E072AE1F-5185-4809-81D6-18EA9104928F}">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +62,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{02B9099C-B2F0-4E36-9D38-D68AF4E102B9}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{DFB6DD61-E01F-4C30-BC16-A513A6DF6EF4}">
+    <comment ref="I2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{3BA7C767-2801-4782-8ECF-760F638A1679}">
+    <comment ref="J2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -194,13 +193,33 @@
   </si>
   <si>
     <t>show_target_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1|3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[][]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[][]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,19 +562,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="9" max="9" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,13 +588,13 @@
         <v>5</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -591,7 +610,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -627,7 +646,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -659,7 +678,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -674,8 +693,8 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1">
-        <v>6</v>
+      <c r="G4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>
@@ -691,7 +710,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -703,11 +722,11 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>7</v>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="1">
         <v>2</v>
@@ -723,7 +742,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -739,7 +758,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -755,7 +774,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -33,9 +33,10 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
+    <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +78,62 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+消耗基础真气值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+对result的影响系数
+1.影响result数组的index
+2.具体影响type.1-拳法，2剑法//也用于卡牌显示
+3.影响个数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -139,12 +195,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="N2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Windows 用户:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+卡牌/技能 使用特效</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -196,23 +278,112 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1|3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>number[][]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>number[][]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eft_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直剑</t>
+  </si>
+  <si>
+    <t>直剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+  </si>
+  <si>
+    <t>波撼洞庭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7</t>
+  </si>
+  <si>
+    <t>1,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22,22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18,20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14,18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -563,232 +734,579 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="12" max="12" width="17.375" customWidth="1"/>
+    <col min="13" max="13" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+    </row>
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="N2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+    </row>
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1">
         <v>30001</v>
       </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
         <v>5</v>
       </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+      <c r="K3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+    </row>
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1">
         <v>30001</v>
       </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
       <c r="I4" s="1">
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1">
         <v>30001</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+    </row>
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>40004</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>30002</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+    </row>
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>40005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1">
+        <v>30002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>8</v>
+      </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
       <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>40006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
+        <v>30002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>12</v>
+      </c>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="L8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
       <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>40007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1">
+        <v>30003</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
+      <c r="L9" s="1">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>40008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1">
+        <v>30003</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>8</v>
+      </c>
+      <c r="L10" s="1">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>40009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30003</v>
+      </c>
+      <c r="D11" s="1">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+      <c r="L11" s="1">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>40010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1">
+        <v>30004</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>40011</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="1">
+        <v>30004</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>40012</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="1">
+        <v>30004</v>
+      </c>
+      <c r="D14" s="1">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>40013</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1">
+        <v>30004</v>
+      </c>
+      <c r="D15" s="1">
+        <v>4</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -74,7 +74,8 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Murphy Ma:</t>
+          <t>Murphy Ma:
+技能等级</t>
         </r>
       </text>
     </comment>
@@ -226,7 +227,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -367,23 +368,74 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10,15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1,7</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>22,22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18,20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>14,18</t>
+    <t>残阳剑法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>1,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14|18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18|20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22|22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18|3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫气东来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -734,10 +786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -856,7 +908,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -897,7 +949,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -938,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -979,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1018,7 +1070,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1058,7 +1110,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1098,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1130,7 +1182,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1162,7 +1214,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1194,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -1203,7 +1255,7 @@
         <v>35</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
@@ -1226,16 +1278,16 @@
         <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
@@ -1258,7 +1310,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
@@ -1267,7 +1319,7 @@
         <v>34</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
@@ -1290,7 +1342,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
@@ -1299,13 +1351,300 @@
         <v>34</v>
       </c>
       <c r="J15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>40014</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1">
+        <v>30005</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>40015</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1">
+        <v>30005</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>40016</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1">
+        <v>30005</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1</v>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>40017</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1">
+        <v>30005</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>40018</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="1">
+        <v>30006</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J20" t="s">
+        <v>51</v>
+      </c>
+      <c r="L20" s="1">
+        <v>3</v>
+      </c>
+      <c r="M20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>40019</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="1">
+        <v>30006</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" t="s">
+        <v>53</v>
+      </c>
+      <c r="L21" s="1">
+        <v>3</v>
+      </c>
+      <c r="M21" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>40020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>40021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>40022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>40023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>40024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>40025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>40026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>40027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>40028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>40029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>40030</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>40031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>40032</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>40033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>40034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>40035</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>40036</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>40037</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>40038</v>
       </c>
     </row>
   </sheetData>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D990F9-7166-4B20-933B-6F45B56EF41E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="2100" yWindow="3156" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,24 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="1" shapeId="0">
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -163,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -196,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1" shapeId="0">
+    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -227,7 +222,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -299,14 +294,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0,1,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -436,13 +423,33 @@
   </si>
   <si>
     <t>5|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,3,2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -785,25 +792,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="17.375" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="10" max="10" width="23.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
+    <col min="14" max="14" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -815,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -839,19 +849,19 @@
         <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -863,7 +873,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -887,19 +897,19 @@
         <v>12</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="1">
         <v>30001</v>
@@ -922,7 +932,7 @@
         <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -935,12 +945,12 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C4" s="1">
         <v>30001</v>
@@ -963,7 +973,7 @@
         <v>8</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -976,12 +986,12 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1">
         <v>30001</v>
@@ -998,13 +1008,13 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -1017,12 +1027,12 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1">
         <v>30002</v>
@@ -1044,7 +1054,9 @@
       <c r="J6" s="1">
         <v>5</v>
       </c>
-      <c r="K6" s="1"/>
+      <c r="K6" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="L6" s="1">
         <v>1</v>
       </c>
@@ -1056,12 +1068,12 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
         <v>30002</v>
@@ -1083,7 +1095,9 @@
       <c r="J7" s="1">
         <v>8</v>
       </c>
-      <c r="K7" s="1"/>
+      <c r="K7" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="L7" s="1">
         <v>1</v>
       </c>
@@ -1096,12 +1110,12 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1">
         <v>30002</v>
@@ -1123,7 +1137,9 @@
       <c r="J8" s="1">
         <v>12</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="L8" s="1">
         <v>1</v>
       </c>
@@ -1136,12 +1152,12 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C9" s="1">
         <v>30003</v>
@@ -1150,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -1161,6 +1177,9 @@
       <c r="J9" s="1">
         <v>5</v>
       </c>
+      <c r="K9" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="L9" s="1">
         <v>3</v>
       </c>
@@ -1168,12 +1187,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="1">
         <v>30003</v>
@@ -1182,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -1193,6 +1212,9 @@
       <c r="J10" s="1">
         <v>8</v>
       </c>
+      <c r="K10" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="L10" s="1">
         <v>3</v>
       </c>
@@ -1200,12 +1222,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" s="1">
         <v>30003</v>
@@ -1214,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -1225,6 +1247,9 @@
       <c r="J11" s="1">
         <v>10</v>
       </c>
+      <c r="K11" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="L11" s="1">
         <v>3</v>
       </c>
@@ -1232,12 +1257,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C12" s="1">
         <v>30004</v>
@@ -1252,10 +1277,10 @@
         <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="J12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
@@ -1264,12 +1289,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C13" s="1">
         <v>30004</v>
@@ -1284,10 +1309,10 @@
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
@@ -1296,12 +1321,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1">
         <v>30004</v>
@@ -1316,10 +1341,10 @@
         <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
@@ -1328,12 +1353,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="1">
         <v>30004</v>
@@ -1348,10 +1373,10 @@
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="L15" s="1">
         <v>1</v>
@@ -1360,12 +1385,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1">
         <v>30005</v>
@@ -1380,10 +1405,10 @@
         <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="L16" s="1">
         <v>1</v>
@@ -1392,12 +1417,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1">
         <v>30005</v>
@@ -1412,10 +1437,10 @@
         <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L17" s="1">
         <v>1</v>
@@ -1424,12 +1449,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1">
         <v>30005</v>
@@ -1444,10 +1469,10 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L18" s="1">
         <v>1</v>
@@ -1456,12 +1481,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1">
         <v>30005</v>
@@ -1476,10 +1501,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="J19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L19" s="1">
         <v>1</v>
@@ -1488,12 +1513,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1">
         <v>30006</v>
@@ -1508,10 +1533,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L20" s="1">
         <v>3</v>
@@ -1520,12 +1545,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1">
         <v>30006</v>
@@ -1540,10 +1565,10 @@
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="J21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L21" s="1">
         <v>3</v>
@@ -1552,97 +1577,97 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D990F9-7166-4B20-933B-6F45B56EF41E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D762F67-2833-4A69-A1E0-CADD6F6E0BE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="3156" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -796,7 +796,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -918,7 +918,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -1000,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1041,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1124,7 +1124,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1184,7 +1184,7 @@
         <v>3</v>
       </c>
       <c r="M9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1219,7 +1219,7 @@
         <v>3</v>
       </c>
       <c r="M10" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="M11" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
@@ -1271,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
@@ -1303,7 +1303,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
@@ -1335,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
@@ -1367,7 +1367,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
@@ -1399,7 +1399,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
@@ -1431,7 +1431,7 @@
         <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
@@ -1463,7 +1463,7 @@
         <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1">
         <v>2</v>
@@ -1495,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -1527,7 +1527,7 @@
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
@@ -1559,7 +1559,7 @@
         <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D990F9-7166-4B20-933B-6F45B56EF41E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="3156" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2100" yWindow="3150" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="K2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -158,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -182,16 +181,29 @@
           <t xml:space="preserve">
 牌的功能基本类型(显示用)
 1.伤害单点
-2.伤害1+1
+2.伤害1+1，穿透一人
 3.伤害全体
 4.护盾单点
-5.护盾自己
-6.护盾全体
-7.伤害所有人(包括队友)</t>
+5.2个加护盾 目标及其后面一人
+6.2个加护盾 目标及其前面一人
+7.目标方全部护盾
+8.治疗一个
+9.治疗2个，target及其后面一个
+10.治疗2个，target及其前面一个
+11.治疗全部
+12.特殊效果1个
+13.特殊效果2个，target和其后面一个
+14.特殊效果2个，target和其前面一个
+15.特殊效果全部
+16。伤害所有人
+17.护盾所有人
+18.治疗所有人
+19.特殊效果所有人。
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="N2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -270,186 +282,186 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>number[][]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[][]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eft_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>power</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直剑</t>
+  </si>
+  <si>
+    <t>直剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+  </si>
+  <si>
+    <t>波撼洞庭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7</t>
+  </si>
+  <si>
+    <t>1,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残阳剑法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>1,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14|18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18|20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22|22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18|3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫气东来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>show_target_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>number[][]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>number[][]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>eft_value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>number[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>power</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_effect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平拳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>冲拳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>直剑</t>
-  </si>
-  <si>
-    <t>直剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡</t>
-  </si>
-  <si>
-    <t>波撼洞庭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,7</t>
-  </si>
-  <si>
-    <t>1,7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>残阳剑法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,8</t>
-  </si>
-  <si>
-    <t>1,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>14|18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18|20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>22|22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>14|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16|3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18|3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫气东来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,3,2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -792,28 +804,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
+    <col min="12" max="12" width="17.375" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="26.77734375" customWidth="1"/>
+    <col min="14" max="14" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -825,22 +837,22 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -849,19 +861,19 @@
         <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -873,7 +885,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -888,28 +900,28 @@
         <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>30001</v>
@@ -932,7 +944,7 @@
         <v>5</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -945,12 +957,12 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>30001</v>
@@ -973,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -986,12 +998,12 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>30001</v>
@@ -1008,13 +1020,13 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -1027,12 +1039,12 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1">
         <v>30002</v>
@@ -1055,7 +1067,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -1068,12 +1080,12 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
         <v>30002</v>
@@ -1096,7 +1108,7 @@
         <v>8</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -1110,12 +1122,12 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1">
         <v>30002</v>
@@ -1138,7 +1150,7 @@
         <v>12</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -1152,12 +1164,12 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1">
         <v>30003</v>
@@ -1178,21 +1190,21 @@
         <v>5</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L9" s="1">
         <v>3</v>
       </c>
       <c r="M9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1">
         <v>30003</v>
@@ -1213,21 +1225,21 @@
         <v>8</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L10" s="1">
         <v>3</v>
       </c>
       <c r="M10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="1">
         <v>30003</v>
@@ -1248,21 +1260,21 @@
         <v>10</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L11" s="1">
         <v>3</v>
       </c>
       <c r="M11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
         <v>30004</v>
@@ -1277,10 +1289,10 @@
         <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
@@ -1289,12 +1301,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="1">
         <v>30004</v>
@@ -1309,10 +1321,10 @@
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
@@ -1321,12 +1333,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" s="1">
         <v>30004</v>
@@ -1341,10 +1353,10 @@
         <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
@@ -1353,12 +1365,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1">
         <v>30004</v>
@@ -1373,10 +1385,10 @@
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L15" s="1">
         <v>1</v>
@@ -1385,12 +1397,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="1">
         <v>30005</v>
@@ -1405,10 +1417,10 @@
         <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L16" s="1">
         <v>1</v>
@@ -1417,12 +1429,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="1">
         <v>30005</v>
@@ -1437,11 +1449,11 @@
         <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J17" t="s">
         <v>43</v>
       </c>
-      <c r="J17" t="s">
-        <v>44</v>
-      </c>
       <c r="L17" s="1">
         <v>1</v>
       </c>
@@ -1449,12 +1461,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="1">
         <v>30005</v>
@@ -1469,10 +1481,10 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L18" s="1">
         <v>1</v>
@@ -1481,12 +1493,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C19" s="1">
         <v>30005</v>
@@ -1501,10 +1513,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L19" s="1">
         <v>1</v>
@@ -1513,12 +1525,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1">
         <v>30006</v>
@@ -1533,10 +1545,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J20" t="s">
         <v>48</v>
-      </c>
-      <c r="J20" t="s">
-        <v>49</v>
       </c>
       <c r="L20" s="1">
         <v>3</v>
@@ -1545,12 +1557,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1">
         <v>30006</v>
@@ -1565,10 +1577,10 @@
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" t="s">
         <v>50</v>
-      </c>
-      <c r="J21" t="s">
-        <v>51</v>
       </c>
       <c r="L21" s="1">
         <v>3</v>
@@ -1577,97 +1589,97 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -122,7 +122,7 @@
           </rPr>
           <t xml:space="preserve">
 对result的影响系数
-1.影响result数组的index
+1.影响result数组的id
 2.具体影响type.1-拳法，2剑法//也用于卡牌显示
 3.影响个数</t>
         </r>
@@ -234,7 +234,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -298,10 +298,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0,1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -434,27 +430,39 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0,1,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,3,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>show_target_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -808,7 +816,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -825,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -837,7 +845,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
@@ -861,7 +869,7 @@
         <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -873,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -885,7 +893,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -906,10 +914,10 @@
         <v>11</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -921,7 +929,7 @@
         <v>40001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
         <v>30001</v>
@@ -962,7 +970,7 @@
         <v>40002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1">
         <v>30001</v>
@@ -985,7 +993,7 @@
         <v>8</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -1003,7 +1011,7 @@
         <v>40003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>30001</v>
@@ -1020,13 +1028,13 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K5" s="1" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -1044,7 +1052,7 @@
         <v>40004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>30002</v>
@@ -1067,7 +1075,7 @@
         <v>5</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -1085,7 +1093,7 @@
         <v>40005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="1">
         <v>30002</v>
@@ -1108,7 +1116,7 @@
         <v>8</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -1127,7 +1135,7 @@
         <v>40006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1">
         <v>30002</v>
@@ -1150,7 +1158,7 @@
         <v>12</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -1169,7 +1177,7 @@
         <v>40007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="1">
         <v>30003</v>
@@ -1190,7 +1198,7 @@
         <v>5</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L9" s="1">
         <v>3</v>
@@ -1204,7 +1212,7 @@
         <v>40008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="1">
         <v>30003</v>
@@ -1225,7 +1233,7 @@
         <v>8</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L10" s="1">
         <v>3</v>
@@ -1239,7 +1247,7 @@
         <v>40009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="1">
         <v>30003</v>
@@ -1260,7 +1268,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L11" s="1">
         <v>3</v>
@@ -1274,7 +1282,7 @@
         <v>40010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1">
         <v>30004</v>
@@ -1289,10 +1297,10 @@
         <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
@@ -1306,7 +1314,7 @@
         <v>40011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1">
         <v>30004</v>
@@ -1321,10 +1329,10 @@
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
@@ -1338,7 +1346,7 @@
         <v>40012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="1">
         <v>30004</v>
@@ -1353,10 +1361,10 @@
         <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
@@ -1370,7 +1378,7 @@
         <v>40013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1">
         <v>30004</v>
@@ -1385,10 +1393,10 @@
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="1">
         <v>1</v>
@@ -1402,7 +1410,7 @@
         <v>40014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1">
         <v>30005</v>
@@ -1417,10 +1425,10 @@
         <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L16" s="1">
         <v>1</v>
@@ -1434,7 +1442,7 @@
         <v>40015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="1">
         <v>30005</v>
@@ -1449,10 +1457,10 @@
         <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" t="s">
         <v>42</v>
-      </c>
-      <c r="J17" t="s">
-        <v>43</v>
       </c>
       <c r="L17" s="1">
         <v>1</v>
@@ -1466,7 +1474,7 @@
         <v>40016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C18" s="1">
         <v>30005</v>
@@ -1481,10 +1489,10 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L18" s="1">
         <v>1</v>
@@ -1498,7 +1506,7 @@
         <v>40017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="1">
         <v>30005</v>
@@ -1513,10 +1521,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L19" s="1">
         <v>1</v>
@@ -1530,7 +1538,7 @@
         <v>40018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="1">
         <v>30006</v>
@@ -1545,10 +1553,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
         <v>47</v>
-      </c>
-      <c r="J20" t="s">
-        <v>48</v>
       </c>
       <c r="L20" s="1">
         <v>3</v>
@@ -1562,7 +1570,7 @@
         <v>40019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1">
         <v>30006</v>
@@ -1577,10 +1585,10 @@
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J21" t="s">
         <v>49</v>
-      </c>
-      <c r="J21" t="s">
-        <v>50</v>
       </c>
       <c r="L21" s="1">
         <v>3</v>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F18A75-E582-4A2E-A85F-52020DDFEBE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="3150" windowWidth="17280" windowHeight="8970"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="1" shapeId="0">
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -151,13 +152,18 @@
           </rPr>
           <t xml:space="preserve">
 用于鼠标 视觉等表现
-1.敌方单点选取
-2.自己方单点选取
-3.往出一甩，啥都不用管。</t>
+1.拳
+2.剑
+3.打坐/内功
+4。暗器
+5.指
+6.掌
+7.爪
+8.腿</t>
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1" shapeId="0">
+    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -234,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -278,10 +284,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>show_effect_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>number[][]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -318,10 +320,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10|5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -367,69 +365,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,8</t>
-  </si>
-  <si>
-    <t>1,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>14|18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18|20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>22|22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>14|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16|3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18|3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>紫气东来</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>show_target_type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -463,13 +402,73 @@
   </si>
   <si>
     <t>5,3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18|140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24|150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35|160</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>44|180</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>36|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15|15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>show_skill_ani_type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -812,28 +811,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="10" max="10" width="23.5" customWidth="1"/>
-    <col min="12" max="12" width="17.375" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="26.75" customWidth="1"/>
+    <col min="14" max="14" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -845,22 +844,22 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>2</v>
@@ -869,19 +868,19 @@
         <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -893,7 +892,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>6</v>
@@ -908,28 +907,28 @@
         <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1">
         <v>30001</v>
@@ -938,7 +937,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -949,10 +948,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="1">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -965,12 +964,12 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1">
         <v>30001</v>
@@ -979,7 +978,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -990,10 +989,10 @@
         <v>1</v>
       </c>
       <c r="J4" s="1">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -1006,12 +1005,12 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1">
         <v>30001</v>
@@ -1020,7 +1019,7 @@
         <v>3</v>
       </c>
       <c r="E5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -1028,13 +1027,13 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -1047,12 +1046,12 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="1">
         <v>30002</v>
@@ -1061,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -1072,13 +1071,13 @@
         <v>1</v>
       </c>
       <c r="J6" s="1">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="L6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
@@ -1088,12 +1087,12 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="1">
         <v>30002</v>
@@ -1102,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1113,13 +1112,13 @@
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M7" s="1">
         <v>1</v>
@@ -1130,12 +1129,12 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C8" s="1">
         <v>30002</v>
@@ -1144,7 +1143,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1155,13 +1154,13 @@
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="L8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
@@ -1172,12 +1171,12 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1">
         <v>30003</v>
@@ -1195,24 +1194,24 @@
         <v>5</v>
       </c>
       <c r="J9" s="1">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="L9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1">
         <v>30003</v>
@@ -1230,24 +1229,24 @@
         <v>5</v>
       </c>
       <c r="J10" s="1">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="L10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M10" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1">
         <v>30003</v>
@@ -1265,24 +1264,24 @@
         <v>5</v>
       </c>
       <c r="J11" s="1">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="L11" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M11" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1">
         <v>30004</v>
@@ -1291,16 +1290,16 @@
         <v>1</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
         <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
@@ -1309,12 +1308,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="1">
         <v>30004</v>
@@ -1323,16 +1322,16 @@
         <v>2</v>
       </c>
       <c r="E13" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
@@ -1341,12 +1340,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" s="1">
         <v>30004</v>
@@ -1355,16 +1354,16 @@
         <v>3</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
@@ -1373,12 +1372,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1">
         <v>30004</v>
@@ -1387,16 +1386,16 @@
         <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="L15" s="1">
         <v>1</v>
@@ -1405,12 +1404,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="1">
         <v>30005</v>
@@ -1419,30 +1418,30 @@
         <v>1</v>
       </c>
       <c r="E16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="1">
         <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="L16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="1">
         <v>30005</v>
@@ -1451,30 +1450,30 @@
         <v>2</v>
       </c>
       <c r="E17" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="L17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C18" s="1">
         <v>30005</v>
@@ -1483,30 +1482,30 @@
         <v>3</v>
       </c>
       <c r="E18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" s="1">
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="L18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="1">
         <v>30005</v>
@@ -1515,30 +1514,30 @@
         <v>4</v>
       </c>
       <c r="E19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="L19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C20" s="1">
         <v>30006</v>
@@ -1547,30 +1546,30 @@
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="J20" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="L20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M20" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1">
         <v>30006</v>
@@ -1579,115 +1578,115 @@
         <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J21" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="L21" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M21" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47F18A75-E582-4A2E-A85F-52020DDFEBE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8691C14F-8C3E-4A09-A517-83B28EA5BA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -815,7 +815,7 @@
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8691C14F-8C3E-4A09-A517-83B28EA5BA1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="K2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="N2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -462,13 +461,52 @@
   </si>
   <si>
     <t>show_skill_ani_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青蛇吐信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭秋风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>1,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|50011,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30|50011,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50011,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50003,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|50003,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30|50003,2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -811,23 +849,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
+    <col min="12" max="12" width="17.375" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="26.77734375" customWidth="1"/>
+    <col min="14" max="14" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -875,7 +913,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -923,7 +961,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -964,7 +1002,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1005,7 +1043,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -1046,7 +1084,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
@@ -1087,7 +1125,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
@@ -1129,7 +1167,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
@@ -1171,7 +1209,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
@@ -1206,7 +1244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
@@ -1241,7 +1279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
@@ -1276,7 +1314,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1308,7 +1346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
@@ -1340,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
@@ -1372,7 +1410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
@@ -1404,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -1436,7 +1474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -1468,7 +1506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -1500,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -1532,7 +1570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -1564,7 +1602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -1596,97 +1634,277 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="1">
+        <v>30007</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="1">
+        <v>30007</v>
+      </c>
+      <c r="D23" s="1">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="1">
+        <v>30007</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="1">
+        <v>30008</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L25" s="1">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="1">
+        <v>30008</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2</v>
+      </c>
+      <c r="E26" s="1">
+        <v>2</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1">
+        <v>30008</v>
+      </c>
+      <c r="D27" s="1">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88481B90-9209-40F7-B4B9-7A8AAFC19818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="1" shapeId="0">
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1" shapeId="0">
+    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -506,7 +507,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -849,23 +850,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="10" max="10" width="23.5" customWidth="1"/>
-    <col min="12" max="12" width="17.375" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="26.75" customWidth="1"/>
+    <col min="14" max="14" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -913,7 +914,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -961,7 +962,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1002,7 +1003,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1043,7 +1044,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -1084,7 +1085,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
@@ -1125,7 +1126,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
@@ -1167,7 +1168,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
@@ -1209,7 +1210,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
@@ -1244,7 +1245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
@@ -1279,7 +1280,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
@@ -1314,7 +1315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
@@ -1378,7 +1379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -1474,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -1506,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -1538,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -1570,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -1602,7 +1603,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -1634,7 +1635,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -1669,7 +1670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -1704,7 +1705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -1739,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -1774,7 +1775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -1844,67 +1845,67 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88481B90-9209-40F7-B4B9-7A8AAFC19818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94369ED-E7EB-4F0A-ACFA-C65EB3C3F1F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -501,6 +501,37 @@
   </si>
   <si>
     <t>30|50003,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰袖拂穴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15|50001,20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24|50001,25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35|50001,30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清风拂穴手</t>
+  </si>
+  <si>
+    <t>清风拂穴手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -853,12 +884,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="10" max="10" width="23.44140625" customWidth="1"/>
     <col min="12" max="12" width="17.33203125" customWidth="1"/>
@@ -1849,63 +1881,243 @@
       <c r="A28" s="1">
         <v>40026</v>
       </c>
+      <c r="B28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="1">
+        <v>30009</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L28" s="1">
+        <v>5</v>
+      </c>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
+      <c r="B29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="1">
+        <v>30009</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L29" s="1">
+        <v>5</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
+      <c r="B30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="1">
+        <v>30009</v>
+      </c>
+      <c r="D30" s="1">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L30" s="1">
+        <v>5</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
+      <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="1">
+        <v>30010</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="1">
+        <v>15</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L31" s="1">
+        <v>5</v>
+      </c>
+      <c r="M31" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="1">
+        <v>30010</v>
+      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>2</v>
+      </c>
+      <c r="F32" s="1">
+        <v>1</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J32" s="1">
+        <v>24</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L32" s="1">
+        <v>5</v>
+      </c>
+      <c r="M32" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="1">
+        <v>30010</v>
+      </c>
+      <c r="D33" s="1">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J33" s="1">
+        <v>35</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L33" s="1">
+        <v>5</v>
+      </c>
+      <c r="M33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94369ED-E7EB-4F0A-ACFA-C65EB3C3F1F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="K2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="L2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="M2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="N2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -532,13 +531,37 @@
   </si>
   <si>
     <t>2,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大浪千叠手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50016,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50016,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏剑术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardBuff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -881,24 +904,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
+    <col min="10" max="10" width="23.5" customWidth="1"/>
+    <col min="12" max="12" width="17.375" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="26.77734375" customWidth="1"/>
+    <col min="14" max="14" width="26.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -941,12 +964,14 @@
       <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -989,12 +1014,14 @@
       <c r="N2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1035,7 +1062,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1076,7 +1103,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -1117,7 +1144,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
@@ -1158,7 +1185,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
@@ -1200,7 +1227,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
@@ -1242,7 +1269,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
@@ -1277,7 +1304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
@@ -1312,7 +1339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
@@ -1347,7 +1374,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1379,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
@@ -1411,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
@@ -1443,7 +1470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
@@ -1475,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -1507,7 +1534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -1539,7 +1566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -1571,7 +1598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -1603,7 +1630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -1635,7 +1662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -1667,7 +1694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -1702,7 +1729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -1737,7 +1764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -1772,7 +1799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -1807,7 +1834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -1842,7 +1869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -1877,7 +1904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -1912,7 +1939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -1947,7 +1974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -1982,7 +2009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -2017,7 +2044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -2052,7 +2079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -2087,40 +2114,203 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="1">
+        <v>30011</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1">
+        <v>30011</v>
+      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="1">
+        <v>30011</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="1">
+        <v>30012</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
+      </c>
+      <c r="L37" s="1">
+        <v>2</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>50017</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="1">
+        <v>30012</v>
+      </c>
+      <c r="D38" s="1">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
+        <v>2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2</v>
+      </c>
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>50017</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="1">
+        <v>30012</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2</v>
+      </c>
+      <c r="I39" s="1">
+        <v>1</v>
+      </c>
+      <c r="L39" s="1">
+        <v>2</v>
+      </c>
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+      <c r="O39">
+        <v>50017</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
+      <c r="M40" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD00756-F58D-47D5-9A4C-2FF6A4D2FDD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="1" shapeId="0">
+    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0">
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0">
+    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1" shapeId="0">
+    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -239,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -555,13 +556,17 @@
   </si>
   <si>
     <t>cardBuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -904,24 +909,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="10" max="10" width="23.5" customWidth="1"/>
-    <col min="12" max="12" width="17.375" customWidth="1"/>
+    <col min="10" max="10" width="23.44140625" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="26.75" customWidth="1"/>
+    <col min="14" max="14" width="26.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +976,7 @@
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1021,7 +1026,7 @@
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1062,7 +1067,7 @@
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1103,7 +1108,7 @@
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -1144,7 +1149,7 @@
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
@@ -1185,7 +1190,7 @@
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
@@ -1227,7 +1232,7 @@
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
@@ -1269,7 +1274,7 @@
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
@@ -1304,7 +1309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
@@ -1339,7 +1344,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
@@ -1374,7 +1379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1406,7 +1411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
@@ -1438,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
@@ -1470,7 +1475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
@@ -1502,7 +1507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -1534,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -1566,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -1598,7 +1603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -1630,7 +1635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -1662,7 +1667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -1694,7 +1699,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -1729,7 +1734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -1764,7 +1769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -1799,7 +1804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -1834,7 +1839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -1869,7 +1874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -1904,7 +1909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -1939,7 +1944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -1974,7 +1979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -2009,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -2044,7 +2049,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -2079,7 +2084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -2114,7 +2119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
@@ -2134,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>76</v>
@@ -2146,7 +2151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
@@ -2166,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>77</v>
@@ -2178,7 +2183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
@@ -2198,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>76</v>
@@ -2210,7 +2215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
@@ -2232,6 +2237,9 @@
       <c r="I37" s="1">
         <v>1</v>
       </c>
+      <c r="J37" s="1">
+        <v>5</v>
+      </c>
       <c r="L37" s="1">
         <v>2</v>
       </c>
@@ -2242,7 +2250,7 @@
         <v>50017</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
@@ -2264,6 +2272,9 @@
       <c r="I38" s="1">
         <v>1</v>
       </c>
+      <c r="J38" s="1">
+        <v>5</v>
+      </c>
       <c r="L38" s="1">
         <v>2</v>
       </c>
@@ -2274,7 +2285,7 @@
         <v>50017</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
@@ -2296,6 +2307,9 @@
       <c r="I39" s="1">
         <v>1</v>
       </c>
+      <c r="J39" s="1">
+        <v>5</v>
+      </c>
       <c r="L39" s="1">
         <v>2</v>
       </c>
@@ -2306,7 +2320,7 @@
         <v>50017</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD00756-F58D-47D5-9A4C-2FF6A4D2FDD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94D5BAA-4D21-4297-AF61-1D6877AEB314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -560,6 +560,33 @@
   </si>
   <si>
     <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>醉卧沙场君莫笑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50008,3|50018,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50008,5|50018,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50008,8|50018,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,14</t>
+  </si>
+  <si>
+    <t>1,14</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -910,10 +937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R40"/>
+  <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2234,8 +2261,8 @@
       <c r="F37" s="1">
         <v>2</v>
       </c>
-      <c r="I37" s="1">
-        <v>1</v>
+      <c r="I37" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J37" s="1">
         <v>5</v>
@@ -2269,8 +2296,8 @@
       <c r="F38" s="1">
         <v>2</v>
       </c>
-      <c r="I38" s="1">
-        <v>1</v>
+      <c r="I38" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="J38" s="1">
         <v>5</v>
@@ -2304,8 +2331,8 @@
       <c r="F39" s="1">
         <v>2</v>
       </c>
-      <c r="I39" s="1">
-        <v>1</v>
+      <c r="I39" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="J39" s="1">
         <v>5</v>
@@ -2324,7 +2351,137 @@
       <c r="A40" s="1">
         <v>40038</v>
       </c>
-      <c r="M40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="1">
+        <v>30013</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J40" t="s">
+        <v>84</v>
+      </c>
+      <c r="L40" s="1">
+        <v>3</v>
+      </c>
+      <c r="M40" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40039</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="1">
+        <v>30013</v>
+      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J41" t="s">
+        <v>85</v>
+      </c>
+      <c r="L41" s="1">
+        <v>3</v>
+      </c>
+      <c r="M41" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40040</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="1">
+        <v>30013</v>
+      </c>
+      <c r="D42" s="1">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J42" t="s">
+        <v>86</v>
+      </c>
+      <c r="L42" s="1">
+        <v>3</v>
+      </c>
+      <c r="M42" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>40041</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>40042</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>40043</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>40044</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>40045</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>40046</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>40047</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>40048</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94D5BAA-4D21-4297-AF61-1D6877AEB314}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB543BF-B664-4913-BC15-7DA9865440C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -551,10 +551,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>cardBuff</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -583,10 +579,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,14</t>
-  </si>
-  <si>
-    <t>1,14</t>
+    <t>1,15,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50017,3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -939,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -997,7 +994,7 @@
         <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -1047,7 +1044,7 @@
         <v>17</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -2166,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J34" s="1" t="s">
         <v>76</v>
@@ -2198,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J35" s="1" t="s">
         <v>77</v>
@@ -2230,7 +2227,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J36" s="1" t="s">
         <v>76</v>
@@ -2262,7 +2259,7 @@
         <v>2</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J37" s="1">
         <v>5</v>
@@ -2273,8 +2270,8 @@
       <c r="M37" s="1">
         <v>1</v>
       </c>
-      <c r="O37">
-        <v>50017</v>
+      <c r="O37" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -2297,7 +2294,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J38" s="1">
         <v>5</v>
@@ -2308,8 +2305,8 @@
       <c r="M38" s="1">
         <v>1</v>
       </c>
-      <c r="O38">
-        <v>50017</v>
+      <c r="O38" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2332,7 +2329,7 @@
         <v>2</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J39" s="1">
         <v>5</v>
@@ -2343,8 +2340,8 @@
       <c r="M39" s="1">
         <v>1</v>
       </c>
-      <c r="O39">
-        <v>50017</v>
+      <c r="O39" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2352,7 +2349,7 @@
         <v>40038</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="1">
         <v>30013</v>
@@ -2367,10 +2364,10 @@
         <v>0</v>
       </c>
       <c r="I40" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J40" t="s">
         <v>83</v>
-      </c>
-      <c r="J40" t="s">
-        <v>84</v>
       </c>
       <c r="L40" s="1">
         <v>3</v>
@@ -2384,7 +2381,7 @@
         <v>40039</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="1">
         <v>30013</v>
@@ -2399,10 +2396,10 @@
         <v>0</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L41" s="1">
         <v>3</v>
@@ -2416,7 +2413,7 @@
         <v>40040</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" s="1">
         <v>30013</v>
@@ -2431,10 +2428,10 @@
         <v>0</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L42" s="1">
         <v>3</v>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -8,17 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB543BF-B664-4913-BC15-7DA9865440C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD56AF8-0F2D-443E-888A-9BB41B7E0862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -31,7 +37,7 @@
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -240,7 +246,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="93">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -312,10 +318,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1,5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -584,6 +586,29 @@
   </si>
   <si>
     <t>50017,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_a_effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>z10060</t>
+  </si>
+  <si>
+    <t>z10060</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_effect_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_eft_jian</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -934,10 +959,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R50"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
+      <selection activeCell="O34" sqref="O34:O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -946,16 +971,17 @@
     <col min="8" max="8" width="17" customWidth="1"/>
     <col min="10" max="10" width="23.44140625" customWidth="1"/>
     <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16" customWidth="1"/>
-    <col min="14" max="14" width="26.77734375" customWidth="1"/>
+    <col min="13" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -991,21 +1017,27 @@
         <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1035,27 +1067,33 @@
         <v>13</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="P2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>30001</v>
@@ -1078,7 +1116,7 @@
         <v>20</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -1086,17 +1124,18 @@
       <c r="M3" s="1">
         <v>1</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
+      <c r="N3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1">
         <v>30001</v>
@@ -1119,7 +1158,7 @@
         <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -1127,17 +1166,18 @@
       <c r="M4" s="1">
         <v>1</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
+      <c r="N4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>30001</v>
@@ -1154,13 +1194,13 @@
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -1168,17 +1208,18 @@
       <c r="M5" s="1">
         <v>1</v>
       </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
+      <c r="N5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <v>30002</v>
@@ -1201,7 +1242,7 @@
         <v>16</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L6" s="1">
         <v>2</v>
@@ -1209,17 +1250,18 @@
       <c r="M6" s="1">
         <v>1</v>
       </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="N6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1">
         <v>30002</v>
@@ -1242,7 +1284,7 @@
         <v>24</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L7" s="1">
         <v>2</v>
@@ -1255,13 +1297,15 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1">
         <v>30002</v>
@@ -1284,7 +1328,7 @@
         <v>32</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L8" s="1">
         <v>2</v>
@@ -1297,13 +1341,15 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="1">
         <v>30003</v>
@@ -1324,7 +1370,7 @@
         <v>18</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L9" s="1">
         <v>1</v>
@@ -1332,13 +1378,14 @@
       <c r="M9" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="1">
         <v>30003</v>
@@ -1359,7 +1406,7 @@
         <v>24</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
@@ -1367,13 +1414,14 @@
       <c r="M10" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
         <v>30003</v>
@@ -1394,7 +1442,7 @@
         <v>30</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L11" s="1">
         <v>1</v>
@@ -1402,13 +1450,14 @@
       <c r="M11" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1">
         <v>30004</v>
@@ -1423,10 +1472,10 @@
         <v>2</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
@@ -1434,13 +1483,14 @@
       <c r="M12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1">
         <v>30004</v>
@@ -1455,10 +1505,10 @@
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L13" s="1">
         <v>1</v>
@@ -1466,13 +1516,14 @@
       <c r="M13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <v>30004</v>
@@ -1487,10 +1538,10 @@
         <v>2</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L14" s="1">
         <v>1</v>
@@ -1498,13 +1549,14 @@
       <c r="M14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1">
         <v>30004</v>
@@ -1519,10 +1571,10 @@
         <v>2</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L15" s="1">
         <v>1</v>
@@ -1530,13 +1582,14 @@
       <c r="M15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="1">
         <v>30005</v>
@@ -1551,10 +1604,10 @@
         <v>2</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L16" s="1">
         <v>2</v>
@@ -1562,13 +1615,14 @@
       <c r="M16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C17" s="1">
         <v>30005</v>
@@ -1583,10 +1637,10 @@
         <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L17" s="1">
         <v>2</v>
@@ -1594,13 +1648,14 @@
       <c r="M17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C18" s="1">
         <v>30005</v>
@@ -1615,10 +1670,10 @@
         <v>2</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L18" s="1">
         <v>2</v>
@@ -1626,13 +1681,14 @@
       <c r="M18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1">
         <v>30005</v>
@@ -1647,10 +1703,10 @@
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L19" s="1">
         <v>2</v>
@@ -1658,13 +1714,14 @@
       <c r="M19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1">
         <v>30006</v>
@@ -1679,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L20" s="1">
         <v>1</v>
@@ -1690,13 +1747,14 @@
       <c r="M20" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1">
         <v>30006</v>
@@ -1711,10 +1769,10 @@
         <v>1</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L21" s="1">
         <v>1</v>
@@ -1722,13 +1780,14 @@
       <c r="M21" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1">
         <v>30007</v>
@@ -1743,13 +1802,13 @@
         <v>1</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L22" s="1">
         <v>1</v>
@@ -1757,13 +1816,14 @@
       <c r="M22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1">
         <v>30007</v>
@@ -1778,13 +1838,13 @@
         <v>1</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="K23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L23" s="1">
         <v>1</v>
@@ -1792,13 +1852,14 @@
       <c r="M23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1">
         <v>30007</v>
@@ -1813,13 +1874,13 @@
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L24" s="1">
         <v>1</v>
@@ -1827,13 +1888,14 @@
       <c r="M24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1">
         <v>30008</v>
@@ -1848,13 +1910,13 @@
         <v>1</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L25" s="1">
         <v>2</v>
@@ -1862,13 +1924,14 @@
       <c r="M25" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1">
         <v>30008</v>
@@ -1883,13 +1946,13 @@
         <v>1</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L26" s="1">
         <v>2</v>
@@ -1897,13 +1960,14 @@
       <c r="M26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1">
         <v>30008</v>
@@ -1918,13 +1982,13 @@
         <v>1</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L27" s="1">
         <v>2</v>
@@ -1932,13 +1996,14 @@
       <c r="M27" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C28" s="1">
         <v>30009</v>
@@ -1953,13 +2018,13 @@
         <v>1</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="K28" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L28" s="1">
         <v>5</v>
@@ -1967,13 +2032,14 @@
       <c r="M28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="1">
         <v>30009</v>
@@ -1988,13 +2054,13 @@
         <v>1</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L29" s="1">
         <v>5</v>
@@ -2002,13 +2068,14 @@
       <c r="M29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="1">
         <v>30009</v>
@@ -2023,13 +2090,13 @@
         <v>1</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L30" s="1">
         <v>5</v>
@@ -2037,13 +2104,14 @@
       <c r="M30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C31" s="1">
         <v>30010</v>
@@ -2058,13 +2126,13 @@
         <v>1</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J31" s="1">
         <v>15</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L31" s="1">
         <v>5</v>
@@ -2072,13 +2140,14 @@
       <c r="M31" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="1">
         <v>30010</v>
@@ -2093,13 +2162,13 @@
         <v>1</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J32" s="1">
         <v>24</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L32" s="1">
         <v>5</v>
@@ -2107,13 +2176,14 @@
       <c r="M32" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33" s="1">
         <v>30010</v>
@@ -2128,13 +2198,13 @@
         <v>1</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J33" s="1">
         <v>35</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L33" s="1">
         <v>5</v>
@@ -2142,13 +2212,14 @@
       <c r="M33" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" s="1">
         <v>30011</v>
@@ -2163,10 +2234,10 @@
         <v>0</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L34" s="1">
         <v>1</v>
@@ -2174,13 +2245,19 @@
       <c r="M34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="1">
         <v>30011</v>
@@ -2195,10 +2272,10 @@
         <v>0</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L35" s="1">
         <v>1</v>
@@ -2206,13 +2283,19 @@
       <c r="M35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="1">
         <v>30011</v>
@@ -2227,10 +2310,10 @@
         <v>0</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L36" s="1">
         <v>1</v>
@@ -2238,13 +2321,19 @@
       <c r="M36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="1">
         <v>30012</v>
@@ -2259,7 +2348,7 @@
         <v>2</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J37" s="1">
         <v>5</v>
@@ -2270,16 +2359,22 @@
       <c r="M37" s="1">
         <v>1</v>
       </c>
-      <c r="O37" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P37" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C38" s="1">
         <v>30012</v>
@@ -2294,7 +2389,7 @@
         <v>2</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J38" s="1">
         <v>5</v>
@@ -2305,16 +2400,22 @@
       <c r="M38" s="1">
         <v>1</v>
       </c>
-      <c r="O38" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P38" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C39" s="1">
         <v>30012</v>
@@ -2329,7 +2430,7 @@
         <v>2</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J39" s="1">
         <v>5</v>
@@ -2340,16 +2441,22 @@
       <c r="M39" s="1">
         <v>1</v>
       </c>
-      <c r="O39" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="P39" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="1">
         <v>30013</v>
@@ -2364,10 +2471,10 @@
         <v>0</v>
       </c>
       <c r="I40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J40" t="s">
         <v>82</v>
-      </c>
-      <c r="J40" t="s">
-        <v>83</v>
       </c>
       <c r="L40" s="1">
         <v>3</v>
@@ -2375,13 +2482,14 @@
       <c r="M40" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="1">
         <v>30013</v>
@@ -2396,10 +2504,10 @@
         <v>0</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="L41" s="1">
         <v>3</v>
@@ -2407,13 +2515,14 @@
       <c r="M41" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="1">
         <v>30013</v>
@@ -2428,10 +2537,10 @@
         <v>0</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L42" s="1">
         <v>3</v>
@@ -2439,33 +2548,34 @@
       <c r="M42" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD56AF8-0F2D-443E-888A-9BB41B7E0862}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,13 +30,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -64,7 +63,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -106,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="M2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -135,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -169,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="Q2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -246,7 +245,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="104">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -609,13 +608,57 @@
   </si>
   <si>
     <t>skill_eft_jian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙战于野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙摆尾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜龙勿用</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -958,25 +1001,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34:O39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="10" max="10" width="23.44140625" customWidth="1"/>
-    <col min="12" max="12" width="17.33203125" customWidth="1"/>
-    <col min="13" max="14" width="16" customWidth="1"/>
-    <col min="15" max="15" width="14" customWidth="1"/>
-    <col min="16" max="16" width="14.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="8" max="10" width="17" customWidth="1"/>
+    <col min="12" max="12" width="23.5" customWidth="1"/>
+    <col min="14" max="14" width="17.375" customWidth="1"/>
+    <col min="15" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="14" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1008,31 +1051,37 @@
         <v>11</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>90</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
       <c r="T1" s="1"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1058,37 +1107,43 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
       <c r="T2" s="1"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1109,28 +1164,30 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1">
         <v>20</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="1">
-        <v>1</v>
-      </c>
-      <c r="M3" s="1">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+      <c r="P3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1151,28 +1208,30 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="1">
-        <v>1</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
         <v>30</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="1">
-        <v>1</v>
-      </c>
-      <c r="M4" s="1">
-        <v>1</v>
-      </c>
-      <c r="N4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -1193,28 +1252,30 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="1">
-        <v>1</v>
-      </c>
-      <c r="M5" s="1">
-        <v>1</v>
-      </c>
-      <c r="N5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
@@ -1235,28 +1296,30 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="1">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
         <v>16</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L6" s="1">
-        <v>2</v>
-      </c>
-      <c r="M6" s="1">
-        <v>1</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="N6" s="1">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
@@ -1277,30 +1340,32 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
         <v>24</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L7" s="1">
-        <v>2</v>
-      </c>
-      <c r="M7" s="1">
-        <v>1</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
@@ -1321,30 +1386,32 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
         <v>32</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="1">
-        <v>2</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1</v>
-      </c>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
+      <c r="N8" s="1">
+        <v>2</v>
+      </c>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
@@ -1363,24 +1430,24 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="I9" s="1">
+      <c r="K9" s="1">
         <v>5</v>
       </c>
-      <c r="J9" s="1">
+      <c r="L9" s="1">
         <v>18</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L9" s="1">
-        <v>1</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1">
         <v>4</v>
       </c>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
@@ -1399,24 +1466,24 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="I10" s="1">
+      <c r="K10" s="1">
         <v>5</v>
       </c>
-      <c r="J10" s="1">
+      <c r="L10" s="1">
         <v>24</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L10" s="1">
-        <v>1</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
         <v>4</v>
       </c>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
@@ -1435,24 +1502,24 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="I11" s="1">
+      <c r="K11" s="1">
         <v>5</v>
       </c>
-      <c r="J11" s="1">
+      <c r="L11" s="1">
         <v>30</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="L11" s="1">
-        <v>1</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1">
         <v>4</v>
       </c>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1471,21 +1538,21 @@
       <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J12" t="s">
+      <c r="L12" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1">
-        <v>1</v>
-      </c>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
@@ -1504,21 +1571,21 @@
       <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="K13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>46</v>
       </c>
-      <c r="L13" s="1">
-        <v>1</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
@@ -1537,21 +1604,21 @@
       <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="K14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>47</v>
       </c>
-      <c r="L14" s="1">
-        <v>1</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1</v>
-      </c>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
@@ -1570,21 +1637,21 @@
       <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="J15" t="s">
+      <c r="L15" t="s">
         <v>48</v>
       </c>
-      <c r="L15" s="1">
-        <v>1</v>
-      </c>
-      <c r="M15" s="1">
-        <v>1</v>
-      </c>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -1603,21 +1670,21 @@
       <c r="F16" s="1">
         <v>2</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J16" t="s">
+      <c r="L16" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="1">
-        <v>2</v>
-      </c>
-      <c r="M16" s="1">
-        <v>1</v>
-      </c>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N16" s="1">
+        <v>2</v>
+      </c>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -1636,21 +1703,21 @@
       <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J17" t="s">
+      <c r="L17" t="s">
         <v>49</v>
       </c>
-      <c r="L17" s="1">
-        <v>2</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1</v>
-      </c>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N17" s="1">
+        <v>2</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -1669,21 +1736,21 @@
       <c r="F18" s="1">
         <v>2</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J18" t="s">
+      <c r="L18" t="s">
         <v>50</v>
       </c>
-      <c r="L18" s="1">
-        <v>2</v>
-      </c>
-      <c r="M18" s="1">
-        <v>1</v>
-      </c>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N18" s="1">
+        <v>2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -1702,21 +1769,21 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="K19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J19" t="s">
+      <c r="L19" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="1">
-        <v>2</v>
-      </c>
-      <c r="M19" s="1">
-        <v>1</v>
-      </c>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N19" s="1">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -1735,21 +1802,21 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J20" t="s">
+      <c r="L20" t="s">
         <v>53</v>
       </c>
-      <c r="L20" s="1">
-        <v>1</v>
-      </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1">
         <v>4</v>
       </c>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -1768,21 +1835,21 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J21" t="s">
+      <c r="L21" t="s">
         <v>54</v>
       </c>
-      <c r="L21" s="1">
-        <v>1</v>
-      </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
+        <v>1</v>
+      </c>
+      <c r="O21" s="1">
         <v>4</v>
       </c>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -1801,24 +1868,24 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="K22" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="M22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L22" s="1">
-        <v>1</v>
-      </c>
-      <c r="M22" s="1">
-        <v>1</v>
-      </c>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N22" s="1">
+        <v>1</v>
+      </c>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -1837,24 +1904,24 @@
       <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="K23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L23" s="1">
-        <v>1</v>
-      </c>
-      <c r="M23" s="1">
-        <v>1</v>
-      </c>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N23" s="1">
+        <v>1</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1"/>
+    </row>
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -1873,24 +1940,24 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="K24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="M24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L24" s="1">
-        <v>1</v>
-      </c>
-      <c r="M24" s="1">
-        <v>1</v>
-      </c>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N24" s="1">
+        <v>1</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+      <c r="P24" s="1"/>
+    </row>
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -1909,24 +1976,24 @@
       <c r="F25" s="1">
         <v>1</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="K25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L25" s="1">
-        <v>2</v>
-      </c>
-      <c r="M25" s="1">
-        <v>2</v>
-      </c>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N25" s="1">
+        <v>2</v>
+      </c>
+      <c r="O25" s="1">
+        <v>2</v>
+      </c>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -1945,24 +2012,24 @@
       <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="K26" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L26" s="1">
-        <v>2</v>
-      </c>
-      <c r="M26" s="1">
-        <v>2</v>
-      </c>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N26" s="1">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>2</v>
+      </c>
+      <c r="P26" s="1"/>
+    </row>
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -1981,24 +2048,24 @@
       <c r="F27" s="1">
         <v>1</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="K27" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="M27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="1">
-        <v>2</v>
-      </c>
-      <c r="M27" s="1">
-        <v>2</v>
-      </c>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N27" s="1">
+        <v>2</v>
+      </c>
+      <c r="O27" s="1">
+        <v>2</v>
+      </c>
+      <c r="P27" s="1"/>
+    </row>
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -2017,24 +2084,24 @@
       <c r="F28" s="1">
         <v>1</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="K28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="M28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="1">
+      <c r="N28" s="1">
         <v>5</v>
       </c>
-      <c r="M28" s="1">
-        <v>1</v>
-      </c>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+      <c r="P28" s="1"/>
+    </row>
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -2053,24 +2120,24 @@
       <c r="F29" s="1">
         <v>1</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="K29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L29" s="1">
+      <c r="N29" s="1">
         <v>5</v>
       </c>
-      <c r="M29" s="1">
-        <v>1</v>
-      </c>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+      <c r="P29" s="1"/>
+    </row>
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -2089,24 +2156,24 @@
       <c r="F30" s="1">
         <v>1</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="M30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L30" s="1">
+      <c r="N30" s="1">
         <v>5</v>
       </c>
-      <c r="M30" s="1">
-        <v>1</v>
-      </c>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="1"/>
+    </row>
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -2125,24 +2192,24 @@
       <c r="F31" s="1">
         <v>1</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="K31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J31" s="1">
+      <c r="L31" s="1">
         <v>15</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="M31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L31" s="1">
+      <c r="N31" s="1">
         <v>5</v>
       </c>
-      <c r="M31" s="1">
+      <c r="O31" s="1">
         <v>4</v>
       </c>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P31" s="1"/>
+    </row>
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -2161,24 +2228,24 @@
       <c r="F32" s="1">
         <v>1</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="K32" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J32" s="1">
+      <c r="L32" s="1">
         <v>24</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="M32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L32" s="1">
+      <c r="N32" s="1">
         <v>5</v>
       </c>
-      <c r="M32" s="1">
+      <c r="O32" s="1">
         <v>4</v>
       </c>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P32" s="1"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -2197,24 +2264,24 @@
       <c r="F33" s="1">
         <v>1</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="J33" s="1">
+      <c r="L33" s="1">
         <v>35</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="L33" s="1">
+      <c r="N33" s="1">
         <v>5</v>
       </c>
-      <c r="M33" s="1">
+      <c r="O33" s="1">
         <v>4</v>
       </c>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
@@ -2233,26 +2300,26 @@
       <c r="F34" s="1">
         <v>0</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L34" s="1">
-        <v>1</v>
-      </c>
-      <c r="M34" s="1">
-        <v>1</v>
-      </c>
-      <c r="N34" s="1" t="s">
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P34" t="s">
+      <c r="R34" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
@@ -2271,26 +2338,26 @@
       <c r="F35" s="1">
         <v>0</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="L35" s="1">
-        <v>1</v>
-      </c>
-      <c r="M35" s="1">
-        <v>1</v>
-      </c>
-      <c r="N35" s="1" t="s">
+      <c r="N35" s="1">
+        <v>1</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P35" t="s">
+      <c r="R35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
@@ -2309,26 +2376,26 @@
       <c r="F36" s="1">
         <v>0</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L36" s="1">
-        <v>1</v>
-      </c>
-      <c r="M36" s="1">
-        <v>1</v>
-      </c>
-      <c r="N36" s="1" t="s">
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P36" t="s">
+      <c r="R36" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
@@ -2347,29 +2414,29 @@
       <c r="F37" s="1">
         <v>2</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J37" s="1">
+      <c r="L37" s="1">
         <v>5</v>
       </c>
-      <c r="L37" s="1">
-        <v>2</v>
-      </c>
-      <c r="M37" s="1">
-        <v>1</v>
-      </c>
-      <c r="N37" s="1" t="s">
+      <c r="N37" s="1">
+        <v>2</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+      <c r="P37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P37" t="s">
+      <c r="R37" t="s">
         <v>88</v>
       </c>
-      <c r="Q37" t="s">
+      <c r="S37" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
@@ -2388,29 +2455,29 @@
       <c r="F38" s="1">
         <v>2</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J38" s="1">
+      <c r="L38" s="1">
         <v>5</v>
       </c>
-      <c r="L38" s="1">
-        <v>2</v>
-      </c>
-      <c r="M38" s="1">
-        <v>1</v>
-      </c>
-      <c r="N38" s="1" t="s">
+      <c r="N38" s="1">
+        <v>2</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P38" t="s">
+      <c r="R38" t="s">
         <v>88</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="S38" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
@@ -2429,29 +2496,29 @@
       <c r="F39" s="1">
         <v>2</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="J39" s="1">
+      <c r="L39" s="1">
         <v>5</v>
       </c>
-      <c r="L39" s="1">
-        <v>2</v>
-      </c>
-      <c r="M39" s="1">
-        <v>1</v>
-      </c>
-      <c r="N39" s="1" t="s">
+      <c r="N39" s="1">
+        <v>2</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+      <c r="P39" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P39" t="s">
+      <c r="R39" t="s">
         <v>88</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="S39" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
@@ -2470,21 +2537,21 @@
       <c r="F40" s="1">
         <v>0</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>82</v>
       </c>
-      <c r="L40" s="1">
+      <c r="N40" s="1">
         <v>3</v>
       </c>
-      <c r="M40" s="1">
+      <c r="O40" s="1">
         <v>12</v>
       </c>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
@@ -2503,21 +2570,21 @@
       <c r="F41" s="1">
         <v>0</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J41" t="s">
+      <c r="L41" t="s">
         <v>83</v>
       </c>
-      <c r="L41" s="1">
+      <c r="N41" s="1">
         <v>3</v>
       </c>
-      <c r="M41" s="1">
+      <c r="O41" s="1">
         <v>12</v>
       </c>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
@@ -2536,58 +2603,313 @@
       <c r="F42" s="1">
         <v>0</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="J42" t="s">
+      <c r="L42" t="s">
         <v>84</v>
       </c>
-      <c r="L42" s="1">
+      <c r="N42" s="1">
         <v>3</v>
       </c>
-      <c r="M42" s="1">
+      <c r="O42" s="1">
         <v>12</v>
       </c>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="1">
+        <v>30014</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N43" s="1">
+        <v>1</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="1">
+        <v>30014</v>
+      </c>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="1">
+        <v>30014</v>
+      </c>
+      <c r="D45" s="1">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N45" s="1">
+        <v>1</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="1">
+        <v>30015</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="1">
+        <v>30015</v>
+      </c>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="1">
+        <v>30015</v>
+      </c>
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40047</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="1">
+        <v>30016</v>
+      </c>
+      <c r="D49" s="1">
+        <v>1</v>
+      </c>
+      <c r="E49" s="1">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N49" s="1">
+        <v>1</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40048</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="1">
+        <v>30016</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N50" s="1">
+        <v>1</v>
+      </c>
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>40049</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="1">
+        <v>30016</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="N51" s="1">
+        <v>1</v>
+      </c>
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>40050</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>40051</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>40052</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>40053</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>40054</v>
       </c>
     </row>
   </sheetData>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA154D8-15E5-4866-9AC4-DAC3153B751E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,24 +20,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -79,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -105,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0">
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -168,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -210,11 +205,12 @@
 17.护盾所有人
 18.治疗所有人
 19.特殊效果所有人。
+20.敌人的最后一人
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0">
+    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -658,7 +654,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1001,25 +997,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I47" sqref="I47"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="L45" sqref="L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="8" max="10" width="17" customWidth="1"/>
-    <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="14" max="14" width="17.375" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
     <col min="15" max="16" width="16" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1077,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1143,7 +1139,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1187,7 +1183,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1231,7 +1227,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -1275,7 +1271,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
@@ -1319,7 +1315,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
@@ -1365,7 +1361,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
@@ -1411,7 +1407,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
@@ -1447,7 +1443,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
@@ -1483,7 +1479,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
@@ -1519,7 +1515,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1552,7 +1548,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
@@ -1585,7 +1581,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
@@ -1618,7 +1614,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
@@ -1651,7 +1647,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -1684,7 +1680,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -1717,7 +1713,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -1750,7 +1746,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -1783,7 +1779,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -1816,7 +1812,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -1849,7 +1845,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -1885,7 +1881,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -1921,7 +1917,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -1957,7 +1953,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -1993,7 +1989,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -2029,7 +2025,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -2065,7 +2061,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -2101,7 +2097,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -2137,7 +2133,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -2173,7 +2169,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -2209,7 +2205,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -2245,7 +2241,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -2281,7 +2277,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
@@ -2319,7 +2315,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
@@ -2357,7 +2353,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
@@ -2395,7 +2391,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
@@ -2436,7 +2432,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
@@ -2477,7 +2473,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
@@ -2518,7 +2514,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
@@ -2551,7 +2547,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
@@ -2584,7 +2580,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
@@ -2617,7 +2613,7 @@
       </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
@@ -2652,7 +2648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
@@ -2687,7 +2683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
@@ -2722,7 +2718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
@@ -2742,7 +2738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
@@ -2762,7 +2758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>
@@ -2782,7 +2778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40047</v>
       </c>
@@ -2796,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="E49" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
@@ -2814,10 +2810,10 @@
         <v>1</v>
       </c>
       <c r="O49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40048</v>
       </c>
@@ -2831,7 +2827,7 @@
         <v>2</v>
       </c>
       <c r="E50" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
@@ -2849,10 +2845,10 @@
         <v>1</v>
       </c>
       <c r="O50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40049</v>
       </c>
@@ -2866,7 +2862,7 @@
         <v>3</v>
       </c>
       <c r="E51" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
@@ -2884,30 +2880,30 @@
         <v>1</v>
       </c>
       <c r="O51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40050</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40051</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40052</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40053</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40054</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA154D8-15E5-4866-9AC4-DAC3153B751E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="M2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="Q2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -241,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="108">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -648,13 +647,29 @@
   </si>
   <si>
     <t>潜龙勿用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐尸神掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -997,25 +1012,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="8" max="10" width="17" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.5" customWidth="1"/>
+    <col min="14" max="14" width="17.375" customWidth="1"/>
     <col min="15" max="16" width="16" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1077,7 +1092,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1139,7 +1154,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1183,7 +1198,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1227,7 +1242,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -1271,7 +1286,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
@@ -1315,7 +1330,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
@@ -1361,7 +1376,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
@@ -1407,7 +1422,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
@@ -1443,7 +1458,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
@@ -1479,7 +1494,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
@@ -1515,7 +1530,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1548,7 +1563,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
@@ -1581,7 +1596,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
@@ -1614,7 +1629,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
@@ -1647,7 +1662,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -1680,7 +1695,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -1713,7 +1728,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -1746,7 +1761,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -1779,7 +1794,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -1812,7 +1827,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -1845,7 +1860,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -1881,7 +1896,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -1917,7 +1932,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -1953,7 +1968,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -1989,7 +2004,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -2025,7 +2040,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -2061,7 +2076,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -2097,7 +2112,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -2133,7 +2148,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -2169,7 +2184,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -2205,7 +2220,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -2241,7 +2256,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -2277,7 +2292,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
@@ -2315,7 +2330,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
@@ -2353,7 +2368,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
@@ -2391,7 +2406,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
@@ -2432,7 +2447,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
@@ -2473,7 +2488,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
@@ -2514,7 +2529,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
@@ -2547,7 +2562,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
@@ -2580,7 +2595,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
@@ -2613,7 +2628,7 @@
       </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
@@ -2648,7 +2663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
@@ -2683,7 +2698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
@@ -2718,7 +2733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
@@ -2738,7 +2753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
@@ -2758,7 +2773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>
@@ -2778,7 +2793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40047</v>
       </c>
@@ -2813,7 +2828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40048</v>
       </c>
@@ -2848,7 +2863,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40049</v>
       </c>
@@ -2883,29 +2898,189 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40050</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="1">
+        <v>30017</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="L52" s="1">
+        <v>30</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N52" s="1">
+        <v>1</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40051</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" s="1">
+        <v>30017</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L53" s="1">
+        <v>40</v>
+      </c>
+      <c r="M53" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1</v>
+      </c>
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40052</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="1">
+        <v>30017</v>
+      </c>
+      <c r="D54" s="1">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L54" s="1">
+        <v>50</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N54" s="1">
+        <v>1</v>
+      </c>
+      <c r="O54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40053</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40054</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>40055</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>40056</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>40057</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>40058</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>40059</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>40060</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>40061</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>40062</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>40063</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>40064</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>40065</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>40066</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>40067</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>40068</v>
       </c>
     </row>
   </sheetData>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFC3EA2-1AA8-429E-AC76-3C5678E5F6F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0">
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0">
+    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -240,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="130">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -663,13 +664,98 @@
   </si>
   <si>
     <t>1,18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪落昆仑</t>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|50013,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24|50013,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32|50013,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金雁横空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|50014,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24|50014,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32|50014,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞沙扬砾</t>
+  </si>
+  <si>
+    <t>16|50019,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24|50019,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32|50019,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无极剑意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|50020,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24|50020,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32|50020,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回风落雁</t>
+  </si>
+  <si>
+    <t>16|50021,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24|50021,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32|50021,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -728,8 +814,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1012,25 +1109,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="8" max="10" width="17" customWidth="1"/>
-    <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="14" max="14" width="17.375" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
     <col min="15" max="16" width="16" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1092,7 +1189,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1154,7 +1251,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1198,7 +1295,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1242,7 +1339,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -1286,7 +1383,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
@@ -1330,7 +1427,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
@@ -1376,7 +1473,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
@@ -1422,7 +1519,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
@@ -1458,7 +1555,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
@@ -1494,7 +1591,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
@@ -1530,7 +1627,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1563,7 +1660,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
@@ -1596,7 +1693,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
@@ -1629,7 +1726,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
@@ -1662,7 +1759,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -1695,7 +1792,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -1728,7 +1825,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -1761,7 +1858,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -1794,7 +1891,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -1827,7 +1924,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -1860,7 +1957,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -1896,7 +1993,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -1932,7 +2029,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -1968,7 +2065,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -2004,7 +2101,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -2040,7 +2137,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -2076,7 +2173,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -2112,7 +2209,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -2148,7 +2245,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -2184,7 +2281,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -2220,7 +2317,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -2256,7 +2353,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -2292,7 +2389,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
@@ -2330,7 +2427,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
@@ -2368,7 +2465,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
@@ -2406,7 +2503,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
@@ -2447,7 +2544,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
@@ -2488,7 +2585,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
@@ -2529,7 +2626,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
@@ -2562,7 +2659,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
@@ -2595,7 +2692,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
@@ -2628,7 +2725,7 @@
       </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
@@ -2663,7 +2760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
@@ -2698,7 +2795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
@@ -2733,7 +2830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
@@ -2753,7 +2850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
@@ -2773,7 +2870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>
@@ -2793,7 +2890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40047</v>
       </c>
@@ -2828,7 +2925,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40048</v>
       </c>
@@ -2863,7 +2960,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40049</v>
       </c>
@@ -2898,7 +2995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40050</v>
       </c>
@@ -2921,7 +3018,7 @@
         <v>105</v>
       </c>
       <c r="L52" s="1">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>33</v>
@@ -2933,7 +3030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40051</v>
       </c>
@@ -2956,7 +3053,7 @@
         <v>106</v>
       </c>
       <c r="L53" s="1">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>34</v>
@@ -2968,7 +3065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40052</v>
       </c>
@@ -2991,7 +3088,7 @@
         <v>107</v>
       </c>
       <c r="L54" s="1">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>34</v>
@@ -3003,82 +3100,592 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40053</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="3">
+        <v>30018</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>2</v>
+      </c>
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N55" s="3">
+        <v>2</v>
+      </c>
+      <c r="O55" s="3">
+        <v>1</v>
+      </c>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40054</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" s="3">
+        <v>30018</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2</v>
+      </c>
+      <c r="E56" s="3">
+        <v>2</v>
+      </c>
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N56" s="3">
+        <v>2</v>
+      </c>
+      <c r="O56" s="3">
+        <v>1</v>
+      </c>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40055</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="3">
+        <v>30018</v>
+      </c>
+      <c r="D57" s="3">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N57" s="3">
+        <v>2</v>
+      </c>
+      <c r="O57" s="3">
+        <v>1</v>
+      </c>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40056</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B58" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="3">
+        <v>30019</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3">
+        <v>2</v>
+      </c>
+      <c r="F58" s="3">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N58" s="3">
+        <v>2</v>
+      </c>
+      <c r="O58" s="3">
+        <v>1</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40057</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B59" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C59" s="3">
+        <v>30019</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N59" s="3">
+        <v>2</v>
+      </c>
+      <c r="O59" s="3">
+        <v>1</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40058</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="3">
+        <v>30019</v>
+      </c>
+      <c r="D60" s="3">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N60" s="3">
+        <v>2</v>
+      </c>
+      <c r="O60" s="3">
+        <v>1</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40059</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="3">
+        <v>30020</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N61" s="3">
+        <v>2</v>
+      </c>
+      <c r="O61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40060</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B62" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="3">
+        <v>30020</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N62" s="3">
+        <v>2</v>
+      </c>
+      <c r="O62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40061</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" s="3">
+        <v>30020</v>
+      </c>
+      <c r="D63" s="3">
+        <v>3</v>
+      </c>
+      <c r="E63" s="3">
+        <v>3</v>
+      </c>
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N63" s="3">
+        <v>2</v>
+      </c>
+      <c r="O63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40062</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B64" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="5">
+        <v>30021</v>
+      </c>
+      <c r="D64" s="5">
+        <v>1</v>
+      </c>
+      <c r="E64" s="5">
+        <v>2</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1</v>
+      </c>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N64" s="5">
+        <v>2</v>
+      </c>
+      <c r="O64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40063</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C65" s="5">
+        <v>30021</v>
+      </c>
+      <c r="D65" s="5">
+        <v>2</v>
+      </c>
+      <c r="E65" s="5">
+        <v>2</v>
+      </c>
+      <c r="F65" s="5">
+        <v>1</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="M65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N65" s="5">
+        <v>2</v>
+      </c>
+      <c r="O65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40064</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="5">
+        <v>30021</v>
+      </c>
+      <c r="D66" s="5">
+        <v>3</v>
+      </c>
+      <c r="E66" s="5">
+        <v>3</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1</v>
+      </c>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="M66" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N66" s="5">
+        <v>2</v>
+      </c>
+      <c r="O66" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40065</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B67" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="5">
+        <v>30022</v>
+      </c>
+      <c r="D67" s="5">
+        <v>1</v>
+      </c>
+      <c r="E67" s="5">
+        <v>2</v>
+      </c>
+      <c r="F67" s="5">
+        <v>1</v>
+      </c>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M67" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N67" s="5">
+        <v>2</v>
+      </c>
+      <c r="O67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40066</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B68" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="5">
+        <v>30022</v>
+      </c>
+      <c r="D68" s="5">
+        <v>2</v>
+      </c>
+      <c r="E68" s="5">
+        <v>2</v>
+      </c>
+      <c r="F68" s="5">
+        <v>1</v>
+      </c>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M68" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N68" s="5">
+        <v>2</v>
+      </c>
+      <c r="O68" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40067</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B69" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C69" s="5">
+        <v>30022</v>
+      </c>
+      <c r="D69" s="5">
+        <v>3</v>
+      </c>
+      <c r="E69" s="5">
+        <v>3</v>
+      </c>
+      <c r="F69" s="5">
+        <v>1</v>
+      </c>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M69" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N69" s="5">
+        <v>2</v>
+      </c>
+      <c r="O69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40068</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFC3EA2-1AA8-429E-AC76-3C5678E5F6F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8931AA-142D-4276-B8C9-D5AAA782A882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="147">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -749,6 +749,73 @@
   </si>
   <si>
     <t>32|50021,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸳鸯瓦冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|50009,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30|50009,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40|50009,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荼火掌法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|50010,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30|50010,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40|50010,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枯木逢春</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50004,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钟罩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50005,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血残气丧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50022,10</t>
+  </si>
+  <si>
+    <t>50022,10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1110,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="N85" sqref="N85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3490,7 +3557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40063</v>
       </c>
@@ -3529,7 +3596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40064</v>
       </c>
@@ -3568,7 +3635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40065</v>
       </c>
@@ -3607,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40066</v>
       </c>
@@ -3646,7 +3713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40067</v>
       </c>
@@ -3685,9 +3752,669 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40068</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="6">
+        <v>30023</v>
+      </c>
+      <c r="D70" s="6">
+        <v>1</v>
+      </c>
+      <c r="E70" s="6">
+        <v>1</v>
+      </c>
+      <c r="F70" s="6">
+        <v>1</v>
+      </c>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="L70" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="M70" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N70" s="6">
+        <v>1</v>
+      </c>
+      <c r="O70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>40069</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="6">
+        <v>30023</v>
+      </c>
+      <c r="D71" s="6">
+        <v>2</v>
+      </c>
+      <c r="E71" s="6">
+        <v>1</v>
+      </c>
+      <c r="F71" s="6">
+        <v>1</v>
+      </c>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="L71" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="M71" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N71" s="6">
+        <v>1</v>
+      </c>
+      <c r="O71" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>40070</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="6">
+        <v>30023</v>
+      </c>
+      <c r="D72" s="6">
+        <v>3</v>
+      </c>
+      <c r="E72" s="6">
+        <v>1</v>
+      </c>
+      <c r="F72" s="6">
+        <v>1</v>
+      </c>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="L72" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="M72" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N72" s="6">
+        <v>1</v>
+      </c>
+      <c r="O72" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>40071</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="6">
+        <v>30024</v>
+      </c>
+      <c r="D73" s="6">
+        <v>1</v>
+      </c>
+      <c r="E73" s="6">
+        <v>1</v>
+      </c>
+      <c r="F73" s="6">
+        <v>1</v>
+      </c>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N73" s="6">
+        <v>1</v>
+      </c>
+      <c r="O73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>40072</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C74" s="6">
+        <v>30024</v>
+      </c>
+      <c r="D74" s="6">
+        <v>2</v>
+      </c>
+      <c r="E74" s="6">
+        <v>1</v>
+      </c>
+      <c r="F74" s="6">
+        <v>1</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="L74" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="M74" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N74" s="6">
+        <v>1</v>
+      </c>
+      <c r="O74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>40073</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C75" s="6">
+        <v>30024</v>
+      </c>
+      <c r="D75" s="6">
+        <v>3</v>
+      </c>
+      <c r="E75" s="6">
+        <v>1</v>
+      </c>
+      <c r="F75" s="6">
+        <v>1</v>
+      </c>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="L75" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="M75" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N75" s="6">
+        <v>1</v>
+      </c>
+      <c r="O75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>40074</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C76" s="6">
+        <v>30025</v>
+      </c>
+      <c r="D76" s="6">
+        <v>1</v>
+      </c>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
+      <c r="F76" s="6">
+        <v>0</v>
+      </c>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L76" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M76" s="4"/>
+      <c r="N76" s="6">
+        <v>3</v>
+      </c>
+      <c r="O76" s="6">
+        <v>8</v>
+      </c>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="4"/>
+      <c r="R76" s="4"/>
+      <c r="S76" s="4"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>40075</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C77" s="6">
+        <v>30025</v>
+      </c>
+      <c r="D77" s="6">
+        <v>2</v>
+      </c>
+      <c r="E77" s="6">
+        <v>0</v>
+      </c>
+      <c r="F77" s="6">
+        <v>0</v>
+      </c>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L77" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M77" s="4"/>
+      <c r="N77" s="6">
+        <v>3</v>
+      </c>
+      <c r="O77" s="6">
+        <v>8</v>
+      </c>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>40076</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="6">
+        <v>30025</v>
+      </c>
+      <c r="D78" s="6">
+        <v>3</v>
+      </c>
+      <c r="E78" s="6">
+        <v>0</v>
+      </c>
+      <c r="F78" s="6">
+        <v>0</v>
+      </c>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="L78" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="M78" s="4"/>
+      <c r="N78" s="6">
+        <v>3</v>
+      </c>
+      <c r="O78" s="6">
+        <v>8</v>
+      </c>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>40077</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C79" s="6">
+        <v>30026</v>
+      </c>
+      <c r="D79" s="6">
+        <v>1</v>
+      </c>
+      <c r="E79" s="6">
+        <v>0</v>
+      </c>
+      <c r="F79" s="6">
+        <v>0</v>
+      </c>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="6">
+        <v>10</v>
+      </c>
+      <c r="L79" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M79" s="4"/>
+      <c r="N79" s="6">
+        <v>3</v>
+      </c>
+      <c r="O79" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>40078</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="6">
+        <v>30026</v>
+      </c>
+      <c r="D80" s="6">
+        <v>2</v>
+      </c>
+      <c r="E80" s="6">
+        <v>0</v>
+      </c>
+      <c r="F80" s="6">
+        <v>0</v>
+      </c>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="6">
+        <v>10</v>
+      </c>
+      <c r="L80" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M80" s="4"/>
+      <c r="N80" s="6">
+        <v>3</v>
+      </c>
+      <c r="O80" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>40079</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C81" s="6">
+        <v>30026</v>
+      </c>
+      <c r="D81" s="6">
+        <v>3</v>
+      </c>
+      <c r="E81" s="6">
+        <v>0</v>
+      </c>
+      <c r="F81" s="6">
+        <v>0</v>
+      </c>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="6">
+        <v>10</v>
+      </c>
+      <c r="L81" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M81" s="4"/>
+      <c r="N81" s="6">
+        <v>3</v>
+      </c>
+      <c r="O81" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>40080</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C82" s="6">
+        <v>30027</v>
+      </c>
+      <c r="D82" s="6">
+        <v>1</v>
+      </c>
+      <c r="E82" s="6">
+        <v>0</v>
+      </c>
+      <c r="F82" s="6">
+        <v>0</v>
+      </c>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="6">
+        <v>10</v>
+      </c>
+      <c r="L82" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M82" s="4"/>
+      <c r="N82" s="6">
+        <v>3</v>
+      </c>
+      <c r="O82" s="6">
+        <v>8</v>
+      </c>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>40081</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" s="6">
+        <v>30027</v>
+      </c>
+      <c r="D83" s="6">
+        <v>2</v>
+      </c>
+      <c r="E83" s="6">
+        <v>0</v>
+      </c>
+      <c r="F83" s="6">
+        <v>0</v>
+      </c>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="6">
+        <v>10</v>
+      </c>
+      <c r="L83" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="M83" s="4"/>
+      <c r="N83" s="6">
+        <v>3</v>
+      </c>
+      <c r="O83" s="6">
+        <v>8</v>
+      </c>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>40082</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C84" s="6">
+        <v>30027</v>
+      </c>
+      <c r="D84" s="6">
+        <v>3</v>
+      </c>
+      <c r="E84" s="6">
+        <v>0</v>
+      </c>
+      <c r="F84" s="6">
+        <v>0</v>
+      </c>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="6">
+        <v>10</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="M84" s="4"/>
+      <c r="N84" s="6">
+        <v>3</v>
+      </c>
+      <c r="O84" s="6">
+        <v>8</v>
+      </c>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>40083</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>40084</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>40085</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>40086</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>40087</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>40088</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>40089</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>40090</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>40091</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>40092</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>40093</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>40094</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>40095</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>40096</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>40097</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>40098</v>
       </c>
     </row>
   </sheetData>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8931AA-142D-4276-B8C9-D5AAA782A882}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273BCD44-F9EA-4AE9-AB2C-72379BBB2694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="150">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -816,6 +816,18 @@
   </si>
   <si>
     <t>50022,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50023,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50024,5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1179,8 +1191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="N85" sqref="N85"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2916,6 +2928,18 @@
       <c r="F46" s="1">
         <v>3</v>
       </c>
+      <c r="K46" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="N46" s="6">
+        <v>1</v>
+      </c>
+      <c r="O46" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
@@ -2936,6 +2960,18 @@
       <c r="F47" s="1">
         <v>3</v>
       </c>
+      <c r="K47" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="L47" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="N47" s="6">
+        <v>1</v>
+      </c>
+      <c r="O47" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
@@ -2956,6 +2992,18 @@
       <c r="F48" s="1">
         <v>3</v>
       </c>
+      <c r="K48" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="L48" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="N48" s="6">
+        <v>1</v>
+      </c>
+      <c r="O48" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
@@ -3047,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L51" s="1" t="s">
         <v>101</v>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273BCD44-F9EA-4AE9-AB2C-72379BBB2694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="M2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="Q2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -834,7 +833,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1188,25 +1187,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="8" max="10" width="17" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.5" customWidth="1"/>
+    <col min="14" max="14" width="17.375" customWidth="1"/>
     <col min="15" max="16" width="16" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1267,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1330,7 +1329,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1374,7 +1373,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1418,7 +1417,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -1462,7 +1461,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
@@ -1506,7 +1505,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
@@ -1552,7 +1551,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
@@ -1598,7 +1597,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
@@ -1634,7 +1633,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
@@ -1670,7 +1669,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
@@ -1706,7 +1705,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1739,7 +1738,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
@@ -1772,7 +1771,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
@@ -1805,7 +1804,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
@@ -1838,7 +1837,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -1871,7 +1870,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -1904,7 +1903,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -1937,7 +1936,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -1970,7 +1969,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -2003,7 +2002,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -2036,7 +2035,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -2072,7 +2071,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -2108,7 +2107,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -2144,7 +2143,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -2180,7 +2179,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -2216,7 +2215,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -2252,7 +2251,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -2288,7 +2287,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -2324,7 +2323,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -2360,7 +2359,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -2396,7 +2395,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -2432,7 +2431,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -2468,7 +2467,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
@@ -2506,7 +2505,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
@@ -2544,7 +2543,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
@@ -2582,7 +2581,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
@@ -2623,7 +2622,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
@@ -2664,7 +2663,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
@@ -2705,7 +2704,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
@@ -2738,7 +2737,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
@@ -2771,7 +2770,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
@@ -2804,7 +2803,7 @@
       </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
@@ -2839,7 +2838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
@@ -2874,7 +2873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
@@ -2909,7 +2908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
@@ -2941,7 +2940,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
@@ -2973,7 +2972,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>
@@ -3005,7 +3004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40047</v>
       </c>
@@ -3040,7 +3039,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40048</v>
       </c>
@@ -3075,7 +3074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40049</v>
       </c>
@@ -3110,7 +3109,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40050</v>
       </c>
@@ -3145,7 +3144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40051</v>
       </c>
@@ -3180,7 +3179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40052</v>
       </c>
@@ -3215,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40053</v>
       </c>
@@ -3253,7 +3252,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40054</v>
       </c>
@@ -3291,7 +3290,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40055</v>
       </c>
@@ -3329,7 +3328,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40056</v>
       </c>
@@ -3369,7 +3368,7 @@
       </c>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40057</v>
       </c>
@@ -3409,7 +3408,7 @@
       </c>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40058</v>
       </c>
@@ -3449,7 +3448,7 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40059</v>
       </c>
@@ -3488,7 +3487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40060</v>
       </c>
@@ -3527,7 +3526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40061</v>
       </c>
@@ -3566,7 +3565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40062</v>
       </c>
@@ -3605,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40063</v>
       </c>
@@ -3644,7 +3643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40064</v>
       </c>
@@ -3683,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40065</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40066</v>
       </c>
@@ -3761,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40067</v>
       </c>
@@ -3800,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40068</v>
       </c>
@@ -3839,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>40069</v>
       </c>
@@ -3878,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>40070</v>
       </c>
@@ -3917,7 +3916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>40071</v>
       </c>
@@ -3956,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40072</v>
       </c>
@@ -3995,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40073</v>
       </c>
@@ -4034,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40074</v>
       </c>
@@ -4075,7 +4074,7 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>40075</v>
       </c>
@@ -4116,7 +4115,7 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>40076</v>
       </c>
@@ -4157,7 +4156,7 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>40077</v>
       </c>
@@ -4194,7 +4193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>40078</v>
       </c>
@@ -4231,7 +4230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>40079</v>
       </c>
@@ -4268,7 +4267,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>40080</v>
       </c>
@@ -4307,7 +4306,7 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>40081</v>
       </c>
@@ -4346,7 +4345,7 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>40082</v>
       </c>
@@ -4385,82 +4384,82 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>40083</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>40084</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>40085</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>40086</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>40087</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>40088</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>40089</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>40090</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>40091</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>40092</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>40093</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>40094</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>40095</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>40096</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>40097</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>40098</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -240,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="155">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -827,6 +827,26 @@
   </si>
   <si>
     <t>50024,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大金刚掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|3,30029</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1190,8 +1210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="N91" sqref="N91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4388,16 +4408,118 @@
       <c r="A85" s="6">
         <v>40083</v>
       </c>
+      <c r="B85" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="6">
+        <v>30030</v>
+      </c>
+      <c r="D85" s="6">
+        <v>1</v>
+      </c>
+      <c r="E85" s="6">
+        <v>1</v>
+      </c>
+      <c r="F85" s="6">
+        <v>1</v>
+      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6">
+        <v>1</v>
+      </c>
+      <c r="O85" s="6">
+        <v>1</v>
+      </c>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="4"/>
     </row>
     <row r="86" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>40084</v>
       </c>
+      <c r="B86" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86" s="6">
+        <v>30030</v>
+      </c>
+      <c r="D86" s="6">
+        <v>2</v>
+      </c>
+      <c r="E86" s="6">
+        <v>1</v>
+      </c>
+      <c r="F86" s="6">
+        <v>1</v>
+      </c>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L86" s="6">
+        <v>30</v>
+      </c>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6">
+        <v>1</v>
+      </c>
+      <c r="O86" s="6">
+        <v>1</v>
+      </c>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="4"/>
     </row>
     <row r="87" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>40085</v>
       </c>
+      <c r="B87" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" s="6">
+        <v>30030</v>
+      </c>
+      <c r="D87" s="6">
+        <v>3</v>
+      </c>
+      <c r="E87" s="6">
+        <v>1</v>
+      </c>
+      <c r="F87" s="6">
+        <v>1</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="L87" s="6">
+        <v>40</v>
+      </c>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6">
+        <v>1</v>
+      </c>
+      <c r="O87" s="6">
+        <v>1</v>
+      </c>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="4"/>
     </row>
     <row r="88" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="6">

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A151C111-CA80-4132-8C08-D55870CD93AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0">
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0">
+    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -240,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="151">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -826,14 +827,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>50024,5</t>
+    <t>50034,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1187,25 +1192,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="8" max="10" width="17" customWidth="1"/>
-    <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="14" max="14" width="17.375" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
     <col min="15" max="16" width="16" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1267,7 +1272,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1329,7 +1334,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1352,8 +1357,8 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1">
-        <v>1</v>
+      <c r="K3" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="L3" s="1">
         <v>20</v>
@@ -1373,7 +1378,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1417,7 +1422,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -1461,7 +1466,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
@@ -1505,7 +1510,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
@@ -1551,7 +1556,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
@@ -1597,7 +1602,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
@@ -1633,7 +1638,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
@@ -1669,7 +1674,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
@@ -1705,7 +1710,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1738,7 +1743,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
@@ -1771,7 +1776,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
@@ -1804,7 +1809,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
@@ -1837,7 +1842,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -1870,7 +1875,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -1903,7 +1908,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -1936,7 +1941,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -1969,7 +1974,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -2002,7 +2007,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -2035,7 +2040,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -2071,7 +2076,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -2107,7 +2112,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -2143,7 +2148,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -2179,7 +2184,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -2215,7 +2220,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -2251,7 +2256,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -2287,7 +2292,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -2323,7 +2328,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -2359,7 +2364,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -2395,7 +2400,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -2431,7 +2436,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -2467,7 +2472,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
@@ -2505,7 +2510,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
@@ -2543,7 +2548,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
@@ -2581,7 +2586,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
@@ -2622,7 +2627,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
@@ -2663,7 +2668,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
@@ -2704,7 +2709,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
@@ -2737,7 +2742,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
@@ -2770,7 +2775,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
@@ -2803,7 +2808,7 @@
       </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
@@ -2838,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
@@ -2873,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
@@ -2908,7 +2913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
@@ -2925,13 +2930,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>149</v>
+        <v>150</v>
+      </c>
+      <c r="L46" s="6">
+        <v>20</v>
       </c>
       <c r="N46" s="6">
         <v>1</v>
@@ -2940,7 +2945,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
@@ -2957,13 +2962,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>148</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="N47" s="6">
         <v>1</v>
@@ -2972,7 +2977,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>
@@ -3004,7 +3009,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40047</v>
       </c>
@@ -3039,7 +3044,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40048</v>
       </c>
@@ -3074,7 +3079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40049</v>
       </c>
@@ -3109,7 +3114,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40050</v>
       </c>
@@ -3144,7 +3149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40051</v>
       </c>
@@ -3179,7 +3184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40052</v>
       </c>
@@ -3214,7 +3219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40053</v>
       </c>
@@ -3252,7 +3257,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40054</v>
       </c>
@@ -3290,7 +3295,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40055</v>
       </c>
@@ -3328,7 +3333,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40056</v>
       </c>
@@ -3368,7 +3373,7 @@
       </c>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40057</v>
       </c>
@@ -3408,7 +3413,7 @@
       </c>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40058</v>
       </c>
@@ -3448,7 +3453,7 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40059</v>
       </c>
@@ -3487,7 +3492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40060</v>
       </c>
@@ -3526,7 +3531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40061</v>
       </c>
@@ -3565,7 +3570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40062</v>
       </c>
@@ -3604,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40063</v>
       </c>
@@ -3643,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40064</v>
       </c>
@@ -3682,7 +3687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40065</v>
       </c>
@@ -3721,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40066</v>
       </c>
@@ -3760,7 +3765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40067</v>
       </c>
@@ -3799,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40068</v>
       </c>
@@ -3838,7 +3843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>40069</v>
       </c>
@@ -3877,7 +3882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>40070</v>
       </c>
@@ -3916,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>40071</v>
       </c>
@@ -3955,7 +3960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40072</v>
       </c>
@@ -3994,7 +3999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40073</v>
       </c>
@@ -4033,7 +4038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40074</v>
       </c>
@@ -4074,7 +4079,7 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>40075</v>
       </c>
@@ -4115,7 +4120,7 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>40076</v>
       </c>
@@ -4156,7 +4161,7 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>40077</v>
       </c>
@@ -4193,7 +4198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>40078</v>
       </c>
@@ -4230,7 +4235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>40079</v>
       </c>
@@ -4267,7 +4272,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>40080</v>
       </c>
@@ -4306,7 +4311,7 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
     </row>
-    <row r="83" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>40081</v>
       </c>
@@ -4345,7 +4350,7 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
     </row>
-    <row r="84" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>40082</v>
       </c>
@@ -4384,82 +4389,82 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
     </row>
-    <row r="85" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>40083</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>40084</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>40085</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>40086</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>40087</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>40088</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>40089</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>40090</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>40091</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>40092</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>40093</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>40094</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>40095</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>40096</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>40097</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>40098</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A151C111-CA80-4132-8C08-D55870CD93AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="M2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="Q2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -241,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="155">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -827,18 +826,34 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>50034,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,21</t>
+    <t>50024,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大金刚掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|3,30029</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1192,25 +1207,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="N91" sqref="N91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="8" max="10" width="17" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.5" customWidth="1"/>
+    <col min="14" max="14" width="17.375" customWidth="1"/>
     <col min="15" max="16" width="16" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1287,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1334,7 +1349,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1357,8 +1372,8 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>150</v>
+      <c r="K3" s="1">
+        <v>1</v>
       </c>
       <c r="L3" s="1">
         <v>20</v>
@@ -1378,7 +1393,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1422,7 +1437,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -1466,7 +1481,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
@@ -1510,7 +1525,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
@@ -1556,7 +1571,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
@@ -1602,7 +1617,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
@@ -1638,7 +1653,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
@@ -1674,7 +1689,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
@@ -1710,7 +1725,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1743,7 +1758,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
@@ -1776,7 +1791,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
@@ -1809,7 +1824,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
@@ -1842,7 +1857,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -1875,7 +1890,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -1908,7 +1923,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -1941,7 +1956,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -1974,7 +1989,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -2007,7 +2022,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -2040,7 +2055,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -2076,7 +2091,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -2112,7 +2127,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -2148,7 +2163,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -2184,7 +2199,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -2220,7 +2235,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -2256,7 +2271,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -2292,7 +2307,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -2328,7 +2343,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -2364,7 +2379,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -2400,7 +2415,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -2436,7 +2451,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -2472,7 +2487,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
@@ -2510,7 +2525,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
@@ -2548,7 +2563,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
@@ -2586,7 +2601,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
@@ -2627,7 +2642,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
@@ -2668,7 +2683,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
@@ -2709,7 +2724,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
@@ -2742,7 +2757,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
@@ -2775,7 +2790,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
@@ -2808,7 +2823,7 @@
       </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
@@ -2843,7 +2858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
@@ -2878,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
@@ -2913,7 +2928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
@@ -2930,13 +2945,13 @@
         <v>0</v>
       </c>
       <c r="F46" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="L46" s="6">
-        <v>20</v>
+        <v>148</v>
+      </c>
+      <c r="L46" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="N46" s="6">
         <v>1</v>
@@ -2945,7 +2960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
@@ -2962,13 +2977,13 @@
         <v>0</v>
       </c>
       <c r="F47" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K47" s="6" t="s">
         <v>148</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N47" s="6">
         <v>1</v>
@@ -2977,7 +2992,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>
@@ -3009,7 +3024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40047</v>
       </c>
@@ -3044,7 +3059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40048</v>
       </c>
@@ -3079,7 +3094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40049</v>
       </c>
@@ -3114,7 +3129,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40050</v>
       </c>
@@ -3149,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40051</v>
       </c>
@@ -3184,7 +3199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40052</v>
       </c>
@@ -3219,7 +3234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40053</v>
       </c>
@@ -3257,7 +3272,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40054</v>
       </c>
@@ -3295,7 +3310,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40055</v>
       </c>
@@ -3333,7 +3348,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40056</v>
       </c>
@@ -3373,7 +3388,7 @@
       </c>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40057</v>
       </c>
@@ -3413,7 +3428,7 @@
       </c>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40058</v>
       </c>
@@ -3453,7 +3468,7 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40059</v>
       </c>
@@ -3492,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40060</v>
       </c>
@@ -3531,7 +3546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40061</v>
       </c>
@@ -3570,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40062</v>
       </c>
@@ -3609,7 +3624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40063</v>
       </c>
@@ -3648,7 +3663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40064</v>
       </c>
@@ -3687,7 +3702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40065</v>
       </c>
@@ -3726,7 +3741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40066</v>
       </c>
@@ -3765,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40067</v>
       </c>
@@ -3804,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40068</v>
       </c>
@@ -3843,7 +3858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>40069</v>
       </c>
@@ -3882,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>40070</v>
       </c>
@@ -3921,7 +3936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>40071</v>
       </c>
@@ -3960,7 +3975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40072</v>
       </c>
@@ -3999,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40073</v>
       </c>
@@ -4038,7 +4053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40074</v>
       </c>
@@ -4079,7 +4094,7 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>40075</v>
       </c>
@@ -4120,7 +4135,7 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>40076</v>
       </c>
@@ -4161,7 +4176,7 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>40077</v>
       </c>
@@ -4198,7 +4213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>40078</v>
       </c>
@@ -4235,7 +4250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>40079</v>
       </c>
@@ -4272,7 +4287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>40080</v>
       </c>
@@ -4311,7 +4326,7 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>40081</v>
       </c>
@@ -4350,7 +4365,7 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>40082</v>
       </c>
@@ -4389,82 +4404,184 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>40083</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B85" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="6">
+        <v>30030</v>
+      </c>
+      <c r="D85" s="6">
+        <v>1</v>
+      </c>
+      <c r="E85" s="6">
+        <v>1</v>
+      </c>
+      <c r="F85" s="6">
+        <v>1</v>
+      </c>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="L85" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6">
+        <v>1</v>
+      </c>
+      <c r="O85" s="6">
+        <v>1</v>
+      </c>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="4"/>
+    </row>
+    <row r="86" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>40084</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B86" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C86" s="6">
+        <v>30030</v>
+      </c>
+      <c r="D86" s="6">
+        <v>2</v>
+      </c>
+      <c r="E86" s="6">
+        <v>1</v>
+      </c>
+      <c r="F86" s="6">
+        <v>1</v>
+      </c>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="L86" s="6">
+        <v>30</v>
+      </c>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6">
+        <v>1</v>
+      </c>
+      <c r="O86" s="6">
+        <v>1</v>
+      </c>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="4"/>
+    </row>
+    <row r="87" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>40085</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B87" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" s="6">
+        <v>30030</v>
+      </c>
+      <c r="D87" s="6">
+        <v>3</v>
+      </c>
+      <c r="E87" s="6">
+        <v>1</v>
+      </c>
+      <c r="F87" s="6">
+        <v>1</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="L87" s="6">
+        <v>40</v>
+      </c>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6">
+        <v>1</v>
+      </c>
+      <c r="O87" s="6">
+        <v>1</v>
+      </c>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="4"/>
+    </row>
+    <row r="88" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>40086</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>40087</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>40088</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>40089</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>40090</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>40091</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>40092</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>40093</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>40094</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>40095</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>40096</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>40097</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>40098</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -240,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="164">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -847,6 +847,42 @@
   </si>
   <si>
     <t>20|3,30029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>醉拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|50018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|50018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|50018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50|50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60|60</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1210,8 +1246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="N91" sqref="N91"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4525,15 +4561,123 @@
       <c r="A88" s="6">
         <v>40086</v>
       </c>
+      <c r="B88" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" s="6">
+        <v>30031</v>
+      </c>
+      <c r="D88" s="6">
+        <v>1</v>
+      </c>
+      <c r="E88" s="6">
+        <v>1</v>
+      </c>
+      <c r="F88" s="6">
+        <v>1</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="L88" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6">
+        <v>1</v>
+      </c>
+      <c r="O88" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>40087</v>
       </c>
+      <c r="B89" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C89" s="6">
+        <v>30031</v>
+      </c>
+      <c r="D89" s="6">
+        <v>2</v>
+      </c>
+      <c r="E89" s="6">
+        <v>1</v>
+      </c>
+      <c r="F89" s="6">
+        <v>1</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6">
+        <v>1</v>
+      </c>
+      <c r="O89" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="90" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>40088</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" s="6">
+        <v>30031</v>
+      </c>
+      <c r="D90" s="6">
+        <v>3</v>
+      </c>
+      <c r="E90" s="6">
+        <v>1</v>
+      </c>
+      <c r="F90" s="6">
+        <v>1</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="L90" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6">
+        <v>1</v>
+      </c>
+      <c r="O90" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="15" x14ac:dyDescent="0.25">

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -240,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="165">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -883,6 +883,10 @@
   </si>
   <si>
     <t>60|60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔山打牛</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1247,7 +1251,7 @@
   <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H99" sqref="H99"/>
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4684,15 +4688,111 @@
       <c r="A91" s="6">
         <v>40089</v>
       </c>
+      <c r="B91" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C91" s="6">
+        <v>30032</v>
+      </c>
+      <c r="D91" s="6">
+        <v>1</v>
+      </c>
+      <c r="E91" s="6">
+        <v>1</v>
+      </c>
+      <c r="F91" s="6">
+        <v>1</v>
+      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="6">
+        <v>29</v>
+      </c>
+      <c r="L91" s="6">
+        <v>10</v>
+      </c>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6">
+        <v>1</v>
+      </c>
+      <c r="O91" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>40090</v>
       </c>
+      <c r="B92" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C92" s="6">
+        <v>30032</v>
+      </c>
+      <c r="D92" s="6">
+        <v>2</v>
+      </c>
+      <c r="E92" s="6">
+        <v>2</v>
+      </c>
+      <c r="F92" s="6">
+        <v>1</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="6">
+        <v>29</v>
+      </c>
+      <c r="L92" s="6">
+        <v>20</v>
+      </c>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6">
+        <v>1</v>
+      </c>
+      <c r="O92" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="93" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>40091</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C93" s="6">
+        <v>30032</v>
+      </c>
+      <c r="D93" s="6">
+        <v>3</v>
+      </c>
+      <c r="E93" s="6">
+        <v>2</v>
+      </c>
+      <c r="F93" s="6">
+        <v>1</v>
+      </c>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="6">
+        <v>29</v>
+      </c>
+      <c r="L93" s="6">
+        <v>30</v>
+      </c>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6">
+        <v>1</v>
+      </c>
+      <c r="O93" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="15" x14ac:dyDescent="0.25">

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1251,7 +1251,7 @@
   <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+      <selection activeCell="L87" sqref="L87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09CBD0E-6F0D-454E-96EC-2D94E3C5E7F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0">
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0">
+    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -240,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="172">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -887,13 +888,41 @@
   </si>
   <si>
     <t>隔山打牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24|50012,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|50012,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1247,25 +1276,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="L87" sqref="L87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="8" max="10" width="17" customWidth="1"/>
-    <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="14" max="14" width="17.375" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
     <col min="15" max="16" width="16" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1327,7 +1356,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1389,7 +1418,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1408,15 +1437,19 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
-        <v>20</v>
+      <c r="K3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>33</v>
@@ -1433,7 +1466,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1477,7 +1510,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -1521,7 +1554,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
@@ -1544,11 +1577,11 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1">
-        <v>16</v>
+      <c r="K6" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>36</v>
@@ -1565,7 +1598,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
@@ -1588,11 +1621,11 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
-        <v>24</v>
+      <c r="K7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>166</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>37</v>
@@ -1611,7 +1644,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
@@ -1657,7 +1690,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
@@ -1693,7 +1726,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
@@ -1729,7 +1762,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
@@ -1765,7 +1798,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1798,7 +1831,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
@@ -1831,7 +1864,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
@@ -1864,7 +1897,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
@@ -1897,7 +1930,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -1930,7 +1963,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -1963,7 +1996,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -1996,7 +2029,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -2029,7 +2062,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -2062,7 +2095,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -2095,7 +2128,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -2131,7 +2164,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -2167,7 +2200,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -2203,7 +2236,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -2239,7 +2272,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -2275,7 +2308,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -2311,7 +2344,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -2347,7 +2380,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -2383,7 +2416,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -2419,7 +2452,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -2455,7 +2488,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -2491,7 +2524,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -2527,7 +2560,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
@@ -2565,7 +2598,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
@@ -2603,7 +2636,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
@@ -2641,7 +2674,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
@@ -2682,7 +2715,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
@@ -2723,7 +2756,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
@@ -2764,7 +2797,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
@@ -2797,7 +2830,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
@@ -2830,7 +2863,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
@@ -2863,7 +2896,7 @@
       </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
@@ -2898,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
@@ -2933,7 +2966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
@@ -2968,7 +3001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
@@ -3000,7 +3033,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
@@ -3032,7 +3065,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>
@@ -3064,7 +3097,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40047</v>
       </c>
@@ -3099,7 +3132,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40048</v>
       </c>
@@ -3134,7 +3167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40049</v>
       </c>
@@ -3169,7 +3202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40050</v>
       </c>
@@ -3204,7 +3237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40051</v>
       </c>
@@ -3239,7 +3272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40052</v>
       </c>
@@ -3274,7 +3307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40053</v>
       </c>
@@ -3312,7 +3345,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40054</v>
       </c>
@@ -3350,7 +3383,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40055</v>
       </c>
@@ -3388,7 +3421,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40056</v>
       </c>
@@ -3428,7 +3461,7 @@
       </c>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40057</v>
       </c>
@@ -3468,7 +3501,7 @@
       </c>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40058</v>
       </c>
@@ -3508,7 +3541,7 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40059</v>
       </c>
@@ -3547,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40060</v>
       </c>
@@ -3586,7 +3619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40061</v>
       </c>
@@ -3625,7 +3658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40062</v>
       </c>
@@ -3664,7 +3697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40063</v>
       </c>
@@ -3703,7 +3736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40064</v>
       </c>
@@ -3742,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40065</v>
       </c>
@@ -3781,7 +3814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40066</v>
       </c>
@@ -3820,7 +3853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40067</v>
       </c>
@@ -3859,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40068</v>
       </c>
@@ -3898,7 +3931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>40069</v>
       </c>
@@ -3937,7 +3970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>40070</v>
       </c>
@@ -3976,7 +4009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>40071</v>
       </c>
@@ -4015,7 +4048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40072</v>
       </c>
@@ -4054,7 +4087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40073</v>
       </c>
@@ -4093,7 +4126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40074</v>
       </c>
@@ -4134,7 +4167,7 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>40075</v>
       </c>
@@ -4175,7 +4208,7 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>40076</v>
       </c>
@@ -4216,7 +4249,7 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>40077</v>
       </c>
@@ -4253,7 +4286,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>40078</v>
       </c>
@@ -4290,7 +4323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>40079</v>
       </c>
@@ -4327,7 +4360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>40080</v>
       </c>
@@ -4366,7 +4399,7 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
     </row>
-    <row r="83" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>40081</v>
       </c>
@@ -4405,7 +4438,7 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
     </row>
-    <row r="84" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>40082</v>
       </c>
@@ -4444,7 +4477,7 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
     </row>
-    <row r="85" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>40083</v>
       </c>
@@ -4483,7 +4516,7 @@
       <c r="P85" s="6"/>
       <c r="Q85" s="4"/>
     </row>
-    <row r="86" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>40084</v>
       </c>
@@ -4522,7 +4555,7 @@
       <c r="P86" s="6"/>
       <c r="Q86" s="4"/>
     </row>
-    <row r="87" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>40085</v>
       </c>
@@ -4561,7 +4594,7 @@
       <c r="P87" s="6"/>
       <c r="Q87" s="4"/>
     </row>
-    <row r="88" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>40086</v>
       </c>
@@ -4602,7 +4635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>40087</v>
       </c>
@@ -4643,7 +4676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>40088</v>
       </c>
@@ -4684,7 +4717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>40089</v>
       </c>
@@ -4721,7 +4754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>40090</v>
       </c>
@@ -4758,7 +4791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>40091</v>
       </c>
@@ -4795,37 +4828,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>40092</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>40093</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>40094</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>40095</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>40096</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>40097</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>40098</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09CBD0E-6F0D-454E-96EC-2D94E3C5E7F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6924C50-61B9-4510-8DE6-6B35236665F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -903,19 +903,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20|20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0|0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1280,7 +1280,7 @@
   <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1438,18 +1438,22 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I3" s="1">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>169</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>33</v>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6924C50-61B9-4510-8DE6-6B35236665F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC01031-AAD2-41DB-8D8F-B09389A22A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -899,10 +899,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>16|50012,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0|0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -916,6 +912,10 @@
   </si>
   <si>
     <t>16,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|50010,10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1280,7 +1280,7 @@
   <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1438,10 +1438,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I3" s="1">
         <v>20</v>
@@ -1450,10 +1450,10 @@
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>33</v>
@@ -1585,7 +1585,7 @@
         <v>165</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>36</v>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC01031-AAD2-41DB-8D8F-B09389A22A17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6617515-A81C-4859-9406-5F0B2BF517A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="172">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -313,10 +313,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -915,7 +911,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>16|50010,10</t>
+    <t>16|1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,34</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1280,7 +1280,7 @@
   <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -1341,13 +1341,13 @@
         <v>2</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>5</v>
@@ -1361,7 +1361,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
@@ -1382,10 +1382,10 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>7</v>
@@ -1397,22 +1397,22 @@
         <v>13</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
@@ -1423,7 +1423,7 @@
         <v>40001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>30001</v>
@@ -1438,10 +1438,10 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="I3" s="1">
         <v>20</v>
@@ -1450,13 +1450,13 @@
         <v>2</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
@@ -1475,7 +1475,7 @@
         <v>40002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>30001</v>
@@ -1500,7 +1500,7 @@
         <v>30</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
@@ -1519,7 +1519,7 @@
         <v>40003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" s="1">
         <v>30001</v>
@@ -1537,14 +1537,14 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
-        <v>18</v>
+      <c r="K5" s="1">
+        <v>1</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
@@ -1563,7 +1563,7 @@
         <v>40004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1">
         <v>30002</v>
@@ -1582,13 +1582,13 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="6" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N6" s="1">
         <v>2</v>
@@ -1607,7 +1607,7 @@
         <v>40005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1">
         <v>30002</v>
@@ -1626,13 +1626,13 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="L7" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="M7" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N7" s="1">
         <v>2</v>
@@ -1653,7 +1653,7 @@
         <v>40006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1">
         <v>30002</v>
@@ -1678,7 +1678,7 @@
         <v>32</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N8" s="1">
         <v>2</v>
@@ -1699,7 +1699,7 @@
         <v>40007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1">
         <v>30003</v>
@@ -1720,7 +1720,7 @@
         <v>18</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
@@ -1735,7 +1735,7 @@
         <v>40008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="1">
         <v>30003</v>
@@ -1756,7 +1756,7 @@
         <v>24</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
@@ -1771,7 +1771,7 @@
         <v>40009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>30003</v>
@@ -1792,7 +1792,7 @@
         <v>30</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
@@ -1807,7 +1807,7 @@
         <v>40010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>30004</v>
@@ -1822,10 +1822,10 @@
         <v>2</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
@@ -1840,7 +1840,7 @@
         <v>40011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1">
         <v>30004</v>
@@ -1855,10 +1855,10 @@
         <v>2</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N13" s="1">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>40012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
         <v>30004</v>
@@ -1888,10 +1888,10 @@
         <v>2</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
@@ -1906,7 +1906,7 @@
         <v>40013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="1">
         <v>30004</v>
@@ -1921,10 +1921,10 @@
         <v>2</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N15" s="1">
         <v>1</v>
@@ -1939,7 +1939,7 @@
         <v>40014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1">
         <v>30005</v>
@@ -1954,10 +1954,10 @@
         <v>2</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N16" s="1">
         <v>2</v>
@@ -1972,7 +1972,7 @@
         <v>40015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1">
         <v>30005</v>
@@ -1987,10 +1987,10 @@
         <v>2</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N17" s="1">
         <v>2</v>
@@ -2005,7 +2005,7 @@
         <v>40016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1">
         <v>30005</v>
@@ -2020,10 +2020,10 @@
         <v>2</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N18" s="1">
         <v>2</v>
@@ -2038,7 +2038,7 @@
         <v>40017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1">
         <v>30005</v>
@@ -2053,10 +2053,10 @@
         <v>1</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N19" s="1">
         <v>2</v>
@@ -2071,7 +2071,7 @@
         <v>40018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="1">
         <v>30006</v>
@@ -2086,10 +2086,10 @@
         <v>1</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="N20" s="1">
         <v>1</v>
@@ -2104,7 +2104,7 @@
         <v>40019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
         <v>30006</v>
@@ -2119,10 +2119,10 @@
         <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N21" s="1">
         <v>1</v>
@@ -2137,7 +2137,7 @@
         <v>40020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1">
         <v>30007</v>
@@ -2152,13 +2152,13 @@
         <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N22" s="1">
         <v>1</v>
@@ -2173,7 +2173,7 @@
         <v>40021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1">
         <v>30007</v>
@@ -2188,13 +2188,13 @@
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="M23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N23" s="1">
         <v>1</v>
@@ -2209,7 +2209,7 @@
         <v>40022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1">
         <v>30007</v>
@@ -2224,13 +2224,13 @@
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N24" s="1">
         <v>1</v>
@@ -2245,7 +2245,7 @@
         <v>40023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1">
         <v>30008</v>
@@ -2260,13 +2260,13 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N25" s="1">
         <v>2</v>
@@ -2281,7 +2281,7 @@
         <v>40024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1">
         <v>30008</v>
@@ -2296,13 +2296,13 @@
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N26" s="1">
         <v>2</v>
@@ -2317,7 +2317,7 @@
         <v>40025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="1">
         <v>30008</v>
@@ -2332,13 +2332,13 @@
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N27" s="1">
         <v>2</v>
@@ -2353,7 +2353,7 @@
         <v>40026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1">
         <v>30009</v>
@@ -2368,13 +2368,13 @@
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L28" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="M28" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N28" s="1">
         <v>5</v>
@@ -2389,7 +2389,7 @@
         <v>40027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="1">
         <v>30009</v>
@@ -2404,13 +2404,13 @@
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N29" s="1">
         <v>5</v>
@@ -2425,7 +2425,7 @@
         <v>40028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C30" s="1">
         <v>30009</v>
@@ -2440,13 +2440,13 @@
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N30" s="1">
         <v>5</v>
@@ -2461,7 +2461,7 @@
         <v>40029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="1">
         <v>30010</v>
@@ -2476,13 +2476,13 @@
         <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L31" s="1">
         <v>15</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N31" s="1">
         <v>5</v>
@@ -2497,7 +2497,7 @@
         <v>40030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C32" s="1">
         <v>30010</v>
@@ -2512,13 +2512,13 @@
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L32" s="1">
         <v>24</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N32" s="1">
         <v>5</v>
@@ -2533,7 +2533,7 @@
         <v>40031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C33" s="1">
         <v>30010</v>
@@ -2548,13 +2548,13 @@
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L33" s="1">
         <v>35</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N33" s="1">
         <v>5</v>
@@ -2569,7 +2569,7 @@
         <v>40032</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C34" s="1">
         <v>30011</v>
@@ -2584,10 +2584,10 @@
         <v>0</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N34" s="1">
         <v>1</v>
@@ -2596,10 +2596,10 @@
         <v>1</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R34" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
@@ -2607,7 +2607,7 @@
         <v>40033</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="1">
         <v>30011</v>
@@ -2622,10 +2622,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N35" s="1">
         <v>1</v>
@@ -2634,10 +2634,10 @@
         <v>1</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
@@ -2645,7 +2645,7 @@
         <v>40034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="1">
         <v>30011</v>
@@ -2660,10 +2660,10 @@
         <v>0</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N36" s="1">
         <v>1</v>
@@ -2672,10 +2672,10 @@
         <v>1</v>
       </c>
       <c r="P36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
@@ -2683,7 +2683,7 @@
         <v>40035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C37" s="1">
         <v>30012</v>
@@ -2698,7 +2698,7 @@
         <v>2</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L37" s="1">
         <v>5</v>
@@ -2710,13 +2710,13 @@
         <v>1</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R37" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
@@ -2724,7 +2724,7 @@
         <v>40036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C38" s="1">
         <v>30012</v>
@@ -2739,7 +2739,7 @@
         <v>2</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L38" s="1">
         <v>5</v>
@@ -2751,13 +2751,13 @@
         <v>1</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S38" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
@@ -2765,7 +2765,7 @@
         <v>40037</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C39" s="1">
         <v>30012</v>
@@ -2780,7 +2780,7 @@
         <v>2</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L39" s="1">
         <v>5</v>
@@ -2792,13 +2792,13 @@
         <v>1</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="S39" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
@@ -2806,7 +2806,7 @@
         <v>40038</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C40" s="1">
         <v>30013</v>
@@ -2821,10 +2821,10 @@
         <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L40" t="s">
         <v>81</v>
-      </c>
-      <c r="L40" t="s">
-        <v>82</v>
       </c>
       <c r="N40" s="1">
         <v>3</v>
@@ -2839,7 +2839,7 @@
         <v>40039</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C41" s="1">
         <v>30013</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N41" s="1">
         <v>3</v>
@@ -2872,7 +2872,7 @@
         <v>40040</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" s="1">
         <v>30013</v>
@@ -2887,10 +2887,10 @@
         <v>0</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="N42" s="1">
         <v>3</v>
@@ -2905,7 +2905,7 @@
         <v>40041</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="1">
         <v>30014</v>
@@ -2920,13 +2920,13 @@
         <v>1</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N43" s="1">
         <v>1</v>
@@ -2940,7 +2940,7 @@
         <v>40042</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44" s="1">
         <v>30014</v>
@@ -2955,13 +2955,13 @@
         <v>1</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N44" s="1">
         <v>1</v>
@@ -2975,7 +2975,7 @@
         <v>40043</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C45" s="1">
         <v>30014</v>
@@ -2990,13 +2990,13 @@
         <v>1</v>
       </c>
       <c r="K45" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="M45" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="N45" s="1">
         <v>1</v>
@@ -3010,7 +3010,7 @@
         <v>40044</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="1">
         <v>30015</v>
@@ -3025,10 +3025,10 @@
         <v>3</v>
       </c>
       <c r="K46" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="L46" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>149</v>
       </c>
       <c r="N46" s="6">
         <v>1</v>
@@ -3042,7 +3042,7 @@
         <v>40045</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="1">
         <v>30015</v>
@@ -3057,10 +3057,10 @@
         <v>3</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N47" s="6">
         <v>1</v>
@@ -3074,7 +3074,7 @@
         <v>40046</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C48" s="1">
         <v>30015</v>
@@ -3089,10 +3089,10 @@
         <v>3</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N48" s="6">
         <v>1</v>
@@ -3106,7 +3106,7 @@
         <v>40047</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C49" s="1">
         <v>30016</v>
@@ -3121,13 +3121,13 @@
         <v>1</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N49" s="1">
         <v>1</v>
@@ -3141,7 +3141,7 @@
         <v>40048</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C50" s="1">
         <v>30016</v>
@@ -3156,13 +3156,13 @@
         <v>1</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N50" s="1">
         <v>1</v>
@@ -3176,7 +3176,7 @@
         <v>40049</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C51" s="1">
         <v>30016</v>
@@ -3191,13 +3191,13 @@
         <v>1</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="N51" s="1">
         <v>1</v>
@@ -3211,7 +3211,7 @@
         <v>40050</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="1">
         <v>30017</v>
@@ -3226,13 +3226,13 @@
         <v>2</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L52" s="1">
         <v>300</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N52" s="1">
         <v>1</v>
@@ -3246,7 +3246,7 @@
         <v>40051</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C53" s="1">
         <v>30017</v>
@@ -3261,13 +3261,13 @@
         <v>2</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L53" s="1">
         <v>400</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N53" s="1">
         <v>1</v>
@@ -3281,7 +3281,7 @@
         <v>40052</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54" s="1">
         <v>30017</v>
@@ -3296,13 +3296,13 @@
         <v>2</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L54" s="1">
         <v>500</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N54" s="1">
         <v>1</v>
@@ -3316,7 +3316,7 @@
         <v>40053</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C55" s="3">
         <v>30018</v>
@@ -3331,13 +3331,13 @@
         <v>1</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N55" s="3">
         <v>2</v>
@@ -3354,7 +3354,7 @@
         <v>40054</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C56" s="3">
         <v>30018</v>
@@ -3369,13 +3369,13 @@
         <v>1</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N56" s="3">
         <v>2</v>
@@ -3392,7 +3392,7 @@
         <v>40055</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C57" s="3">
         <v>30018</v>
@@ -3407,13 +3407,13 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N57" s="3">
         <v>2</v>
@@ -3430,7 +3430,7 @@
         <v>40056</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C58" s="3">
         <v>30019</v>
@@ -3449,13 +3449,13 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N58" s="3">
         <v>2</v>
@@ -3470,7 +3470,7 @@
         <v>40057</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C59" s="3">
         <v>30019</v>
@@ -3489,13 +3489,13 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N59" s="3">
         <v>2</v>
@@ -3510,7 +3510,7 @@
         <v>40058</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C60" s="3">
         <v>30019</v>
@@ -3529,13 +3529,13 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N60" s="3">
         <v>2</v>
@@ -3550,7 +3550,7 @@
         <v>40059</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C61" s="3">
         <v>30020</v>
@@ -3569,13 +3569,13 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N61" s="3">
         <v>2</v>
@@ -3589,7 +3589,7 @@
         <v>40060</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C62" s="3">
         <v>30020</v>
@@ -3608,13 +3608,13 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N62" s="3">
         <v>2</v>
@@ -3628,7 +3628,7 @@
         <v>40061</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C63" s="3">
         <v>30020</v>
@@ -3647,13 +3647,13 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N63" s="3">
         <v>2</v>
@@ -3667,7 +3667,7 @@
         <v>40062</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C64" s="5">
         <v>30021</v>
@@ -3686,13 +3686,13 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N64" s="5">
         <v>2</v>
@@ -3706,7 +3706,7 @@
         <v>40063</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C65" s="5">
         <v>30021</v>
@@ -3725,13 +3725,13 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N65" s="5">
         <v>2</v>
@@ -3745,7 +3745,7 @@
         <v>40064</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C66" s="5">
         <v>30021</v>
@@ -3764,13 +3764,13 @@
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N66" s="5">
         <v>2</v>
@@ -3784,7 +3784,7 @@
         <v>40065</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C67" s="5">
         <v>30022</v>
@@ -3803,13 +3803,13 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N67" s="5">
         <v>2</v>
@@ -3823,7 +3823,7 @@
         <v>40066</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C68" s="5">
         <v>30022</v>
@@ -3842,13 +3842,13 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N68" s="5">
         <v>2</v>
@@ -3862,7 +3862,7 @@
         <v>40067</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C69" s="5">
         <v>30022</v>
@@ -3881,13 +3881,13 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N69" s="5">
         <v>2</v>
@@ -3901,7 +3901,7 @@
         <v>40068</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C70" s="6">
         <v>30023</v>
@@ -3920,13 +3920,13 @@
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="L70" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="L70" s="6" t="s">
-        <v>132</v>
-      </c>
       <c r="M70" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N70" s="6">
         <v>1</v>
@@ -3940,7 +3940,7 @@
         <v>40069</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C71" s="6">
         <v>30023</v>
@@ -3959,13 +3959,13 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N71" s="6">
         <v>1</v>
@@ -3979,7 +3979,7 @@
         <v>40070</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C72" s="6">
         <v>30023</v>
@@ -3998,13 +3998,13 @@
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N72" s="6">
         <v>1</v>
@@ -4018,7 +4018,7 @@
         <v>40071</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C73" s="6">
         <v>30024</v>
@@ -4037,13 +4037,13 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N73" s="6">
         <v>1</v>
@@ -4057,7 +4057,7 @@
         <v>40072</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C74" s="6">
         <v>30024</v>
@@ -4076,13 +4076,13 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N74" s="6">
         <v>1</v>
@@ -4096,7 +4096,7 @@
         <v>40073</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C75" s="6">
         <v>30024</v>
@@ -4115,13 +4115,13 @@
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N75" s="6">
         <v>1</v>
@@ -4135,7 +4135,7 @@
         <v>40074</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C76" s="6">
         <v>30025</v>
@@ -4154,10 +4154,10 @@
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L76" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="L76" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="6">
@@ -4176,7 +4176,7 @@
         <v>40075</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C77" s="6">
         <v>30025</v>
@@ -4195,10 +4195,10 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L77" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="M77" s="4"/>
       <c r="N77" s="6">
@@ -4217,7 +4217,7 @@
         <v>40076</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C78" s="6">
         <v>30025</v>
@@ -4236,10 +4236,10 @@
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="L78" s="4" t="s">
         <v>140</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>141</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="6">
@@ -4258,7 +4258,7 @@
         <v>40077</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C79" s="6">
         <v>30026</v>
@@ -4280,7 +4280,7 @@
         <v>10</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M79" s="4"/>
       <c r="N79" s="6">
@@ -4295,7 +4295,7 @@
         <v>40078</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C80" s="6">
         <v>30026</v>
@@ -4317,7 +4317,7 @@
         <v>10</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M80" s="4"/>
       <c r="N80" s="6">
@@ -4332,7 +4332,7 @@
         <v>40079</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C81" s="6">
         <v>30026</v>
@@ -4354,7 +4354,7 @@
         <v>10</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="M81" s="4"/>
       <c r="N81" s="6">
@@ -4369,7 +4369,7 @@
         <v>40080</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C82" s="6">
         <v>30027</v>
@@ -4391,7 +4391,7 @@
         <v>10</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M82" s="4"/>
       <c r="N82" s="6">
@@ -4408,7 +4408,7 @@
         <v>40081</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C83" s="6">
         <v>30027</v>
@@ -4430,7 +4430,7 @@
         <v>10</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M83" s="4"/>
       <c r="N83" s="6">
@@ -4447,7 +4447,7 @@
         <v>40082</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C84" s="6">
         <v>30027</v>
@@ -4469,7 +4469,7 @@
         <v>10</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M84" s="4"/>
       <c r="N84" s="6">
@@ -4486,7 +4486,7 @@
         <v>40083</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C85" s="6">
         <v>30030</v>
@@ -4505,10 +4505,10 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="M85" s="6"/>
       <c r="N85" s="6">
@@ -4525,7 +4525,7 @@
         <v>40084</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C86" s="6">
         <v>30030</v>
@@ -4544,7 +4544,7 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L86" s="6">
         <v>30</v>
@@ -4564,7 +4564,7 @@
         <v>40085</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" s="6">
         <v>30030</v>
@@ -4583,7 +4583,7 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L87" s="6">
         <v>40</v>
@@ -4603,7 +4603,7 @@
         <v>40086</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C88" s="6">
         <v>30031</v>
@@ -4618,18 +4618,18 @@
         <v>1</v>
       </c>
       <c r="G88" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H88" s="4" t="s">
         <v>156</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="L88" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="L88" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="M88" s="6"/>
       <c r="N88" s="6">
@@ -4644,7 +4644,7 @@
         <v>40087</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C89" s="6">
         <v>30031</v>
@@ -4659,18 +4659,18 @@
         <v>1</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M89" s="6"/>
       <c r="N89" s="6">
@@ -4685,7 +4685,7 @@
         <v>40088</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C90" s="6">
         <v>30031</v>
@@ -4700,18 +4700,18 @@
         <v>1</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M90" s="6"/>
       <c r="N90" s="6">
@@ -4726,7 +4726,7 @@
         <v>40089</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C91" s="6">
         <v>30032</v>
@@ -4763,7 +4763,7 @@
         <v>40090</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C92" s="6">
         <v>30032</v>
@@ -4800,7 +4800,7 @@
         <v>40091</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C93" s="6">
         <v>30032</v>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6617515-A81C-4859-9406-5F0B2BF517A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="M2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -197,20 +196,20 @@
 9.治疗2个，target及其后面一个
 10.治疗2个，target及其前面一个
 11.治疗全部
-12.特殊效果1个
-13.特殊效果2个，target和其后面一个
-14.特殊效果2个，target和其前面一个
-15.特殊效果全部
+##12.特殊效果1个
+##13.特殊效果2个，target和其后面一个
+##14.特殊效果2个，target和其前面一个
+##15.特殊效果全部
 16。伤害所有人
 17.护盾所有人
 18.治疗所有人
-19.特殊效果所有人。
+##19.特殊效果所有人。
 20.敌人的最后一人
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="Q2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -922,7 +921,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1276,25 +1275,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="8" max="10" width="17" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.5" customWidth="1"/>
+    <col min="14" max="14" width="17.375" customWidth="1"/>
     <col min="15" max="16" width="16" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1355,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1418,7 +1417,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1470,7 +1469,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1514,7 +1513,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -1558,7 +1557,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
@@ -1602,7 +1601,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
@@ -1648,7 +1647,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
@@ -1694,7 +1693,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
@@ -1730,7 +1729,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
@@ -1766,7 +1765,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
@@ -1802,7 +1801,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1835,7 +1834,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
@@ -1868,7 +1867,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
@@ -1901,7 +1900,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
@@ -1934,7 +1933,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -1967,7 +1966,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -2000,7 +1999,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -2033,7 +2032,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -2066,7 +2065,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -2099,7 +2098,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -2132,7 +2131,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -2168,7 +2167,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -2204,7 +2203,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -2240,7 +2239,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -2276,7 +2275,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -2312,7 +2311,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -2348,7 +2347,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -2384,7 +2383,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -2420,7 +2419,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -2456,7 +2455,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -2492,7 +2491,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -2528,7 +2527,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -2564,7 +2563,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
@@ -2602,7 +2601,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
@@ -2640,7 +2639,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
@@ -2678,7 +2677,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
@@ -2719,7 +2718,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
@@ -2760,7 +2759,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
@@ -2801,7 +2800,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
@@ -2834,7 +2833,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
@@ -2867,7 +2866,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
@@ -2900,7 +2899,7 @@
       </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
@@ -2935,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
@@ -2970,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
@@ -3005,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
@@ -3037,7 +3036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
@@ -3069,7 +3068,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>
@@ -3101,7 +3100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40047</v>
       </c>
@@ -3136,7 +3135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40048</v>
       </c>
@@ -3171,7 +3170,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40049</v>
       </c>
@@ -3206,7 +3205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40050</v>
       </c>
@@ -3241,7 +3240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40051</v>
       </c>
@@ -3276,7 +3275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40052</v>
       </c>
@@ -3311,7 +3310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40053</v>
       </c>
@@ -3349,7 +3348,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40054</v>
       </c>
@@ -3387,7 +3386,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40055</v>
       </c>
@@ -3425,7 +3424,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40056</v>
       </c>
@@ -3465,7 +3464,7 @@
       </c>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40057</v>
       </c>
@@ -3505,7 +3504,7 @@
       </c>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40058</v>
       </c>
@@ -3545,7 +3544,7 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40059</v>
       </c>
@@ -3584,7 +3583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40060</v>
       </c>
@@ -3623,7 +3622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40061</v>
       </c>
@@ -3662,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40062</v>
       </c>
@@ -3701,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40063</v>
       </c>
@@ -3740,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40064</v>
       </c>
@@ -3779,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40065</v>
       </c>
@@ -3818,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40066</v>
       </c>
@@ -3857,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40067</v>
       </c>
@@ -3896,7 +3895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40068</v>
       </c>
@@ -3935,7 +3934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>40069</v>
       </c>
@@ -3974,7 +3973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>40070</v>
       </c>
@@ -4013,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>40071</v>
       </c>
@@ -4052,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40072</v>
       </c>
@@ -4091,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40073</v>
       </c>
@@ -4130,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40074</v>
       </c>
@@ -4171,7 +4170,7 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>40075</v>
       </c>
@@ -4212,7 +4211,7 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>40076</v>
       </c>
@@ -4253,7 +4252,7 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>40077</v>
       </c>
@@ -4290,7 +4289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>40078</v>
       </c>
@@ -4327,7 +4326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>40079</v>
       </c>
@@ -4364,7 +4363,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>40080</v>
       </c>
@@ -4403,7 +4402,7 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>40081</v>
       </c>
@@ -4442,7 +4441,7 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>40082</v>
       </c>
@@ -4481,7 +4480,7 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>40083</v>
       </c>
@@ -4520,7 +4519,7 @@
       <c r="P85" s="6"/>
       <c r="Q85" s="4"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>40084</v>
       </c>
@@ -4559,7 +4558,7 @@
       <c r="P86" s="6"/>
       <c r="Q86" s="4"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>40085</v>
       </c>
@@ -4598,7 +4597,7 @@
       <c r="P87" s="6"/>
       <c r="Q87" s="4"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>40086</v>
       </c>
@@ -4639,7 +4638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>40087</v>
       </c>
@@ -4680,7 +4679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>40088</v>
       </c>
@@ -4721,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>40089</v>
       </c>
@@ -4758,7 +4757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>40090</v>
       </c>
@@ -4795,7 +4794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>40091</v>
       </c>
@@ -4832,37 +4831,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>40092</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>40093</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>40094</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>40095</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>40096</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>40097</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>40098</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD522FB-1C32-4612-BABD-BCE3AFA0914A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0">
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0">
+    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -921,7 +922,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1275,25 +1276,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="8" max="10" width="17" customWidth="1"/>
-    <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="14" max="14" width="17.375" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
     <col min="15" max="16" width="16" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +1356,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1417,7 +1418,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1461,7 +1462,7 @@
         <v>1</v>
       </c>
       <c r="O3" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P3" s="1"/>
       <c r="S3" s="1"/>
@@ -1469,7 +1470,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1513,7 +1514,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -1557,7 +1558,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
@@ -1601,7 +1602,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
@@ -1647,7 +1648,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
@@ -1693,7 +1694,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
@@ -1729,7 +1730,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
@@ -1765,7 +1766,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
@@ -1801,7 +1802,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1834,7 +1835,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
@@ -1867,7 +1868,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
@@ -1900,7 +1901,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
@@ -1933,7 +1934,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -1966,7 +1967,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -1999,7 +2000,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -2032,7 +2033,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -2065,7 +2066,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -2098,7 +2099,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -2131,7 +2132,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -2167,7 +2168,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -2203,7 +2204,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -2239,7 +2240,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -2275,7 +2276,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -2311,7 +2312,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -2347,7 +2348,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -2383,7 +2384,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -2419,7 +2420,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -2455,7 +2456,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -2491,7 +2492,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -2527,7 +2528,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -2563,7 +2564,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
@@ -2601,7 +2602,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
@@ -2639,7 +2640,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
@@ -2677,7 +2678,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
@@ -2718,7 +2719,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
@@ -2759,7 +2760,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
@@ -2800,7 +2801,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
@@ -2833,7 +2834,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
@@ -2866,7 +2867,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
@@ -2899,7 +2900,7 @@
       </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
@@ -2934,7 +2935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
@@ -3068,7 +3069,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40047</v>
       </c>
@@ -3135,7 +3136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40048</v>
       </c>
@@ -3170,7 +3171,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40049</v>
       </c>
@@ -3205,7 +3206,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40050</v>
       </c>
@@ -3240,7 +3241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40051</v>
       </c>
@@ -3275,7 +3276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40052</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40053</v>
       </c>
@@ -3348,7 +3349,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40054</v>
       </c>
@@ -3386,7 +3387,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40055</v>
       </c>
@@ -3424,7 +3425,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40056</v>
       </c>
@@ -3464,7 +3465,7 @@
       </c>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40057</v>
       </c>
@@ -3504,7 +3505,7 @@
       </c>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40058</v>
       </c>
@@ -3544,7 +3545,7 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40059</v>
       </c>
@@ -3583,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40060</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40061</v>
       </c>
@@ -3661,7 +3662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40062</v>
       </c>
@@ -3700,7 +3701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40063</v>
       </c>
@@ -3739,7 +3740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40064</v>
       </c>
@@ -3778,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40065</v>
       </c>
@@ -3817,7 +3818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40066</v>
       </c>
@@ -3856,7 +3857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40067</v>
       </c>
@@ -3895,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40068</v>
       </c>
@@ -3934,7 +3935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>40069</v>
       </c>
@@ -3973,7 +3974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>40070</v>
       </c>
@@ -4012,7 +4013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>40071</v>
       </c>
@@ -4051,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40072</v>
       </c>
@@ -4090,7 +4091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40073</v>
       </c>
@@ -4129,7 +4130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40074</v>
       </c>
@@ -4170,7 +4171,7 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>40075</v>
       </c>
@@ -4211,7 +4212,7 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>40076</v>
       </c>
@@ -4252,7 +4253,7 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>40077</v>
       </c>
@@ -4289,7 +4290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>40078</v>
       </c>
@@ -4326,7 +4327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>40079</v>
       </c>
@@ -4363,7 +4364,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>40080</v>
       </c>
@@ -4402,7 +4403,7 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
     </row>
-    <row r="83" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>40081</v>
       </c>
@@ -4441,7 +4442,7 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
     </row>
-    <row r="84" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>40082</v>
       </c>
@@ -4480,7 +4481,7 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
     </row>
-    <row r="85" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>40083</v>
       </c>
@@ -4519,7 +4520,7 @@
       <c r="P85" s="6"/>
       <c r="Q85" s="4"/>
     </row>
-    <row r="86" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>40084</v>
       </c>
@@ -4558,7 +4559,7 @@
       <c r="P86" s="6"/>
       <c r="Q86" s="4"/>
     </row>
-    <row r="87" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>40085</v>
       </c>
@@ -4597,7 +4598,7 @@
       <c r="P87" s="6"/>
       <c r="Q87" s="4"/>
     </row>
-    <row r="88" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>40086</v>
       </c>
@@ -4638,7 +4639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>40087</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>40088</v>
       </c>
@@ -4720,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>40089</v>
       </c>
@@ -4757,7 +4758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>40090</v>
       </c>
@@ -4794,7 +4795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>40091</v>
       </c>
@@ -4831,37 +4832,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>40092</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>40093</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>40094</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>40095</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>40096</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>40097</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>40098</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD522FB-1C32-4612-BABD-BCE3AFA0914A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="M2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -197,20 +196,19 @@
 9.治疗2个，target及其后面一个
 10.治疗2个，target及其前面一个
 11.治疗全部
-##12.特殊效果1个
-##13.特殊效果2个，target和其后面一个
-##14.特殊效果2个，target和其前面一个
-##15.特殊效果全部
+12.特殊效果1个
+13.特殊效果2个，target和其后面一个#14.特殊效果2个，target和其前面一个
+15.特殊效果全部
 16。伤害所有人
 17.护盾所有人
 18.治疗所有人
-##19.特殊效果所有人。
+19.特殊效果所有人。
 20.敌人的最后一人
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="Q2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -241,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="178">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -916,13 +914,35 @@
   </si>
   <si>
     <t>1,34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7,7,7</t>
+  </si>
+  <si>
+    <t>7,7,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,10</t>
+  </si>
+  <si>
+    <t>10,10,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50013,1|50019,1|50026</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1276,25 +1296,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I89" sqref="I89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="8" max="10" width="17" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.5" customWidth="1"/>
+    <col min="14" max="14" width="17.375" customWidth="1"/>
     <col min="15" max="16" width="16" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1376,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1418,7 +1438,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1470,7 +1490,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1514,7 +1534,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -1558,7 +1578,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
@@ -1602,7 +1622,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
@@ -1648,7 +1668,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
@@ -1694,7 +1714,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
@@ -1730,7 +1750,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
@@ -1766,7 +1786,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
@@ -1802,7 +1822,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1835,7 +1855,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
@@ -1868,7 +1888,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
@@ -1901,7 +1921,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
@@ -1934,7 +1954,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -1967,7 +1987,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -2000,7 +2020,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -2033,7 +2053,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -2066,7 +2086,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -2099,7 +2119,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -2132,7 +2152,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -2168,7 +2188,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -2204,7 +2224,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -2240,7 +2260,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -2276,7 +2296,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -2312,7 +2332,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -2348,7 +2368,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -2384,7 +2404,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -2420,7 +2440,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -2456,7 +2476,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -2492,7 +2512,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -2528,7 +2548,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -2564,7 +2584,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
@@ -2602,7 +2622,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
@@ -2640,7 +2660,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
@@ -2678,7 +2698,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
@@ -2719,7 +2739,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
@@ -2760,7 +2780,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
@@ -2801,7 +2821,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
@@ -2834,7 +2854,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
@@ -2867,7 +2887,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
@@ -2900,7 +2920,7 @@
       </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
@@ -2935,7 +2955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
@@ -2970,7 +2990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
@@ -3005,7 +3025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
@@ -3037,7 +3057,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
@@ -3069,7 +3089,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>
@@ -3101,7 +3121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40047</v>
       </c>
@@ -3136,7 +3156,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40048</v>
       </c>
@@ -3171,7 +3191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40049</v>
       </c>
@@ -3206,7 +3226,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40050</v>
       </c>
@@ -3241,7 +3261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40051</v>
       </c>
@@ -3276,7 +3296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40052</v>
       </c>
@@ -3311,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40053</v>
       </c>
@@ -3349,7 +3369,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40054</v>
       </c>
@@ -3387,7 +3407,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40055</v>
       </c>
@@ -3425,7 +3445,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40056</v>
       </c>
@@ -3465,7 +3485,7 @@
       </c>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40057</v>
       </c>
@@ -3505,7 +3525,7 @@
       </c>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40058</v>
       </c>
@@ -3545,7 +3565,7 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40059</v>
       </c>
@@ -3584,7 +3604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40060</v>
       </c>
@@ -3623,7 +3643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40061</v>
       </c>
@@ -3662,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40062</v>
       </c>
@@ -3701,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40063</v>
       </c>
@@ -3740,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40064</v>
       </c>
@@ -3779,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40065</v>
       </c>
@@ -3818,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40066</v>
       </c>
@@ -3857,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40067</v>
       </c>
@@ -3896,7 +3916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40068</v>
       </c>
@@ -3935,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>40069</v>
       </c>
@@ -3974,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>40070</v>
       </c>
@@ -4013,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>40071</v>
       </c>
@@ -4052,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40072</v>
       </c>
@@ -4091,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40073</v>
       </c>
@@ -4130,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40074</v>
       </c>
@@ -4171,7 +4191,7 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>40075</v>
       </c>
@@ -4212,7 +4232,7 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>40076</v>
       </c>
@@ -4253,7 +4273,7 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>40077</v>
       </c>
@@ -4290,7 +4310,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>40078</v>
       </c>
@@ -4327,7 +4347,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>40079</v>
       </c>
@@ -4364,7 +4384,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>40080</v>
       </c>
@@ -4403,7 +4423,7 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>40081</v>
       </c>
@@ -4442,7 +4462,7 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>40082</v>
       </c>
@@ -4481,7 +4501,7 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>40083</v>
       </c>
@@ -4520,7 +4540,7 @@
       <c r="P85" s="6"/>
       <c r="Q85" s="4"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>40084</v>
       </c>
@@ -4559,7 +4579,7 @@
       <c r="P86" s="6"/>
       <c r="Q86" s="4"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>40085</v>
       </c>
@@ -4598,7 +4618,7 @@
       <c r="P87" s="6"/>
       <c r="Q87" s="4"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>40086</v>
       </c>
@@ -4639,7 +4659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>40087</v>
       </c>
@@ -4680,7 +4700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>40088</v>
       </c>
@@ -4721,7 +4741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>40089</v>
       </c>
@@ -4758,7 +4778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>40090</v>
       </c>
@@ -4795,7 +4815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>40091</v>
       </c>
@@ -4832,37 +4852,151 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>40092</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B94" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C94" s="6">
+        <v>30033</v>
+      </c>
+      <c r="D94" s="6">
+        <v>1</v>
+      </c>
+      <c r="E94" s="6">
+        <v>0</v>
+      </c>
+      <c r="F94" s="6">
+        <v>2</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L94" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6">
+        <v>5</v>
+      </c>
+      <c r="O94" s="6">
+        <v>12</v>
+      </c>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="6"/>
+    </row>
+    <row r="95" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>40093</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B95" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C95" s="6">
+        <v>30033</v>
+      </c>
+      <c r="D95" s="6">
+        <v>2</v>
+      </c>
+      <c r="E95" s="6">
+        <v>0</v>
+      </c>
+      <c r="F95" s="6">
+        <v>2</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="L95" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6">
+        <v>5</v>
+      </c>
+      <c r="O95" s="6">
+        <v>12</v>
+      </c>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+    </row>
+    <row r="96" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>40094</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B96" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" s="6">
+        <v>30033</v>
+      </c>
+      <c r="D96" s="6">
+        <v>3</v>
+      </c>
+      <c r="E96" s="6">
+        <v>0</v>
+      </c>
+      <c r="F96" s="6">
+        <v>2</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="L96" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6">
+        <v>5</v>
+      </c>
+      <c r="O96" s="6">
+        <v>12</v>
+      </c>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+    </row>
+    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>40095</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>40096</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>40097</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>40098</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2480962-8014-4DF6-936E-788C9D337EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0">
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0">
+    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -239,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="178">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -837,14 +838,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20|3,30029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>醉拳</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -901,15 +894,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0|20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16|1,1</t>
+    <t>无剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -917,32 +906,46 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>无剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7,7,7</t>
-  </si>
-  <si>
-    <t>7,7,7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10,10</t>
-  </si>
-  <si>
-    <t>10,10,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50013,1|50019,1|50026</t>
+    <t>1,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|3,30034</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一月映三江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,30036,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,30036,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,30038,3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1001,7 +1004,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1015,6 +1018,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1296,25 +1302,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I89" sqref="I89"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="8" max="10" width="17" customWidth="1"/>
-    <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="14" max="14" width="17.375" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
     <col min="15" max="16" width="16" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1382,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1438,7 +1444,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1458,22 +1464,18 @@
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I3" s="1">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1">
-        <v>2</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
         <v>169</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>32</v>
@@ -1490,7 +1492,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1534,7 +1536,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -1578,7 +1580,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
@@ -1595,17 +1597,17 @@
         <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>35</v>
@@ -1622,7 +1624,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
@@ -1646,10 +1648,10 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>36</v>
@@ -1668,7 +1670,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
@@ -1714,7 +1716,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
@@ -1750,7 +1752,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
@@ -1786,7 +1788,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
@@ -1822,7 +1824,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1855,7 +1857,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
@@ -1888,7 +1890,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
@@ -1921,7 +1923,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
@@ -1954,7 +1956,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -1987,7 +1989,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -2020,7 +2022,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -2053,7 +2055,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -2086,7 +2088,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -2119,7 +2121,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -2152,7 +2154,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -2188,7 +2190,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -2224,7 +2226,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -2260,7 +2262,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -2296,7 +2298,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -2332,7 +2334,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -2368,7 +2370,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -2404,7 +2406,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -2440,7 +2442,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -2476,7 +2478,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -2512,7 +2514,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -2548,7 +2550,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -2584,7 +2586,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
@@ -2622,7 +2624,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
@@ -2660,7 +2662,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
@@ -2698,7 +2700,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
@@ -2739,7 +2741,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
@@ -2780,7 +2782,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
@@ -2821,7 +2823,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
@@ -2854,7 +2856,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
@@ -2887,7 +2889,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
@@ -2920,7 +2922,7 @@
       </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
@@ -2955,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
@@ -2990,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
@@ -3025,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
@@ -3057,7 +3059,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
@@ -3089,7 +3091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>
@@ -3121,7 +3123,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40047</v>
       </c>
@@ -3156,7 +3158,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40048</v>
       </c>
@@ -3191,7 +3193,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40049</v>
       </c>
@@ -3226,7 +3228,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40050</v>
       </c>
@@ -3261,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40051</v>
       </c>
@@ -3296,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40052</v>
       </c>
@@ -3331,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40053</v>
       </c>
@@ -3369,7 +3371,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40054</v>
       </c>
@@ -3407,7 +3409,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40055</v>
       </c>
@@ -3445,7 +3447,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40056</v>
       </c>
@@ -3485,7 +3487,7 @@
       </c>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40057</v>
       </c>
@@ -3525,7 +3527,7 @@
       </c>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40058</v>
       </c>
@@ -3565,7 +3567,7 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40059</v>
       </c>
@@ -3604,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40060</v>
       </c>
@@ -3643,7 +3645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40061</v>
       </c>
@@ -3682,7 +3684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40062</v>
       </c>
@@ -3721,7 +3723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40063</v>
       </c>
@@ -3760,7 +3762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40064</v>
       </c>
@@ -3799,7 +3801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40065</v>
       </c>
@@ -3838,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40066</v>
       </c>
@@ -3877,7 +3879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40067</v>
       </c>
@@ -3916,7 +3918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40068</v>
       </c>
@@ -3955,7 +3957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>40069</v>
       </c>
@@ -3994,7 +3996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>40070</v>
       </c>
@@ -4033,7 +4035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>40071</v>
       </c>
@@ -4072,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40072</v>
       </c>
@@ -4111,7 +4113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40073</v>
       </c>
@@ -4150,7 +4152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40074</v>
       </c>
@@ -4191,7 +4193,7 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>40075</v>
       </c>
@@ -4232,7 +4234,7 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>40076</v>
       </c>
@@ -4273,7 +4275,7 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>40077</v>
       </c>
@@ -4310,7 +4312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>40078</v>
       </c>
@@ -4347,7 +4349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>40079</v>
       </c>
@@ -4384,7 +4386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>40080</v>
       </c>
@@ -4423,7 +4425,7 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
     </row>
-    <row r="83" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>40081</v>
       </c>
@@ -4462,7 +4464,7 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
     </row>
-    <row r="84" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>40082</v>
       </c>
@@ -4501,7 +4503,7 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
     </row>
-    <row r="85" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>40083</v>
       </c>
@@ -4525,10 +4527,10 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="6" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="M85" s="6"/>
       <c r="N85" s="6">
@@ -4540,7 +4542,7 @@
       <c r="P85" s="6"/>
       <c r="Q85" s="4"/>
     </row>
-    <row r="86" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>40084</v>
       </c>
@@ -4564,7 +4566,7 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L86" s="6">
         <v>30</v>
@@ -4579,7 +4581,7 @@
       <c r="P86" s="6"/>
       <c r="Q86" s="4"/>
     </row>
-    <row r="87" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>40085</v>
       </c>
@@ -4603,7 +4605,7 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="L87" s="6">
         <v>40</v>
@@ -4618,12 +4620,12 @@
       <c r="P87" s="6"/>
       <c r="Q87" s="4"/>
     </row>
-    <row r="88" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>40086</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C88" s="6">
         <v>30031</v>
@@ -4638,18 +4640,18 @@
         <v>1</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M88" s="6"/>
       <c r="N88" s="6">
@@ -4659,12 +4661,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>40087</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C89" s="6">
         <v>30031</v>
@@ -4679,18 +4681,18 @@
         <v>1</v>
       </c>
       <c r="G89" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H89" s="4" t="s">
         <v>155</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>157</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="L89" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="L89" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="M89" s="6"/>
       <c r="N89" s="6">
@@ -4700,12 +4702,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>40088</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C90" s="6">
         <v>30031</v>
@@ -4720,18 +4722,18 @@
         <v>1</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M90" s="6"/>
       <c r="N90" s="6">
@@ -4741,12 +4743,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>40089</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C91" s="6">
         <v>30032</v>
@@ -4778,12 +4780,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>40090</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C92" s="6">
         <v>30032</v>
@@ -4815,12 +4817,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>40091</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C93" s="6">
         <v>30032</v>
@@ -4852,12 +4854,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>40092</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C94" s="6">
         <v>30033</v>
@@ -4871,17 +4873,15 @@
       <c r="F94" s="6">
         <v>2</v>
       </c>
-      <c r="G94" s="6" t="s">
-        <v>174</v>
-      </c>
+      <c r="G94" s="6"/>
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
-      <c r="K94" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L94" s="6" t="s">
-        <v>177</v>
+      <c r="K94" s="6">
+        <v>35</v>
+      </c>
+      <c r="L94" s="6">
+        <v>2</v>
       </c>
       <c r="M94" s="6"/>
       <c r="N94" s="6">
@@ -4895,12 +4895,12 @@
       <c r="R94" s="4"/>
       <c r="S94" s="6"/>
     </row>
-    <row r="95" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>40093</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C95" s="6">
         <v>30033</v>
@@ -4914,17 +4914,15 @@
       <c r="F95" s="6">
         <v>2</v>
       </c>
-      <c r="G95" s="6" t="s">
-        <v>174</v>
-      </c>
+      <c r="G95" s="6"/>
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
-      <c r="K95" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L95" s="6" t="s">
-        <v>177</v>
+      <c r="K95" s="6">
+        <v>35</v>
+      </c>
+      <c r="L95" s="6">
+        <v>2</v>
       </c>
       <c r="M95" s="6"/>
       <c r="N95" s="6">
@@ -4938,12 +4936,12 @@
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
     </row>
-    <row r="96" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>40094</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C96" s="6">
         <v>30033</v>
@@ -4957,17 +4955,15 @@
       <c r="F96" s="6">
         <v>2</v>
       </c>
-      <c r="G96" s="6" t="s">
-        <v>173</v>
-      </c>
+      <c r="G96" s="6"/>
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
-      <c r="K96" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="L96" s="6" t="s">
-        <v>177</v>
+      <c r="K96" s="6">
+        <v>35</v>
+      </c>
+      <c r="L96" s="6">
+        <v>3</v>
       </c>
       <c r="M96" s="6"/>
       <c r="N96" s="6">
@@ -4981,23 +4977,274 @@
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
     </row>
-    <row r="97" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>40095</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B97" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C97" s="6">
+        <v>30035</v>
+      </c>
+      <c r="D97" s="6">
+        <v>1</v>
+      </c>
+      <c r="E97" s="6">
+        <v>0</v>
+      </c>
+      <c r="F97" s="6">
+        <v>1</v>
+      </c>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="6">
+        <v>36</v>
+      </c>
+      <c r="L97" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="M97" s="4"/>
+      <c r="N97" s="6">
+        <v>2</v>
+      </c>
+      <c r="O97" s="6">
+        <v>12</v>
+      </c>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>40096</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B98" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C98" s="6">
+        <v>30035</v>
+      </c>
+      <c r="D98" s="6">
+        <v>2</v>
+      </c>
+      <c r="E98" s="6">
+        <v>0</v>
+      </c>
+      <c r="F98" s="6">
+        <v>1</v>
+      </c>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="6">
+        <v>36</v>
+      </c>
+      <c r="L98" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="M98" s="4"/>
+      <c r="N98" s="6">
+        <v>2</v>
+      </c>
+      <c r="O98" s="6">
+        <v>12</v>
+      </c>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>40097</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B99" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="C99" s="6">
+        <v>30035</v>
+      </c>
+      <c r="D99" s="6">
+        <v>3</v>
+      </c>
+      <c r="E99" s="6">
+        <v>0</v>
+      </c>
+      <c r="F99" s="6">
+        <v>1</v>
+      </c>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="6">
+        <v>36</v>
+      </c>
+      <c r="L99" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M99" s="4"/>
+      <c r="N99" s="6">
+        <v>2</v>
+      </c>
+      <c r="O99" s="6">
+        <v>12</v>
+      </c>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
+        <v>40098</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" s="6">
+        <v>30036</v>
+      </c>
+      <c r="D100" s="6">
+        <v>1</v>
+      </c>
+      <c r="E100" s="6">
+        <v>2</v>
+      </c>
+      <c r="F100" s="6">
+        <v>0</v>
+      </c>
+      <c r="K100" s="6">
+        <v>1</v>
+      </c>
+      <c r="L100" s="6">
+        <v>3</v>
+      </c>
+      <c r="M100" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N100" s="6">
+        <v>2</v>
+      </c>
+      <c r="O100" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>40098</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C101" s="6">
+        <v>30036</v>
+      </c>
+      <c r="D101" s="6">
+        <v>2</v>
+      </c>
+      <c r="E101" s="6">
+        <v>2</v>
+      </c>
+      <c r="F101" s="6">
+        <v>0</v>
+      </c>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="6">
+        <v>1</v>
+      </c>
+      <c r="L101" s="6">
+        <v>4</v>
+      </c>
+      <c r="M101" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N101" s="6">
+        <v>2</v>
+      </c>
+      <c r="O101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>40098</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C102" s="6">
+        <v>30036</v>
+      </c>
+      <c r="D102" s="6">
+        <v>3</v>
+      </c>
+      <c r="E102" s="6">
+        <v>2</v>
+      </c>
+      <c r="F102" s="6">
+        <v>0</v>
+      </c>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="6">
+        <v>1</v>
+      </c>
+      <c r="L102" s="6">
+        <v>5</v>
+      </c>
+      <c r="M102" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N102" s="6">
+        <v>2</v>
+      </c>
+      <c r="O102" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>40098</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>40098</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <v>40098</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <v>40098</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>40098</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>40098</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
         <v>40098</v>
       </c>
     </row>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2480962-8014-4DF6-936E-788C9D337EED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6266953B-6D92-45BB-B814-16181F26F63C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="180">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -939,6 +939,14 @@
   </si>
   <si>
     <t>3,30038,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1305,8 +1313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="K106" sqref="K106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5119,11 +5127,11 @@
       <c r="F100" s="6">
         <v>0</v>
       </c>
-      <c r="K100" s="6">
-        <v>1</v>
-      </c>
-      <c r="L100" s="6">
-        <v>3</v>
+      <c r="K100" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="L100" s="6" t="s">
+        <v>179</v>
       </c>
       <c r="M100" s="6" t="s">
         <v>36</v>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6266953B-6D92-45BB-B814-16181F26F63C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="M2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="Q2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="188">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -947,13 +946,43 @@
   </si>
   <si>
     <t>3|10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50058,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50058,2</t>
+  </si>
+  <si>
+    <t>50058,3</t>
+  </si>
+  <si>
+    <t>凤箫声动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤箫声动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤箫声动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,4,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1310,25 +1339,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="K106" sqref="K106"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="H122" sqref="H122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="8" max="10" width="17" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="12" max="12" width="23.5" customWidth="1"/>
+    <col min="14" max="14" width="17.375" customWidth="1"/>
     <col min="15" max="16" width="16" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1419,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1452,7 +1481,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1500,7 +1529,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1544,7 +1573,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -1588,7 +1617,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
@@ -1632,7 +1661,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
@@ -1678,7 +1707,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
@@ -1724,7 +1753,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
@@ -1760,7 +1789,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
@@ -1796,7 +1825,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
@@ -1832,7 +1861,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1865,7 +1894,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
@@ -1898,7 +1927,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
@@ -1931,7 +1960,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
@@ -1964,7 +1993,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -1997,7 +2026,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -2030,7 +2059,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -2063,7 +2092,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -2096,7 +2125,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -2129,7 +2158,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -2162,7 +2191,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -2198,7 +2227,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -2234,7 +2263,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -2270,7 +2299,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -2306,7 +2335,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -2342,7 +2371,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -2378,7 +2407,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -2414,7 +2443,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -2450,7 +2479,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -2486,7 +2515,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -2522,7 +2551,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -2558,7 +2587,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -2594,7 +2623,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
@@ -2632,7 +2661,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
@@ -2670,7 +2699,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
@@ -2708,7 +2737,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
@@ -2749,7 +2778,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
@@ -2790,7 +2819,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
@@ -2831,7 +2860,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
@@ -2864,7 +2893,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
@@ -2897,7 +2926,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
@@ -2930,7 +2959,7 @@
       </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
@@ -2965,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
@@ -3000,7 +3029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
@@ -3035,7 +3064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
@@ -3067,7 +3096,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
@@ -3099,7 +3128,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>
@@ -3131,7 +3160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40047</v>
       </c>
@@ -3166,7 +3195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40048</v>
       </c>
@@ -3201,7 +3230,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40049</v>
       </c>
@@ -3236,7 +3265,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40050</v>
       </c>
@@ -3271,7 +3300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40051</v>
       </c>
@@ -3306,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40052</v>
       </c>
@@ -3341,7 +3370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40053</v>
       </c>
@@ -3379,7 +3408,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40054</v>
       </c>
@@ -3417,7 +3446,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40055</v>
       </c>
@@ -3455,7 +3484,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40056</v>
       </c>
@@ -3495,7 +3524,7 @@
       </c>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40057</v>
       </c>
@@ -3535,7 +3564,7 @@
       </c>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40058</v>
       </c>
@@ -3575,7 +3604,7 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40059</v>
       </c>
@@ -3614,7 +3643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40060</v>
       </c>
@@ -3653,7 +3682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40061</v>
       </c>
@@ -3692,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40062</v>
       </c>
@@ -3731,7 +3760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40063</v>
       </c>
@@ -3770,7 +3799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40064</v>
       </c>
@@ -3809,7 +3838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40065</v>
       </c>
@@ -3848,7 +3877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40066</v>
       </c>
@@ -3887,7 +3916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40067</v>
       </c>
@@ -3926,7 +3955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40068</v>
       </c>
@@ -3965,7 +3994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>40069</v>
       </c>
@@ -4004,7 +4033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>40070</v>
       </c>
@@ -4043,7 +4072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>40071</v>
       </c>
@@ -4082,7 +4111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40072</v>
       </c>
@@ -4121,7 +4150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40073</v>
       </c>
@@ -4160,7 +4189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40074</v>
       </c>
@@ -4201,7 +4230,7 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>40075</v>
       </c>
@@ -4242,7 +4271,7 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>40076</v>
       </c>
@@ -4283,7 +4312,7 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>40077</v>
       </c>
@@ -4320,7 +4349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>40078</v>
       </c>
@@ -4357,7 +4386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>40079</v>
       </c>
@@ -4394,7 +4423,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>40080</v>
       </c>
@@ -4433,7 +4462,7 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>40081</v>
       </c>
@@ -4472,7 +4501,7 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>40082</v>
       </c>
@@ -4511,7 +4540,7 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>40083</v>
       </c>
@@ -4550,7 +4579,7 @@
       <c r="P85" s="6"/>
       <c r="Q85" s="4"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>40084</v>
       </c>
@@ -4589,7 +4618,7 @@
       <c r="P86" s="6"/>
       <c r="Q86" s="4"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>40085</v>
       </c>
@@ -4628,7 +4657,7 @@
       <c r="P87" s="6"/>
       <c r="Q87" s="4"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>40086</v>
       </c>
@@ -4669,7 +4698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>40087</v>
       </c>
@@ -4710,7 +4739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>40088</v>
       </c>
@@ -4751,7 +4780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>40089</v>
       </c>
@@ -4788,7 +4817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>40090</v>
       </c>
@@ -4825,7 +4854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>40091</v>
       </c>
@@ -4862,7 +4891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>40092</v>
       </c>
@@ -4903,7 +4932,7 @@
       <c r="R94" s="4"/>
       <c r="S94" s="6"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>40093</v>
       </c>
@@ -4944,7 +4973,7 @@
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>40094</v>
       </c>
@@ -4985,7 +5014,7 @@
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>40095</v>
       </c>
@@ -5026,7 +5055,7 @@
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>40096</v>
       </c>
@@ -5067,7 +5096,7 @@
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>40097</v>
       </c>
@@ -5108,7 +5137,7 @@
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>40098</v>
       </c>
@@ -5143,7 +5172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>40098</v>
       </c>
@@ -5182,7 +5211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>40098</v>
       </c>
@@ -5221,40 +5250,251 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>40098</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B103" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="C103" s="6">
+        <v>30037</v>
+      </c>
+      <c r="D103" s="6">
+        <v>1</v>
+      </c>
+      <c r="E103" s="6">
+        <v>0</v>
+      </c>
+      <c r="F103" s="6">
+        <v>2</v>
+      </c>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="6">
+        <v>8</v>
+      </c>
+      <c r="L103" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6">
+        <v>3</v>
+      </c>
+      <c r="O103" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>40098</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B104" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C104" s="6">
+        <v>30037</v>
+      </c>
+      <c r="D104" s="6">
+        <v>2</v>
+      </c>
+      <c r="E104" s="6">
+        <v>0</v>
+      </c>
+      <c r="F104" s="6">
+        <v>2</v>
+      </c>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="6">
+        <v>8</v>
+      </c>
+      <c r="L104" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6">
+        <v>3</v>
+      </c>
+      <c r="O104" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>40098</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B105" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C105" s="6">
+        <v>30037</v>
+      </c>
+      <c r="D105" s="6">
+        <v>3</v>
+      </c>
+      <c r="E105" s="6">
+        <v>0</v>
+      </c>
+      <c r="F105" s="6">
+        <v>2</v>
+      </c>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="6">
+        <v>8</v>
+      </c>
+      <c r="L105" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="M105" s="6"/>
+      <c r="N105" s="6">
+        <v>3</v>
+      </c>
+      <c r="O105" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>40098</v>
       </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B106" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C106" s="6">
+        <v>30038</v>
+      </c>
+      <c r="D106" s="6">
+        <v>1</v>
+      </c>
+      <c r="E106" s="6">
+        <v>9</v>
+      </c>
+      <c r="F106" s="6">
+        <v>1</v>
+      </c>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="6">
+        <v>38</v>
+      </c>
+      <c r="J106" s="6">
+        <v>1</v>
+      </c>
+      <c r="K106" s="6">
+        <v>39</v>
+      </c>
+      <c r="L106" s="6">
+        <v>1</v>
+      </c>
+      <c r="M106" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="N106" s="6">
+        <v>4</v>
+      </c>
+      <c r="O106" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>40098</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B107" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C107" s="6">
+        <v>30038</v>
+      </c>
+      <c r="D107" s="6">
+        <v>2</v>
+      </c>
+      <c r="E107" s="6">
+        <v>9</v>
+      </c>
+      <c r="F107" s="6">
+        <v>1</v>
+      </c>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="6">
+        <v>38</v>
+      </c>
+      <c r="J107" s="6">
+        <v>1</v>
+      </c>
+      <c r="K107" s="6">
+        <v>39</v>
+      </c>
+      <c r="L107" s="6">
+        <v>1</v>
+      </c>
+      <c r="M107" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="N107" s="6">
+        <v>4</v>
+      </c>
+      <c r="O107" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>40098</v>
       </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B108" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C108" s="6">
+        <v>30038</v>
+      </c>
+      <c r="D108" s="6">
+        <v>3</v>
+      </c>
+      <c r="E108" s="6">
+        <v>9</v>
+      </c>
+      <c r="F108" s="6">
+        <v>1</v>
+      </c>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="6">
+        <v>38</v>
+      </c>
+      <c r="J108" s="6">
+        <v>1</v>
+      </c>
+      <c r="K108" s="6">
+        <v>39</v>
+      </c>
+      <c r="L108" s="6">
+        <v>1</v>
+      </c>
+      <c r="M108" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="N108" s="6">
+        <v>4</v>
+      </c>
+      <c r="O108" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>40098</v>
       </c>
+      <c r="F109" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeConfig\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C50E3E-85CB-44C6-91A0-135196D0AD70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0">
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0">
+    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -239,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="193">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -977,12 +978,29 @@
   <si>
     <t>39,4,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓弦劲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,21</t>
+  </si>
+  <si>
+    <t>50061,22</t>
+  </si>
+  <si>
+    <t>50061,23</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1339,25 +1357,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V109"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:V135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="H122" sqref="H122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="8" max="10" width="17" customWidth="1"/>
-    <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="14" max="14" width="17.375" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
     <col min="15" max="16" width="16" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1437,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1481,7 +1499,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1529,7 +1547,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1573,7 +1591,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -1617,7 +1635,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
@@ -1661,7 +1679,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
@@ -1707,7 +1725,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
@@ -1753,7 +1771,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
@@ -1789,7 +1807,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
@@ -1825,7 +1843,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
@@ -1861,7 +1879,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1894,7 +1912,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
@@ -1927,7 +1945,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
@@ -1960,7 +1978,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
@@ -1993,7 +2011,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -2026,7 +2044,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -2059,7 +2077,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -2092,7 +2110,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -2125,7 +2143,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -2158,7 +2176,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -2191,7 +2209,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -2227,7 +2245,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -2263,7 +2281,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -2299,7 +2317,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -2335,7 +2353,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -2371,7 +2389,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -2407,7 +2425,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -2443,7 +2461,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -2479,7 +2497,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -2515,7 +2533,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -2551,7 +2569,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -2587,7 +2605,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -2623,7 +2641,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
@@ -2661,7 +2679,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
@@ -2699,7 +2717,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
@@ -2737,7 +2755,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
@@ -2778,7 +2796,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
@@ -2819,7 +2837,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
@@ -2860,7 +2878,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
@@ -2893,7 +2911,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
@@ -2926,7 +2944,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
@@ -2959,7 +2977,7 @@
       </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
@@ -2994,7 +3012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
@@ -3029,7 +3047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
@@ -3064,7 +3082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
@@ -3096,7 +3114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
@@ -3128,7 +3146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>
@@ -3160,7 +3178,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40047</v>
       </c>
@@ -3195,7 +3213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40048</v>
       </c>
@@ -3230,7 +3248,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40049</v>
       </c>
@@ -3265,7 +3283,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40050</v>
       </c>
@@ -3300,7 +3318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40051</v>
       </c>
@@ -3335,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40052</v>
       </c>
@@ -3370,7 +3388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40053</v>
       </c>
@@ -3408,7 +3426,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40054</v>
       </c>
@@ -3446,7 +3464,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40055</v>
       </c>
@@ -3484,7 +3502,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40056</v>
       </c>
@@ -3524,7 +3542,7 @@
       </c>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40057</v>
       </c>
@@ -3564,7 +3582,7 @@
       </c>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40058</v>
       </c>
@@ -3604,7 +3622,7 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40059</v>
       </c>
@@ -3643,7 +3661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40060</v>
       </c>
@@ -3682,7 +3700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40061</v>
       </c>
@@ -3721,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40062</v>
       </c>
@@ -3760,7 +3778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40063</v>
       </c>
@@ -3799,7 +3817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40064</v>
       </c>
@@ -3838,7 +3856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40065</v>
       </c>
@@ -3877,7 +3895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40066</v>
       </c>
@@ -3916,7 +3934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40067</v>
       </c>
@@ -3955,7 +3973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40068</v>
       </c>
@@ -3994,7 +4012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>40069</v>
       </c>
@@ -4033,7 +4051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>40070</v>
       </c>
@@ -4072,7 +4090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>40071</v>
       </c>
@@ -4111,7 +4129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40072</v>
       </c>
@@ -4150,7 +4168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40073</v>
       </c>
@@ -4189,7 +4207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40074</v>
       </c>
@@ -4230,7 +4248,7 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>40075</v>
       </c>
@@ -4271,7 +4289,7 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>40076</v>
       </c>
@@ -4312,7 +4330,7 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>40077</v>
       </c>
@@ -4349,7 +4367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>40078</v>
       </c>
@@ -4386,7 +4404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>40079</v>
       </c>
@@ -4423,7 +4441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>40080</v>
       </c>
@@ -4462,7 +4480,7 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
     </row>
-    <row r="83" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>40081</v>
       </c>
@@ -4501,7 +4519,7 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
     </row>
-    <row r="84" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>40082</v>
       </c>
@@ -4540,7 +4558,7 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
     </row>
-    <row r="85" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>40083</v>
       </c>
@@ -4579,7 +4597,7 @@
       <c r="P85" s="6"/>
       <c r="Q85" s="4"/>
     </row>
-    <row r="86" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>40084</v>
       </c>
@@ -4618,7 +4636,7 @@
       <c r="P86" s="6"/>
       <c r="Q86" s="4"/>
     </row>
-    <row r="87" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>40085</v>
       </c>
@@ -4657,7 +4675,7 @@
       <c r="P87" s="6"/>
       <c r="Q87" s="4"/>
     </row>
-    <row r="88" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>40086</v>
       </c>
@@ -4698,7 +4716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>40087</v>
       </c>
@@ -4739,7 +4757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>40088</v>
       </c>
@@ -4780,7 +4798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>40089</v>
       </c>
@@ -4817,7 +4835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>40090</v>
       </c>
@@ -4854,7 +4872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>40091</v>
       </c>
@@ -4891,7 +4909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>40092</v>
       </c>
@@ -4932,7 +4950,7 @@
       <c r="R94" s="4"/>
       <c r="S94" s="6"/>
     </row>
-    <row r="95" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>40093</v>
       </c>
@@ -4973,7 +4991,7 @@
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
     </row>
-    <row r="96" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>40094</v>
       </c>
@@ -5014,7 +5032,7 @@
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
     </row>
-    <row r="97" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>40095</v>
       </c>
@@ -5055,7 +5073,7 @@
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>40096</v>
       </c>
@@ -5096,7 +5114,7 @@
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>40097</v>
       </c>
@@ -5137,7 +5155,7 @@
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>40098</v>
       </c>
@@ -5172,9 +5190,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
-        <v>40098</v>
+        <v>40099</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>174</v>
@@ -5211,9 +5229,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
-        <v>40098</v>
+        <v>40100</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>174</v>
@@ -5250,9 +5268,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
-        <v>40098</v>
+        <v>40101</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>183</v>
@@ -5287,9 +5305,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
-        <v>40098</v>
+        <v>40102</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>184</v>
@@ -5324,9 +5342,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
-        <v>40098</v>
+        <v>40103</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>185</v>
@@ -5361,9 +5379,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
-        <v>40098</v>
+        <v>40104</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>186</v>
@@ -5404,9 +5422,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
-        <v>40098</v>
+        <v>40105</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>186</v>
@@ -5447,9 +5465,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
-        <v>40098</v>
+        <v>40106</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>186</v>
@@ -5490,11 +5508,236 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
-        <v>40098</v>
-      </c>
-      <c r="F109" s="6"/>
+        <v>40107</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C109" s="6">
+        <v>30039</v>
+      </c>
+      <c r="D109" s="6">
+        <v>1</v>
+      </c>
+      <c r="E109" s="6">
+        <v>0</v>
+      </c>
+      <c r="F109" s="6">
+        <v>1</v>
+      </c>
+      <c r="K109" s="6">
+        <v>10</v>
+      </c>
+      <c r="L109" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="N109" s="6">
+        <v>1</v>
+      </c>
+      <c r="O109" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
+        <v>40108</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C110" s="6">
+        <v>30039</v>
+      </c>
+      <c r="D110" s="6">
+        <v>2</v>
+      </c>
+      <c r="E110" s="6">
+        <v>0</v>
+      </c>
+      <c r="F110" s="6">
+        <v>1</v>
+      </c>
+      <c r="K110" s="6">
+        <v>10</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="M110" s="4"/>
+      <c r="N110" s="6">
+        <v>1</v>
+      </c>
+      <c r="O110" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
+        <v>40109</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C111" s="6">
+        <v>30039</v>
+      </c>
+      <c r="D111" s="6">
+        <v>3</v>
+      </c>
+      <c r="E111" s="6">
+        <v>0</v>
+      </c>
+      <c r="F111" s="6">
+        <v>1</v>
+      </c>
+      <c r="K111" s="6">
+        <v>10</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="M111" s="4"/>
+      <c r="N111" s="6">
+        <v>1</v>
+      </c>
+      <c r="O111" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>40110</v>
+      </c>
+      <c r="K112" s="6">
+        <v>10</v>
+      </c>
+      <c r="L112" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="M112" s="4"/>
+      <c r="N112" s="6">
+        <v>1</v>
+      </c>
+      <c r="O112" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>40111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>40112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>40113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <v>40114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>40115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <v>40116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>40117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>40118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <v>40119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>40120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <v>40121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>40122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <v>40123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>40124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <v>40125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <v>40126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <v>40127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>40128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <v>40129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
+        <v>40130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <v>40131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
+        <v>40132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
+        <v>40133</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C50E3E-85CB-44C6-91A0-135196D0AD70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8579949-1681-42C4-AF92-368EDAF6CC75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="195">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -994,7 +994,16 @@
     <t>50061,22</t>
   </si>
   <si>
-    <t>50061,23</t>
+    <t>太阳真炁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,10,10,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|50050,3|50004,5|10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1360,14 +1369,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G113" sqref="G113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="8" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" customWidth="1"/>
     <col min="12" max="12" width="23.44140625" customWidth="1"/>
     <col min="14" max="14" width="17.33203125" customWidth="1"/>
     <col min="15" max="16" width="16" customWidth="1"/>
@@ -5610,11 +5620,30 @@
       <c r="A112" s="6">
         <v>40110</v>
       </c>
-      <c r="K112" s="6">
-        <v>10</v>
+      <c r="B112" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C112" s="6">
+        <v>30040</v>
+      </c>
+      <c r="D112" s="6">
+        <v>1</v>
+      </c>
+      <c r="E112" s="6">
+        <v>0</v>
+      </c>
+      <c r="F112" s="6">
+        <v>2</v>
+      </c>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" s="6">
@@ -5624,82 +5653,146 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>40111</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C113" s="6">
+        <v>30040</v>
+      </c>
+      <c r="D113" s="6">
+        <v>2</v>
+      </c>
+      <c r="E113" s="6">
+        <v>0</v>
+      </c>
+      <c r="F113" s="6">
+        <v>2</v>
+      </c>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="L113" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="M113" s="4"/>
+      <c r="N113" s="6">
+        <v>1</v>
+      </c>
+      <c r="O113" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>40112</v>
       </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B114" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C114" s="6">
+        <v>30040</v>
+      </c>
+      <c r="D114" s="6">
+        <v>3</v>
+      </c>
+      <c r="E114" s="6">
+        <v>0</v>
+      </c>
+      <c r="F114" s="6">
+        <v>2</v>
+      </c>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="L114" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="M114" s="4"/>
+      <c r="N114" s="6">
+        <v>1</v>
+      </c>
+      <c r="O114" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>40113</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>40114</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>40115</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>40116</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>40117</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>40118</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>40119</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>40120</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>40121</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>40122</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>40123</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>40124</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>40125</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>40126</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8579949-1681-42C4-AF92-368EDAF6CC75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F168875-1130-4C4F-86B3-E0987706616F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -240,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="194">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -906,14 +906,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20|100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1,24</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1003,6 +995,10 @@
   </si>
   <si>
     <t>0|50050,3|50004,5|10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,41</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1369,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G113" sqref="G113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1537,10 +1533,10 @@
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>170</v>
+        <v>193</v>
+      </c>
+      <c r="L3" s="1">
+        <v>20</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>32</v>
@@ -4592,10 +4588,10 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M85" s="6"/>
       <c r="N85" s="6">
@@ -5047,7 +5043,7 @@
         <v>40095</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C97" s="6">
         <v>30035</v>
@@ -5069,7 +5065,7 @@
         <v>36</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M97" s="4"/>
       <c r="N97" s="6">
@@ -5088,7 +5084,7 @@
         <v>40096</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C98" s="6">
         <v>30035</v>
@@ -5110,7 +5106,7 @@
         <v>36</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M98" s="4"/>
       <c r="N98" s="6">
@@ -5129,7 +5125,7 @@
         <v>40097</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C99" s="6">
         <v>30035</v>
@@ -5151,7 +5147,7 @@
         <v>36</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M99" s="4"/>
       <c r="N99" s="6">
@@ -5170,7 +5166,7 @@
         <v>40098</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C100" s="6">
         <v>30036</v>
@@ -5185,10 +5181,10 @@
         <v>0</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="M100" s="6" t="s">
         <v>36</v>
@@ -5205,7 +5201,7 @@
         <v>40099</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C101" s="6">
         <v>30036</v>
@@ -5244,7 +5240,7 @@
         <v>40100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C102" s="6">
         <v>30036</v>
@@ -5283,7 +5279,7 @@
         <v>40101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C103" s="6">
         <v>30037</v>
@@ -5305,7 +5301,7 @@
         <v>8</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M103" s="6"/>
       <c r="N103" s="6">
@@ -5320,7 +5316,7 @@
         <v>40102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C104" s="6">
         <v>30037</v>
@@ -5342,7 +5338,7 @@
         <v>8</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M104" s="6"/>
       <c r="N104" s="6">
@@ -5357,7 +5353,7 @@
         <v>40103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C105" s="6">
         <v>30037</v>
@@ -5379,7 +5375,7 @@
         <v>8</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M105" s="6"/>
       <c r="N105" s="6">
@@ -5394,7 +5390,7 @@
         <v>40104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C106" s="6">
         <v>30038</v>
@@ -5423,7 +5419,7 @@
         <v>1</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N106" s="6">
         <v>4</v>
@@ -5437,7 +5433,7 @@
         <v>40105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C107" s="6">
         <v>30038</v>
@@ -5466,7 +5462,7 @@
         <v>1</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N107" s="6">
         <v>4</v>
@@ -5480,7 +5476,7 @@
         <v>40106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C108" s="6">
         <v>30038</v>
@@ -5509,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N108" s="6">
         <v>4</v>
@@ -5523,7 +5519,7 @@
         <v>40107</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C109" s="6">
         <v>30039</v>
@@ -5541,7 +5537,7 @@
         <v>10</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N109" s="6">
         <v>1</v>
@@ -5555,7 +5551,7 @@
         <v>40108</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C110" s="6">
         <v>30039</v>
@@ -5573,7 +5569,7 @@
         <v>10</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="6">
@@ -5588,7 +5584,7 @@
         <v>40109</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C111" s="6">
         <v>30039</v>
@@ -5606,7 +5602,7 @@
         <v>10</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M111" s="4"/>
       <c r="N111" s="6">
@@ -5621,7 +5617,7 @@
         <v>40110</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C112" s="6">
         <v>30040</v>
@@ -5640,10 +5636,10 @@
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" s="6">
@@ -5658,7 +5654,7 @@
         <v>40111</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C113" s="6">
         <v>30040</v>
@@ -5677,10 +5673,10 @@
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M113" s="4"/>
       <c r="N113" s="6">
@@ -5695,7 +5691,7 @@
         <v>40112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C114" s="6">
         <v>30040</v>
@@ -5714,10 +5710,10 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M114" s="4"/>
       <c r="N114" s="6">

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F168875-1130-4C4F-86B3-E0987706616F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE30E5E-ADA8-43F3-B693-319C12D24184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -998,7 +998,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,41</t>
+    <t>1,30</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1366,7 +1366,7 @@
   <dimension ref="A1:V135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE30E5E-ADA8-43F3-B693-319C12D24184}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60740279-8C42-4A8D-B788-4C6739DF3698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1365,8 +1365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="I99" sqref="I99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60740279-8C42-4A8D-B788-4C6739DF3698}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="M2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="Q2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1005,7 +1004,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1362,26 +1361,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="I99" sqref="I99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="8" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="19.5546875" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+    <col min="12" max="12" width="23.5" customWidth="1"/>
+    <col min="14" max="14" width="17.375" customWidth="1"/>
     <col min="15" max="16" width="16" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1443,7 +1442,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1505,7 +1504,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1553,7 +1552,7 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1597,7 +1596,7 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -1641,7 +1640,7 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
@@ -1685,7 +1684,7 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
@@ -1731,7 +1730,7 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
@@ -1777,7 +1776,7 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
@@ -1813,7 +1812,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
@@ -1849,7 +1848,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
@@ -1885,7 +1884,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1918,7 +1917,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
@@ -1951,7 +1950,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
@@ -1984,7 +1983,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
@@ -2017,7 +2016,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -2050,7 +2049,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -2083,7 +2082,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -2116,7 +2115,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -2149,7 +2148,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -2182,7 +2181,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -2215,7 +2214,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -2251,7 +2250,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -2287,7 +2286,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -2323,7 +2322,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -2359,7 +2358,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -2395,7 +2394,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -2431,7 +2430,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -2467,7 +2466,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -2503,7 +2502,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -2539,7 +2538,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -2575,7 +2574,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -2611,7 +2610,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -2647,7 +2646,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
@@ -2723,7 +2722,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
@@ -2761,7 +2760,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
@@ -2802,7 +2801,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
@@ -2843,7 +2842,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
@@ -2884,7 +2883,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
@@ -2917,7 +2916,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
@@ -2950,7 +2949,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
@@ -2983,7 +2982,7 @@
       </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
@@ -3018,7 +3017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
@@ -3053,7 +3052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
@@ -3088,7 +3087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
@@ -3120,7 +3119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
@@ -3152,7 +3151,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>
@@ -3184,7 +3183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40047</v>
       </c>
@@ -3219,7 +3218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40048</v>
       </c>
@@ -3254,7 +3253,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40049</v>
       </c>
@@ -3289,7 +3288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40050</v>
       </c>
@@ -3324,7 +3323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40051</v>
       </c>
@@ -3359,7 +3358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40052</v>
       </c>
@@ -3394,7 +3393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40053</v>
       </c>
@@ -3432,7 +3431,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40054</v>
       </c>
@@ -3470,7 +3469,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40055</v>
       </c>
@@ -3508,7 +3507,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40056</v>
       </c>
@@ -3548,7 +3547,7 @@
       </c>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40057</v>
       </c>
@@ -3588,7 +3587,7 @@
       </c>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40058</v>
       </c>
@@ -3628,7 +3627,7 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40059</v>
       </c>
@@ -3667,7 +3666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40060</v>
       </c>
@@ -3706,7 +3705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40061</v>
       </c>
@@ -3745,7 +3744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40062</v>
       </c>
@@ -3784,7 +3783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40063</v>
       </c>
@@ -3823,7 +3822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40064</v>
       </c>
@@ -3862,7 +3861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40065</v>
       </c>
@@ -3901,7 +3900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40066</v>
       </c>
@@ -3940,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40067</v>
       </c>
@@ -3979,7 +3978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40068</v>
       </c>
@@ -4018,7 +4017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>40069</v>
       </c>
@@ -4057,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>40070</v>
       </c>
@@ -4096,7 +4095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>40071</v>
       </c>
@@ -4135,7 +4134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40072</v>
       </c>
@@ -4174,7 +4173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40073</v>
       </c>
@@ -4213,7 +4212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40074</v>
       </c>
@@ -4254,7 +4253,7 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>40075</v>
       </c>
@@ -4295,7 +4294,7 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>40076</v>
       </c>
@@ -4336,7 +4335,7 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>40077</v>
       </c>
@@ -4373,7 +4372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>40078</v>
       </c>
@@ -4410,7 +4409,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>40079</v>
       </c>
@@ -4447,7 +4446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>40080</v>
       </c>
@@ -4486,7 +4485,7 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>40081</v>
       </c>
@@ -4525,7 +4524,7 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>40082</v>
       </c>
@@ -4564,7 +4563,7 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>40083</v>
       </c>
@@ -4603,7 +4602,7 @@
       <c r="P85" s="6"/>
       <c r="Q85" s="4"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>40084</v>
       </c>
@@ -4642,7 +4641,7 @@
       <c r="P86" s="6"/>
       <c r="Q86" s="4"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>40085</v>
       </c>
@@ -4681,7 +4680,7 @@
       <c r="P87" s="6"/>
       <c r="Q87" s="4"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>40086</v>
       </c>
@@ -4722,7 +4721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>40087</v>
       </c>
@@ -4763,7 +4762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>40088</v>
       </c>
@@ -4804,7 +4803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>40089</v>
       </c>
@@ -4841,7 +4840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>40090</v>
       </c>
@@ -4878,7 +4877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>40091</v>
       </c>
@@ -4915,7 +4914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>40092</v>
       </c>
@@ -4956,7 +4955,7 @@
       <c r="R94" s="4"/>
       <c r="S94" s="6"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>40093</v>
       </c>
@@ -4997,7 +4996,7 @@
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>40094</v>
       </c>
@@ -5038,7 +5037,7 @@
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>40095</v>
       </c>
@@ -5079,7 +5078,7 @@
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>40096</v>
       </c>
@@ -5120,7 +5119,7 @@
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>40097</v>
       </c>
@@ -5161,7 +5160,7 @@
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>40098</v>
       </c>
@@ -5196,7 +5195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>40099</v>
       </c>
@@ -5235,7 +5234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>40100</v>
       </c>
@@ -5274,7 +5273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>40101</v>
       </c>
@@ -5311,7 +5310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>40102</v>
       </c>
@@ -5348,7 +5347,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>40103</v>
       </c>
@@ -5385,7 +5384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>40104</v>
       </c>
@@ -5428,7 +5427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>40105</v>
       </c>
@@ -5471,7 +5470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>40106</v>
       </c>
@@ -5514,7 +5513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>40107</v>
       </c>
@@ -5546,7 +5545,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>40108</v>
       </c>
@@ -5579,7 +5578,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>40109</v>
       </c>
@@ -5612,7 +5611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>40110</v>
       </c>
@@ -5649,7 +5648,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>40111</v>
       </c>
@@ -5686,7 +5685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>40112</v>
       </c>
@@ -5723,107 +5722,107 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>40113</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>40114</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>40115</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>40116</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>40117</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>40118</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>40119</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>40120</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>40121</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>40122</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>40123</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>40124</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>40125</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>40126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>40127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>40128</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>40129</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>40130</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>40131</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>40132</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>40133</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576DACB8-C937-4125-9FAA-8A46B51BDFCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0">
+    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +129,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0">
+    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -239,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="196">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -323,688 +324,696 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>冲拳</t>
+    <t>波撼洞庭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7</t>
+  </si>
+  <si>
+    <t>1,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>残阳剑法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫气东来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>show_target_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>36|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15|15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>show_skill_ani_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>青蛇吐信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭秋风</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>1,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|50011,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30|50011,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50011,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50003,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|50003,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30|50003,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰袖拂穴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15|50001,20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24|50001,25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35|50001,30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清风拂穴手</t>
+  </si>
+  <si>
+    <t>清风拂穴手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大浪千叠手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50016,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50016,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏剑术</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cardBuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>醉卧沙场君莫笑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50008,3|50018,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50008,5|50018,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50008,8|50018,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,15,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50017,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_a_effect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>z10060</t>
+  </si>
+  <si>
+    <t>z10060</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_effect_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>skill_eft_jian</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_result</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙战于野</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex_value</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神龙摆尾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潜龙勿用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐尸神掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪落昆仑</t>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|50013,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24|50013,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32|50013,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金雁横空</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|50014,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24|50014,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32|50014,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞沙扬砾</t>
+  </si>
+  <si>
+    <t>16|50019,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24|50019,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32|50019,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无极剑意</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|50020,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24|50020,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32|50020,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回风落雁</t>
+  </si>
+  <si>
+    <t>16|50021,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24|50021,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32|50021,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸳鸯瓦冷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|50009,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30|50009,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40|50009,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荼火掌法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|50010,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30|50010,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40|50010,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>枯木逢春</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50004,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钟罩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50005,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>血残气丧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50022,10</t>
+  </si>
+  <si>
+    <t>50022,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50023,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,17</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50024,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大金刚掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>醉拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|50018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|50018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|50018</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50|50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>60|60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>隔山打牛</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,24</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|3,30034</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>一月映三江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,30036,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,30036,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,30038,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50058,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50058,2</t>
+  </si>
+  <si>
+    <t>50058,3</t>
+  </si>
+  <si>
+    <t>凤箫声动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤箫声动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凤箫声动</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,4,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓弦劲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,21</t>
+  </si>
+  <si>
+    <t>50061,22</t>
+  </si>
+  <si>
+    <t>太阳真炁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,10,10,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|50050,3|50004,5|10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞沙扬砾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30|150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40|200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40|300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷(lv.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷(lv.2)</t>
+  </si>
+  <si>
+    <t>投掷(lv.3)</t>
+  </si>
+  <si>
+    <t>平拳+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平拳++</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>直剑</t>
-  </si>
-  <si>
-    <t>直剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直剑+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直剑++</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>格挡</t>
-  </si>
-  <si>
-    <t>波撼洞庭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,7</t>
-  </si>
-  <si>
-    <t>1,7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>残阳剑法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫气东来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>show_target_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,3,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,3,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40|5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18|140</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24|150</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>35|160</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>44|180</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>22|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>36|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15|15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>show_skill_ani_type</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>青蛇吐信</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>祭秋风</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,8</t>
-  </si>
-  <si>
-    <t>1,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20|50011,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30|50011,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50011,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50003,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20|50003,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30|50003,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰袖拂穴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15|50001,20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24|50001,25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>35|50001,30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>清风拂穴手</t>
-  </si>
-  <si>
-    <t>清风拂穴手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大浪千叠手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50016,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50016,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>藏剑术</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cardBuff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>醉卧沙场君莫笑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50008,3|50018,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50008,5|50018,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50008,8|50018,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,15,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50017,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_a_effect</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>z10060</t>
-  </si>
-  <si>
-    <t>z10060</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_effect_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skill_eft_jian</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex_result</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙战于野</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ex_value</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>神龙摆尾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>潜龙勿用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐尸神掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪落昆仑</t>
-  </si>
-  <si>
-    <t>1,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16|50013,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24|50013,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32|50013,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金雁横空</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16|50014,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24|50014,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32|50014,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞沙扬砾</t>
-  </si>
-  <si>
-    <t>16|50019,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24|50019,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32|50019,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无极剑意</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16|50020,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24|50020,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32|50020,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>回风落雁</t>
-  </si>
-  <si>
-    <t>16|50021,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24|50021,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32|50021,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>鸳鸯瓦冷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20|50009,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30|50009,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40|50009,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>荼火掌法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20|50010,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30|50010,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40|50010,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>枯木逢春</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50004,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钟罩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50005,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>血残气丧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50022,10</t>
-  </si>
-  <si>
-    <t>50022,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50023,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50024,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大金刚掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>醉拳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|50018</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|50018</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|50018</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20|20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50|50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60|60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>隔山打牛</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24|50012,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20|3,30034</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>一月映三江</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,30036,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,30036,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,30038,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50058,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50058,2</t>
-  </si>
-  <si>
-    <t>50058,3</t>
-  </si>
-  <si>
-    <t>凤箫声动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>凤箫声动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>凤箫声动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>投掷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>39,4,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓弦劲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50061,20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50061,21</t>
-  </si>
-  <si>
-    <t>50061,22</t>
-  </si>
-  <si>
-    <t>太阳真炁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,10,10,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|50050,3|50004,5|10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波撼洞庭+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波撼洞庭++</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波撼洞庭+++</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1361,26 +1370,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="8" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="19.5" customWidth="1"/>
-    <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="14" max="14" width="17.375" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="23.44140625" customWidth="1"/>
+    <col min="14" max="14" width="17.33203125" customWidth="1"/>
     <col min="15" max="16" width="16" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1427,13 +1436,13 @@
         <v>2</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>5</v>
@@ -1442,7 +1451,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1468,10 +1477,10 @@
         <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>7</v>
@@ -1483,28 +1492,28 @@
         <v>13</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1523,28 +1532,24 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>164</v>
-      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
-        <v>193</v>
+      <c r="K3" s="1">
+        <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
       </c>
       <c r="O3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P3" s="1"/>
       <c r="S3" s="1"/>
@@ -1552,12 +1557,12 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
+      <c r="B4" s="6" t="s">
+        <v>185</v>
       </c>
       <c r="C4" s="1">
         <v>30001</v>
@@ -1579,10 +1584,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="1">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
@@ -1596,12 +1601,12 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>21</v>
+      <c r="B5" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="C5" s="1">
         <v>30001</v>
@@ -1622,11 +1627,11 @@
       <c r="K5" s="1">
         <v>1</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>43</v>
+      <c r="L5" s="1">
+        <v>12</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
@@ -1640,12 +1645,12 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1">
         <v>30002</v>
@@ -1657,26 +1662,26 @@
         <v>2</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="L6" s="6" t="s">
-        <v>167</v>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
+        <v>4</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N6" s="1">
         <v>2</v>
       </c>
       <c r="O6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" s="1"/>
       <c r="S6" s="1"/>
@@ -1684,12 +1689,12 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
+      <c r="B7" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="C7" s="1">
         <v>30002</v>
@@ -1707,20 +1712,20 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>163</v>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>6</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N7" s="1">
         <v>2</v>
       </c>
       <c r="O7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
@@ -1730,12 +1735,12 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
+      <c r="B8" s="6" t="s">
+        <v>189</v>
       </c>
       <c r="C8" s="1">
         <v>30002</v>
@@ -1744,7 +1749,7 @@
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -1757,16 +1762,16 @@
         <v>1</v>
       </c>
       <c r="L8" s="1">
+        <v>10</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="N8" s="1">
         <v>2</v>
       </c>
       <c r="O8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
@@ -1776,12 +1781,12 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="C9" s="1">
         <v>30003</v>
@@ -1799,12 +1804,12 @@
         <v>5</v>
       </c>
       <c r="L9" s="1">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N9" s="1">
+        <v>33</v>
+      </c>
+      <c r="N9" s="6">
         <v>1</v>
       </c>
       <c r="O9" s="1">
@@ -1812,12 +1817,12 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>24</v>
+      <c r="B10" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="C10" s="1">
         <v>30003</v>
@@ -1835,12 +1840,12 @@
         <v>5</v>
       </c>
       <c r="L10" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="1">
+        <v>34</v>
+      </c>
+      <c r="N10" s="6">
         <v>1</v>
       </c>
       <c r="O10" s="1">
@@ -1848,12 +1853,12 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
+      <c r="B11" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="C11" s="1">
         <v>30003</v>
@@ -1871,12 +1876,12 @@
         <v>5</v>
       </c>
       <c r="L11" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N11" s="1">
+        <v>35</v>
+      </c>
+      <c r="N11" s="6">
         <v>1</v>
       </c>
       <c r="O11" s="1">
@@ -1884,12 +1889,12 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
         <v>30004</v>
@@ -1904,10 +1909,10 @@
         <v>2</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>178</v>
       </c>
       <c r="N12" s="1">
         <v>1</v>
@@ -1917,12 +1922,12 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>25</v>
+      <c r="B13" s="6" t="s">
+        <v>193</v>
       </c>
       <c r="C13" s="1">
         <v>30004</v>
@@ -1937,10 +1942,10 @@
         <v>2</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>45</v>
+        <v>179</v>
       </c>
       <c r="N13" s="1">
         <v>1</v>
@@ -1950,12 +1955,12 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
+      <c r="B14" s="6" t="s">
+        <v>194</v>
       </c>
       <c r="C14" s="1">
         <v>30004</v>
@@ -1970,10 +1975,10 @@
         <v>2</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L14" t="s">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="N14" s="1">
         <v>1</v>
@@ -1983,12 +1988,12 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>25</v>
+      <c r="B15" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="C15" s="1">
         <v>30004</v>
@@ -2003,10 +2008,10 @@
         <v>2</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="N15" s="1">
         <v>1</v>
@@ -2016,12 +2021,12 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <v>30005</v>
@@ -2036,10 +2041,10 @@
         <v>2</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L16" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="N16" s="1">
         <v>2</v>
@@ -2049,12 +2054,12 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1">
         <v>30005</v>
@@ -2069,10 +2074,10 @@
         <v>2</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="L17" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N17" s="1">
         <v>2</v>
@@ -2082,12 +2087,12 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
         <v>30005</v>
@@ -2102,10 +2107,10 @@
         <v>2</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="L18" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="N18" s="1">
         <v>2</v>
@@ -2115,12 +2120,12 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1">
         <v>30005</v>
@@ -2135,11 +2140,11 @@
         <v>1</v>
       </c>
       <c r="K19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" t="s">
         <v>41</v>
       </c>
-      <c r="L19" t="s">
-        <v>50</v>
-      </c>
       <c r="N19" s="1">
         <v>2</v>
       </c>
@@ -2148,12 +2153,12 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1">
         <v>30006</v>
@@ -2168,10 +2173,10 @@
         <v>1</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L20" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="N20" s="1">
         <v>1</v>
@@ -2181,12 +2186,12 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1">
         <v>30006</v>
@@ -2201,10 +2206,10 @@
         <v>1</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L21" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="N21" s="1">
         <v>1</v>
@@ -2214,12 +2219,12 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1">
         <v>30007</v>
@@ -2234,13 +2239,13 @@
         <v>1</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N22" s="1">
         <v>1</v>
@@ -2250,12 +2255,12 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1">
         <v>30007</v>
@@ -2270,13 +2275,13 @@
         <v>1</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N23" s="1">
         <v>1</v>
@@ -2286,12 +2291,12 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C24" s="1">
         <v>30007</v>
@@ -2306,13 +2311,13 @@
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N24" s="1">
         <v>1</v>
@@ -2322,12 +2327,12 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C25" s="1">
         <v>30008</v>
@@ -2342,13 +2347,13 @@
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N25" s="1">
         <v>2</v>
@@ -2358,12 +2363,12 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1">
         <v>30008</v>
@@ -2378,13 +2383,13 @@
         <v>1</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N26" s="1">
         <v>2</v>
@@ -2394,12 +2399,12 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C27" s="1">
         <v>30008</v>
@@ -2414,13 +2419,13 @@
         <v>1</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N27" s="1">
         <v>2</v>
@@ -2430,12 +2435,12 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1">
         <v>30009</v>
@@ -2450,13 +2455,13 @@
         <v>1</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N28" s="1">
         <v>5</v>
@@ -2466,12 +2471,12 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1">
         <v>30009</v>
@@ -2486,13 +2491,13 @@
         <v>1</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N29" s="1">
         <v>5</v>
@@ -2502,12 +2507,12 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C30" s="1">
         <v>30009</v>
@@ -2522,13 +2527,13 @@
         <v>1</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N30" s="1">
         <v>5</v>
@@ -2538,12 +2543,12 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C31" s="1">
         <v>30010</v>
@@ -2558,13 +2563,13 @@
         <v>1</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L31" s="1">
         <v>15</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N31" s="1">
         <v>5</v>
@@ -2574,12 +2579,12 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C32" s="1">
         <v>30010</v>
@@ -2594,13 +2599,13 @@
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L32" s="1">
         <v>24</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N32" s="1">
         <v>5</v>
@@ -2610,12 +2615,12 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C33" s="1">
         <v>30010</v>
@@ -2630,13 +2635,13 @@
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="L33" s="1">
         <v>35</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N33" s="1">
         <v>5</v>
@@ -2646,12 +2651,12 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C34" s="1">
         <v>30011</v>
@@ -2666,10 +2671,10 @@
         <v>0</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="N34" s="1">
         <v>1</v>
@@ -2678,18 +2683,18 @@
         <v>1</v>
       </c>
       <c r="P34" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="R34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C35" s="1">
         <v>30011</v>
@@ -2704,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="N35" s="1">
         <v>1</v>
@@ -2716,18 +2721,18 @@
         <v>1</v>
       </c>
       <c r="P35" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="R35" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C36" s="1">
         <v>30011</v>
@@ -2742,30 +2747,30 @@
         <v>0</v>
       </c>
       <c r="K36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="R36" t="s">
         <v>78</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="N36" s="1">
-        <v>1</v>
-      </c>
-      <c r="O36" s="1">
-        <v>1</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C37" s="1">
         <v>30012</v>
@@ -2780,7 +2785,7 @@
         <v>2</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L37" s="1">
         <v>5</v>
@@ -2792,21 +2797,21 @@
         <v>1</v>
       </c>
       <c r="P37" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="R37" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="S37" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C38" s="1">
         <v>30012</v>
@@ -2821,7 +2826,7 @@
         <v>2</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L38" s="1">
         <v>5</v>
@@ -2833,21 +2838,21 @@
         <v>1</v>
       </c>
       <c r="P38" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="R38" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="S38" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C39" s="1">
         <v>30012</v>
@@ -2862,7 +2867,7 @@
         <v>2</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="L39" s="1">
         <v>5</v>
@@ -2874,21 +2879,21 @@
         <v>1</v>
       </c>
       <c r="P39" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="R39" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1">
         <v>30013</v>
@@ -2903,10 +2908,10 @@
         <v>0</v>
       </c>
       <c r="K40" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L40" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="N40" s="1">
         <v>3</v>
@@ -2916,12 +2921,12 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1">
         <v>30013</v>
@@ -2936,10 +2941,10 @@
         <v>0</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L41" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="N41" s="1">
         <v>3</v>
@@ -2949,12 +2954,12 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C42" s="1">
         <v>30013</v>
@@ -2969,10 +2974,10 @@
         <v>0</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="L42" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="N42" s="1">
         <v>3</v>
@@ -2982,12 +2987,12 @@
       </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C43" s="1">
         <v>30014</v>
@@ -3002,13 +3007,13 @@
         <v>1</v>
       </c>
       <c r="K43" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N43" s="1">
         <v>1</v>
@@ -3017,12 +3022,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C44" s="1">
         <v>30014</v>
@@ -3037,13 +3042,13 @@
         <v>1</v>
       </c>
       <c r="K44" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="N44" s="1">
         <v>1</v>
@@ -3052,12 +3057,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C45" s="1">
         <v>30014</v>
@@ -3072,13 +3077,13 @@
         <v>1</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="N45" s="1">
         <v>1</v>
@@ -3087,12 +3092,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C46" s="1">
         <v>30015</v>
@@ -3107,10 +3112,10 @@
         <v>3</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="N46" s="6">
         <v>1</v>
@@ -3119,12 +3124,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C47" s="1">
         <v>30015</v>
@@ -3139,10 +3144,10 @@
         <v>3</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="N47" s="6">
         <v>1</v>
@@ -3151,12 +3156,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C48" s="1">
         <v>30015</v>
@@ -3171,10 +3176,10 @@
         <v>3</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="N48" s="6">
         <v>1</v>
@@ -3183,12 +3188,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40047</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C49" s="1">
         <v>30016</v>
@@ -3203,13 +3208,13 @@
         <v>1</v>
       </c>
       <c r="K49" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N49" s="1">
         <v>1</v>
@@ -3218,12 +3223,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40048</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C50" s="1">
         <v>30016</v>
@@ -3238,13 +3243,13 @@
         <v>1</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="N50" s="1">
         <v>1</v>
@@ -3253,12 +3258,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40049</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C51" s="1">
         <v>30016</v>
@@ -3273,13 +3278,13 @@
         <v>1</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="N51" s="1">
         <v>1</v>
@@ -3288,12 +3293,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40050</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C52" s="1">
         <v>30017</v>
@@ -3308,13 +3313,13 @@
         <v>2</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="L52" s="1">
         <v>300</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N52" s="1">
         <v>1</v>
@@ -3323,12 +3328,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40051</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C53" s="1">
         <v>30017</v>
@@ -3343,13 +3348,13 @@
         <v>2</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="L53" s="1">
         <v>400</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N53" s="1">
         <v>1</v>
@@ -3358,12 +3363,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40052</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="C54" s="1">
         <v>30017</v>
@@ -3378,13 +3383,13 @@
         <v>2</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="L54" s="1">
         <v>500</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N54" s="1">
         <v>1</v>
@@ -3393,12 +3398,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40053</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C55" s="3">
         <v>30018</v>
@@ -3413,13 +3418,13 @@
         <v>1</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L55" s="3" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N55" s="3">
         <v>2</v>
@@ -3431,12 +3436,12 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40054</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C56" s="3">
         <v>30018</v>
@@ -3451,13 +3456,13 @@
         <v>1</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N56" s="3">
         <v>2</v>
@@ -3469,12 +3474,12 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40055</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="C57" s="3">
         <v>30018</v>
@@ -3489,13 +3494,13 @@
         <v>1</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N57" s="3">
         <v>2</v>
@@ -3507,12 +3512,12 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40056</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C58" s="3">
         <v>30019</v>
@@ -3531,13 +3536,13 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L58" s="3" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="M58" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N58" s="3">
         <v>2</v>
@@ -3547,12 +3552,12 @@
       </c>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40057</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C59" s="3">
         <v>30019</v>
@@ -3571,13 +3576,13 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L59" s="3" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="M59" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N59" s="3">
         <v>2</v>
@@ -3587,12 +3592,12 @@
       </c>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40058</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C60" s="3">
         <v>30019</v>
@@ -3611,13 +3616,13 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N60" s="3">
         <v>2</v>
@@ -3627,12 +3632,12 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40059</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C61" s="3">
         <v>30020</v>
@@ -3651,13 +3656,13 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L61" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="M61" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N61" s="3">
         <v>2</v>
@@ -3666,12 +3671,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40060</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="C62" s="3">
         <v>30020</v>
@@ -3690,13 +3695,13 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L62" s="3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="M62" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N62" s="3">
         <v>2</v>
@@ -3705,12 +3710,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40061</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C63" s="3">
         <v>30020</v>
@@ -3729,13 +3734,13 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="3" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N63" s="3">
         <v>2</v>
@@ -3744,12 +3749,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40062</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C64" s="5">
         <v>30021</v>
@@ -3768,13 +3773,13 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L64" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="M64" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N64" s="5">
         <v>2</v>
@@ -3783,12 +3788,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40063</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C65" s="5">
         <v>30021</v>
@@ -3807,13 +3812,13 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L65" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="M65" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N65" s="5">
         <v>2</v>
@@ -3822,12 +3827,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40064</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C66" s="5">
         <v>30021</v>
@@ -3846,13 +3851,13 @@
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="5" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="L66" s="5" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="M66" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N66" s="5">
         <v>2</v>
@@ -3861,12 +3866,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40065</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C67" s="5">
         <v>30022</v>
@@ -3885,13 +3890,13 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L67" s="5" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="M67" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="N67" s="5">
         <v>2</v>
@@ -3900,12 +3905,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40066</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C68" s="5">
         <v>30022</v>
@@ -3924,13 +3929,13 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L68" s="5" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="M68" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N68" s="5">
         <v>2</v>
@@ -3939,12 +3944,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40067</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C69" s="5">
         <v>30022</v>
@@ -3963,13 +3968,13 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="5" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="L69" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="M69" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N69" s="5">
         <v>2</v>
@@ -3978,12 +3983,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40068</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C70" s="6">
         <v>30023</v>
@@ -4002,13 +4007,13 @@
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
       <c r="K70" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="M70" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N70" s="6">
         <v>1</v>
@@ -4017,12 +4022,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>40069</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C71" s="6">
         <v>30023</v>
@@ -4041,13 +4046,13 @@
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
       <c r="K71" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="M71" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N71" s="6">
         <v>1</v>
@@ -4056,12 +4061,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>40070</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C72" s="6">
         <v>30023</v>
@@ -4080,13 +4085,13 @@
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
       <c r="K72" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="M72" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N72" s="6">
         <v>1</v>
@@ -4095,12 +4100,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>40071</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C73" s="6">
         <v>30024</v>
@@ -4119,13 +4124,13 @@
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
       <c r="K73" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="M73" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="N73" s="6">
         <v>1</v>
@@ -4134,12 +4139,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40072</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C74" s="6">
         <v>30024</v>
@@ -4158,13 +4163,13 @@
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
       <c r="K74" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M74" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N74" s="6">
         <v>1</v>
@@ -4173,12 +4178,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40073</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C75" s="6">
         <v>30024</v>
@@ -4197,13 +4202,13 @@
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
       <c r="K75" s="6" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="M75" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="N75" s="6">
         <v>1</v>
@@ -4212,12 +4217,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40074</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C76" s="6">
         <v>30025</v>
@@ -4236,10 +4241,10 @@
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
       <c r="K76" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="6">
@@ -4253,12 +4258,12 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>40075</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C77" s="6">
         <v>30025</v>
@@ -4277,10 +4282,10 @@
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
       <c r="K77" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="M77" s="4"/>
       <c r="N77" s="6">
@@ -4294,12 +4299,12 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>40076</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C78" s="6">
         <v>30025</v>
@@ -4318,10 +4323,10 @@
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
       <c r="K78" s="6" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="M78" s="4"/>
       <c r="N78" s="6">
@@ -4335,12 +4340,12 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>40077</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C79" s="6">
         <v>30026</v>
@@ -4362,7 +4367,7 @@
         <v>10</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="M79" s="4"/>
       <c r="N79" s="6">
@@ -4372,12 +4377,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>40078</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C80" s="6">
         <v>30026</v>
@@ -4399,7 +4404,7 @@
         <v>10</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="M80" s="4"/>
       <c r="N80" s="6">
@@ -4409,12 +4414,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>40079</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C81" s="6">
         <v>30026</v>
@@ -4436,7 +4441,7 @@
         <v>10</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="M81" s="4"/>
       <c r="N81" s="6">
@@ -4446,12 +4451,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>40080</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C82" s="6">
         <v>30027</v>
@@ -4473,7 +4478,7 @@
         <v>10</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="M82" s="4"/>
       <c r="N82" s="6">
@@ -4485,12 +4490,12 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
     </row>
-    <row r="83" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>40081</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C83" s="6">
         <v>30027</v>
@@ -4512,7 +4517,7 @@
         <v>10</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M83" s="4"/>
       <c r="N83" s="6">
@@ -4524,12 +4529,12 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
     </row>
-    <row r="84" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>40082</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C84" s="6">
         <v>30027</v>
@@ -4551,7 +4556,7 @@
         <v>10</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M84" s="4"/>
       <c r="N84" s="6">
@@ -4563,12 +4568,12 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
     </row>
-    <row r="85" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>40083</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C85" s="6">
         <v>30030</v>
@@ -4587,10 +4592,10 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="6" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="M85" s="6"/>
       <c r="N85" s="6">
@@ -4602,12 +4607,12 @@
       <c r="P85" s="6"/>
       <c r="Q85" s="4"/>
     </row>
-    <row r="86" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>40084</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C86" s="6">
         <v>30030</v>
@@ -4626,7 +4631,7 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="6" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="L86" s="6">
         <v>30</v>
@@ -4641,12 +4646,12 @@
       <c r="P86" s="6"/>
       <c r="Q86" s="4"/>
     </row>
-    <row r="87" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>40085</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C87" s="6">
         <v>30030</v>
@@ -4665,7 +4670,7 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="L87" s="6">
         <v>40</v>
@@ -4680,12 +4685,12 @@
       <c r="P87" s="6"/>
       <c r="Q87" s="4"/>
     </row>
-    <row r="88" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>40086</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C88" s="6">
         <v>30031</v>
@@ -4700,18 +4705,18 @@
         <v>1</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="M88" s="6"/>
       <c r="N88" s="6">
@@ -4721,12 +4726,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>40087</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C89" s="6">
         <v>30031</v>
@@ -4741,18 +4746,18 @@
         <v>1</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="I89" s="4"/>
       <c r="J89" s="4"/>
       <c r="K89" s="6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="M89" s="6"/>
       <c r="N89" s="6">
@@ -4762,12 +4767,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>40088</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C90" s="6">
         <v>30031</v>
@@ -4782,18 +4787,18 @@
         <v>1</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
       <c r="K90" s="6" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="M90" s="6"/>
       <c r="N90" s="6">
@@ -4803,12 +4808,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>40089</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C91" s="6">
         <v>30032</v>
@@ -4840,12 +4845,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>40090</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C92" s="6">
         <v>30032</v>
@@ -4877,12 +4882,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>40091</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C93" s="6">
         <v>30032</v>
@@ -4914,12 +4919,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>40092</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C94" s="6">
         <v>30033</v>
@@ -4955,12 +4960,12 @@
       <c r="R94" s="4"/>
       <c r="S94" s="6"/>
     </row>
-    <row r="95" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>40093</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C95" s="6">
         <v>30033</v>
@@ -4996,12 +5001,12 @@
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
     </row>
-    <row r="96" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>40094</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C96" s="6">
         <v>30033</v>
@@ -5037,12 +5042,12 @@
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
     </row>
-    <row r="97" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>40095</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C97" s="6">
         <v>30035</v>
@@ -5064,7 +5069,7 @@
         <v>36</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="M97" s="4"/>
       <c r="N97" s="6">
@@ -5078,12 +5083,12 @@
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>40096</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C98" s="6">
         <v>30035</v>
@@ -5105,7 +5110,7 @@
         <v>36</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="M98" s="4"/>
       <c r="N98" s="6">
@@ -5119,12 +5124,12 @@
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>40097</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C99" s="6">
         <v>30035</v>
@@ -5146,7 +5151,7 @@
         <v>36</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="M99" s="4"/>
       <c r="N99" s="6">
@@ -5160,12 +5165,12 @@
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>40098</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C100" s="6">
         <v>30036</v>
@@ -5180,13 +5185,13 @@
         <v>0</v>
       </c>
       <c r="K100" s="6" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="M100" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N100" s="6">
         <v>2</v>
@@ -5195,12 +5200,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>40099</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C101" s="6">
         <v>30036</v>
@@ -5225,7 +5230,7 @@
         <v>4</v>
       </c>
       <c r="M101" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N101" s="6">
         <v>2</v>
@@ -5234,12 +5239,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>40100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C102" s="6">
         <v>30036</v>
@@ -5264,7 +5269,7 @@
         <v>5</v>
       </c>
       <c r="M102" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N102" s="6">
         <v>2</v>
@@ -5273,12 +5278,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>40101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C103" s="6">
         <v>30037</v>
@@ -5300,7 +5305,7 @@
         <v>8</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="M103" s="6"/>
       <c r="N103" s="6">
@@ -5310,12 +5315,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>40102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C104" s="6">
         <v>30037</v>
@@ -5337,7 +5342,7 @@
         <v>8</v>
       </c>
       <c r="L104" s="6" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="M104" s="6"/>
       <c r="N104" s="6">
@@ -5347,12 +5352,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>40103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C105" s="6">
         <v>30037</v>
@@ -5374,7 +5379,7 @@
         <v>8</v>
       </c>
       <c r="L105" s="6" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="M105" s="6"/>
       <c r="N105" s="6">
@@ -5384,12 +5389,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>40104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C106" s="6">
         <v>30038</v>
@@ -5418,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="M106" s="6" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="N106" s="6">
         <v>4</v>
@@ -5427,12 +5432,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>40105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C107" s="6">
         <v>30038</v>
@@ -5461,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="M107" s="6" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="N107" s="6">
         <v>4</v>
@@ -5470,7 +5475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>40106</v>
       </c>
@@ -5504,7 +5509,7 @@
         <v>1</v>
       </c>
       <c r="M108" s="6" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="N108" s="6">
         <v>4</v>
@@ -5513,12 +5518,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>40107</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C109" s="6">
         <v>30039</v>
@@ -5536,7 +5541,7 @@
         <v>10</v>
       </c>
       <c r="L109" s="6" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="N109" s="6">
         <v>1</v>
@@ -5545,12 +5550,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>40108</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C110" s="6">
         <v>30039</v>
@@ -5568,7 +5573,7 @@
         <v>10</v>
       </c>
       <c r="L110" s="6" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="6">
@@ -5578,12 +5583,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>40109</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C111" s="6">
         <v>30039</v>
@@ -5601,7 +5606,7 @@
         <v>10</v>
       </c>
       <c r="L111" s="6" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="M111" s="4"/>
       <c r="N111" s="6">
@@ -5611,12 +5616,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>40110</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C112" s="6">
         <v>30040</v>
@@ -5635,10 +5640,10 @@
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
       <c r="K112" s="6" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="L112" s="6" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" s="6">
@@ -5648,12 +5653,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>40111</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C113" s="6">
         <v>30040</v>
@@ -5672,10 +5677,10 @@
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
       <c r="K113" s="6" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="L113" s="6" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="M113" s="4"/>
       <c r="N113" s="6">
@@ -5685,12 +5690,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>40112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C114" s="6">
         <v>30040</v>
@@ -5709,10 +5714,10 @@
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
       <c r="K114" s="6" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="L114" s="6" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="M114" s="4"/>
       <c r="N114" s="6">
@@ -5722,107 +5727,107 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>40113</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>40114</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>40115</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>40116</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>40117</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>40118</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>40119</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>40120</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>40121</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>40122</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>40123</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>40124</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>40125</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>40126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>40127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>40128</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>40129</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>40130</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>40131</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>40132</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>40133</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576DACB8-C937-4125-9FAA-8A46B51BDFCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D42945-E5C1-4757-8619-23567D3C4F3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D42945-E5C1-4757-8619-23567D3C4F3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF95E22A-B84C-4BB4-81EE-D5848BA9FB24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1373,8 +1373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF95E22A-B84C-4BB4-81EE-D5848BA9FB24}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="M2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="N2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -163,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="O2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -209,7 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="Q2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="195">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -956,64 +955,62 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>投掷(lv.1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>投掷(lv.2)</t>
-  </si>
-  <si>
-    <t>投掷(lv.3)</t>
-  </si>
-  <si>
-    <t>平拳+</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平拳++</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>直剑</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>直剑+</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>直剑++</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>格挡</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>格挡+</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡++</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>波撼洞庭+</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>波撼洞庭++</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>波撼洞庭+++</t>
+    <t>平拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波撼洞庭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波撼洞庭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波撼洞庭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花拳绣腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1370,26 +1367,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J109" sqref="J109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
     <col min="8" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" customWidth="1"/>
-    <col min="12" max="12" width="23.44140625" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.5" customWidth="1"/>
+    <col min="12" max="12" width="23.5" customWidth="1"/>
+    <col min="14" max="14" width="17.375" customWidth="1"/>
     <col min="15" max="16" width="16" customWidth="1"/>
     <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" customWidth="1"/>
+    <col min="18" max="18" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1451,7 +1448,7 @@
       <c r="U1" s="1"/>
       <c r="V1" s="1"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1513,7 +1510,7 @@
       <c r="U2" s="1"/>
       <c r="V2" s="1"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1557,12 +1554,12 @@
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>185</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>30001</v>
@@ -1601,12 +1598,12 @@
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C5" s="1">
         <v>30001</v>
@@ -1645,12 +1642,12 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C6" s="1">
         <v>30002</v>
@@ -1689,12 +1686,12 @@
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C7" s="1">
         <v>30002</v>
@@ -1735,12 +1732,12 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C8" s="1">
         <v>30002</v>
@@ -1781,12 +1778,12 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C9" s="1">
         <v>30003</v>
@@ -1817,12 +1814,12 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C10" s="1">
         <v>30003</v>
@@ -1853,12 +1850,12 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C11" s="1">
         <v>30003</v>
@@ -1889,7 +1886,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1922,12 +1919,12 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C13" s="1">
         <v>30004</v>
@@ -1955,12 +1952,12 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C14" s="1">
         <v>30004</v>
@@ -1988,12 +1985,12 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C15" s="1">
         <v>30004</v>
@@ -2021,7 +2018,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -2054,7 +2051,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -2087,7 +2084,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -2120,7 +2117,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -2153,7 +2150,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -2186,7 +2183,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -2219,7 +2216,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -2255,7 +2252,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -2291,7 +2288,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -2327,7 +2324,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -2363,7 +2360,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -2399,7 +2396,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -2435,7 +2432,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -2471,7 +2468,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -2507,7 +2504,7 @@
       </c>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -2543,7 +2540,7 @@
       </c>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -2579,7 +2576,7 @@
       </c>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -2615,7 +2612,7 @@
       </c>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -2651,7 +2648,7 @@
       </c>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
@@ -2689,7 +2686,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
@@ -2727,7 +2724,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
@@ -2765,7 +2762,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
@@ -2806,7 +2803,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
@@ -2847,7 +2844,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
@@ -2888,7 +2885,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
@@ -2921,7 +2918,7 @@
       </c>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
@@ -2954,7 +2951,7 @@
       </c>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
@@ -2987,7 +2984,7 @@
       </c>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
@@ -3022,7 +3019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
@@ -3057,7 +3054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
@@ -3092,7 +3089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
@@ -3124,7 +3121,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
@@ -3156,7 +3153,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>
@@ -3188,7 +3185,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40047</v>
       </c>
@@ -3223,7 +3220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40048</v>
       </c>
@@ -3258,7 +3255,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40049</v>
       </c>
@@ -3293,7 +3290,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40050</v>
       </c>
@@ -3328,7 +3325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40051</v>
       </c>
@@ -3363,7 +3360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40052</v>
       </c>
@@ -3398,7 +3395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40053</v>
       </c>
@@ -3436,7 +3433,7 @@
       <c r="Q55" s="2"/>
       <c r="R55" s="2"/>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40054</v>
       </c>
@@ -3474,7 +3471,7 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40055</v>
       </c>
@@ -3512,7 +3509,7 @@
       <c r="Q57" s="3"/>
       <c r="R57" s="3"/>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40056</v>
       </c>
@@ -3552,7 +3549,7 @@
       </c>
       <c r="P58" s="3"/>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40057</v>
       </c>
@@ -3592,7 +3589,7 @@
       </c>
       <c r="P59" s="3"/>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40058</v>
       </c>
@@ -3632,7 +3629,7 @@
       </c>
       <c r="P60" s="3"/>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40059</v>
       </c>
@@ -3671,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40060</v>
       </c>
@@ -3710,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40061</v>
       </c>
@@ -3749,7 +3746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40062</v>
       </c>
@@ -3788,7 +3785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40063</v>
       </c>
@@ -3827,7 +3824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40064</v>
       </c>
@@ -3866,7 +3863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40065</v>
       </c>
@@ -3905,7 +3902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40066</v>
       </c>
@@ -3944,7 +3941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40067</v>
       </c>
@@ -3983,7 +3980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40068</v>
       </c>
@@ -4022,7 +4019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>40069</v>
       </c>
@@ -4061,7 +4058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>40070</v>
       </c>
@@ -4100,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>40071</v>
       </c>
@@ -4139,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40072</v>
       </c>
@@ -4178,7 +4175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40073</v>
       </c>
@@ -4217,7 +4214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40074</v>
       </c>
@@ -4258,7 +4255,7 @@
       <c r="R76" s="4"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>40075</v>
       </c>
@@ -4299,7 +4296,7 @@
       <c r="R77" s="4"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>40076</v>
       </c>
@@ -4340,7 +4337,7 @@
       <c r="R78" s="4"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>40077</v>
       </c>
@@ -4377,7 +4374,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>40078</v>
       </c>
@@ -4414,7 +4411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>40079</v>
       </c>
@@ -4451,7 +4448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>40080</v>
       </c>
@@ -4490,7 +4487,7 @@
       <c r="P82" s="4"/>
       <c r="Q82" s="4"/>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>40081</v>
       </c>
@@ -4529,7 +4526,7 @@
       <c r="P83" s="4"/>
       <c r="Q83" s="4"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>40082</v>
       </c>
@@ -4568,7 +4565,7 @@
       <c r="P84" s="4"/>
       <c r="Q84" s="4"/>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>40083</v>
       </c>
@@ -4607,7 +4604,7 @@
       <c r="P85" s="6"/>
       <c r="Q85" s="4"/>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>40084</v>
       </c>
@@ -4646,7 +4643,7 @@
       <c r="P86" s="6"/>
       <c r="Q86" s="4"/>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>40085</v>
       </c>
@@ -4685,7 +4682,7 @@
       <c r="P87" s="6"/>
       <c r="Q87" s="4"/>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>40086</v>
       </c>
@@ -4726,7 +4723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>40087</v>
       </c>
@@ -4767,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>40088</v>
       </c>
@@ -4808,7 +4805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>40089</v>
       </c>
@@ -4845,7 +4842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>40090</v>
       </c>
@@ -4882,7 +4879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>40091</v>
       </c>
@@ -4919,7 +4916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>40092</v>
       </c>
@@ -4960,7 +4957,7 @@
       <c r="R94" s="4"/>
       <c r="S94" s="6"/>
     </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>40093</v>
       </c>
@@ -5001,7 +4998,7 @@
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
     </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>40094</v>
       </c>
@@ -5042,7 +5039,7 @@
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
     </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>40095</v>
       </c>
@@ -5083,7 +5080,7 @@
       <c r="R97" s="4"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>40096</v>
       </c>
@@ -5124,7 +5121,7 @@
       <c r="R98" s="4"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>40097</v>
       </c>
@@ -5165,7 +5162,7 @@
       <c r="R99" s="4"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>40098</v>
       </c>
@@ -5200,7 +5197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>40099</v>
       </c>
@@ -5239,7 +5236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>40100</v>
       </c>
@@ -5278,7 +5275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>40101</v>
       </c>
@@ -5315,7 +5312,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>40102</v>
       </c>
@@ -5352,7 +5349,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>40103</v>
       </c>
@@ -5389,12 +5386,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>40104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C106" s="6">
         <v>30038</v>
@@ -5432,12 +5429,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>40105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C107" s="6">
         <v>30038</v>
@@ -5475,12 +5472,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>40106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C108" s="6">
         <v>30038</v>
@@ -5518,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>40107</v>
       </c>
@@ -5550,7 +5547,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>40108</v>
       </c>
@@ -5583,7 +5580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>40109</v>
       </c>
@@ -5616,7 +5613,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>40110</v>
       </c>
@@ -5653,7 +5650,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>40111</v>
       </c>
@@ -5690,7 +5687,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>40112</v>
       </c>
@@ -5727,107 +5724,139 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>40113</v>
       </c>
-    </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B115" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C115" s="6">
+        <v>30041</v>
+      </c>
+      <c r="D115" s="6">
+        <v>1</v>
+      </c>
+      <c r="E115" s="6">
+        <v>1</v>
+      </c>
+      <c r="F115" s="6">
+        <v>1</v>
+      </c>
+      <c r="G115" s="6"/>
+      <c r="H115" s="6"/>
+      <c r="I115" s="6"/>
+      <c r="J115" s="6"/>
+      <c r="K115" s="6">
+        <v>1</v>
+      </c>
+      <c r="L115" s="6">
+        <v>8</v>
+      </c>
+      <c r="M115" s="6"/>
+      <c r="N115" s="6">
+        <v>1</v>
+      </c>
+      <c r="O115" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>40114</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>40115</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>40116</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>40117</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>40118</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>40119</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>40120</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>40121</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>40122</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>40123</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>40124</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>40125</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>40126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>40127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>40128</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>40129</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>40130</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>40131</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>40132</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>40133</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1370,8 +1370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J109" sqref="J109"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="197">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1004,6 +1004,14 @@
   </si>
   <si>
     <t>投掷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50017,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50017,5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1370,8 +1378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2841,7 +2849,7 @@
         <v>78</v>
       </c>
       <c r="S38" t="s">
-        <v>76</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
@@ -2882,7 +2890,7 @@
         <v>78</v>
       </c>
       <c r="S39" t="s">
-        <v>76</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
@@ -3003,11 +3011,17 @@
       <c r="F43" s="1">
         <v>1</v>
       </c>
+      <c r="I43">
+        <v>20</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
       <c r="K43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>89</v>
+      <c r="L43" s="1">
+        <v>30</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>28</v>
@@ -3038,11 +3052,17 @@
       <c r="F44" s="1">
         <v>1</v>
       </c>
+      <c r="I44" s="4">
+        <v>20</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
       <c r="K44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>90</v>
+      <c r="L44" s="1">
+        <v>40</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>88</v>
@@ -3073,11 +3093,17 @@
       <c r="F45" s="1">
         <v>1</v>
       </c>
+      <c r="I45" s="4">
+        <v>20</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
       <c r="K45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>91</v>
+      <c r="L45" s="1">
+        <v>50</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>88</v>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E44ED2-3600-4AE1-A916-7018372D83D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,62 @@
         </r>
       </text>
     </comment>
-    <comment ref="M2" authorId="1" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{0EFCFF5C-7A1C-4EF9-AD00-6902A893E7EF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Murphy Ma:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+如果本列没有值 则不操作
+如果值为-1则用desc替换所有卡牌描述
+如果值为&gt;0 则替换reuslt结果值中相等的描述</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{848B4157-E0FC-4A32-94F2-3EB95E91A43A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Murphy Ma:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+替换描述
+%{r1}代表替换r_value中对应index中的第一个参数</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -128,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -162,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="0" shapeId="0">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="1" shapeId="0">
+    <comment ref="S2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -239,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="201">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -579,30 +635,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1,2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>30|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>神龙摆尾</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1012,13 +1048,49 @@
   </si>
   <si>
     <t>50017,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repalce_desc_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本场战斗中,同名卡牌造成伤害增加%{r2}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|40</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|50</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1375,26 +1447,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V135"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="8" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="19.5" customWidth="1"/>
-    <col min="12" max="12" width="23.5" customWidth="1"/>
-    <col min="14" max="14" width="17.375" customWidth="1"/>
-    <col min="15" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="14" customWidth="1"/>
-    <col min="18" max="18" width="14.125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="36.109375" style="4" customWidth="1"/>
+    <col min="10" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" customWidth="1"/>
+    <col min="14" max="14" width="23.44140625" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
+    <col min="17" max="18" width="16" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1413,17 +1487,17 @@
       <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>12</v>
+      <c r="G1" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>5</v>
@@ -1432,31 +1506,37 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>80</v>
+        <v>2</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
       <c r="V1" s="1"/>
-    </row>
-    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1475,50 +1555,56 @@
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
       <c r="V2" s="1"/>
-    </row>
-    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1537,32 +1623,34 @@
       <c r="F3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1">
         <v>5</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>1</v>
-      </c>
-      <c r="P3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1"/>
-    </row>
-    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1581,37 +1669,39 @@
       <c r="F4" s="1">
         <v>1</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
         <v>8</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1"/>
       <c r="U4" s="1"/>
       <c r="V4" s="1"/>
-    </row>
-    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C5" s="1">
         <v>30001</v>
@@ -1625,37 +1715,39 @@
       <c r="F5" s="1">
         <v>1</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
         <v>12</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1"/>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-    </row>
-    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C6" s="1">
         <v>30002</v>
@@ -1669,37 +1761,39 @@
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="6">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6">
         <v>4</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N6" s="1">
-        <v>2</v>
-      </c>
-      <c r="O6" s="1">
-        <v>2</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
+      <c r="P6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>2</v>
+      </c>
+      <c r="R6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1"/>
-    </row>
-    <row r="7" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C7" s="1">
         <v>30002</v>
@@ -1713,39 +1807,41 @@
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1">
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
         <v>6</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N7" s="1">
-        <v>2</v>
-      </c>
-      <c r="O7" s="1">
-        <v>2</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="P7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>2</v>
+      </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-    </row>
-    <row r="8" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C8" s="1">
         <v>30002</v>
@@ -1759,39 +1855,41 @@
       <c r="F8" s="1">
         <v>1</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
         <v>10</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="O8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N8" s="1">
-        <v>2</v>
-      </c>
-      <c r="O8" s="1">
-        <v>2</v>
-      </c>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
+      <c r="P8" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>2</v>
+      </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-    </row>
-    <row r="9" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C9" s="1">
         <v>30003</v>
@@ -1805,29 +1903,31 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="K9" s="1">
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="M9" s="1">
         <v>5</v>
       </c>
-      <c r="L9" s="1">
+      <c r="N9" s="1">
         <v>4</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="O9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="N9" s="6">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1">
+      <c r="P9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="1">
         <v>4</v>
       </c>
-      <c r="P9" s="1"/>
-    </row>
-    <row r="10" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="R9" s="1"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C10" s="1">
         <v>30003</v>
@@ -1841,29 +1941,31 @@
       <c r="F10" s="1">
         <v>1</v>
       </c>
-      <c r="K10" s="1">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="M10" s="1">
         <v>5</v>
       </c>
-      <c r="L10" s="1">
+      <c r="N10" s="1">
         <v>8</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="O10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="6">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1">
+      <c r="P10" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1">
         <v>4</v>
       </c>
-      <c r="P10" s="1"/>
-    </row>
-    <row r="11" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="R10" s="1"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C11" s="1">
         <v>30003</v>
@@ -1877,24 +1979,26 @@
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="K11" s="1">
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="M11" s="1">
         <v>5</v>
       </c>
-      <c r="L11" s="1">
+      <c r="N11" s="1">
         <v>10</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="N11" s="6">
-        <v>1</v>
-      </c>
-      <c r="O11" s="1">
+      <c r="P11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1">
         <v>4</v>
       </c>
-      <c r="P11" s="1"/>
-    </row>
-    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="R11" s="1"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -1913,26 +2017,28 @@
       <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="M12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="L12" t="s">
-        <v>178</v>
-      </c>
-      <c r="N12" s="1">
-        <v>1</v>
-      </c>
-      <c r="O12" s="1">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1"/>
-    </row>
-    <row r="13" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="N12" t="s">
+        <v>173</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C13" s="1">
         <v>30004</v>
@@ -1946,26 +2052,28 @@
       <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="M13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L13" t="s">
-        <v>179</v>
-      </c>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
-      <c r="O13" s="1">
-        <v>1</v>
-      </c>
-      <c r="P13" s="1"/>
-    </row>
-    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="N13" t="s">
+        <v>174</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C14" s="1">
         <v>30004</v>
@@ -1979,26 +2087,28 @@
       <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="M14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L14" t="s">
-        <v>180</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
-      <c r="O14" s="1">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1"/>
-    </row>
-    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="N14" t="s">
+        <v>175</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C15" s="1">
         <v>30004</v>
@@ -2012,21 +2122,23 @@
       <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="M15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L15" t="s">
-        <v>181</v>
-      </c>
-      <c r="N15" s="1">
-        <v>1</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-      <c r="P15" s="1"/>
-    </row>
-    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.25">
+      <c r="N15" t="s">
+        <v>176</v>
+      </c>
+      <c r="P15" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -2045,21 +2157,23 @@
       <c r="F16" s="1">
         <v>2</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="M16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L16" t="s">
+      <c r="N16" t="s">
         <v>42</v>
       </c>
-      <c r="N16" s="1">
-        <v>2</v>
-      </c>
-      <c r="O16" s="1">
-        <v>1</v>
-      </c>
-      <c r="P16" s="1"/>
-    </row>
-    <row r="17" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="P16" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -2078,21 +2192,23 @@
       <c r="F17" s="1">
         <v>2</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="M17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="N17" s="1">
-        <v>2</v>
-      </c>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
-      <c r="P17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="P17" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -2111,21 +2227,23 @@
       <c r="F18" s="1">
         <v>2</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="M18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L18" t="s">
+      <c r="N18" t="s">
         <v>40</v>
       </c>
-      <c r="N18" s="1">
-        <v>2</v>
-      </c>
-      <c r="O18" s="1">
-        <v>1</v>
-      </c>
-      <c r="P18" s="1"/>
-    </row>
-    <row r="19" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="P18" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -2144,21 +2262,23 @@
       <c r="F19" s="1">
         <v>1</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="M19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L19" t="s">
+      <c r="N19" t="s">
         <v>41</v>
       </c>
-      <c r="N19" s="1">
-        <v>2</v>
-      </c>
-      <c r="O19" s="1">
-        <v>1</v>
-      </c>
-      <c r="P19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="P19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -2177,21 +2297,23 @@
       <c r="F20" s="1">
         <v>1</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="M20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>43</v>
       </c>
-      <c r="N20" s="1">
-        <v>1</v>
-      </c>
-      <c r="O20" s="1">
+      <c r="P20" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="1">
         <v>4</v>
       </c>
-      <c r="P20" s="1"/>
-    </row>
-    <row r="21" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -2210,21 +2332,23 @@
       <c r="F21" s="1">
         <v>1</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="M21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="L21" t="s">
+      <c r="N21" t="s">
         <v>44</v>
       </c>
-      <c r="N21" s="1">
-        <v>1</v>
-      </c>
-      <c r="O21" s="1">
+      <c r="P21" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="1">
         <v>4</v>
       </c>
-      <c r="P21" s="1"/>
-    </row>
-    <row r="22" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -2243,24 +2367,26 @@
       <c r="F22" s="1">
         <v>1</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="M22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="N22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="O22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N22" s="1">
-        <v>1</v>
-      </c>
-      <c r="O22" s="1">
-        <v>1</v>
-      </c>
-      <c r="P22" s="1"/>
-    </row>
-    <row r="23" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -2279,24 +2405,26 @@
       <c r="F23" s="1">
         <v>1</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="M23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="O23" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N23" s="1">
-        <v>1</v>
-      </c>
-      <c r="O23" s="1">
-        <v>1</v>
-      </c>
-      <c r="P23" s="1"/>
-    </row>
-    <row r="24" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="P23" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -2315,24 +2443,26 @@
       <c r="F24" s="1">
         <v>1</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="M24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="O24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="1">
-        <v>1</v>
-      </c>
-      <c r="O24" s="1">
-        <v>1</v>
-      </c>
-      <c r="P24" s="1"/>
-    </row>
-    <row r="25" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="P24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -2351,24 +2481,26 @@
       <c r="F25" s="1">
         <v>1</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="M25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="N25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="O25" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N25" s="1">
-        <v>2</v>
-      </c>
-      <c r="O25" s="1">
-        <v>2</v>
-      </c>
-      <c r="P25" s="1"/>
-    </row>
-    <row r="26" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="P25" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>2</v>
+      </c>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -2387,24 +2519,26 @@
       <c r="F26" s="1">
         <v>1</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="M26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="N26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="O26" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N26" s="1">
-        <v>2</v>
-      </c>
-      <c r="O26" s="1">
-        <v>2</v>
-      </c>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="P26" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>2</v>
+      </c>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -2423,24 +2557,26 @@
       <c r="F27" s="1">
         <v>1</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="M27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="N27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="O27" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="N27" s="1">
-        <v>2</v>
-      </c>
-      <c r="O27" s="1">
-        <v>2</v>
-      </c>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="P27" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>2</v>
+      </c>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -2459,24 +2595,26 @@
       <c r="F28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="M28" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="N28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="O28" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="1">
+      <c r="P28" s="1">
         <v>5</v>
       </c>
-      <c r="O28" s="1">
-        <v>1</v>
-      </c>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -2495,24 +2633,26 @@
       <c r="F29" s="1">
         <v>1</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="M29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="N29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="O29" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N29" s="1">
+      <c r="P29" s="1">
         <v>5</v>
       </c>
-      <c r="O29" s="1">
-        <v>1</v>
-      </c>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+      <c r="R29" s="1"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -2531,24 +2671,26 @@
       <c r="F30" s="1">
         <v>1</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="M30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="N30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="O30" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N30" s="1">
+      <c r="P30" s="1">
         <v>5</v>
       </c>
-      <c r="O30" s="1">
-        <v>1</v>
-      </c>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -2567,24 +2709,26 @@
       <c r="F31" s="1">
         <v>1</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="M31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L31" s="1">
+      <c r="N31" s="1">
         <v>15</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="O31" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N31" s="1">
+      <c r="P31" s="1">
         <v>5</v>
       </c>
-      <c r="O31" s="1">
+      <c r="Q31" s="1">
         <v>4</v>
       </c>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+      <c r="R31" s="1"/>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -2603,24 +2747,26 @@
       <c r="F32" s="1">
         <v>1</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="M32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L32" s="1">
+      <c r="N32" s="1">
         <v>24</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="O32" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N32" s="1">
+      <c r="P32" s="1">
         <v>5</v>
       </c>
-      <c r="O32" s="1">
+      <c r="Q32" s="1">
         <v>4</v>
       </c>
-      <c r="P32" s="1"/>
-    </row>
-    <row r="33" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="R32" s="1"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -2639,24 +2785,26 @@
       <c r="F33" s="1">
         <v>1</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="M33" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="1">
+      <c r="N33" s="1">
         <v>35</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="O33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N33" s="1">
+      <c r="P33" s="1">
         <v>5</v>
       </c>
-      <c r="O33" s="1">
+      <c r="Q33" s="1">
         <v>4</v>
       </c>
-      <c r="P33" s="1"/>
-    </row>
-    <row r="34" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="R33" s="1"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
@@ -2675,26 +2823,32 @@
       <c r="F34" s="1">
         <v>0</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="G34" s="6">
+        <v>10</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="M34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="N34" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N34" s="1">
-        <v>1</v>
-      </c>
-      <c r="O34" s="1">
-        <v>1</v>
-      </c>
-      <c r="P34" s="1" t="s">
+      <c r="P34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>1</v>
+      </c>
+      <c r="R34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R34" t="s">
+      <c r="T34" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
@@ -2713,26 +2867,32 @@
       <c r="F35" s="1">
         <v>0</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="G35" s="6">
+        <v>10</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="M35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="N35" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N35" s="1">
-        <v>1</v>
-      </c>
-      <c r="O35" s="1">
-        <v>1</v>
-      </c>
-      <c r="P35" s="1" t="s">
+      <c r="P35" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>1</v>
+      </c>
+      <c r="R35" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R35" t="s">
+      <c r="T35" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="36" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
@@ -2751,26 +2911,32 @@
       <c r="F36" s="1">
         <v>0</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="G36" s="6">
+        <v>10</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="N36" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N36" s="1">
-        <v>1</v>
-      </c>
-      <c r="O36" s="1">
-        <v>1</v>
-      </c>
-      <c r="P36" s="1" t="s">
+      <c r="P36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1</v>
+      </c>
+      <c r="R36" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R36" t="s">
+      <c r="T36" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
@@ -2789,29 +2955,31 @@
       <c r="F37" s="1">
         <v>2</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="M37" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L37" s="1">
+      <c r="N37" s="1">
         <v>5</v>
       </c>
-      <c r="N37" s="1">
-        <v>2</v>
-      </c>
-      <c r="O37" s="1">
-        <v>1</v>
-      </c>
-      <c r="P37" s="1" t="s">
+      <c r="P37" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>1</v>
+      </c>
+      <c r="R37" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R37" t="s">
+      <c r="T37" t="s">
         <v>78</v>
       </c>
-      <c r="S37" t="s">
+      <c r="U37" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
@@ -2830,29 +2998,31 @@
       <c r="F38" s="1">
         <v>2</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="M38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L38" s="1">
+      <c r="N38" s="1">
         <v>5</v>
       </c>
-      <c r="N38" s="1">
-        <v>2</v>
-      </c>
-      <c r="O38" s="1">
-        <v>1</v>
-      </c>
-      <c r="P38" s="1" t="s">
+      <c r="P38" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>1</v>
+      </c>
+      <c r="R38" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R38" t="s">
+      <c r="T38" t="s">
         <v>78</v>
       </c>
-      <c r="S38" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="U38" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
@@ -2871,29 +3041,31 @@
       <c r="F39" s="1">
         <v>2</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="M39" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L39" s="1">
+      <c r="N39" s="1">
         <v>5</v>
       </c>
-      <c r="N39" s="1">
-        <v>2</v>
-      </c>
-      <c r="O39" s="1">
-        <v>1</v>
-      </c>
-      <c r="P39" s="1" t="s">
+      <c r="P39" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>1</v>
+      </c>
+      <c r="R39" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="R39" t="s">
+      <c r="T39" t="s">
         <v>78</v>
       </c>
-      <c r="S39" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="U39" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
@@ -2912,21 +3084,23 @@
       <c r="F40" s="1">
         <v>0</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="M40" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L40" t="s">
+      <c r="N40" t="s">
         <v>72</v>
       </c>
-      <c r="N40" s="1">
-        <v>3</v>
-      </c>
-      <c r="O40" s="1">
+      <c r="P40" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q40" s="1">
         <v>12</v>
       </c>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
@@ -2945,21 +3119,23 @@
       <c r="F41" s="1">
         <v>0</v>
       </c>
-      <c r="K41" s="1" t="s">
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="M41" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L41" t="s">
+      <c r="N41" t="s">
         <v>73</v>
       </c>
-      <c r="N41" s="1">
-        <v>3</v>
-      </c>
-      <c r="O41" s="1">
+      <c r="P41" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q41" s="1">
         <v>12</v>
       </c>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
@@ -2978,21 +3154,23 @@
       <c r="F42" s="1">
         <v>0</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="M42" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L42" t="s">
+      <c r="N42" t="s">
         <v>74</v>
       </c>
-      <c r="N42" s="1">
-        <v>3</v>
-      </c>
-      <c r="O42" s="1">
+      <c r="P42" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="1">
         <v>12</v>
       </c>
-      <c r="P42" s="1"/>
-    </row>
-    <row r="43" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="R42" s="1"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
@@ -3011,29 +3189,31 @@
       <c r="F43" s="1">
         <v>1</v>
       </c>
-      <c r="I43">
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="K43" s="4">
         <v>20</v>
       </c>
-      <c r="J43">
-        <v>2</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L43" s="1">
-        <v>30</v>
-      </c>
-      <c r="M43" s="1" t="s">
+      <c r="L43" s="4">
+        <v>2</v>
+      </c>
+      <c r="M43" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="O43" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N43" s="1">
-        <v>1</v>
-      </c>
-      <c r="O43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="P43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
@@ -3052,29 +3232,31 @@
       <c r="F44" s="1">
         <v>1</v>
       </c>
-      <c r="I44" s="4">
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="K44" s="4">
         <v>20</v>
       </c>
-      <c r="J44">
-        <v>2</v>
-      </c>
-      <c r="K44" s="1" t="s">
+      <c r="L44" s="4">
+        <v>2</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L44" s="1">
-        <v>40</v>
-      </c>
-      <c r="M44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N44" s="1">
-        <v>1</v>
-      </c>
-      <c r="O44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="P44" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
@@ -3093,34 +3275,36 @@
       <c r="F45" s="1">
         <v>1</v>
       </c>
-      <c r="I45" s="4">
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="K45" s="4">
         <v>20</v>
       </c>
-      <c r="J45">
-        <v>2</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L45" s="1">
-        <v>50</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N45" s="1">
-        <v>1</v>
-      </c>
-      <c r="O45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="L45" s="4">
+        <v>2</v>
+      </c>
+      <c r="M45" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="P45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C46" s="1">
         <v>30015</v>
@@ -3134,25 +3318,27 @@
       <c r="F46" s="1">
         <v>3</v>
       </c>
-      <c r="K46" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L46" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="N46" s="6">
-        <v>1</v>
-      </c>
-      <c r="O46" s="6">
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="M46" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N46" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="P46" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q46" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="47" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C47" s="1">
         <v>30015</v>
@@ -3166,25 +3352,27 @@
       <c r="F47" s="1">
         <v>3</v>
       </c>
-      <c r="K47" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L47" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="N47" s="6">
-        <v>1</v>
-      </c>
-      <c r="O47" s="6">
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="M47" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N47" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="P47" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="48" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C48" s="1">
         <v>30015</v>
@@ -3198,25 +3386,27 @@
       <c r="F48" s="1">
         <v>3</v>
       </c>
-      <c r="K48" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="L48" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="N48" s="6">
-        <v>1</v>
-      </c>
-      <c r="O48" s="6">
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="M48" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N48" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="P48" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40047</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C49" s="1">
         <v>30016</v>
@@ -3230,28 +3420,36 @@
       <c r="F49" s="1">
         <v>1</v>
       </c>
-      <c r="K49" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="L49" s="1" t="s">
-        <v>89</v>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="K49">
+        <v>20</v>
+      </c>
+      <c r="L49">
+        <v>2</v>
       </c>
       <c r="M49" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N49" s="1">
-        <v>1</v>
-      </c>
-      <c r="O49" s="1">
+      <c r="P49" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q49" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40048</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C50" s="1">
         <v>30016</v>
@@ -3265,28 +3463,36 @@
       <c r="F50" s="1">
         <v>1</v>
       </c>
-      <c r="K50" s="1" t="s">
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="K50" s="4">
+        <v>20</v>
+      </c>
+      <c r="L50">
+        <v>2</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="N50" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="O50" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L50" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M50" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N50" s="1">
-        <v>1</v>
-      </c>
-      <c r="O50" s="1">
+      <c r="P50" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40049</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C51" s="1">
         <v>30016</v>
@@ -3300,28 +3506,36 @@
       <c r="F51" s="1">
         <v>1</v>
       </c>
-      <c r="K51" s="1" t="s">
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="K51" s="4">
+        <v>20</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="O51" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="L51" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N51" s="1">
-        <v>1</v>
-      </c>
-      <c r="O51" s="1">
+      <c r="P51" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q51" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40050</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C52" s="1">
         <v>30017</v>
@@ -3335,28 +3549,30 @@
       <c r="F52" s="1">
         <v>2</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="L52" s="1">
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="M52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="N52" s="1">
         <v>300</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="O52" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N52" s="1">
-        <v>1</v>
-      </c>
-      <c r="O52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="P52" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40051</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C53" s="1">
         <v>30017</v>
@@ -3370,28 +3586,30 @@
       <c r="F53" s="1">
         <v>2</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="L53" s="1">
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="M53" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N53" s="1">
         <v>400</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="O53" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N53" s="1">
-        <v>1</v>
-      </c>
-      <c r="O53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="P53" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40052</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C54" s="1">
         <v>30017</v>
@@ -3405,28 +3623,30 @@
       <c r="F54" s="1">
         <v>2</v>
       </c>
-      <c r="K54" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L54" s="1">
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="M54" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="N54" s="1">
         <v>500</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="O54" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="N54" s="1">
-        <v>1</v>
-      </c>
-      <c r="O54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="P54" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40053</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C55" s="3">
         <v>30018</v>
@@ -3440,31 +3660,33 @@
       <c r="F55" s="3">
         <v>1</v>
       </c>
-      <c r="K55" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>100</v>
-      </c>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
       <c r="M55" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N55" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="O55" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N55" s="3">
-        <v>2</v>
-      </c>
-      <c r="O55" s="3">
-        <v>1</v>
-      </c>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-    </row>
-    <row r="56" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="P55" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>1</v>
+      </c>
+      <c r="R55" s="3"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40054</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C56" s="3">
         <v>30018</v>
@@ -3478,31 +3700,33 @@
       <c r="F56" s="3">
         <v>1</v>
       </c>
-      <c r="K56" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>101</v>
-      </c>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
       <c r="M56" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="O56" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N56" s="3">
-        <v>2</v>
-      </c>
-      <c r="O56" s="3">
-        <v>1</v>
-      </c>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
+      <c r="P56" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>1</v>
+      </c>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40055</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C57" s="3">
         <v>30018</v>
@@ -3516,31 +3740,33 @@
       <c r="F57" s="3">
         <v>1</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>102</v>
-      </c>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
       <c r="M57" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="O57" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N57" s="3">
-        <v>2</v>
-      </c>
-      <c r="O57" s="3">
-        <v>1</v>
-      </c>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
+      <c r="P57" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>1</v>
+      </c>
       <c r="R57" s="3"/>
-    </row>
-    <row r="58" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40056</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C58" s="3">
         <v>30019</v>
@@ -3554,33 +3780,35 @@
       <c r="F58" s="3">
         <v>1</v>
       </c>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
-      <c r="K58" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
       <c r="M58" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="O58" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N58" s="3">
-        <v>2</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1</v>
-      </c>
-      <c r="P58" s="3"/>
-    </row>
-    <row r="59" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="P58" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>1</v>
+      </c>
+      <c r="R58" s="3"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40057</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C59" s="3">
         <v>30019</v>
@@ -3594,33 +3822,35 @@
       <c r="F59" s="3">
         <v>1</v>
       </c>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
-      <c r="K59" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>106</v>
-      </c>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
       <c r="M59" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="O59" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N59" s="3">
-        <v>2</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1</v>
-      </c>
-      <c r="P59" s="3"/>
-    </row>
-    <row r="60" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="P59" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>1</v>
+      </c>
+      <c r="R59" s="3"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40058</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C60" s="3">
         <v>30019</v>
@@ -3634,33 +3864,35 @@
       <c r="F60" s="3">
         <v>1</v>
       </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
-      <c r="K60" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>107</v>
-      </c>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
       <c r="M60" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="O60" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N60" s="3">
-        <v>2</v>
-      </c>
-      <c r="O60" s="3">
-        <v>1</v>
-      </c>
-      <c r="P60" s="3"/>
-    </row>
-    <row r="61" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="P60" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1</v>
+      </c>
+      <c r="R60" s="3"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40059</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C61" s="3">
         <v>30020</v>
@@ -3674,32 +3906,34 @@
       <c r="F61" s="3">
         <v>1</v>
       </c>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
-      <c r="K61" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
       <c r="M61" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="O61" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N61" s="3">
-        <v>2</v>
-      </c>
-      <c r="O61" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="P61" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40060</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C62" s="3">
         <v>30020</v>
@@ -3713,32 +3947,34 @@
       <c r="F62" s="3">
         <v>1</v>
       </c>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
-      <c r="K62" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>110</v>
-      </c>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
       <c r="M62" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="O62" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N62" s="3">
-        <v>2</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="P62" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40061</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C63" s="3">
         <v>30020</v>
@@ -3752,32 +3988,34 @@
       <c r="F63" s="3">
         <v>1</v>
       </c>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
-      <c r="K63" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="L63" s="3" t="s">
-        <v>111</v>
-      </c>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
       <c r="M63" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="O63" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="N63" s="3">
-        <v>2</v>
-      </c>
-      <c r="O63" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="P63" s="3">
+        <v>2</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40062</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C64" s="5">
         <v>30021</v>
@@ -3791,32 +4029,34 @@
       <c r="F64" s="5">
         <v>1</v>
       </c>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
-      <c r="K64" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="L64" s="5" t="s">
-        <v>113</v>
-      </c>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
       <c r="M64" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="O64" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N64" s="5">
-        <v>2</v>
-      </c>
-      <c r="O64" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="P64" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q64" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40063</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C65" s="5">
         <v>30021</v>
@@ -3830,32 +4070,34 @@
       <c r="F65" s="5">
         <v>1</v>
       </c>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
-      <c r="K65" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="L65" s="5" t="s">
-        <v>114</v>
-      </c>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
       <c r="M65" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="O65" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N65" s="5">
-        <v>2</v>
-      </c>
-      <c r="O65" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="P65" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q65" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40064</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="C66" s="5">
         <v>30021</v>
@@ -3869,32 +4111,34 @@
       <c r="F66" s="5">
         <v>1</v>
       </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
-      <c r="K66" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="L66" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
       <c r="M66" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="O66" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N66" s="5">
-        <v>2</v>
-      </c>
-      <c r="O66" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="P66" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q66" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40065</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C67" s="5">
         <v>30022</v>
@@ -3908,32 +4152,34 @@
       <c r="F67" s="5">
         <v>1</v>
       </c>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
-      <c r="K67" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L67" s="5" t="s">
-        <v>117</v>
-      </c>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
       <c r="M67" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="O67" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N67" s="5">
-        <v>2</v>
-      </c>
-      <c r="O67" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="P67" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40066</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C68" s="5">
         <v>30022</v>
@@ -3947,32 +4193,34 @@
       <c r="F68" s="5">
         <v>1</v>
       </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
-      <c r="K68" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L68" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
       <c r="M68" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="O68" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N68" s="5">
-        <v>2</v>
-      </c>
-      <c r="O68" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="P68" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q68" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40067</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C69" s="5">
         <v>30022</v>
@@ -3986,32 +4234,34 @@
       <c r="F69" s="5">
         <v>1</v>
       </c>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
-      <c r="K69" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L69" s="5" t="s">
-        <v>119</v>
-      </c>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
       <c r="M69" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="O69" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N69" s="5">
-        <v>2</v>
-      </c>
-      <c r="O69" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="P69" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q69" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40068</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C70" s="6">
         <v>30023</v>
@@ -4029,28 +4279,30 @@
       <c r="H70" s="6"/>
       <c r="I70" s="6"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="L70" s="6" t="s">
-        <v>122</v>
-      </c>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
       <c r="M70" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N70" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O70" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N70" s="6">
-        <v>1</v>
-      </c>
-      <c r="O70" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="P70" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>40069</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C71" s="6">
         <v>30023</v>
@@ -4068,28 +4320,30 @@
       <c r="H71" s="6"/>
       <c r="I71" s="6"/>
       <c r="J71" s="6"/>
-      <c r="K71" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="L71" s="6" t="s">
-        <v>123</v>
-      </c>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
       <c r="M71" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="O71" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N71" s="6">
-        <v>1</v>
-      </c>
-      <c r="O71" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="P71" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>40070</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C72" s="6">
         <v>30023</v>
@@ -4107,28 +4361,30 @@
       <c r="H72" s="6"/>
       <c r="I72" s="6"/>
       <c r="J72" s="6"/>
-      <c r="K72" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="L72" s="6" t="s">
-        <v>124</v>
-      </c>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
       <c r="M72" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N72" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O72" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N72" s="6">
-        <v>1</v>
-      </c>
-      <c r="O72" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="P72" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>40071</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C73" s="6">
         <v>30024</v>
@@ -4146,28 +4402,30 @@
       <c r="H73" s="6"/>
       <c r="I73" s="6"/>
       <c r="J73" s="6"/>
-      <c r="K73" s="6" t="s">
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N73" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="L73" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="M73" s="6" t="s">
+      <c r="O73" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="N73" s="6">
-        <v>1</v>
-      </c>
-      <c r="O73" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="P73" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40072</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C74" s="6">
         <v>30024</v>
@@ -4185,28 +4443,30 @@
       <c r="H74" s="6"/>
       <c r="I74" s="6"/>
       <c r="J74" s="6"/>
-      <c r="K74" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="L74" s="6" t="s">
-        <v>127</v>
-      </c>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
       <c r="M74" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N74" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="O74" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N74" s="6">
-        <v>1</v>
-      </c>
-      <c r="O74" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="P74" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q74" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40073</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="C75" s="6">
         <v>30024</v>
@@ -4224,28 +4484,30 @@
       <c r="H75" s="6"/>
       <c r="I75" s="6"/>
       <c r="J75" s="6"/>
-      <c r="K75" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="L75" s="6" t="s">
-        <v>128</v>
-      </c>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
       <c r="M75" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="N75" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="O75" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N75" s="6">
-        <v>1</v>
-      </c>
-      <c r="O75" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="P75" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q75" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40074</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C76" s="6">
         <v>30025</v>
@@ -4259,34 +4521,36 @@
       <c r="F76" s="6">
         <v>0</v>
       </c>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
       <c r="I76" s="4"/>
       <c r="J76" s="4"/>
-      <c r="K76" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L76" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M76" s="4"/>
-      <c r="N76" s="6">
-        <v>3</v>
-      </c>
-      <c r="O76" s="6">
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N76" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="O76" s="4"/>
+      <c r="P76" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q76" s="6">
         <v>8</v>
       </c>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
+      <c r="R76" s="6"/>
       <c r="S76" s="4"/>
-    </row>
-    <row r="77" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>40075</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C77" s="6">
         <v>30025</v>
@@ -4300,34 +4564,36 @@
       <c r="F77" s="6">
         <v>0</v>
       </c>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
       <c r="I77" s="4"/>
       <c r="J77" s="4"/>
-      <c r="K77" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L77" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M77" s="4"/>
-      <c r="N77" s="6">
-        <v>3</v>
-      </c>
-      <c r="O77" s="6">
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="O77" s="4"/>
+      <c r="P77" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q77" s="6">
         <v>8</v>
       </c>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
+      <c r="R77" s="6"/>
       <c r="S77" s="4"/>
-    </row>
-    <row r="78" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>40076</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C78" s="6">
         <v>30025</v>
@@ -4341,34 +4607,36 @@
       <c r="F78" s="6">
         <v>0</v>
       </c>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
       <c r="I78" s="4"/>
       <c r="J78" s="4"/>
-      <c r="K78" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L78" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="M78" s="4"/>
-      <c r="N78" s="6">
-        <v>3</v>
-      </c>
-      <c r="O78" s="6">
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="O78" s="4"/>
+      <c r="P78" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q78" s="6">
         <v>8</v>
       </c>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
+      <c r="R78" s="6"/>
       <c r="S78" s="4"/>
-    </row>
-    <row r="79" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>40077</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C79" s="6">
         <v>30026</v>
@@ -4382,30 +4650,32 @@
       <c r="F79" s="6">
         <v>0</v>
       </c>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
-      <c r="K79" s="6">
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="6">
         <v>10</v>
       </c>
-      <c r="L79" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M79" s="4"/>
-      <c r="N79" s="6">
-        <v>3</v>
-      </c>
-      <c r="O79" s="6">
+      <c r="N79" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="O79" s="4"/>
+      <c r="P79" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q79" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>40078</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C80" s="6">
         <v>30026</v>
@@ -4419,30 +4689,32 @@
       <c r="F80" s="6">
         <v>0</v>
       </c>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
-      <c r="K80" s="6">
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="6">
         <v>10</v>
       </c>
-      <c r="L80" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M80" s="4"/>
-      <c r="N80" s="6">
-        <v>3</v>
-      </c>
-      <c r="O80" s="6">
+      <c r="N80" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="O80" s="4"/>
+      <c r="P80" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q80" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>40079</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C81" s="6">
         <v>30026</v>
@@ -4456,30 +4728,32 @@
       <c r="F81" s="6">
         <v>0</v>
       </c>
-      <c r="G81" s="4"/>
-      <c r="H81" s="4"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
-      <c r="K81" s="6">
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="6">
         <v>10</v>
       </c>
-      <c r="L81" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="M81" s="4"/>
-      <c r="N81" s="6">
-        <v>3</v>
-      </c>
-      <c r="O81" s="6">
+      <c r="N81" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="O81" s="4"/>
+      <c r="P81" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q81" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>40080</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C82" s="6">
         <v>30027</v>
@@ -4493,32 +4767,34 @@
       <c r="F82" s="6">
         <v>0</v>
       </c>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
-      <c r="K82" s="6">
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="6">
         <v>10</v>
       </c>
-      <c r="L82" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="M82" s="4"/>
-      <c r="N82" s="6">
-        <v>3</v>
-      </c>
-      <c r="O82" s="6">
+      <c r="N82" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="O82" s="4"/>
+      <c r="P82" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q82" s="6">
         <v>8</v>
       </c>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-    </row>
-    <row r="83" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>40081</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C83" s="6">
         <v>30027</v>
@@ -4532,32 +4808,34 @@
       <c r="F83" s="6">
         <v>0</v>
       </c>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
-      <c r="K83" s="6">
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="6">
         <v>10</v>
       </c>
-      <c r="L83" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M83" s="4"/>
-      <c r="N83" s="6">
-        <v>3</v>
-      </c>
-      <c r="O83" s="6">
+      <c r="N83" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="O83" s="4"/>
+      <c r="P83" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="6">
         <v>8</v>
       </c>
-      <c r="P83" s="4"/>
-      <c r="Q83" s="4"/>
-    </row>
-    <row r="84" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>40082</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C84" s="6">
         <v>30027</v>
@@ -4571,32 +4849,34 @@
       <c r="F84" s="6">
         <v>0</v>
       </c>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
-      <c r="K84" s="6">
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="6">
         <v>10</v>
       </c>
-      <c r="L84" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="M84" s="4"/>
-      <c r="N84" s="6">
-        <v>3</v>
-      </c>
-      <c r="O84" s="6">
+      <c r="N84" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="O84" s="4"/>
+      <c r="P84" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q84" s="6">
         <v>8</v>
       </c>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-    </row>
-    <row r="85" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>40083</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C85" s="6">
         <v>30030</v>
@@ -4610,32 +4890,34 @@
       <c r="F85" s="6">
         <v>1</v>
       </c>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
-      <c r="K85" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="L85" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6">
-        <v>1</v>
-      </c>
-      <c r="O85" s="6">
-        <v>1</v>
-      </c>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="4"/>
-    </row>
-    <row r="86" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="N85" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q85" s="6">
+        <v>1</v>
+      </c>
+      <c r="R85" s="6"/>
+      <c r="S85" s="4"/>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>40084</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C86" s="6">
         <v>30030</v>
@@ -4649,32 +4931,34 @@
       <c r="F86" s="6">
         <v>1</v>
       </c>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
-      <c r="K86" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="L86" s="6">
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="N86" s="6">
         <v>30</v>
       </c>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6">
-        <v>1</v>
-      </c>
-      <c r="O86" s="6">
-        <v>1</v>
-      </c>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="4"/>
-    </row>
-    <row r="87" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="O86" s="6"/>
+      <c r="P86" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="6">
+        <v>1</v>
+      </c>
+      <c r="R86" s="6"/>
+      <c r="S86" s="4"/>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>40085</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C87" s="6">
         <v>30030</v>
@@ -4688,32 +4972,34 @@
       <c r="F87" s="6">
         <v>1</v>
       </c>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
-      <c r="K87" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="L87" s="6">
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="N87" s="6">
         <v>40</v>
       </c>
-      <c r="M87" s="6"/>
-      <c r="N87" s="6">
-        <v>1</v>
-      </c>
-      <c r="O87" s="6">
-        <v>1</v>
-      </c>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="4"/>
-    </row>
-    <row r="88" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="O87" s="6"/>
+      <c r="P87" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q87" s="6">
+        <v>1</v>
+      </c>
+      <c r="R87" s="6"/>
+      <c r="S87" s="4"/>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>40086</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C88" s="6">
         <v>30031</v>
@@ -4727,34 +5013,36 @@
       <c r="F88" s="6">
         <v>1</v>
       </c>
-      <c r="G88" s="4" t="s">
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J88" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="N88" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="H88" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="L88" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6">
-        <v>1</v>
-      </c>
-      <c r="O88" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="O88" s="6"/>
+      <c r="P88" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>40087</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C89" s="6">
         <v>30031</v>
@@ -4768,34 +5056,36 @@
       <c r="F89" s="6">
         <v>1</v>
       </c>
-      <c r="G89" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="L89" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6">
-        <v>1</v>
-      </c>
-      <c r="O89" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J89" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>40088</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C90" s="6">
         <v>30031</v>
@@ -4809,34 +5099,36 @@
       <c r="F90" s="6">
         <v>1</v>
       </c>
-      <c r="G90" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="H90" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="L90" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6">
-        <v>1</v>
-      </c>
-      <c r="O90" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="N90" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>40089</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C91" s="6">
         <v>30032</v>
@@ -4850,30 +5142,32 @@
       <c r="F91" s="6">
         <v>1</v>
       </c>
-      <c r="G91" s="4"/>
-      <c r="H91" s="4"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
       <c r="I91" s="4"/>
       <c r="J91" s="4"/>
-      <c r="K91" s="6">
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="6">
         <v>29</v>
       </c>
-      <c r="L91" s="6">
+      <c r="N91" s="6">
         <v>10</v>
       </c>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6">
-        <v>1</v>
-      </c>
-      <c r="O91" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="O91" s="6"/>
+      <c r="P91" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q91" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>40090</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C92" s="6">
         <v>30032</v>
@@ -4887,30 +5181,32 @@
       <c r="F92" s="6">
         <v>1</v>
       </c>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
       <c r="I92" s="4"/>
       <c r="J92" s="4"/>
-      <c r="K92" s="6">
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="6">
         <v>29</v>
       </c>
-      <c r="L92" s="6">
+      <c r="N92" s="6">
         <v>20</v>
       </c>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6">
-        <v>1</v>
-      </c>
-      <c r="O92" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="O92" s="6"/>
+      <c r="P92" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>40091</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C93" s="6">
         <v>30032</v>
@@ -4924,30 +5220,32 @@
       <c r="F93" s="6">
         <v>1</v>
       </c>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
-      <c r="K93" s="6">
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="6">
         <v>29</v>
       </c>
-      <c r="L93" s="6">
+      <c r="N93" s="6">
         <v>30</v>
       </c>
-      <c r="M93" s="6"/>
-      <c r="N93" s="6">
-        <v>1</v>
-      </c>
-      <c r="O93" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="O93" s="6"/>
+      <c r="P93" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>40092</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C94" s="6">
         <v>30033</v>
@@ -4965,30 +5263,32 @@
       <c r="H94" s="6"/>
       <c r="I94" s="6"/>
       <c r="J94" s="6"/>
-      <c r="K94" s="6">
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6">
         <v>35</v>
       </c>
-      <c r="L94" s="6">
-        <v>2</v>
-      </c>
-      <c r="M94" s="6"/>
       <c r="N94" s="6">
+        <v>2</v>
+      </c>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6">
         <v>5</v>
       </c>
-      <c r="O94" s="6">
+      <c r="Q94" s="6">
         <v>12</v>
       </c>
-      <c r="P94" s="6"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
-      <c r="S94" s="6"/>
-    </row>
-    <row r="95" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="R94" s="6"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="6"/>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>40093</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C95" s="6">
         <v>30033</v>
@@ -5006,30 +5306,32 @@
       <c r="H95" s="6"/>
       <c r="I95" s="6"/>
       <c r="J95" s="6"/>
-      <c r="K95" s="6">
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6">
         <v>35</v>
       </c>
-      <c r="L95" s="6">
-        <v>2</v>
-      </c>
-      <c r="M95" s="6"/>
       <c r="N95" s="6">
+        <v>2</v>
+      </c>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6">
         <v>5</v>
       </c>
-      <c r="O95" s="6">
+      <c r="Q95" s="6">
         <v>12</v>
       </c>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
       <c r="R95" s="6"/>
       <c r="S95" s="6"/>
-    </row>
-    <row r="96" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>40094</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C96" s="6">
         <v>30033</v>
@@ -5047,30 +5349,32 @@
       <c r="H96" s="6"/>
       <c r="I96" s="6"/>
       <c r="J96" s="6"/>
-      <c r="K96" s="6">
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6">
         <v>35</v>
       </c>
-      <c r="L96" s="6">
-        <v>3</v>
-      </c>
-      <c r="M96" s="6"/>
       <c r="N96" s="6">
+        <v>3</v>
+      </c>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6">
         <v>5</v>
       </c>
-      <c r="O96" s="6">
+      <c r="Q96" s="6">
         <v>12</v>
       </c>
-      <c r="P96" s="6"/>
-      <c r="Q96" s="6"/>
       <c r="R96" s="6"/>
       <c r="S96" s="6"/>
-    </row>
-    <row r="97" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>40095</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C97" s="6">
         <v>30035</v>
@@ -5084,34 +5388,36 @@
       <c r="F97" s="6">
         <v>1</v>
       </c>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
-      <c r="K97" s="6">
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="6">
         <v>36</v>
       </c>
-      <c r="L97" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="M97" s="4"/>
-      <c r="N97" s="6">
-        <v>2</v>
-      </c>
-      <c r="O97" s="6">
+      <c r="N97" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="O97" s="4"/>
+      <c r="P97" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q97" s="6">
         <v>12</v>
       </c>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
+      <c r="R97" s="6"/>
       <c r="S97" s="4"/>
-    </row>
-    <row r="98" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>40096</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C98" s="6">
         <v>30035</v>
@@ -5125,34 +5431,36 @@
       <c r="F98" s="6">
         <v>1</v>
       </c>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
-      <c r="K98" s="6">
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="6">
         <v>36</v>
       </c>
-      <c r="L98" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M98" s="4"/>
-      <c r="N98" s="6">
-        <v>2</v>
-      </c>
-      <c r="O98" s="6">
+      <c r="N98" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="O98" s="4"/>
+      <c r="P98" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q98" s="6">
         <v>12</v>
       </c>
-      <c r="P98" s="6"/>
-      <c r="Q98" s="4"/>
-      <c r="R98" s="4"/>
+      <c r="R98" s="6"/>
       <c r="S98" s="4"/>
-    </row>
-    <row r="99" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>40097</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C99" s="6">
         <v>30035</v>
@@ -5166,34 +5474,36 @@
       <c r="F99" s="6">
         <v>1</v>
       </c>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
-      <c r="K99" s="6">
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="6">
         <v>36</v>
       </c>
-      <c r="L99" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="M99" s="4"/>
-      <c r="N99" s="6">
-        <v>2</v>
-      </c>
-      <c r="O99" s="6">
+      <c r="N99" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="O99" s="4"/>
+      <c r="P99" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q99" s="6">
         <v>12</v>
       </c>
-      <c r="P99" s="6"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
+      <c r="R99" s="6"/>
       <c r="S99" s="4"/>
-    </row>
-    <row r="100" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>40098</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C100" s="6">
         <v>30036</v>
@@ -5207,28 +5517,30 @@
       <c r="F100" s="6">
         <v>0</v>
       </c>
-      <c r="K100" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="L100" s="6" t="s">
-        <v>162</v>
-      </c>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
       <c r="M100" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="N100" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="O100" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N100" s="6">
-        <v>2</v>
-      </c>
-      <c r="O100" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="P100" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q100" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>40099</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C101" s="6">
         <v>30036</v>
@@ -5242,32 +5554,34 @@
       <c r="F101" s="6">
         <v>0</v>
       </c>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
       <c r="I101" s="4"/>
       <c r="J101" s="4"/>
-      <c r="K101" s="6">
-        <v>1</v>
-      </c>
-      <c r="L101" s="6">
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="6">
+        <v>1</v>
+      </c>
+      <c r="N101" s="6">
         <v>4</v>
       </c>
-      <c r="M101" s="6" t="s">
+      <c r="O101" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N101" s="6">
-        <v>2</v>
-      </c>
-      <c r="O101" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="P101" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q101" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>40100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C102" s="6">
         <v>30036</v>
@@ -5281,32 +5595,34 @@
       <c r="F102" s="6">
         <v>0</v>
       </c>
-      <c r="G102" s="4"/>
-      <c r="H102" s="4"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
-      <c r="K102" s="6">
-        <v>1</v>
-      </c>
-      <c r="L102" s="6">
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="6">
+        <v>1</v>
+      </c>
+      <c r="N102" s="6">
         <v>5</v>
       </c>
-      <c r="M102" s="6" t="s">
+      <c r="O102" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="N102" s="6">
-        <v>2</v>
-      </c>
-      <c r="O102" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="P102" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q102" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>40101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C103" s="6">
         <v>30037</v>
@@ -5320,30 +5636,32 @@
       <c r="F103" s="6">
         <v>2</v>
       </c>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
-      <c r="K103" s="6">
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="6">
         <v>8</v>
       </c>
-      <c r="L103" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="M103" s="6"/>
-      <c r="N103" s="6">
-        <v>3</v>
-      </c>
-      <c r="O103" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="N103" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q103" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>40102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C104" s="6">
         <v>30037</v>
@@ -5357,30 +5675,32 @@
       <c r="F104" s="6">
         <v>2</v>
       </c>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
-      <c r="K104" s="6">
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="6">
         <v>8</v>
       </c>
-      <c r="L104" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="M104" s="6"/>
-      <c r="N104" s="6">
-        <v>3</v>
-      </c>
-      <c r="O104" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="N104" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q104" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>40103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C105" s="6">
         <v>30037</v>
@@ -5394,30 +5714,32 @@
       <c r="F105" s="6">
         <v>2</v>
       </c>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
+      <c r="G105" s="6"/>
+      <c r="H105" s="6"/>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
-      <c r="K105" s="6">
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="6">
         <v>8</v>
       </c>
-      <c r="L105" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="M105" s="6"/>
-      <c r="N105" s="6">
-        <v>3</v>
-      </c>
-      <c r="O105" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="N105" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="O105" s="6"/>
+      <c r="P105" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q105" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>40104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C106" s="6">
         <v>30038</v>
@@ -5431,36 +5753,38 @@
       <c r="F106" s="6">
         <v>1</v>
       </c>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="6">
+      <c r="G106" s="6"/>
+      <c r="H106" s="6"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="6">
         <v>38</v>
       </c>
-      <c r="J106" s="6">
-        <v>1</v>
-      </c>
-      <c r="K106" s="6">
+      <c r="L106" s="6">
+        <v>1</v>
+      </c>
+      <c r="M106" s="6">
         <v>39</v>
       </c>
-      <c r="L106" s="6">
-        <v>1</v>
-      </c>
-      <c r="M106" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="N106" s="6">
+        <v>1</v>
+      </c>
+      <c r="O106" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="P106" s="6">
         <v>4</v>
       </c>
-      <c r="O106" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q106" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>40105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C107" s="6">
         <v>30038</v>
@@ -5474,36 +5798,38 @@
       <c r="F107" s="6">
         <v>1</v>
       </c>
-      <c r="G107" s="4"/>
-      <c r="H107" s="4"/>
-      <c r="I107" s="6">
+      <c r="G107" s="6"/>
+      <c r="H107" s="6"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="6">
         <v>38</v>
       </c>
-      <c r="J107" s="6">
-        <v>1</v>
-      </c>
-      <c r="K107" s="6">
+      <c r="L107" s="6">
+        <v>1</v>
+      </c>
+      <c r="M107" s="6">
         <v>39</v>
       </c>
-      <c r="L107" s="6">
-        <v>1</v>
-      </c>
-      <c r="M107" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="N107" s="6">
+        <v>1</v>
+      </c>
+      <c r="O107" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="P107" s="6">
         <v>4</v>
       </c>
-      <c r="O107" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q107" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>40106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C108" s="6">
         <v>30038</v>
@@ -5517,36 +5843,38 @@
       <c r="F108" s="6">
         <v>1</v>
       </c>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="6">
+      <c r="G108" s="6"/>
+      <c r="H108" s="6"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="6">
         <v>38</v>
       </c>
-      <c r="J108" s="6">
-        <v>1</v>
-      </c>
-      <c r="K108" s="6">
+      <c r="L108" s="6">
+        <v>1</v>
+      </c>
+      <c r="M108" s="6">
         <v>39</v>
       </c>
-      <c r="L108" s="6">
-        <v>1</v>
-      </c>
-      <c r="M108" s="6" t="s">
-        <v>169</v>
-      </c>
       <c r="N108" s="6">
+        <v>1</v>
+      </c>
+      <c r="O108" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="P108" s="6">
         <v>4</v>
       </c>
-      <c r="O108" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+      <c r="Q108" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>40107</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C109" s="6">
         <v>30039</v>
@@ -5560,25 +5888,27 @@
       <c r="F109" s="6">
         <v>1</v>
       </c>
-      <c r="K109" s="6">
+      <c r="G109" s="6"/>
+      <c r="H109" s="6"/>
+      <c r="M109" s="6">
         <v>10</v>
       </c>
-      <c r="L109" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="N109" s="6">
-        <v>1</v>
-      </c>
-      <c r="O109" s="6">
+      <c r="N109" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="P109" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q109" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>40108</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C110" s="6">
         <v>30039</v>
@@ -5592,26 +5922,28 @@
       <c r="F110" s="6">
         <v>1</v>
       </c>
-      <c r="K110" s="6">
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="M110" s="6">
         <v>10</v>
       </c>
-      <c r="L110" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="M110" s="4"/>
-      <c r="N110" s="6">
-        <v>1</v>
-      </c>
-      <c r="O110" s="6">
+      <c r="N110" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="O110" s="4"/>
+      <c r="P110" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q110" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>40109</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C111" s="6">
         <v>30039</v>
@@ -5625,26 +5957,28 @@
       <c r="F111" s="6">
         <v>1</v>
       </c>
-      <c r="K111" s="6">
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="M111" s="6">
         <v>10</v>
       </c>
-      <c r="L111" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="M111" s="4"/>
-      <c r="N111" s="6">
-        <v>1</v>
-      </c>
-      <c r="O111" s="6">
+      <c r="N111" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="O111" s="4"/>
+      <c r="P111" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q111" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:19" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>40110</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C112" s="6">
         <v>30040</v>
@@ -5658,30 +5992,32 @@
       <c r="F112" s="6">
         <v>2</v>
       </c>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
-      <c r="K112" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="L112" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="M112" s="4"/>
-      <c r="N112" s="6">
-        <v>1</v>
-      </c>
-      <c r="O112" s="6">
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="N112" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="O112" s="4"/>
+      <c r="P112" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q112" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>40111</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C113" s="6">
         <v>30040</v>
@@ -5695,30 +6031,32 @@
       <c r="F113" s="6">
         <v>2</v>
       </c>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="6"/>
       <c r="I113" s="4"/>
       <c r="J113" s="4"/>
-      <c r="K113" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="L113" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="M113" s="4"/>
-      <c r="N113" s="6">
-        <v>1</v>
-      </c>
-      <c r="O113" s="6">
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="N113" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="O113" s="4"/>
+      <c r="P113" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q113" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>40112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C114" s="6">
         <v>30040</v>
@@ -5732,30 +6070,32 @@
       <c r="F114" s="6">
         <v>2</v>
       </c>
-      <c r="G114" s="4"/>
-      <c r="H114" s="4"/>
+      <c r="G114" s="6"/>
+      <c r="H114" s="6"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
-      <c r="K114" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="L114" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="M114" s="4"/>
-      <c r="N114" s="6">
-        <v>1</v>
-      </c>
-      <c r="O114" s="6">
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="N114" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="O114" s="4"/>
+      <c r="P114" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q114" s="6">
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>40113</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C115" s="6">
         <v>30041</v>
@@ -5773,116 +6113,118 @@
       <c r="H115" s="6"/>
       <c r="I115" s="6"/>
       <c r="J115" s="6"/>
-      <c r="K115" s="6">
-        <v>1</v>
-      </c>
-      <c r="L115" s="6">
+      <c r="K115" s="6"/>
+      <c r="L115" s="6"/>
+      <c r="M115" s="6">
+        <v>1</v>
+      </c>
+      <c r="N115" s="6">
         <v>8</v>
       </c>
-      <c r="M115" s="6"/>
-      <c r="N115" s="6">
-        <v>1</v>
-      </c>
-      <c r="O115" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="O115" s="6"/>
+      <c r="P115" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q115" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>40114</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>40115</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>40116</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>40117</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>40118</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>40119</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>40120</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>40121</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>40122</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>40123</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>40124</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>40125</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>40126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>40127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>40128</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>40129</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>40130</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>40131</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>40132</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>40133</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E44ED2-3600-4AE1-A916-7018372D83D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648B52C6-4DA6-45DD-A535-FE7333E38D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="219">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -398,10 +398,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>紫气东来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>show_target_type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -434,10 +430,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5,3,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1,9</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -450,30 +442,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>22|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>36|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15|15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>show_skill_ani_type</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -493,30 +461,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20|50011,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30|50011,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50011,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50003,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20|50003,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30|50003,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>兰袖拂穴</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -525,18 +469,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>15|50001,20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24|50001,25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>35|50001,30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>清风拂穴手</t>
   </si>
   <si>
@@ -552,14 +484,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10|50016,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50016,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>藏剑术</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -584,14 +508,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>50008,5|50018,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50008,8|50018,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1,15,14</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -670,84 +586,20 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>16|50013,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24|50013,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32|50013,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>金雁横空</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>16|50014,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24|50014,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32|50014,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>飞沙扬砾</t>
   </si>
   <si>
-    <t>16|50019,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24|50019,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32|50019,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>无极剑意</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>16|50020,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24|50020,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32|50020,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>回风落雁</t>
   </si>
   <si>
-    <t>16|50021,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24|50021,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32|50021,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>鸳鸯瓦冷</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -760,42 +612,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>30|50009,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40|50009,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>荼火掌法</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20|50010,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30|50010,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40|50010,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>枯木逢春</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50004,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>金钟罩</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -808,25 +632,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>50022,10</t>
-  </si>
-  <si>
-    <t>50022,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50023,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50024,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>大金刚掌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -975,18 +780,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20|100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30|150</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40|200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>40|300</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1067,10 +860,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>本场战斗中,同名卡牌造成伤害增加%{r2}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>16,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1079,11 +868,291 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0|40</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0|50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24|150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32|200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击退敌人%{r1}</t>
+  </si>
+  <si>
+    <t>击退敌人%{r1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八段锦</t>
+  </si>
+  <si>
+    <t>5|50011,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50011,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50011,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|50003,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|50003,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50003,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|50001,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50001,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50001,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#2E5AD7&gt;点穴&lt;/c&gt;敌人%{r2}次步进</t>
+  </si>
+  <si>
+    <t>&lt;color=#2E5AD7&gt;点穴&lt;/c&gt;敌人%{r2}次步进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|50016,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|50016,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|50016,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用之后,本场战斗中,同名卡牌造成伤害增加&lt;color=#b53030&gt;%{r2}&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50008,5|50018,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50008,8|50018,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50009,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50009,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50009,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使目标&lt;color=#2E5AD7&gt;及其后面的一个单位&lt;/c&gt;获得%{r2}层&lt;color=#1ac7c8&gt;寒冷&lt;/c&gt;</t>
+  </si>
+  <si>
+    <t>5|50013,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50013,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50013,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使目标获得%{r2}层&lt;color=#1ac7c8&gt;寒冷&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50041,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15|50041,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|50041,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50020,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50020,1|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50020,1|8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|50019,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50019,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50019,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15|50009,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25|50009,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|50010,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50010,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50010,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|50004,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|50004,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|50004,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50005,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50005,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50022,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50022,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50022,12</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1450,15 +1519,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82:B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
     <col min="7" max="7" width="17.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="36.109375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="44.88671875" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="12" width="17" customWidth="1"/>
     <col min="13" max="13" width="19.44140625" customWidth="1"/>
     <col min="14" max="14" width="23.44140625" customWidth="1"/>
@@ -1488,10 +1558,10 @@
         <v>15</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -1521,13 +1591,13 @@
         <v>2</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>5</v>
@@ -1556,10 +1626,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
@@ -1568,10 +1638,10 @@
         <v>9</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>7</v>
@@ -1583,22 +1653,22 @@
         <v>13</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
@@ -1636,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P3" s="1">
         <v>1</v>
@@ -1682,7 +1752,7 @@
         <v>8</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P4" s="1">
         <v>1</v>
@@ -1701,7 +1771,7 @@
         <v>40003</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>179</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1">
         <v>30001</v>
@@ -1725,10 +1795,10 @@
         <v>1</v>
       </c>
       <c r="N5" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P5" s="1">
         <v>1</v>
@@ -1747,7 +1817,7 @@
         <v>40004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="C6" s="1">
         <v>30002</v>
@@ -1774,7 +1844,7 @@
         <v>4</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P6" s="1">
         <v>2</v>
@@ -1793,7 +1863,7 @@
         <v>40005</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>177</v>
+        <v>125</v>
       </c>
       <c r="C7" s="1">
         <v>30002</v>
@@ -1820,7 +1890,7 @@
         <v>6</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P7" s="1">
         <v>2</v>
@@ -1841,7 +1911,7 @@
         <v>40006</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1">
         <v>30002</v>
@@ -1865,10 +1935,10 @@
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P8" s="1">
         <v>2</v>
@@ -1889,7 +1959,7 @@
         <v>40007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1">
         <v>30003</v>
@@ -1912,7 +1982,7 @@
         <v>4</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P9" s="6">
         <v>1</v>
@@ -1927,7 +1997,7 @@
         <v>40008</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>181</v>
+        <v>129</v>
       </c>
       <c r="C10" s="1">
         <v>30003</v>
@@ -1947,10 +2017,10 @@
         <v>5</v>
       </c>
       <c r="N10" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="P10" s="6">
         <v>1</v>
@@ -1965,7 +2035,7 @@
         <v>40009</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>182</v>
+        <v>130</v>
       </c>
       <c r="C11" s="1">
         <v>30003</v>
@@ -1985,10 +2055,10 @@
         <v>5</v>
       </c>
       <c r="N11" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P11" s="6">
         <v>1</v>
@@ -2017,13 +2087,17 @@
       <c r="F12" s="1">
         <v>2</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="G12" s="6">
+        <v>7</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="M12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="P12" s="1">
         <v>1</v>
@@ -2038,7 +2112,7 @@
         <v>40011</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="C13" s="1">
         <v>30004</v>
@@ -2052,13 +2126,17 @@
       <c r="F13" s="1">
         <v>2</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="G13" s="6">
+        <v>7</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>151</v>
+      </c>
       <c r="M13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N13" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="P13" s="1">
         <v>1</v>
@@ -2073,7 +2151,7 @@
         <v>40012</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>184</v>
+        <v>132</v>
       </c>
       <c r="C14" s="1">
         <v>30004</v>
@@ -2087,13 +2165,17 @@
       <c r="F14" s="1">
         <v>2</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="G14" s="6">
+        <v>7</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="M14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N14" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="P14" s="1">
         <v>1</v>
@@ -2108,7 +2190,7 @@
         <v>40013</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>185</v>
+        <v>133</v>
       </c>
       <c r="C15" s="1">
         <v>30004</v>
@@ -2122,13 +2204,17 @@
       <c r="F15" s="1">
         <v>2</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="G15" s="6">
+        <v>7</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>150</v>
+      </c>
       <c r="M15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N15" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="P15" s="1">
         <v>1</v>
@@ -2155,15 +2241,15 @@
         <v>2</v>
       </c>
       <c r="F16" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="M16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N16" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="P16" s="1">
         <v>2</v>
@@ -2190,15 +2276,15 @@
         <v>3</v>
       </c>
       <c r="F17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="M17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N17" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="P17" s="1">
         <v>2</v>
@@ -2225,15 +2311,15 @@
         <v>3</v>
       </c>
       <c r="F18" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="M18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N18" t="s">
-        <v>40</v>
+        <v>155</v>
       </c>
       <c r="P18" s="1">
         <v>2</v>
@@ -2265,10 +2351,10 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="M19" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N19" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="P19" s="1">
         <v>2</v>
@@ -2283,7 +2369,7 @@
         <v>40018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="C20" s="1">
         <v>30006</v>
@@ -2292,18 +2378,18 @@
         <v>1</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="M20" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N20" t="s">
-        <v>43</v>
+        <v>156</v>
       </c>
       <c r="P20" s="1">
         <v>1</v>
@@ -2318,7 +2404,7 @@
         <v>40019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="C21" s="1">
         <v>30006</v>
@@ -2327,18 +2413,18 @@
         <v>2</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="M21" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N21" t="s">
-        <v>44</v>
+        <v>157</v>
       </c>
       <c r="P21" s="1">
         <v>1</v>
@@ -2353,7 +2439,7 @@
         <v>40020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C22" s="1">
         <v>30007</v>
@@ -2370,13 +2456,13 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="M22" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>52</v>
+        <v>159</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P22" s="1">
         <v>1</v>
@@ -2391,7 +2477,7 @@
         <v>40021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C23" s="1">
         <v>30007</v>
@@ -2408,13 +2494,13 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="M23" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>50</v>
+        <v>160</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P23" s="1">
         <v>1</v>
@@ -2429,7 +2515,7 @@
         <v>40022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1">
         <v>30007</v>
@@ -2446,13 +2532,13 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="M24" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>51</v>
+        <v>161</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P24" s="1">
         <v>1</v>
@@ -2467,7 +2553,7 @@
         <v>40023</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C25" s="1">
         <v>30008</v>
@@ -2484,13 +2570,13 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="M25" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P25" s="1">
         <v>2</v>
@@ -2505,7 +2591,7 @@
         <v>40024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C26" s="1">
         <v>30008</v>
@@ -2522,13 +2608,13 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
       <c r="M26" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P26" s="1">
         <v>2</v>
@@ -2543,7 +2629,7 @@
         <v>40025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C27" s="1">
         <v>30008</v>
@@ -2560,13 +2646,13 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="M27" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>55</v>
+        <v>164</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P27" s="1">
         <v>2</v>
@@ -2581,7 +2667,7 @@
         <v>40026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C28" s="1">
         <v>30009</v>
@@ -2595,16 +2681,20 @@
       <c r="F28" s="1">
         <v>1</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+      <c r="G28" s="6">
+        <v>8</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>169</v>
+      </c>
       <c r="M28" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P28" s="1">
         <v>5</v>
@@ -2619,7 +2709,7 @@
         <v>40027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C29" s="1">
         <v>30009</v>
@@ -2633,16 +2723,20 @@
       <c r="F29" s="1">
         <v>1</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="G29" s="6">
+        <v>8</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="M29" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P29" s="1">
         <v>5</v>
@@ -2657,7 +2751,7 @@
         <v>40028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1">
         <v>30009</v>
@@ -2671,16 +2765,20 @@
       <c r="F30" s="1">
         <v>1</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+      <c r="G30" s="6">
+        <v>8</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>168</v>
+      </c>
       <c r="M30" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P30" s="1">
         <v>5</v>
@@ -2695,7 +2793,7 @@
         <v>40029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C31" s="1">
         <v>30010</v>
@@ -2704,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
@@ -2712,13 +2810,13 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="M31" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="N31" s="1">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P31" s="1">
         <v>5</v>
@@ -2733,7 +2831,7 @@
         <v>40030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C32" s="1">
         <v>30010</v>
@@ -2750,13 +2848,13 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
       <c r="M32" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="N32" s="1">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="O32" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P32" s="1">
         <v>5</v>
@@ -2771,7 +2869,7 @@
         <v>40031</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C33" s="1">
         <v>30010</v>
@@ -2780,21 +2878,21 @@
         <v>3</v>
       </c>
       <c r="E33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
       <c r="M33" s="1" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="N33" s="1">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="O33" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P33" s="1">
         <v>5</v>
@@ -2809,7 +2907,7 @@
         <v>40032</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C34" s="1">
         <v>30011</v>
@@ -2827,13 +2925,13 @@
         <v>10</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>65</v>
+        <v>170</v>
       </c>
       <c r="P34" s="1">
         <v>1</v>
@@ -2842,10 +2940,10 @@
         <v>1</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="T34" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
@@ -2853,7 +2951,7 @@
         <v>40033</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1">
         <v>30011</v>
@@ -2871,13 +2969,13 @@
         <v>10</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>66</v>
+        <v>171</v>
       </c>
       <c r="P35" s="1">
         <v>1</v>
@@ -2886,10 +2984,10 @@
         <v>1</v>
       </c>
       <c r="R35" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="T35" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
@@ -2897,7 +2995,7 @@
         <v>40034</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1">
         <v>30011</v>
@@ -2915,13 +3013,13 @@
         <v>10</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="P36" s="1">
         <v>1</v>
@@ -2930,10 +3028,10 @@
         <v>1</v>
       </c>
       <c r="R36" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="T36" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
@@ -2941,7 +3039,7 @@
         <v>40035</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1">
         <v>30012</v>
@@ -2953,12 +3051,12 @@
         <v>2</v>
       </c>
       <c r="F37" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
       <c r="M37" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="N37" s="1">
         <v>5</v>
@@ -2970,13 +3068,13 @@
         <v>1</v>
       </c>
       <c r="R37" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="T37" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="U37" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
@@ -2984,7 +3082,7 @@
         <v>40036</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1">
         <v>30012</v>
@@ -2996,12 +3094,12 @@
         <v>2</v>
       </c>
       <c r="F38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
       <c r="M38" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="N38" s="1">
         <v>5</v>
@@ -3013,13 +3111,13 @@
         <v>1</v>
       </c>
       <c r="R38" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="T38" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="U38" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -3027,7 +3125,7 @@
         <v>40037</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1">
         <v>30012</v>
@@ -3036,15 +3134,15 @@
         <v>3</v>
       </c>
       <c r="E39" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
       <c r="M39" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="N39" s="1">
         <v>5</v>
@@ -3056,13 +3154,13 @@
         <v>1</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="T39" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="U39" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -3070,7 +3168,7 @@
         <v>40038</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C40" s="1">
         <v>30013</v>
@@ -3087,10 +3185,10 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
       <c r="M40" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="N40" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P40" s="1">
         <v>3</v>
@@ -3105,7 +3203,7 @@
         <v>40039</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C41" s="1">
         <v>30013</v>
@@ -3122,10 +3220,10 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
       <c r="M41" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="N41" t="s">
-        <v>73</v>
+        <v>174</v>
       </c>
       <c r="P41" s="1">
         <v>3</v>
@@ -3140,7 +3238,7 @@
         <v>40040</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="C42" s="1">
         <v>30013</v>
@@ -3157,10 +3255,10 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
       <c r="M42" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="N42" t="s">
-        <v>74</v>
+        <v>175</v>
       </c>
       <c r="P42" s="1">
         <v>3</v>
@@ -3175,7 +3273,7 @@
         <v>40041</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C43" s="1">
         <v>30014</v>
@@ -3187,7 +3285,7 @@
         <v>1</v>
       </c>
       <c r="F43" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -3198,19 +3296,19 @@
         <v>2</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P43" s="1">
         <v>1</v>
       </c>
       <c r="Q43" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
@@ -3218,7 +3316,7 @@
         <v>40042</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C44" s="1">
         <v>30014</v>
@@ -3230,7 +3328,7 @@
         <v>1</v>
       </c>
       <c r="F44" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -3241,19 +3339,19 @@
         <v>2</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="P44" s="1">
         <v>1</v>
       </c>
       <c r="Q44" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
@@ -3261,7 +3359,7 @@
         <v>40043</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C45" s="1">
         <v>30014</v>
@@ -3273,7 +3371,7 @@
         <v>1</v>
       </c>
       <c r="F45" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -3284,19 +3382,19 @@
         <v>2</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>200</v>
+        <v>145</v>
       </c>
       <c r="O45" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="P45" s="1">
         <v>1</v>
       </c>
       <c r="Q45" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
@@ -3304,7 +3402,7 @@
         <v>40044</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C46" s="1">
         <v>30015</v>
@@ -3321,16 +3419,16 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="M46" s="6" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>134</v>
+        <v>182</v>
       </c>
       <c r="P46" s="6">
         <v>1</v>
       </c>
       <c r="Q46" s="6">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
@@ -3338,7 +3436,7 @@
         <v>40045</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C47" s="1">
         <v>30015</v>
@@ -3355,16 +3453,16 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="M47" s="6" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="P47" s="6">
         <v>1</v>
       </c>
       <c r="Q47" s="6">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
@@ -3372,7 +3470,7 @@
         <v>40046</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C48" s="1">
         <v>30015</v>
@@ -3389,16 +3487,16 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="M48" s="6" t="s">
-        <v>133</v>
+        <v>181</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="P48" s="6">
         <v>1</v>
       </c>
       <c r="Q48" s="6">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.25">
@@ -3406,7 +3504,7 @@
         <v>40047</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C49" s="1">
         <v>30016</v>
@@ -3426,16 +3524,16 @@
         <v>20</v>
       </c>
       <c r="L49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="O49" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P49" s="1">
         <v>1</v>
@@ -3449,7 +3547,7 @@
         <v>40048</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C50" s="1">
         <v>30016</v>
@@ -3469,16 +3567,16 @@
         <v>20</v>
       </c>
       <c r="L50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="P50" s="1">
         <v>1</v>
@@ -3492,7 +3590,7 @@
         <v>40049</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C51" s="1">
         <v>30016</v>
@@ -3515,13 +3613,13 @@
         <v>2</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>197</v>
+        <v>144</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="P51" s="1">
         <v>1</v>
@@ -3535,7 +3633,7 @@
         <v>40050</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C52" s="1">
         <v>30017</v>
@@ -3552,13 +3650,13 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="M52" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="N52" s="1">
-        <v>300</v>
+        <v>15</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P52" s="1">
         <v>1</v>
@@ -3572,7 +3670,7 @@
         <v>40051</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C53" s="1">
         <v>30017</v>
@@ -3589,13 +3687,13 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
       <c r="M53" s="1" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="N53" s="1">
-        <v>400</v>
+        <v>22</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P53" s="1">
         <v>1</v>
@@ -3609,7 +3707,7 @@
         <v>40052</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C54" s="1">
         <v>30017</v>
@@ -3626,13 +3724,13 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
       <c r="M54" s="1" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="N54" s="1">
-        <v>500</v>
+        <v>30</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P54" s="1">
         <v>1</v>
@@ -3646,7 +3744,7 @@
         <v>40053</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C55" s="3">
         <v>30018</v>
@@ -3660,19 +3758,23 @@
       <c r="F55" s="3">
         <v>1</v>
       </c>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="M55" s="3" t="s">
-        <v>98</v>
+      <c r="G55" s="6">
+        <v>8</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="M55" s="3">
+        <v>8</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>95</v>
+        <v>185</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P55" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q55" s="3">
         <v>1</v>
@@ -3686,7 +3788,7 @@
         <v>40054</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C56" s="3">
         <v>30018</v>
@@ -3700,22 +3802,26 @@
       <c r="F56" s="3">
         <v>1</v>
       </c>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="M56" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="N56" s="3" t="s">
-        <v>96</v>
+      <c r="G56" s="6">
+        <v>8</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="M56" s="3">
+        <v>8</v>
+      </c>
+      <c r="N56" s="6" t="s">
+        <v>186</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P56" s="3">
         <v>2</v>
       </c>
       <c r="Q56" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
@@ -3726,7 +3832,7 @@
         <v>40055</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C57" s="3">
         <v>30018</v>
@@ -3740,22 +3846,26 @@
       <c r="F57" s="3">
         <v>1</v>
       </c>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
+      <c r="G57" s="6">
+        <v>8</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>189</v>
+      </c>
       <c r="M57" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>97</v>
+        <v>187</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>188</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P57" s="3">
         <v>2</v>
       </c>
       <c r="Q57" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R57" s="3"/>
       <c r="S57" s="3"/>
@@ -3766,7 +3876,7 @@
         <v>40056</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C58" s="3">
         <v>30019</v>
@@ -3787,13 +3897,13 @@
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="3" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>100</v>
+        <v>190</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P58" s="3">
         <v>2</v>
@@ -3808,7 +3918,7 @@
         <v>40057</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C59" s="3">
         <v>30019</v>
@@ -3829,19 +3939,19 @@
       <c r="K59" s="2"/>
       <c r="L59" s="2"/>
       <c r="M59" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>101</v>
+        <v>73</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>191</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P59" s="3">
         <v>2</v>
       </c>
       <c r="Q59" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R59" s="3"/>
     </row>
@@ -3850,7 +3960,7 @@
         <v>40058</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="C60" s="3">
         <v>30019</v>
@@ -3871,19 +3981,19 @@
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N60" s="3" t="s">
-        <v>102</v>
+        <v>73</v>
+      </c>
+      <c r="N60" s="6" t="s">
+        <v>192</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P60" s="3">
         <v>2</v>
       </c>
       <c r="Q60" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R60" s="3"/>
     </row>
@@ -3892,7 +4002,7 @@
         <v>40059</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C61" s="3">
         <v>30020</v>
@@ -3904,7 +4014,7 @@
         <v>2</v>
       </c>
       <c r="F61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -3913,19 +4023,19 @@
       <c r="K61" s="2"/>
       <c r="L61" s="2"/>
       <c r="M61" s="3" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>104</v>
+        <v>194</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P61" s="3">
         <v>2</v>
       </c>
       <c r="Q61" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
@@ -3933,7 +4043,7 @@
         <v>40060</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="C62" s="3">
         <v>30020</v>
@@ -3953,20 +4063,20 @@
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
-      <c r="M62" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N62" s="3" t="s">
-        <v>105</v>
+      <c r="M62" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>195</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P62" s="3">
         <v>2</v>
       </c>
       <c r="Q62" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
@@ -3974,7 +4084,7 @@
         <v>40061</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="C63" s="3">
         <v>30020</v>
@@ -3994,20 +4104,20 @@
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
-      <c r="M63" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="N63" s="3" t="s">
-        <v>106</v>
+      <c r="M63" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P63" s="3">
         <v>2</v>
       </c>
       <c r="Q63" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.25">
@@ -4015,7 +4125,7 @@
         <v>40062</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C64" s="5">
         <v>30021</v>
@@ -4024,7 +4134,7 @@
         <v>1</v>
       </c>
       <c r="E64" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F64" s="5">
         <v>1</v>
@@ -4035,20 +4145,18 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="5" t="s">
-        <v>94</v>
+      <c r="M64" s="5">
+        <v>10</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="O64" s="5" t="s">
-        <v>31</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="O64" s="5"/>
       <c r="P64" s="5">
         <v>2</v>
       </c>
       <c r="Q64" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
@@ -4056,7 +4164,7 @@
         <v>40063</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C65" s="5">
         <v>30021</v>
@@ -4065,7 +4173,7 @@
         <v>2</v>
       </c>
       <c r="E65" s="5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F65" s="5">
         <v>1</v>
@@ -4076,20 +4184,18 @@
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="5" t="s">
-        <v>94</v>
+      <c r="M65" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="O65" s="5" t="s">
-        <v>32</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="O65" s="5"/>
       <c r="P65" s="5">
         <v>2</v>
       </c>
       <c r="Q65" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
@@ -4097,7 +4203,7 @@
         <v>40064</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="C66" s="5">
         <v>30021</v>
@@ -4106,10 +4212,10 @@
         <v>3</v>
       </c>
       <c r="E66" s="5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F66" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -4117,20 +4223,18 @@
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="5" t="s">
-        <v>94</v>
+      <c r="M66" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="O66" s="5" t="s">
-        <v>32</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="O66" s="5"/>
       <c r="P66" s="5">
         <v>2</v>
       </c>
       <c r="Q66" s="5">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
@@ -4138,7 +4242,7 @@
         <v>40065</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C67" s="5">
         <v>30022</v>
@@ -4158,19 +4262,19 @@
       <c r="J67" s="4"/>
       <c r="K67" s="4"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="N67" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="O67" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="P67" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q67" s="5">
+      <c r="M67" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P67" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q67" s="6">
         <v>1</v>
       </c>
     </row>
@@ -4179,7 +4283,7 @@
         <v>40066</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C68" s="5">
         <v>30022</v>
@@ -4199,20 +4303,20 @@
       <c r="J68" s="4"/>
       <c r="K68" s="4"/>
       <c r="L68" s="4"/>
-      <c r="M68" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="N68" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="O68" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P68" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q68" s="5">
-        <v>1</v>
+      <c r="M68" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N68" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="O68" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="P68" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q68" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
@@ -4220,7 +4324,7 @@
         <v>40067</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>111</v>
+        <v>77</v>
       </c>
       <c r="C69" s="5">
         <v>30022</v>
@@ -4240,20 +4344,20 @@
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
       <c r="L69" s="4"/>
-      <c r="M69" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="N69" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="O69" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="P69" s="5">
-        <v>2</v>
-      </c>
-      <c r="Q69" s="5">
-        <v>1</v>
+      <c r="M69" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P69" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q69" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
@@ -4261,7 +4365,7 @@
         <v>40068</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C70" s="6">
         <v>30023</v>
@@ -4282,13 +4386,13 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="O70" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P70" s="6">
         <v>1</v>
@@ -4302,7 +4406,7 @@
         <v>40069</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C71" s="6">
         <v>30023</v>
@@ -4323,13 +4427,13 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P71" s="6">
         <v>1</v>
@@ -4343,7 +4447,7 @@
         <v>40070</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="C72" s="6">
         <v>30023</v>
@@ -4364,13 +4468,13 @@
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>119</v>
+        <v>205</v>
       </c>
       <c r="O72" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P72" s="6">
         <v>1</v>
@@ -4384,7 +4488,7 @@
         <v>40071</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C73" s="6">
         <v>30024</v>
@@ -4405,13 +4509,13 @@
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>121</v>
+        <v>206</v>
       </c>
       <c r="O73" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P73" s="6">
         <v>1</v>
@@ -4425,7 +4529,7 @@
         <v>40072</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C74" s="6">
         <v>30024</v>
@@ -4446,13 +4550,13 @@
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>122</v>
+        <v>207</v>
       </c>
       <c r="O74" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P74" s="6">
         <v>1</v>
@@ -4466,7 +4570,7 @@
         <v>40073</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="C75" s="6">
         <v>30024</v>
@@ -4487,13 +4591,13 @@
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6" t="s">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="O75" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P75" s="6">
         <v>1</v>
@@ -4507,7 +4611,7 @@
         <v>40074</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="C76" s="6">
         <v>30025</v>
@@ -4523,15 +4627,19 @@
       </c>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
+      <c r="I76" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J76" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="6" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>126</v>
+        <v>211</v>
       </c>
       <c r="O76" s="4"/>
       <c r="P76" s="6">
@@ -4550,7 +4658,7 @@
         <v>40075</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="C77" s="6">
         <v>30025</v>
@@ -4566,15 +4674,19 @@
       </c>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
+      <c r="I77" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J77" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="6" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>126</v>
+        <v>212</v>
       </c>
       <c r="O77" s="4"/>
       <c r="P77" s="6">
@@ -4593,7 +4705,7 @@
         <v>40076</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="C78" s="6">
         <v>30025</v>
@@ -4609,15 +4721,19 @@
       </c>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
+      <c r="I78" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J78" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="6" t="s">
-        <v>125</v>
+        <v>209</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>126</v>
+        <v>213</v>
       </c>
       <c r="O78" s="4"/>
       <c r="P78" s="6">
@@ -4636,7 +4752,7 @@
         <v>40077</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="C79" s="6">
         <v>30026</v>
@@ -4648,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="F79" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -4660,7 +4776,7 @@
         <v>10</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="O79" s="4"/>
       <c r="P79" s="6">
@@ -4675,7 +4791,7 @@
         <v>40078</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="C80" s="6">
         <v>30026</v>
@@ -4687,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="F80" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
@@ -4699,7 +4815,7 @@
         <v>10</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>128</v>
+        <v>214</v>
       </c>
       <c r="O80" s="4"/>
       <c r="P80" s="6">
@@ -4714,7 +4830,7 @@
         <v>40079</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="C81" s="6">
         <v>30026</v>
@@ -4726,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="F81" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
@@ -4738,7 +4854,7 @@
         <v>10</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="O81" s="4"/>
       <c r="P81" s="6">
@@ -4753,7 +4869,7 @@
         <v>40080</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="C82" s="6">
         <v>30027</v>
@@ -4765,19 +4881,23 @@
         <v>0</v>
       </c>
       <c r="F82" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
+      <c r="I82" s="6">
+        <v>3</v>
+      </c>
+      <c r="J82" s="6">
+        <v>50</v>
+      </c>
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="6">
         <v>10</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="O82" s="4"/>
       <c r="P82" s="6">
@@ -4794,7 +4914,7 @@
         <v>40081</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="C83" s="6">
         <v>30027</v>
@@ -4806,19 +4926,19 @@
         <v>0</v>
       </c>
       <c r="F83" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
-      <c r="I83" s="4"/>
-      <c r="J83" s="4"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
       <c r="M83" s="6">
         <v>10</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="O83" s="4"/>
       <c r="P83" s="6">
@@ -4835,7 +4955,7 @@
         <v>40082</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>129</v>
+        <v>85</v>
       </c>
       <c r="C84" s="6">
         <v>30027</v>
@@ -4851,15 +4971,15 @@
       </c>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
       <c r="K84" s="4"/>
       <c r="L84" s="4"/>
       <c r="M84" s="6">
         <v>10</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>130</v>
+        <v>218</v>
       </c>
       <c r="O84" s="4"/>
       <c r="P84" s="6">
@@ -4876,7 +4996,7 @@
         <v>40083</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="C85" s="6">
         <v>30030</v>
@@ -4897,10 +5017,10 @@
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="6" t="s">
-        <v>149</v>
+        <v>100</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>150</v>
+        <v>101</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6">
@@ -4917,7 +5037,7 @@
         <v>40084</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="C86" s="6">
         <v>30030</v>
@@ -4938,7 +5058,7 @@
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="6" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="N86" s="6">
         <v>30</v>
@@ -4958,7 +5078,7 @@
         <v>40085</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="C87" s="6">
         <v>30030</v>
@@ -4979,7 +5099,7 @@
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="6" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="N87" s="6">
         <v>40</v>
@@ -4999,7 +5119,7 @@
         <v>40086</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="C88" s="6">
         <v>30031</v>
@@ -5016,18 +5136,18 @@
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="4" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="6" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="O88" s="6"/>
       <c r="P88" s="6">
@@ -5042,7 +5162,7 @@
         <v>40087</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="C89" s="6">
         <v>30031</v>
@@ -5059,18 +5179,18 @@
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="4" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="6" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="O89" s="6"/>
       <c r="P89" s="6">
@@ -5085,7 +5205,7 @@
         <v>40088</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="C90" s="6">
         <v>30031</v>
@@ -5102,18 +5222,18 @@
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="4" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="6" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="O90" s="6"/>
       <c r="P90" s="6">
@@ -5128,7 +5248,7 @@
         <v>40089</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="C91" s="6">
         <v>30032</v>
@@ -5167,7 +5287,7 @@
         <v>40090</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="C92" s="6">
         <v>30032</v>
@@ -5206,7 +5326,7 @@
         <v>40091</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="C93" s="6">
         <v>30032</v>
@@ -5245,7 +5365,7 @@
         <v>40092</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="C94" s="6">
         <v>30033</v>
@@ -5288,7 +5408,7 @@
         <v>40093</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="C95" s="6">
         <v>30033</v>
@@ -5331,7 +5451,7 @@
         <v>40094</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="C96" s="6">
         <v>30033</v>
@@ -5374,7 +5494,7 @@
         <v>40095</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="C97" s="6">
         <v>30035</v>
@@ -5398,7 +5518,7 @@
         <v>36</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="O97" s="4"/>
       <c r="P97" s="6">
@@ -5417,7 +5537,7 @@
         <v>40096</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="C98" s="6">
         <v>30035</v>
@@ -5441,7 +5561,7 @@
         <v>36</v>
       </c>
       <c r="N98" s="7" t="s">
-        <v>153</v>
+        <v>104</v>
       </c>
       <c r="O98" s="4"/>
       <c r="P98" s="6">
@@ -5460,7 +5580,7 @@
         <v>40097</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="C99" s="6">
         <v>30035</v>
@@ -5484,7 +5604,7 @@
         <v>36</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
       <c r="O99" s="4"/>
       <c r="P99" s="6">
@@ -5503,7 +5623,7 @@
         <v>40098</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="C100" s="6">
         <v>30036</v>
@@ -5520,13 +5640,13 @@
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="M100" s="6" t="s">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="N100" s="6" t="s">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="O100" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P100" s="6">
         <v>2</v>
@@ -5540,7 +5660,7 @@
         <v>40099</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="C101" s="6">
         <v>30036</v>
@@ -5567,7 +5687,7 @@
         <v>4</v>
       </c>
       <c r="O101" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P101" s="6">
         <v>2</v>
@@ -5581,7 +5701,7 @@
         <v>40100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="C102" s="6">
         <v>30036</v>
@@ -5608,7 +5728,7 @@
         <v>5</v>
       </c>
       <c r="O102" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P102" s="6">
         <v>2</v>
@@ -5622,7 +5742,7 @@
         <v>40101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="C103" s="6">
         <v>30037</v>
@@ -5646,7 +5766,7 @@
         <v>8</v>
       </c>
       <c r="N103" s="6" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="O103" s="6"/>
       <c r="P103" s="6">
@@ -5661,7 +5781,7 @@
         <v>40102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="C104" s="6">
         <v>30037</v>
@@ -5685,7 +5805,7 @@
         <v>8</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="O104" s="6"/>
       <c r="P104" s="6">
@@ -5700,7 +5820,7 @@
         <v>40103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="C105" s="6">
         <v>30037</v>
@@ -5724,7 +5844,7 @@
         <v>8</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>160</v>
+        <v>111</v>
       </c>
       <c r="O105" s="6"/>
       <c r="P105" s="6">
@@ -5739,7 +5859,7 @@
         <v>40104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="C106" s="6">
         <v>30038</v>
@@ -5770,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="O106" s="6" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="P106" s="6">
         <v>4</v>
@@ -5784,7 +5904,7 @@
         <v>40105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="C107" s="6">
         <v>30038</v>
@@ -5815,7 +5935,7 @@
         <v>1</v>
       </c>
       <c r="O107" s="6" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="P107" s="6">
         <v>4</v>
@@ -5829,7 +5949,7 @@
         <v>40106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="C108" s="6">
         <v>30038</v>
@@ -5860,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="O108" s="6" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="P108" s="6">
         <v>4</v>
@@ -5874,7 +5994,7 @@
         <v>40107</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="C109" s="6">
         <v>30039</v>
@@ -5894,7 +6014,7 @@
         <v>10</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>166</v>
+        <v>117</v>
       </c>
       <c r="P109" s="6">
         <v>1</v>
@@ -5908,7 +6028,7 @@
         <v>40108</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="C110" s="6">
         <v>30039</v>
@@ -5928,7 +6048,7 @@
         <v>10</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>167</v>
+        <v>118</v>
       </c>
       <c r="O110" s="4"/>
       <c r="P110" s="6">
@@ -5943,7 +6063,7 @@
         <v>40109</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="C111" s="6">
         <v>30039</v>
@@ -5963,7 +6083,7 @@
         <v>10</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="O111" s="4"/>
       <c r="P111" s="6">
@@ -5978,7 +6098,7 @@
         <v>40110</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="C112" s="6">
         <v>30040</v>
@@ -5999,10 +6119,10 @@
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="6" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="O112" s="4"/>
       <c r="P112" s="6">
@@ -6017,7 +6137,7 @@
         <v>40111</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="C113" s="6">
         <v>30040</v>
@@ -6038,10 +6158,10 @@
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="6" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="N113" s="6" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="O113" s="4"/>
       <c r="P113" s="6">
@@ -6056,7 +6176,7 @@
         <v>40112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="C114" s="6">
         <v>30040</v>
@@ -6077,10 +6197,10 @@
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
       <c r="M114" s="6" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="N114" s="6" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="O114" s="4"/>
       <c r="P114" s="6">
@@ -6095,7 +6215,7 @@
         <v>40113</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>186</v>
+        <v>134</v>
       </c>
       <c r="C115" s="6">
         <v>30041</v>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648B52C6-4DA6-45DD-A535-FE7333E38D4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,13 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="D2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{0EFCFF5C-7A1C-4EF9-AD00-6902A893E7EF}">
+    <comment ref="G2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{848B4157-E0FC-4A32-94F2-3EB95E91A43A}">
+    <comment ref="H2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -155,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="O2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="P2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -218,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="Q2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -264,7 +263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="S2" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -295,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="235">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -636,22 +635,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>醉拳</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0|50018</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -668,18 +655,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>20|20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50|50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>60|60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>隔山打牛</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -688,19 +663,489 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,24</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20|3,30034</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>一月映三江</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>快剑</t>
+    <t>3,30036,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50058,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50058,2</t>
+  </si>
+  <si>
+    <t>50058,3</t>
+  </si>
+  <si>
+    <t>39,4,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓弦劲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阳真炁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,10,10,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞沙扬砾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40|300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>直剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>格挡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波撼洞庭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波撼洞庭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>波撼洞庭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>花拳绣腿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>投掷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50017,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50017,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>repalce_desc_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>24|150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32|200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>击退敌人%{r1}</t>
+  </si>
+  <si>
+    <t>击退敌人%{r1}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>八段锦</t>
+  </si>
+  <si>
+    <t>5|50011,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50011,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50011,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|50003,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|50003,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50003,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|50001,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50001,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50001,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#2E5AD7&gt;点穴&lt;/c&gt;敌人%{r2}次步进</t>
+  </si>
+  <si>
+    <t>&lt;color=#2E5AD7&gt;点穴&lt;/c&gt;敌人%{r2}次步进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|50016,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|50016,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|50016,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用之后,本场战斗中,同名卡牌造成伤害增加&lt;color=#b53030&gt;%{r2}&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50008,5|50018,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50008,8|50018,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50009,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50009,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50009,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使目标&lt;color=#2E5AD7&gt;及其后面的一个单位&lt;/c&gt;获得%{r2}层&lt;color=#1ac7c8&gt;寒冷&lt;/c&gt;</t>
+  </si>
+  <si>
+    <t>5|50013,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50013,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50013,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使目标获得%{r2}层&lt;color=#1ac7c8&gt;寒冷&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50041,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15|50041,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|50041,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50020,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50020,1|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50020,1|8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|50019,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50019,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50019,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15|50009,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25|50009,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|50010,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50010,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50010,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|50004,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|50004,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|50004,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50005,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50005,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50022,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50022,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50022,12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,24,25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15|2,30028|1,30029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22|3,30028|1,30029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30|3,30028|1,30029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,30036,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -708,458 +1153,78 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3,30036,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,30038,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3|10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50058,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50058,2</t>
-  </si>
-  <si>
-    <t>50058,3</t>
-  </si>
-  <si>
-    <t>凤箫声动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>凤箫声动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>凤箫声动</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>39,4,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弓弦劲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50061,20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50061,21</t>
-  </si>
-  <si>
-    <t>50061,22</t>
-  </si>
-  <si>
-    <t>太阳真炁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,10,10,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|50050,3|50004,5|10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞沙扬砾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40|300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>直剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>平拳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>直剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>格挡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>波撼洞庭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>波撼洞庭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>波撼洞庭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>花拳绣腿</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>投掷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>投掷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>投掷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50017,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50017,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>repalce_desc_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16|100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>24|150</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>32|200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>击退敌人%{r1}</t>
-  </si>
-  <si>
-    <t>击退敌人%{r1}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>14|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>八段锦</t>
-  </si>
-  <si>
-    <t>5|50011,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|50011,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50011,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4|50003,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6|50003,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|50003,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|50001,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|50001,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12|50001,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#2E5AD7&gt;点穴&lt;/c&gt;敌人%{r2}次步进</t>
-  </si>
-  <si>
-    <t>&lt;color=#2E5AD7&gt;点穴&lt;/c&gt;敌人%{r2}次步进</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|50016,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4|50016,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6|50016,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用之后,本场战斗中,同名卡牌造成伤害增加&lt;color=#b53030&gt;%{r2}&lt;/c&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50008,5|50018,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50008,8|50018,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|20</t>
+    <t>1,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天音乱气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体获得%{r2}层&lt;color=#3079b5&gt;乱气&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体获得%{r2}层&lt;color=#3079b6&gt;乱气&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体获得%{r2}层&lt;color=#3079b7&gt;乱气&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50058,3|50018,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,10,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|50050,3|20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|50050,3|50004,5|20</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>0|15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,43</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50009,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50009,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50009,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使目标&lt;color=#2E5AD7&gt;及其后面的一个单位&lt;/c&gt;获得%{r2}层&lt;color=#1ac7c8&gt;寒冷&lt;/c&gt;</t>
-  </si>
-  <si>
-    <t>5|50013,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|50013,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12|50013,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使目标获得%{r2}层&lt;color=#1ac7c8&gt;寒冷&lt;/c&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50041,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15|50041,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20|50041,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50020,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50020,1|5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50020,1|8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|50019,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|50019,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12|50019,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15|50009,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25|50009,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|50010,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|50010,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12|50010,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|50004,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|50004,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|50004,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50005,7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50005,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50022,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50022,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50022,12</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1516,29 +1581,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82:B84"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="44.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.625" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="44.875" style="4" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="19.44140625" customWidth="1"/>
-    <col min="14" max="14" width="23.44140625" customWidth="1"/>
-    <col min="16" max="16" width="17.33203125" customWidth="1"/>
+    <col min="13" max="13" width="19.5" customWidth="1"/>
+    <col min="14" max="14" width="23.5" customWidth="1"/>
+    <col min="16" max="16" width="17.375" customWidth="1"/>
     <col min="17" max="18" width="16" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="14.109375" customWidth="1"/>
+    <col min="20" max="20" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1558,10 +1623,10 @@
         <v>15</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -1606,7 +1671,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1626,10 +1691,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
@@ -1674,7 +1739,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -1720,7 +1785,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -1766,12 +1831,12 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1">
         <v>30001</v>
@@ -1812,12 +1877,12 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1">
         <v>30002</v>
@@ -1858,12 +1923,12 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C7" s="1">
         <v>30002</v>
@@ -1906,12 +1971,12 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C8" s="1">
         <v>30002</v>
@@ -1954,12 +2019,12 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C9" s="1">
         <v>30003</v>
@@ -1992,12 +2057,12 @@
       </c>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C10" s="1">
         <v>30003</v>
@@ -2030,12 +2095,12 @@
       </c>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C11" s="1">
         <v>30003</v>
@@ -2068,7 +2133,7 @@
       </c>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -2091,13 +2156,13 @@
         <v>7</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="P12" s="1">
         <v>1</v>
@@ -2107,12 +2172,12 @@
       </c>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C13" s="1">
         <v>30004</v>
@@ -2130,13 +2195,13 @@
         <v>7</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N13" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="P13" s="1">
         <v>1</v>
@@ -2146,12 +2211,12 @@
       </c>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C14" s="1">
         <v>30004</v>
@@ -2169,13 +2234,13 @@
         <v>7</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N14" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="P14" s="1">
         <v>1</v>
@@ -2185,12 +2250,12 @@
       </c>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C15" s="1">
         <v>30004</v>
@@ -2208,13 +2273,13 @@
         <v>7</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N15" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="P15" s="1">
         <v>1</v>
@@ -2224,7 +2289,7 @@
       </c>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -2249,7 +2314,7 @@
         <v>34</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="P16" s="1">
         <v>2</v>
@@ -2259,7 +2324,7 @@
       </c>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -2284,7 +2349,7 @@
         <v>34</v>
       </c>
       <c r="N17" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="P17" s="1">
         <v>2</v>
@@ -2294,7 +2359,7 @@
       </c>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -2319,7 +2384,7 @@
         <v>35</v>
       </c>
       <c r="N18" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="P18" s="1">
         <v>2</v>
@@ -2329,7 +2394,7 @@
       </c>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -2354,7 +2419,7 @@
         <v>35</v>
       </c>
       <c r="N19" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="P19" s="1">
         <v>2</v>
@@ -2364,12 +2429,12 @@
       </c>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C20" s="1">
         <v>30006</v>
@@ -2389,7 +2454,7 @@
         <v>36</v>
       </c>
       <c r="N20" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="P20" s="1">
         <v>1</v>
@@ -2399,12 +2464,12 @@
       </c>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="C21" s="1">
         <v>30006</v>
@@ -2424,7 +2489,7 @@
         <v>36</v>
       </c>
       <c r="N21" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="P21" s="1">
         <v>1</v>
@@ -2434,7 +2499,7 @@
       </c>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -2459,7 +2524,7 @@
         <v>41</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>27</v>
@@ -2472,7 +2537,7 @@
       </c>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -2497,7 +2562,7 @@
         <v>41</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>27</v>
@@ -2510,7 +2575,7 @@
       </c>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -2535,7 +2600,7 @@
         <v>40</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>27</v>
@@ -2548,7 +2613,7 @@
       </c>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -2573,7 +2638,7 @@
         <v>40</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>30</v>
@@ -2586,7 +2651,7 @@
       </c>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -2611,7 +2676,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>30</v>
@@ -2624,7 +2689,7 @@
       </c>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -2649,7 +2714,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>30</v>
@@ -2662,7 +2727,7 @@
       </c>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -2685,13 +2750,13 @@
         <v>8</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>169</v>
+        <v>149</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>27</v>
@@ -2704,7 +2769,7 @@
       </c>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -2727,13 +2792,13 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>27</v>
@@ -2746,7 +2811,7 @@
       </c>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -2769,13 +2834,13 @@
         <v>8</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>27</v>
@@ -2788,7 +2853,7 @@
       </c>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -2826,7 +2891,7 @@
       </c>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -2864,7 +2929,7 @@
       </c>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -2902,7 +2967,7 @@
       </c>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
@@ -2925,13 +2990,13 @@
         <v>10</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="P34" s="1">
         <v>1</v>
@@ -2946,7 +3011,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
@@ -2969,13 +3034,13 @@
         <v>10</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="P35" s="1">
         <v>1</v>
@@ -2990,7 +3055,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
@@ -3013,13 +3078,13 @@
         <v>10</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="P36" s="1">
         <v>1</v>
@@ -3034,7 +3099,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
@@ -3077,7 +3142,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
@@ -3117,10 +3182,10 @@
         <v>57</v>
       </c>
       <c r="U38" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
@@ -3160,10 +3225,10 @@
         <v>57</v>
       </c>
       <c r="U39" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
@@ -3198,7 +3263,7 @@
       </c>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
@@ -3223,7 +3288,7 @@
         <v>52</v>
       </c>
       <c r="N41" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="P41" s="1">
         <v>3</v>
@@ -3233,7 +3298,7 @@
       </c>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
@@ -3258,7 +3323,7 @@
         <v>52</v>
       </c>
       <c r="N42" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="P42" s="1">
         <v>3</v>
@@ -3268,7 +3333,7 @@
       </c>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
@@ -3296,10 +3361,10 @@
         <v>2</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>27</v>
@@ -3311,7 +3376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
@@ -3339,10 +3404,10 @@
         <v>2</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>65</v>
@@ -3354,7 +3419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
@@ -3382,10 +3447,10 @@
         <v>2</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>65</v>
@@ -3397,7 +3462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
@@ -3419,10 +3484,10 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="M46" s="6" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="P46" s="6">
         <v>1</v>
@@ -3431,7 +3496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
@@ -3453,10 +3518,10 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="M47" s="6" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="P47" s="6">
         <v>1</v>
@@ -3465,7 +3530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>
@@ -3487,10 +3552,10 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="M48" s="6" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="P48" s="6">
         <v>1</v>
@@ -3499,7 +3564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40047</v>
       </c>
@@ -3527,10 +3592,10 @@
         <v>1</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>27</v>
@@ -3542,7 +3607,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40048</v>
       </c>
@@ -3570,10 +3635,10 @@
         <v>1</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>177</v>
+        <v>157</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>27</v>
@@ -3585,7 +3650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40049</v>
       </c>
@@ -3613,10 +3678,10 @@
         <v>2</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>65</v>
@@ -3628,7 +3693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40050</v>
       </c>
@@ -3665,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40051</v>
       </c>
@@ -3702,7 +3767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40052</v>
       </c>
@@ -3739,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40053</v>
       </c>
@@ -3762,13 +3827,13 @@
         <v>8</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="M55" s="3">
         <v>8</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="O55" s="3" t="s">
         <v>30</v>
@@ -3783,7 +3848,7 @@
       <c r="S55" s="2"/>
       <c r="T55" s="2"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40054</v>
       </c>
@@ -3806,13 +3871,13 @@
         <v>8</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="M56" s="3">
         <v>8</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>31</v>
@@ -3827,7 +3892,7 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40055</v>
       </c>
@@ -3850,13 +3915,13 @@
         <v>8</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>31</v>
@@ -3871,7 +3936,7 @@
       <c r="S57" s="3"/>
       <c r="T57" s="3"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40056</v>
       </c>
@@ -3900,7 +3965,7 @@
         <v>73</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>30</v>
@@ -3913,7 +3978,7 @@
       </c>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40057</v>
       </c>
@@ -3942,7 +4007,7 @@
         <v>73</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>30</v>
@@ -3955,7 +4020,7 @@
       </c>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40058</v>
       </c>
@@ -3984,7 +4049,7 @@
         <v>73</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>31</v>
@@ -3997,7 +4062,7 @@
       </c>
       <c r="R60" s="3"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40059</v>
       </c>
@@ -4026,7 +4091,7 @@
         <v>41</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="O61" s="3" t="s">
         <v>30</v>
@@ -4038,12 +4103,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40060</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C62" s="3">
         <v>30020</v>
@@ -4067,7 +4132,7 @@
         <v>41</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>31</v>
@@ -4079,7 +4144,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40061</v>
       </c>
@@ -4108,7 +4173,7 @@
         <v>41</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="O63" s="3" t="s">
         <v>31</v>
@@ -4120,7 +4185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40062</v>
       </c>
@@ -4149,7 +4214,7 @@
         <v>10</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="O64" s="5"/>
       <c r="P64" s="5">
@@ -4159,7 +4224,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40063</v>
       </c>
@@ -4185,10 +4250,10 @@
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="6" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="O65" s="5"/>
       <c r="P65" s="5">
@@ -4198,7 +4263,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40064</v>
       </c>
@@ -4224,10 +4289,10 @@
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="6" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="O66" s="5"/>
       <c r="P66" s="5">
@@ -4237,7 +4302,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40065</v>
       </c>
@@ -4266,7 +4331,7 @@
         <v>50</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="O67" s="6" t="s">
         <v>30</v>
@@ -4278,7 +4343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40066</v>
       </c>
@@ -4307,7 +4372,7 @@
         <v>50</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="O68" s="6" t="s">
         <v>30</v>
@@ -4319,7 +4384,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40067</v>
       </c>
@@ -4348,7 +4413,7 @@
         <v>50</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="O69" s="6" t="s">
         <v>31</v>
@@ -4360,7 +4425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40068</v>
       </c>
@@ -4389,7 +4454,7 @@
         <v>79</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="O70" s="6" t="s">
         <v>27</v>
@@ -4401,7 +4466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>40069</v>
       </c>
@@ -4442,7 +4507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>40070</v>
       </c>
@@ -4471,7 +4536,7 @@
         <v>79</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="O72" s="6" t="s">
         <v>28</v>
@@ -4483,7 +4548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>40071</v>
       </c>
@@ -4512,7 +4577,7 @@
         <v>41</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="O73" s="6" t="s">
         <v>27</v>
@@ -4524,7 +4589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40072</v>
       </c>
@@ -4553,7 +4618,7 @@
         <v>41</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="O74" s="6" t="s">
         <v>28</v>
@@ -4565,7 +4630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40073</v>
       </c>
@@ -4594,7 +4659,7 @@
         <v>41</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="O75" s="6" t="s">
         <v>28</v>
@@ -4606,7 +4671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40074</v>
       </c>
@@ -4628,18 +4693,18 @@
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="4" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="6" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="O76" s="4"/>
       <c r="P76" s="6">
@@ -4653,7 +4718,7 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>40075</v>
       </c>
@@ -4675,18 +4740,18 @@
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="4" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="6" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="O77" s="4"/>
       <c r="P77" s="6">
@@ -4700,7 +4765,7 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>40076</v>
       </c>
@@ -4722,18 +4787,18 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="4" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="6" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="O78" s="4"/>
       <c r="P78" s="6">
@@ -4747,7 +4812,7 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>40077</v>
       </c>
@@ -4786,7 +4851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>40078</v>
       </c>
@@ -4815,7 +4880,7 @@
         <v>10</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="O80" s="4"/>
       <c r="P80" s="6">
@@ -4825,7 +4890,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>40079</v>
       </c>
@@ -4854,7 +4919,7 @@
         <v>10</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>215</v>
+        <v>195</v>
       </c>
       <c r="O81" s="4"/>
       <c r="P81" s="6">
@@ -4864,7 +4929,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>40080</v>
       </c>
@@ -4897,7 +4962,7 @@
         <v>10</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="O82" s="4"/>
       <c r="P82" s="6">
@@ -4909,7 +4974,7 @@
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>40081</v>
       </c>
@@ -4938,7 +5003,7 @@
         <v>10</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="O83" s="4"/>
       <c r="P83" s="6">
@@ -4950,7 +5015,7 @@
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>40082</v>
       </c>
@@ -4979,7 +5044,7 @@
         <v>10</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="O84" s="4"/>
       <c r="P84" s="6">
@@ -4991,7 +5056,7 @@
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>40083</v>
       </c>
@@ -5008,7 +5073,7 @@
         <v>1</v>
       </c>
       <c r="F85" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
@@ -5017,12 +5082,14 @@
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="6" t="s">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="O85" s="6"/>
+        <v>202</v>
+      </c>
+      <c r="O85" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="P85" s="6">
         <v>1</v>
       </c>
@@ -5032,7 +5099,7 @@
       <c r="R85" s="6"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>40084</v>
       </c>
@@ -5049,7 +5116,7 @@
         <v>1</v>
       </c>
       <c r="F86" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
@@ -5058,12 +5125,14 @@
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="N86" s="6">
-        <v>30</v>
-      </c>
-      <c r="O86" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="O86" s="6" t="s">
+        <v>199</v>
+      </c>
       <c r="P86" s="6">
         <v>1</v>
       </c>
@@ -5073,7 +5142,7 @@
       <c r="R86" s="6"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>40085</v>
       </c>
@@ -5090,7 +5159,7 @@
         <v>1</v>
       </c>
       <c r="F87" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
@@ -5099,12 +5168,14 @@
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="N87" s="6">
-        <v>40</v>
-      </c>
-      <c r="O87" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="N87" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="O87" s="6" t="s">
+        <v>201</v>
+      </c>
       <c r="P87" s="6">
         <v>1</v>
       </c>
@@ -5114,12 +5185,12 @@
       <c r="R87" s="6"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>40086</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C88" s="6">
         <v>30031</v>
@@ -5136,18 +5207,18 @@
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="4" t="s">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="O88" s="6"/>
       <c r="P88" s="6">
@@ -5157,12 +5228,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>40087</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C89" s="6">
         <v>30031</v>
@@ -5179,20 +5250,22 @@
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="4" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="O89" s="6"/>
+        <v>206</v>
+      </c>
+      <c r="O89" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="P89" s="6">
         <v>1</v>
       </c>
@@ -5200,12 +5273,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>40088</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C90" s="6">
         <v>30031</v>
@@ -5222,20 +5295,22 @@
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="J90" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="J90" s="4" t="s">
-        <v>93</v>
       </c>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="O90" s="6"/>
+        <v>207</v>
+      </c>
+      <c r="O90" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="P90" s="6">
         <v>1</v>
       </c>
@@ -5243,12 +5318,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>40089</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C91" s="6">
         <v>30032</v>
@@ -5272,7 +5347,7 @@
         <v>29</v>
       </c>
       <c r="N91" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O91" s="6"/>
       <c r="P91" s="6">
@@ -5282,12 +5357,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>40090</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C92" s="6">
         <v>30032</v>
@@ -5311,9 +5386,11 @@
         <v>29</v>
       </c>
       <c r="N92" s="6">
-        <v>20</v>
-      </c>
-      <c r="O92" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="O92" s="6" t="s">
+        <v>212</v>
+      </c>
       <c r="P92" s="6">
         <v>1</v>
       </c>
@@ -5321,12 +5398,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>40091</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C93" s="6">
         <v>30032</v>
@@ -5350,9 +5427,11 @@
         <v>29</v>
       </c>
       <c r="N93" s="6">
-        <v>30</v>
-      </c>
-      <c r="O93" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="O93" s="6" t="s">
+        <v>212</v>
+      </c>
       <c r="P93" s="6">
         <v>1</v>
       </c>
@@ -5360,12 +5439,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>40092</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C94" s="6">
         <v>30033</v>
@@ -5385,8 +5464,8 @@
       <c r="J94" s="6"/>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
-      <c r="M94" s="6">
-        <v>35</v>
+      <c r="M94" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="N94" s="6">
         <v>2</v>
@@ -5403,12 +5482,12 @@
       <c r="T94" s="4"/>
       <c r="U94" s="6"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>40093</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C95" s="6">
         <v>30033</v>
@@ -5420,7 +5499,7 @@
         <v>0</v>
       </c>
       <c r="F95" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -5428,8 +5507,8 @@
       <c r="J95" s="6"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
-      <c r="M95" s="6">
-        <v>35</v>
+      <c r="M95" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="N95" s="6">
         <v>2</v>
@@ -5446,12 +5525,12 @@
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>40094</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C96" s="6">
         <v>30033</v>
@@ -5463,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="F96" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
@@ -5471,8 +5550,8 @@
       <c r="J96" s="6"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
-      <c r="M96" s="6">
-        <v>35</v>
+      <c r="M96" s="6" t="s">
+        <v>213</v>
       </c>
       <c r="N96" s="6">
         <v>3</v>
@@ -5489,12 +5568,12 @@
       <c r="T96" s="6"/>
       <c r="U96" s="6"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>40095</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C97" s="6">
         <v>30035</v>
@@ -5506,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="F97" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
@@ -5518,7 +5597,7 @@
         <v>36</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="O97" s="4"/>
       <c r="P97" s="6">
@@ -5532,12 +5611,12 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>40096</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C98" s="6">
         <v>30035</v>
@@ -5561,7 +5640,7 @@
         <v>36</v>
       </c>
       <c r="N98" s="7" t="s">
-        <v>104</v>
+        <v>216</v>
       </c>
       <c r="O98" s="4"/>
       <c r="P98" s="6">
@@ -5575,12 +5654,12 @@
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>40097</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C99" s="6">
         <v>30035</v>
@@ -5604,7 +5683,7 @@
         <v>36</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="O99" s="4"/>
       <c r="P99" s="6">
@@ -5618,12 +5697,12 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>40098</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="C100" s="6">
         <v>30036</v>
@@ -5640,13 +5719,13 @@
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="M100" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="N100" s="6" t="s">
-        <v>108</v>
+        <v>218</v>
+      </c>
+      <c r="N100" s="6">
+        <v>4</v>
       </c>
       <c r="O100" s="6" t="s">
-        <v>31</v>
+        <v>215</v>
       </c>
       <c r="P100" s="6">
         <v>2</v>
@@ -5655,12 +5734,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>40099</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="C101" s="6">
         <v>30036</v>
@@ -5680,14 +5759,14 @@
       <c r="J101" s="4"/>
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
-      <c r="M101" s="6">
-        <v>1</v>
+      <c r="M101" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="N101" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O101" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P101" s="6">
         <v>2</v>
@@ -5696,12 +5775,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>40100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>103</v>
+        <v>214</v>
       </c>
       <c r="C102" s="6">
         <v>30036</v>
@@ -5721,14 +5800,14 @@
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
-      <c r="M102" s="6">
-        <v>1</v>
+      <c r="M102" s="6" t="s">
+        <v>218</v>
       </c>
       <c r="N102" s="6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="O102" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P102" s="6">
         <v>2</v>
@@ -5737,12 +5816,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>40101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>112</v>
+        <v>219</v>
       </c>
       <c r="C103" s="6">
         <v>30037</v>
@@ -5756,8 +5835,12 @@
       <c r="F103" s="6">
         <v>2</v>
       </c>
-      <c r="G103" s="6"/>
-      <c r="H103" s="6"/>
+      <c r="G103" s="6">
+        <v>8</v>
+      </c>
+      <c r="H103" s="6" t="s">
+        <v>220</v>
+      </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
       <c r="K103" s="4"/>
@@ -5766,7 +5849,7 @@
         <v>8</v>
       </c>
       <c r="N103" s="6" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="O103" s="6"/>
       <c r="P103" s="6">
@@ -5776,12 +5859,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>40102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c r="C104" s="6">
         <v>30037</v>
@@ -5795,8 +5878,12 @@
       <c r="F104" s="6">
         <v>2</v>
       </c>
-      <c r="G104" s="6"/>
-      <c r="H104" s="6"/>
+      <c r="G104" s="6">
+        <v>8</v>
+      </c>
+      <c r="H104" s="6" t="s">
+        <v>221</v>
+      </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
       <c r="K104" s="4"/>
@@ -5805,7 +5892,7 @@
         <v>8</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="O104" s="6"/>
       <c r="P104" s="6">
@@ -5815,12 +5902,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>40103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>114</v>
+        <v>219</v>
       </c>
       <c r="C105" s="6">
         <v>30037</v>
@@ -5834,8 +5921,12 @@
       <c r="F105" s="6">
         <v>2</v>
       </c>
-      <c r="G105" s="6"/>
-      <c r="H105" s="6"/>
+      <c r="G105" s="6">
+        <v>8</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>222</v>
+      </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
       <c r="K105" s="4"/>
@@ -5844,7 +5935,7 @@
         <v>8</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="O105" s="6"/>
       <c r="P105" s="6">
@@ -5854,12 +5945,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>40104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="C106" s="6">
         <v>30038</v>
@@ -5890,7 +5981,7 @@
         <v>1</v>
       </c>
       <c r="O106" s="6" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="P106" s="6">
         <v>4</v>
@@ -5899,12 +5990,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>40105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C107" s="6">
         <v>30038</v>
@@ -5935,7 +6026,7 @@
         <v>1</v>
       </c>
       <c r="O107" s="6" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="P107" s="6">
         <v>4</v>
@@ -5944,12 +6035,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>40106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="C108" s="6">
         <v>30038</v>
@@ -5980,7 +6071,7 @@
         <v>1</v>
       </c>
       <c r="O108" s="6" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="P108" s="6">
         <v>4</v>
@@ -5989,12 +6080,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>40107</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C109" s="6">
         <v>30039</v>
@@ -6014,8 +6105,9 @@
         <v>10</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>117</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="O109" s="6"/>
       <c r="P109" s="6">
         <v>1</v>
       </c>
@@ -6023,12 +6115,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>40108</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C110" s="6">
         <v>30039</v>
@@ -6048,9 +6140,11 @@
         <v>10</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="O110" s="4"/>
+        <v>226</v>
+      </c>
+      <c r="O110" s="6" t="s">
+        <v>227</v>
+      </c>
       <c r="P110" s="6">
         <v>1</v>
       </c>
@@ -6058,12 +6152,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>40109</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C111" s="6">
         <v>30039</v>
@@ -6083,9 +6177,11 @@
         <v>10</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="O111" s="4"/>
+        <v>225</v>
+      </c>
+      <c r="O111" s="6" t="s">
+        <v>227</v>
+      </c>
       <c r="P111" s="6">
         <v>1</v>
       </c>
@@ -6093,12 +6189,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>40110</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C112" s="6">
         <v>30040</v>
@@ -6110,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F112" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
@@ -6119,12 +6215,14 @@
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="6" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O112" s="4"/>
+        <v>234</v>
+      </c>
+      <c r="O112" s="6" t="s">
+        <v>230</v>
+      </c>
       <c r="P112" s="6">
         <v>1</v>
       </c>
@@ -6132,12 +6230,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>40111</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C113" s="6">
         <v>30040</v>
@@ -6158,12 +6256,14 @@
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="6" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="N113" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O113" s="4"/>
+        <v>232</v>
+      </c>
+      <c r="O113" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="P113" s="6">
         <v>1</v>
       </c>
@@ -6171,12 +6271,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>40112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C114" s="6">
         <v>30040</v>
@@ -6197,12 +6297,14 @@
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
       <c r="M114" s="6" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="N114" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O114" s="4"/>
+        <v>233</v>
+      </c>
+      <c r="O114" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="P114" s="6">
         <v>1</v>
       </c>
@@ -6210,12 +6312,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>40113</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C115" s="6">
         <v>30041</v>
@@ -6249,102 +6351,173 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>40114</v>
       </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B116" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C116" s="6">
+        <v>30041</v>
+      </c>
+      <c r="D116" s="6">
+        <v>2</v>
+      </c>
+      <c r="E116" s="6">
+        <v>2</v>
+      </c>
+      <c r="F116" s="6">
+        <v>1</v>
+      </c>
+      <c r="G116" s="6"/>
+      <c r="H116" s="6"/>
+      <c r="I116" s="6"/>
+      <c r="J116" s="6"/>
+      <c r="K116" s="6"/>
+      <c r="L116" s="6"/>
+      <c r="M116" s="6">
+        <v>1</v>
+      </c>
+      <c r="N116" s="6">
+        <v>11</v>
+      </c>
+      <c r="O116" s="6"/>
+      <c r="P116" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>40115</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B117" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C117" s="6">
+        <v>30042</v>
+      </c>
+      <c r="D117" s="6">
+        <v>1</v>
+      </c>
+      <c r="E117" s="6">
+        <v>1</v>
+      </c>
+      <c r="F117" s="6">
+        <v>1</v>
+      </c>
+      <c r="M117" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="N117" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="P117" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q117" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>40116</v>
       </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B118" s="6"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="M118" s="6"/>
+      <c r="N118" s="4"/>
+    </row>
+    <row r="119" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>40117</v>
       </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B119" s="6"/>
+      <c r="C119" s="6"/>
+      <c r="D119" s="6"/>
+      <c r="M119" s="6"/>
+      <c r="N119" s="4"/>
+    </row>
+    <row r="120" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>40118</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>40119</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>40120</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>40121</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>40122</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>40123</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>40124</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>40125</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>40126</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>40127</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>40128</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>40129</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>40130</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>40131</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>40132</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>40133</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -294,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="313">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1218,6 +1218,315 @@
   </si>
   <si>
     <t>0|15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞龙在天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,8|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,12|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,16|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙跃于渊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50062,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50062,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50062,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>终日乾乾</t>
+  </si>
+  <si>
+    <t>50063,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你蓄力时,额外获得3层&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你蓄力时,额外获得3层&lt;color=#b5a431&gt;蓄力&lt;/c&gt;</t>
+  </si>
+  <si>
+    <t>祁连山诀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50064,5|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50064,7|7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50064,9|9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当回合结束时,获得%{r2}层的&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当回合结束时,获得%{r2}层的&lt;color=#b5a431&gt;蓄力&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当回合结束时,获得%{r2}层的&lt;color=#b5a432&gt;蓄力&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当回合结束时,你的&lt;color=#b5a430&gt;蓄力&lt;/c&gt;翻倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当回合结束时,你的&lt;color=#b5a431&gt;蓄力&lt;/c&gt;翻倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当回合结束时,你的&lt;color=#b5a432&gt;蓄力&lt;/c&gt;翻倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阴无悔式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阴无悔式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,3</t>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50065,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14|50065,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18|50065,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏龙掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9|50061,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11|50061,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛虎拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|8|50061,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻泡影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,5,34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,21,34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,14,34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无间轮回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红莲地狱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50067,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18|50067,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10,21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|50068,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|50068,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50068,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火贪斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红莲心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|50069,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50069,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50069,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每燃烧一张牌,自身获得%{r2}x5点&lt;color=#b5a430&gt;护盾&lt;/c&gt;,并且层数减少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,14</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1582,10 +1891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X135"/>
+  <dimension ref="A1:X200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="J149" sqref="J149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6426,100 +6735,1691 @@
       <c r="A118" s="6">
         <v>40116</v>
       </c>
-      <c r="B118" s="6"/>
-      <c r="C118" s="6"/>
-      <c r="D118" s="6"/>
-      <c r="M118" s="6"/>
-      <c r="N118" s="4"/>
+      <c r="B118" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118" s="6">
+        <v>30043</v>
+      </c>
+      <c r="D118" s="6">
+        <v>1</v>
+      </c>
+      <c r="E118" s="6">
+        <v>0</v>
+      </c>
+      <c r="F118" s="6">
+        <v>1</v>
+      </c>
+      <c r="I118" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J118" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="M118" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="N118" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="P118" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q118" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="119" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>40117</v>
       </c>
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="M119" s="6"/>
-      <c r="N119" s="4"/>
+      <c r="B119" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C119" s="6">
+        <v>30043</v>
+      </c>
+      <c r="D119" s="6">
+        <v>2</v>
+      </c>
+      <c r="E119" s="6">
+        <v>0</v>
+      </c>
+      <c r="F119" s="6">
+        <v>1</v>
+      </c>
+      <c r="I119" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J119" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="M119" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="N119" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="P119" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q119" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="120" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>40118</v>
       </c>
+      <c r="B120" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="C120" s="6">
+        <v>30043</v>
+      </c>
+      <c r="D120" s="6">
+        <v>3</v>
+      </c>
+      <c r="E120" s="6">
+        <v>0</v>
+      </c>
+      <c r="F120" s="6">
+        <v>0</v>
+      </c>
+      <c r="I120" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="J120" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="M120" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="N120" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="P120" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q120" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="121" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>40119</v>
       </c>
+      <c r="B121" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C121" s="6">
+        <v>30044</v>
+      </c>
+      <c r="D121" s="6">
+        <v>1</v>
+      </c>
+      <c r="E121" s="6">
+        <v>0</v>
+      </c>
+      <c r="F121" s="6">
+        <v>3</v>
+      </c>
+      <c r="G121" s="6">
+        <v>10</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="I121" s="6"/>
+      <c r="J121" s="6"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="N121" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="O121" s="4"/>
+      <c r="P121" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q121" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="122" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>40120</v>
       </c>
+      <c r="B122" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C122" s="6">
+        <v>30044</v>
+      </c>
+      <c r="D122" s="6">
+        <v>2</v>
+      </c>
+      <c r="E122" s="6">
+        <v>0</v>
+      </c>
+      <c r="F122" s="6">
+        <v>2</v>
+      </c>
+      <c r="G122" s="6">
+        <v>10</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="I122" s="6"/>
+      <c r="J122" s="6"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="N122" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="O122" s="4"/>
+      <c r="P122" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q122" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="123" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>40121</v>
       </c>
+      <c r="B123" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C123" s="6">
+        <v>30044</v>
+      </c>
+      <c r="D123" s="6">
+        <v>3</v>
+      </c>
+      <c r="E123" s="6">
+        <v>0</v>
+      </c>
+      <c r="F123" s="6">
+        <v>1</v>
+      </c>
+      <c r="G123" s="6">
+        <v>10</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="I123" s="6"/>
+      <c r="J123" s="6"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="N123" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="O123" s="4"/>
+      <c r="P123" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q123" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="124" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>40122</v>
       </c>
+      <c r="B124" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C124" s="6">
+        <v>30045</v>
+      </c>
+      <c r="D124" s="6">
+        <v>1</v>
+      </c>
+      <c r="E124" s="6">
+        <v>0</v>
+      </c>
+      <c r="F124" s="6">
+        <v>1</v>
+      </c>
+      <c r="G124" s="6">
+        <v>10</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="I124" s="6"/>
+      <c r="J124" s="6"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="N124" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="O124" s="4"/>
+      <c r="P124" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q124" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="125" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>40123</v>
       </c>
+      <c r="B125" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" s="6">
+        <v>30045</v>
+      </c>
+      <c r="D125" s="6">
+        <v>2</v>
+      </c>
+      <c r="E125" s="6">
+        <v>0</v>
+      </c>
+      <c r="F125" s="6">
+        <v>0</v>
+      </c>
+      <c r="G125" s="6">
+        <v>10</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="I125" s="6"/>
+      <c r="J125" s="6"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="N125" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="O125" s="4"/>
+      <c r="P125" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q125" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="126" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>40124</v>
       </c>
+      <c r="B126" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C126" s="6">
+        <v>30046</v>
+      </c>
+      <c r="D126" s="6">
+        <v>1</v>
+      </c>
+      <c r="E126" s="6">
+        <v>0</v>
+      </c>
+      <c r="F126" s="6">
+        <v>2</v>
+      </c>
+      <c r="G126" s="6">
+        <v>10</v>
+      </c>
+      <c r="H126" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="I126" s="6"/>
+      <c r="J126" s="6"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="N126" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="O126" s="4"/>
+      <c r="P126" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q126" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="127" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>40125</v>
       </c>
+      <c r="B127" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C127" s="6">
+        <v>30046</v>
+      </c>
+      <c r="D127" s="6">
+        <v>2</v>
+      </c>
+      <c r="E127" s="6">
+        <v>0</v>
+      </c>
+      <c r="F127" s="6">
+        <v>1</v>
+      </c>
+      <c r="G127" s="6">
+        <v>10</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="I127" s="6"/>
+      <c r="J127" s="6"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="N127" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="O127" s="4"/>
+      <c r="P127" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q127" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="128" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>40126</v>
       </c>
-    </row>
-    <row r="129" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B128" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C128" s="6">
+        <v>30046</v>
+      </c>
+      <c r="D128" s="6">
+        <v>3</v>
+      </c>
+      <c r="E128" s="6">
+        <v>0</v>
+      </c>
+      <c r="F128" s="6">
+        <v>1</v>
+      </c>
+      <c r="G128" s="6">
+        <v>10</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="I128" s="6"/>
+      <c r="J128" s="6"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="N128" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="O128" s="4"/>
+      <c r="P128" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q128" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>40127</v>
       </c>
-    </row>
-    <row r="130" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B129" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="C129" s="6">
+        <v>30047</v>
+      </c>
+      <c r="D129" s="6">
+        <v>1</v>
+      </c>
+      <c r="E129" s="6">
+        <v>1</v>
+      </c>
+      <c r="F129" s="6">
+        <v>3</v>
+      </c>
+      <c r="G129" s="6"/>
+      <c r="H129" s="6"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="6"/>
+      <c r="K129" s="6"/>
+      <c r="L129" s="6"/>
+      <c r="M129" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="N129" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="O129" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P129" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q129" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>40128</v>
       </c>
-    </row>
-    <row r="131" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B130" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C130" s="6">
+        <v>30047</v>
+      </c>
+      <c r="D130" s="6">
+        <v>2</v>
+      </c>
+      <c r="E130" s="6">
+        <v>1</v>
+      </c>
+      <c r="F130" s="6">
+        <v>2</v>
+      </c>
+      <c r="G130" s="6"/>
+      <c r="H130" s="6"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="6"/>
+      <c r="K130" s="6"/>
+      <c r="L130" s="6"/>
+      <c r="M130" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="N130" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="O130" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="P130" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q130" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>40129</v>
       </c>
-    </row>
-    <row r="132" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B131" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="C131" s="6">
+        <v>30047</v>
+      </c>
+      <c r="D131" s="6">
+        <v>3</v>
+      </c>
+      <c r="E131" s="6">
+        <v>1</v>
+      </c>
+      <c r="F131" s="6">
+        <v>1</v>
+      </c>
+      <c r="G131" s="6"/>
+      <c r="H131" s="6"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="6"/>
+      <c r="K131" s="6"/>
+      <c r="L131" s="6"/>
+      <c r="M131" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="N131" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="O131" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="P131" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q131" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>40130</v>
       </c>
-    </row>
-    <row r="133" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B132" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C132" s="6">
+        <v>30048</v>
+      </c>
+      <c r="D132" s="6">
+        <v>1</v>
+      </c>
+      <c r="E132" s="6">
+        <v>2</v>
+      </c>
+      <c r="F132" s="6">
+        <v>1</v>
+      </c>
+      <c r="G132" s="6"/>
+      <c r="H132" s="6"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="6"/>
+      <c r="K132" s="6"/>
+      <c r="L132" s="6"/>
+      <c r="M132" s="6">
+        <v>1</v>
+      </c>
+      <c r="N132" s="6">
+        <v>7</v>
+      </c>
+      <c r="O132" s="6"/>
+      <c r="P132" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="6">
+        <v>1</v>
+      </c>
+      <c r="R132" s="4"/>
+    </row>
+    <row r="133" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>40131</v>
       </c>
-    </row>
-    <row r="134" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B133" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C133" s="6">
+        <v>30048</v>
+      </c>
+      <c r="D133" s="6">
+        <v>2</v>
+      </c>
+      <c r="E133" s="6">
+        <v>2</v>
+      </c>
+      <c r="F133" s="6">
+        <v>1</v>
+      </c>
+      <c r="G133" s="6"/>
+      <c r="H133" s="6"/>
+      <c r="I133" s="6"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="6"/>
+      <c r="M133" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="N133" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="O133" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P133" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q133" s="6">
+        <v>1</v>
+      </c>
+      <c r="R133" s="4"/>
+    </row>
+    <row r="134" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>40132</v>
       </c>
-    </row>
-    <row r="135" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B134" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="C134" s="6">
+        <v>30048</v>
+      </c>
+      <c r="D134" s="6">
+        <v>3</v>
+      </c>
+      <c r="E134" s="6">
+        <v>3</v>
+      </c>
+      <c r="F134" s="6">
+        <v>1</v>
+      </c>
+      <c r="G134" s="6"/>
+      <c r="H134" s="6"/>
+      <c r="I134" s="6"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="6"/>
+      <c r="M134" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="N134" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="O134" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="P134" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q134" s="6">
+        <v>1</v>
+      </c>
+      <c r="R134" s="4"/>
+    </row>
+    <row r="135" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>40133</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C135" s="6">
+        <v>30049</v>
+      </c>
+      <c r="D135" s="6">
+        <v>1</v>
+      </c>
+      <c r="E135" s="6">
+        <v>1</v>
+      </c>
+      <c r="F135" s="6">
+        <v>2</v>
+      </c>
+      <c r="G135" s="6"/>
+      <c r="H135" s="6"/>
+      <c r="I135" s="6"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="6"/>
+      <c r="M135" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="N135" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="O135" s="6"/>
+      <c r="P135" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q135" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
+        <v>40134</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C136" s="6">
+        <v>30049</v>
+      </c>
+      <c r="D136" s="6">
+        <v>2</v>
+      </c>
+      <c r="E136" s="6">
+        <v>1</v>
+      </c>
+      <c r="F136" s="6">
+        <v>2</v>
+      </c>
+      <c r="G136" s="6"/>
+      <c r="H136" s="6"/>
+      <c r="I136" s="6"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="6"/>
+      <c r="M136" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="N136" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="O136" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="P136" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
+        <v>40135</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="C137" s="6">
+        <v>30049</v>
+      </c>
+      <c r="D137" s="6">
+        <v>3</v>
+      </c>
+      <c r="E137" s="6">
+        <v>1</v>
+      </c>
+      <c r="F137" s="6">
+        <v>1</v>
+      </c>
+      <c r="G137" s="6"/>
+      <c r="H137" s="6"/>
+      <c r="I137" s="6"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="6"/>
+      <c r="M137" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="N137" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="O137" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="P137" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q137" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A138" s="6">
+        <v>40136</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C138" s="6">
+        <v>30050</v>
+      </c>
+      <c r="D138" s="6">
+        <v>1</v>
+      </c>
+      <c r="E138" s="6">
+        <v>1</v>
+      </c>
+      <c r="F138" s="6">
+        <v>1</v>
+      </c>
+      <c r="G138" s="6"/>
+      <c r="H138" s="6"/>
+      <c r="I138" s="6"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="6"/>
+      <c r="M138" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="N138" s="6">
+        <v>10</v>
+      </c>
+      <c r="O138" s="6"/>
+      <c r="P138" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q138" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A139" s="6">
+        <v>40137</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C139" s="6">
+        <v>30050</v>
+      </c>
+      <c r="D139" s="6">
+        <v>2</v>
+      </c>
+      <c r="E139" s="6">
+        <v>1</v>
+      </c>
+      <c r="F139" s="6">
+        <v>1</v>
+      </c>
+      <c r="G139" s="6"/>
+      <c r="H139" s="6"/>
+      <c r="I139" s="6"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="6"/>
+      <c r="M139" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="N139" s="6">
+        <v>14</v>
+      </c>
+      <c r="O139" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="P139" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q139" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A140" s="6">
+        <v>40138</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="C140" s="6">
+        <v>30050</v>
+      </c>
+      <c r="D140" s="6">
+        <v>3</v>
+      </c>
+      <c r="E140" s="6">
+        <v>1</v>
+      </c>
+      <c r="F140" s="6">
+        <v>0</v>
+      </c>
+      <c r="G140" s="6"/>
+      <c r="H140" s="6"/>
+      <c r="I140" s="6"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="6"/>
+      <c r="M140" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="N140" s="6">
+        <v>15</v>
+      </c>
+      <c r="O140" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="P140" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q140" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A141" s="6">
+        <v>40139</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C141" s="6">
+        <v>30051</v>
+      </c>
+      <c r="D141" s="6">
+        <v>1</v>
+      </c>
+      <c r="E141" s="6">
+        <v>3</v>
+      </c>
+      <c r="F141" s="6">
+        <v>3</v>
+      </c>
+      <c r="G141" s="6"/>
+      <c r="H141" s="6"/>
+      <c r="I141" s="6"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="6"/>
+      <c r="M141" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="N141" s="6">
+        <v>8</v>
+      </c>
+      <c r="O141" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="P141" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q141" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A142" s="6">
+        <v>40140</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C142" s="6">
+        <v>30051</v>
+      </c>
+      <c r="D142" s="6">
+        <v>2</v>
+      </c>
+      <c r="E142" s="6">
+        <v>3</v>
+      </c>
+      <c r="F142" s="6">
+        <v>2</v>
+      </c>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="6"/>
+      <c r="M142" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="N142" s="6">
+        <v>12</v>
+      </c>
+      <c r="O142" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="P142" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q142" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A143" s="6">
+        <v>40141</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="C143" s="6">
+        <v>30051</v>
+      </c>
+      <c r="D143" s="6">
+        <v>3</v>
+      </c>
+      <c r="E143" s="6">
+        <v>3</v>
+      </c>
+      <c r="F143" s="6">
+        <v>2</v>
+      </c>
+      <c r="G143" s="6"/>
+      <c r="H143" s="6"/>
+      <c r="I143" s="6"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="6"/>
+      <c r="M143" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="N143" s="6">
+        <v>18</v>
+      </c>
+      <c r="O143" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="P143" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q143" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <v>40142</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C144" s="6">
+        <v>30052</v>
+      </c>
+      <c r="D144" s="6">
+        <v>1</v>
+      </c>
+      <c r="E144" s="6">
+        <v>3</v>
+      </c>
+      <c r="F144" s="6">
+        <v>2</v>
+      </c>
+      <c r="G144" s="6"/>
+      <c r="H144" s="6"/>
+      <c r="I144" s="6"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="6"/>
+      <c r="M144" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="N144" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="O144" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="P144" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q144" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A145" s="6">
+        <v>40143</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C145" s="6">
+        <v>30052</v>
+      </c>
+      <c r="D145" s="6">
+        <v>2</v>
+      </c>
+      <c r="E145" s="6">
+        <v>3</v>
+      </c>
+      <c r="F145" s="6">
+        <v>2</v>
+      </c>
+      <c r="G145" s="6"/>
+      <c r="H145" s="6"/>
+      <c r="I145" s="6"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="6"/>
+      <c r="M145" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="N145" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="O145" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="P145" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q145" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A146" s="6">
+        <v>40144</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C146" s="6">
+        <v>30052</v>
+      </c>
+      <c r="D146" s="6">
+        <v>3</v>
+      </c>
+      <c r="E146" s="6">
+        <v>3</v>
+      </c>
+      <c r="F146" s="6">
+        <v>2</v>
+      </c>
+      <c r="G146" s="6"/>
+      <c r="H146" s="6"/>
+      <c r="I146" s="6"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="6"/>
+      <c r="M146" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="N146" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="O146" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="P146" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q146" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A147" s="6">
+        <v>40145</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C147" s="6">
+        <v>30053</v>
+      </c>
+      <c r="D147" s="6">
+        <v>1</v>
+      </c>
+      <c r="E147" s="6">
+        <v>2</v>
+      </c>
+      <c r="F147" s="6">
+        <v>2</v>
+      </c>
+      <c r="G147" s="6"/>
+      <c r="H147" s="6"/>
+      <c r="I147" s="6"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="6"/>
+      <c r="M147" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="N147" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="O147" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="P147" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q147" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A148" s="6">
+        <v>40146</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C148" s="6">
+        <v>30053</v>
+      </c>
+      <c r="D148" s="6">
+        <v>2</v>
+      </c>
+      <c r="E148" s="6">
+        <v>2</v>
+      </c>
+      <c r="F148" s="6">
+        <v>2</v>
+      </c>
+      <c r="G148" s="6"/>
+      <c r="H148" s="6"/>
+      <c r="I148" s="6"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="6"/>
+      <c r="M148" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="N148" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="O148" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="P148" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q148" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A149" s="6">
+        <v>40147</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="C149" s="6">
+        <v>30053</v>
+      </c>
+      <c r="D149" s="6">
+        <v>3</v>
+      </c>
+      <c r="E149" s="6">
+        <v>2</v>
+      </c>
+      <c r="F149" s="6">
+        <v>1</v>
+      </c>
+      <c r="G149" s="6"/>
+      <c r="H149" s="6"/>
+      <c r="I149" s="6"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="6"/>
+      <c r="M149" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="N149" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="O149" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="P149" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q149" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A150" s="6">
+        <v>40148</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C150" s="6">
+        <v>30054</v>
+      </c>
+      <c r="D150" s="6">
+        <v>1</v>
+      </c>
+      <c r="E150" s="6">
+        <v>0</v>
+      </c>
+      <c r="F150" s="6">
+        <v>2</v>
+      </c>
+      <c r="G150" s="6">
+        <v>10</v>
+      </c>
+      <c r="H150" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I150" s="6"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="N150" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="O150" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P150" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q150" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A151" s="6">
+        <v>40149</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C151" s="6">
+        <v>30054</v>
+      </c>
+      <c r="D151" s="6">
+        <v>2</v>
+      </c>
+      <c r="E151" s="6">
+        <v>0</v>
+      </c>
+      <c r="F151" s="6">
+        <v>2</v>
+      </c>
+      <c r="G151" s="6">
+        <v>10</v>
+      </c>
+      <c r="H151" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I151" s="6"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="N151" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="O151" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="P151" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q151" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A152" s="6">
+        <v>40150</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C152" s="6">
+        <v>30054</v>
+      </c>
+      <c r="D152" s="6">
+        <v>3</v>
+      </c>
+      <c r="E152" s="6">
+        <v>0</v>
+      </c>
+      <c r="F152" s="6">
+        <v>2</v>
+      </c>
+      <c r="G152" s="6">
+        <v>10</v>
+      </c>
+      <c r="H152" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="I152" s="6"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="4"/>
+      <c r="L152" s="4"/>
+      <c r="M152" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="N152" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="O152" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="P152" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q152" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A153" s="6">
+        <v>40151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A154" s="6">
+        <v>40152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A155" s="6">
+        <v>40153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A156" s="6">
+        <v>40154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A157" s="6">
+        <v>40155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A158" s="6">
+        <v>40156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A159" s="6">
+        <v>40157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A160" s="6">
+        <v>40158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A161" s="6">
+        <v>40159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A162" s="6">
+        <v>40160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A163" s="6">
+        <v>40161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A164" s="6">
+        <v>40162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A165" s="6">
+        <v>40163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A166" s="6">
+        <v>40164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A167" s="6">
+        <v>40165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A168" s="6">
+        <v>40166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A169" s="6">
+        <v>40167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A170" s="6">
+        <v>40168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A171" s="6">
+        <v>40169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A172" s="6">
+        <v>40170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A173" s="6">
+        <v>40171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A174" s="6">
+        <v>40172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A175" s="6">
+        <v>40173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A176" s="6">
+        <v>40174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A177" s="6">
+        <v>40175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A178" s="6">
+        <v>40176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A179" s="6">
+        <v>40177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A180" s="6">
+        <v>40178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A181" s="6">
+        <v>40179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A182" s="6">
+        <v>40180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A183" s="6">
+        <v>40181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A184" s="6">
+        <v>40182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A185" s="6">
+        <v>40183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A186" s="6">
+        <v>40184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A187" s="6">
+        <v>40185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A188" s="6">
+        <v>40186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A189" s="6">
+        <v>40187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A190" s="6">
+        <v>40188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A191" s="6">
+        <v>40189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A192" s="6">
+        <v>40190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A193" s="6">
+        <v>40191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A194" s="6">
+        <v>40192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A195" s="6">
+        <v>40193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A196" s="6">
+        <v>40194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A197" s="6">
+        <v>40195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A198" s="6">
+        <v>40196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A199" s="6">
+        <v>40197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A200" s="6">
+        <v>40198</v>
       </c>
     </row>
   </sheetData>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -294,7 +294,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="414">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -592,10 +592,6 @@
     <t>飞沙扬砾</t>
   </si>
   <si>
-    <t>无极剑意</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>回风落雁</t>
   </si>
   <si>
@@ -773,10 +769,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>repalce_desc_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -989,7 +981,293 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>50020,1</t>
+    <t>5|50019,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50019,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50019,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15|50009,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25|50009,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|50010,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50010,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50010,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|50004,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|50004,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|50004,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50005,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50005,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50022,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50022,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50022,12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,24,25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15|2,30028|1,30029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22|3,30028|1,30029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30|3,30028|1,30029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,30036,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,30036,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天音乱气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体获得%{r2}层&lt;color=#3079b5&gt;乱气&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体获得%{r2}层&lt;color=#3079b6&gt;乱气&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体获得%{r2}层&lt;color=#3079b7&gt;乱气&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50058,3|50018,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,10,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|50050,3|20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|50050,3|50004,5|20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞龙在天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,8|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,12|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,16|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙跃于渊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50062,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50062,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50062,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>终日乾乾</t>
+  </si>
+  <si>
+    <t>50063,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你蓄力时,额外获得3层&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你蓄力时,额外获得3层&lt;color=#b5a431&gt;蓄力&lt;/c&gt;</t>
+  </si>
+  <si>
+    <t>祁连山诀</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -997,83 +1275,47 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>50020,1|5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50020,1|8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|50019,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|50019,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12|50019,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15|50009,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25|50009,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|50010,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|50010,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12|50010,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|50004,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|50004,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|50004,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50005,7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50005,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50022,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50022,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50022,12</t>
+    <t>50064,5|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50064,7|7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50064,9|9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当回合结束时,获得%{r2}层的&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当回合结束时,获得%{r2}层的&lt;color=#b5a431&gt;蓄力&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当回合结束时,获得%{r2}层的&lt;color=#b5a432&gt;蓄力&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当回合结束时,你的&lt;color=#b5a430&gt;蓄力&lt;/c&gt;翻倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当回合结束时,你的&lt;color=#b5a431&gt;蓄力&lt;/c&gt;翻倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当回合结束时,你的&lt;color=#b5a432&gt;蓄力&lt;/c&gt;翻倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阴无悔式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阴无悔式</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1081,63 +1323,206 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1,24,25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1,1,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15|2,30028|1,30029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>22|3,30028|1,30029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30|3,30028|1,30029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12|12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16|16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>29,1,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快斩</t>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50065,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14|50065,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18|50065,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏龙掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9|50061,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11|50061,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛虎拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|8|50061,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻泡影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,5,34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,21,34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,14,34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无间轮回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红莲地狱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50067,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18|50067,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10,21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|50068,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|50068,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50068,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火贪斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红莲心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|50069,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50069,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50069,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每燃烧一张牌,自身获得%{r2}x5点&lt;color=#b5a430&gt;护盾&lt;/c&gt;,并且层数减少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵罡不灭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50006,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌波渡雪</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1145,131 +1530,150 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3,30036,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,30036,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天音乱气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方全体获得%{r2}层&lt;color=#3079b5&gt;乱气&lt;/c&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方全体获得%{r2}层&lt;color=#3079b6&gt;乱气&lt;/c&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方全体获得%{r2}层&lt;color=#3079b7&gt;乱气&lt;/c&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50058,3|50018,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50061,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50061,18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50061,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,10,5</t>
+    <t>1,2,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,28,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9|100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13|140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|180|50006,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁布衫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5,3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,3,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|50050,3|20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|50050,3|50004,5|20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞龙在天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50061,8|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50061,12|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50061,16|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙跃于渊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50062,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50062,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50062,1</t>
+  </si>
+  <si>
+    <t>5,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以血行气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|14|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|8|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|20|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>般若心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>般若心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>44,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龟息功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25|50033,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35|50033,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>须弥山神掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>须弥山神掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渊渟岳峙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50070,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14|50070,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的下%{r2}回合开始时&lt;color=#b5a430&gt;护盾&lt;/c&gt;不会消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的下%{r2}回合开始时&lt;color=#b5a430&gt;护盾&lt;/c&gt;不会消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大哉昆仑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50070,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50070,8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1277,248 +1681,86 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>终日乾乾</t>
-  </si>
-  <si>
-    <t>50063,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当你蓄力时,额外获得3层&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当你蓄力时,额外获得3层&lt;color=#b5a431&gt;蓄力&lt;/c&gt;</t>
-  </si>
-  <si>
-    <t>祁连山诀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50064,5|5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50064,7|7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50064,9|9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当回合结束时,获得%{r2}层的&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当回合结束时,获得%{r2}层的&lt;color=#b5a431&gt;蓄力&lt;/c&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当回合结束时,获得%{r2}层的&lt;color=#b5a432&gt;蓄力&lt;/c&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当回合结束时,你的&lt;color=#b5a430&gt;蓄力&lt;/c&gt;翻倍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当回合结束时,你的&lt;color=#b5a431&gt;蓄力&lt;/c&gt;翻倍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当回合结束时,你的&lt;color=#b5a432&gt;蓄力&lt;/c&gt;翻倍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阴无悔式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阴无悔式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,3</t>
+    <t>十字手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|50074,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1,10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10|50065,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>14|50065,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18|50065,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伏龙掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9|50061,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11|50061,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猛虎拳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,5,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|8|50061,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦幻泡影</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,5,34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,21,34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,14,34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无间轮回</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红莲地狱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|50067,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18|50067,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10,21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4|50068,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6|50068,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|50068,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火贪斩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红莲心法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|50069,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|50069,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12|50069,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你每燃烧一张牌,自身获得%{r2}x5点&lt;color=#b5a430&gt;护盾&lt;/c&gt;,并且层数减少</t>
+    <t>10|50074,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报虎归山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50074,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50074,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和光同尘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和光同尘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无招</t>
+  </si>
+  <si>
+    <t>8|50019,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50020,1|50019,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50020,1|50019,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#3079b5&gt;剑意&lt;/c&gt;改为对所有敌方单位造成伤害</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1526,7 +1768,167 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5,10,14</t>
+    <t>5,10,10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荡剑诀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荡剑诀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|50019,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13|50019,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9|50019,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落剑诀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9|50013,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13|50013,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17|50013,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊鸿照影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50013,4|1,30036,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50013,7|1,30036,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50013,8|2,30036,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫气东来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫气东来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50013,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13|50013,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|50013,6|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑·十三式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑·十三式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13|50021,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次战斗&lt;color=#3079b5&gt;剑气&lt;/c&gt;额外触发一次伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍松迎客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍松迎客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|50019,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9|50019,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50019,5|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以气行血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以气行血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50029,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50029,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1592,7 +1994,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1609,6 +2011,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1893,8 +2298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="J149" sqref="J149"/>
+    <sheetView tabSelected="1" topLeftCell="B172" workbookViewId="0">
+      <selection activeCell="J195" sqref="J195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1932,10 +2337,10 @@
         <v>15</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>122</v>
+        <v>368</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -2000,10 +2405,10 @@
         <v>16</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>6</v>
@@ -2145,7 +2550,7 @@
         <v>40003</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1">
         <v>30001</v>
@@ -2191,7 +2596,7 @@
         <v>40004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="1">
         <v>30002</v>
@@ -2237,7 +2642,7 @@
         <v>40005</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="1">
         <v>30002</v>
@@ -2285,7 +2690,7 @@
         <v>40006</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C8" s="1">
         <v>30002</v>
@@ -2333,7 +2738,7 @@
         <v>40007</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C9" s="1">
         <v>30003</v>
@@ -2371,7 +2776,7 @@
         <v>40008</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C10" s="1">
         <v>30003</v>
@@ -2409,7 +2814,7 @@
         <v>40009</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C11" s="1">
         <v>30003</v>
@@ -2465,13 +2870,13 @@
         <v>7</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="P12" s="1">
         <v>1</v>
@@ -2486,7 +2891,7 @@
         <v>40011</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C13" s="1">
         <v>30004</v>
@@ -2504,13 +2909,13 @@
         <v>7</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="N13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="P13" s="1">
         <v>1</v>
@@ -2525,7 +2930,7 @@
         <v>40012</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C14" s="1">
         <v>30004</v>
@@ -2543,13 +2948,13 @@
         <v>7</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="P14" s="1">
         <v>1</v>
@@ -2564,7 +2969,7 @@
         <v>40013</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C15" s="1">
         <v>30004</v>
@@ -2582,13 +2987,13 @@
         <v>7</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>22</v>
       </c>
       <c r="N15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P15" s="1">
         <v>1</v>
@@ -2623,7 +3028,7 @@
         <v>34</v>
       </c>
       <c r="N16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="P16" s="1">
         <v>2</v>
@@ -2658,7 +3063,7 @@
         <v>34</v>
       </c>
       <c r="N17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P17" s="1">
         <v>2</v>
@@ -2693,7 +3098,7 @@
         <v>35</v>
       </c>
       <c r="N18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="P18" s="1">
         <v>2</v>
@@ -2728,7 +3133,7 @@
         <v>35</v>
       </c>
       <c r="N19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="P19" s="1">
         <v>2</v>
@@ -2743,7 +3148,7 @@
         <v>40018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C20" s="1">
         <v>30006</v>
@@ -2763,7 +3168,7 @@
         <v>36</v>
       </c>
       <c r="N20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="P20" s="1">
         <v>1</v>
@@ -2778,7 +3183,7 @@
         <v>40019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C21" s="1">
         <v>30006</v>
@@ -2798,7 +3203,7 @@
         <v>36</v>
       </c>
       <c r="N21" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="P21" s="1">
         <v>1</v>
@@ -2833,7 +3238,7 @@
         <v>41</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>27</v>
@@ -2871,7 +3276,7 @@
         <v>41</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>27</v>
@@ -2909,7 +3314,7 @@
         <v>40</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>27</v>
@@ -2947,7 +3352,7 @@
         <v>40</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>30</v>
@@ -2985,7 +3390,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>30</v>
@@ -3023,7 +3428,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>30</v>
@@ -3059,13 +3464,13 @@
         <v>8</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>27</v>
@@ -3101,13 +3506,13 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>27</v>
@@ -3143,13 +3548,13 @@
         <v>8</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>27</v>
@@ -3299,13 +3704,13 @@
         <v>10</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P34" s="1">
         <v>1</v>
@@ -3343,13 +3748,13 @@
         <v>10</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P35" s="1">
         <v>1</v>
@@ -3387,13 +3792,13 @@
         <v>10</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P36" s="1">
         <v>1</v>
@@ -3491,7 +3896,7 @@
         <v>57</v>
       </c>
       <c r="U38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -3534,7 +3939,7 @@
         <v>57</v>
       </c>
       <c r="U39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
@@ -3597,7 +4002,7 @@
         <v>52</v>
       </c>
       <c r="N41" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="P41" s="1">
         <v>3</v>
@@ -3632,7 +4037,7 @@
         <v>52</v>
       </c>
       <c r="N42" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P42" s="1">
         <v>3</v>
@@ -3670,10 +4075,10 @@
         <v>2</v>
       </c>
       <c r="M43" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>27</v>
@@ -3713,10 +4118,10 @@
         <v>2</v>
       </c>
       <c r="M44" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>65</v>
@@ -3756,10 +4161,10 @@
         <v>2</v>
       </c>
       <c r="M45" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="O45" s="1" t="s">
         <v>65</v>
@@ -3793,10 +4198,10 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="M46" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P46" s="6">
         <v>1</v>
@@ -3827,10 +4232,10 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="M47" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="N47" s="6" t="s">
         <v>161</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="P47" s="6">
         <v>1</v>
@@ -3861,10 +4266,10 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="M48" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="P48" s="6">
         <v>1</v>
@@ -3901,10 +4306,10 @@
         <v>1</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>27</v>
@@ -3944,10 +4349,10 @@
         <v>1</v>
       </c>
       <c r="M50" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>27</v>
@@ -3987,10 +4392,10 @@
         <v>2</v>
       </c>
       <c r="M51" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>65</v>
@@ -4136,13 +4541,13 @@
         <v>8</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M55" s="3">
         <v>8</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O55" s="3" t="s">
         <v>30</v>
@@ -4180,13 +4585,13 @@
         <v>8</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M56" s="3">
         <v>8</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>31</v>
@@ -4224,13 +4629,13 @@
         <v>8</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>31</v>
@@ -4274,7 +4679,7 @@
         <v>73</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>30</v>
@@ -4316,7 +4721,7 @@
         <v>73</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>30</v>
@@ -4358,7 +4763,7 @@
         <v>73</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>31</v>
@@ -4400,7 +4805,7 @@
         <v>41</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O61" s="3" t="s">
         <v>30</v>
@@ -4417,7 +4822,7 @@
         <v>40060</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C62" s="3">
         <v>30020</v>
@@ -4441,7 +4846,7 @@
         <v>41</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>31</v>
@@ -4482,7 +4887,7 @@
         <v>41</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O63" s="3" t="s">
         <v>31</v>
@@ -4499,7 +4904,7 @@
         <v>40062</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="C64" s="5">
         <v>30021</v>
@@ -4519,11 +4924,11 @@
       <c r="J64" s="4"/>
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="5">
-        <v>10</v>
+      <c r="M64" s="5" t="s">
+        <v>372</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>177</v>
+        <v>365</v>
       </c>
       <c r="O64" s="5"/>
       <c r="P64" s="5">
@@ -4538,7 +4943,7 @@
         <v>40063</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="C65" s="5">
         <v>30021</v>
@@ -4552,17 +4957,21 @@
       <c r="F65" s="5">
         <v>1</v>
       </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
+      <c r="G65" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>371</v>
+      </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="6" t="s">
-        <v>178</v>
+        <v>373</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>179</v>
+        <v>366</v>
       </c>
       <c r="O65" s="5"/>
       <c r="P65" s="5">
@@ -4577,7 +4986,7 @@
         <v>40064</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>76</v>
+        <v>364</v>
       </c>
       <c r="C66" s="5">
         <v>30021</v>
@@ -4591,17 +5000,21 @@
       <c r="F66" s="5">
         <v>0</v>
       </c>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
+      <c r="G66" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>371</v>
+      </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="6" t="s">
-        <v>178</v>
+        <v>374</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>180</v>
+        <v>367</v>
       </c>
       <c r="O66" s="5"/>
       <c r="P66" s="5">
@@ -4616,7 +5029,7 @@
         <v>40065</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C67" s="5">
         <v>30022</v>
@@ -4640,7 +5053,7 @@
         <v>50</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="O67" s="6" t="s">
         <v>30</v>
@@ -4657,7 +5070,7 @@
         <v>40066</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C68" s="5">
         <v>30022</v>
@@ -4681,7 +5094,7 @@
         <v>50</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="O68" s="6" t="s">
         <v>30</v>
@@ -4698,7 +5111,7 @@
         <v>40067</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C69" s="5">
         <v>30022</v>
@@ -4722,7 +5135,7 @@
         <v>50</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="O69" s="6" t="s">
         <v>31</v>
@@ -4739,7 +5152,7 @@
         <v>40068</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C70" s="6">
         <v>30023</v>
@@ -4760,10 +5173,10 @@
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="O70" s="6" t="s">
         <v>27</v>
@@ -4780,7 +5193,7 @@
         <v>40069</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C71" s="6">
         <v>30023</v>
@@ -4801,10 +5214,10 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N71" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="N71" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="O71" s="6" t="s">
         <v>28</v>
@@ -4821,7 +5234,7 @@
         <v>40070</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C72" s="6">
         <v>30023</v>
@@ -4842,10 +5255,10 @@
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="O72" s="6" t="s">
         <v>28</v>
@@ -4862,7 +5275,7 @@
         <v>40071</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" s="6">
         <v>30024</v>
@@ -4886,7 +5299,7 @@
         <v>41</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="O73" s="6" t="s">
         <v>27</v>
@@ -4903,7 +5316,7 @@
         <v>40072</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74" s="6">
         <v>30024</v>
@@ -4927,7 +5340,7 @@
         <v>41</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="O74" s="6" t="s">
         <v>28</v>
@@ -4944,7 +5357,7 @@
         <v>40073</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C75" s="6">
         <v>30024</v>
@@ -4968,7 +5381,7 @@
         <v>41</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="O75" s="6" t="s">
         <v>28</v>
@@ -4985,7 +5398,7 @@
         <v>40074</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C76" s="6">
         <v>30025</v>
@@ -5002,18 +5415,18 @@
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O76" s="4"/>
       <c r="P76" s="6">
@@ -5032,7 +5445,7 @@
         <v>40075</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C77" s="6">
         <v>30025</v>
@@ -5049,18 +5462,18 @@
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="J77" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="O77" s="4"/>
       <c r="P77" s="6">
@@ -5079,7 +5492,7 @@
         <v>40076</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C78" s="6">
         <v>30025</v>
@@ -5096,18 +5509,18 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="6" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="O78" s="4"/>
       <c r="P78" s="6">
@@ -5126,7 +5539,7 @@
         <v>40077</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C79" s="6">
         <v>30026</v>
@@ -5150,7 +5563,7 @@
         <v>10</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O79" s="4"/>
       <c r="P79" s="6">
@@ -5165,7 +5578,7 @@
         <v>40078</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C80" s="6">
         <v>30026</v>
@@ -5189,7 +5602,7 @@
         <v>10</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="O80" s="4"/>
       <c r="P80" s="6">
@@ -5204,7 +5617,7 @@
         <v>40079</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C81" s="6">
         <v>30026</v>
@@ -5228,7 +5641,7 @@
         <v>10</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="O81" s="4"/>
       <c r="P81" s="6">
@@ -5243,7 +5656,7 @@
         <v>40080</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C82" s="6">
         <v>30027</v>
@@ -5271,7 +5684,7 @@
         <v>10</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="O82" s="4"/>
       <c r="P82" s="6">
@@ -5288,7 +5701,7 @@
         <v>40081</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C83" s="6">
         <v>30027</v>
@@ -5312,7 +5725,7 @@
         <v>10</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="O83" s="4"/>
       <c r="P83" s="6">
@@ -5329,7 +5742,7 @@
         <v>40082</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C84" s="6">
         <v>30027</v>
@@ -5353,7 +5766,7 @@
         <v>10</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="O84" s="4"/>
       <c r="P84" s="6">
@@ -5370,7 +5783,7 @@
         <v>40083</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C85" s="6">
         <v>30030</v>
@@ -5391,10 +5804,10 @@
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="O85" s="6" t="s">
         <v>28</v>
@@ -5413,7 +5826,7 @@
         <v>40084</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86" s="6">
         <v>30030</v>
@@ -5434,13 +5847,13 @@
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="P86" s="6">
         <v>1</v>
@@ -5456,7 +5869,7 @@
         <v>40085</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C87" s="6">
         <v>30030</v>
@@ -5477,13 +5890,13 @@
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="O87" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="P87" s="6">
         <v>1</v>
@@ -5499,7 +5912,7 @@
         <v>40086</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88" s="6">
         <v>30031</v>
@@ -5516,18 +5929,18 @@
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
       <c r="M88" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="O88" s="6"/>
       <c r="P88" s="6">
@@ -5542,7 +5955,7 @@
         <v>40087</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89" s="6">
         <v>30031</v>
@@ -5559,18 +5972,18 @@
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="O89" s="6" t="s">
         <v>27</v>
@@ -5587,7 +6000,7 @@
         <v>40088</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90" s="6">
         <v>30031</v>
@@ -5604,18 +6017,18 @@
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="4" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="O90" s="6" t="s">
         <v>28</v>
@@ -5632,7 +6045,7 @@
         <v>40089</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="6">
         <v>30032</v>
@@ -5671,7 +6084,7 @@
         <v>40090</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="6">
         <v>30032</v>
@@ -5698,7 +6111,7 @@
         <v>7</v>
       </c>
       <c r="O92" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P92" s="6">
         <v>1</v>
@@ -5712,7 +6125,7 @@
         <v>40091</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="6">
         <v>30032</v>
@@ -5739,7 +6152,7 @@
         <v>10</v>
       </c>
       <c r="O93" s="6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="P93" s="6">
         <v>1</v>
@@ -5753,7 +6166,7 @@
         <v>40092</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C94" s="6">
         <v>30033</v>
@@ -5774,7 +6187,7 @@
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="N94" s="6">
         <v>2</v>
@@ -5796,7 +6209,7 @@
         <v>40093</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C95" s="6">
         <v>30033</v>
@@ -5817,7 +6230,7 @@
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="N95" s="6">
         <v>2</v>
@@ -5839,7 +6252,7 @@
         <v>40094</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C96" s="6">
         <v>30033</v>
@@ -5860,7 +6273,7 @@
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="N96" s="6">
         <v>3</v>
@@ -5882,7 +6295,7 @@
         <v>40095</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C97" s="6">
         <v>30035</v>
@@ -5906,7 +6319,7 @@
         <v>36</v>
       </c>
       <c r="N97" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O97" s="4"/>
       <c r="P97" s="6">
@@ -5925,7 +6338,7 @@
         <v>40096</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C98" s="6">
         <v>30035</v>
@@ -5949,7 +6362,7 @@
         <v>36</v>
       </c>
       <c r="N98" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="O98" s="4"/>
       <c r="P98" s="6">
@@ -5968,7 +6381,7 @@
         <v>40097</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C99" s="6">
         <v>30035</v>
@@ -5992,7 +6405,7 @@
         <v>36</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="O99" s="4"/>
       <c r="P99" s="6">
@@ -6011,7 +6424,7 @@
         <v>40098</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C100" s="6">
         <v>30036</v>
@@ -6028,13 +6441,13 @@
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="M100" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="N100" s="6">
         <v>4</v>
       </c>
       <c r="O100" s="6" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="P100" s="6">
         <v>2</v>
@@ -6048,7 +6461,7 @@
         <v>40099</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C101" s="6">
         <v>30036</v>
@@ -6069,7 +6482,7 @@
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="N101" s="6">
         <v>6</v>
@@ -6089,7 +6502,7 @@
         <v>40100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C102" s="6">
         <v>30036</v>
@@ -6110,7 +6523,7 @@
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="N102" s="6">
         <v>8</v>
@@ -6130,7 +6543,7 @@
         <v>40101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C103" s="6">
         <v>30037</v>
@@ -6148,7 +6561,7 @@
         <v>8</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -6158,7 +6571,7 @@
         <v>8</v>
       </c>
       <c r="N103" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O103" s="6"/>
       <c r="P103" s="6">
@@ -6173,7 +6586,7 @@
         <v>40102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C104" s="6">
         <v>30037</v>
@@ -6191,7 +6604,7 @@
         <v>8</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
@@ -6201,7 +6614,7 @@
         <v>8</v>
       </c>
       <c r="N104" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O104" s="6"/>
       <c r="P104" s="6">
@@ -6216,7 +6629,7 @@
         <v>40103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C105" s="6">
         <v>30037</v>
@@ -6234,7 +6647,7 @@
         <v>8</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
@@ -6244,7 +6657,7 @@
         <v>8</v>
       </c>
       <c r="N105" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="O105" s="6"/>
       <c r="P105" s="6">
@@ -6259,7 +6672,7 @@
         <v>40104</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C106" s="6">
         <v>30038</v>
@@ -6290,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="O106" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P106" s="6">
         <v>4</v>
@@ -6304,7 +6717,7 @@
         <v>40105</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C107" s="6">
         <v>30038</v>
@@ -6335,7 +6748,7 @@
         <v>1</v>
       </c>
       <c r="O107" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P107" s="6">
         <v>4</v>
@@ -6349,7 +6762,7 @@
         <v>40106</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C108" s="6">
         <v>30038</v>
@@ -6380,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="O108" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="P108" s="6">
         <v>4</v>
@@ -6394,7 +6807,7 @@
         <v>40107</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C109" s="6">
         <v>30039</v>
@@ -6414,7 +6827,7 @@
         <v>10</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="O109" s="6"/>
       <c r="P109" s="6">
@@ -6429,7 +6842,7 @@
         <v>40108</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C110" s="6">
         <v>30039</v>
@@ -6449,10 +6862,10 @@
         <v>10</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="O110" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P110" s="6">
         <v>1</v>
@@ -6466,7 +6879,7 @@
         <v>40109</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C111" s="6">
         <v>30039</v>
@@ -6486,10 +6899,10 @@
         <v>10</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="O111" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="P111" s="6">
         <v>1</v>
@@ -6503,7 +6916,7 @@
         <v>40110</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C112" s="6">
         <v>30040</v>
@@ -6524,13 +6937,13 @@
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="N112" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="N112" s="6" t="s">
-        <v>234</v>
-      </c>
       <c r="O112" s="6" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="P112" s="6">
         <v>1</v>
@@ -6544,7 +6957,7 @@
         <v>40111</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C113" s="6">
         <v>30040</v>
@@ -6565,13 +6978,13 @@
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="6" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="N113" s="6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="O113" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P113" s="6">
         <v>1</v>
@@ -6585,7 +6998,7 @@
         <v>40112</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C114" s="6">
         <v>30040</v>
@@ -6606,13 +7019,13 @@
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
       <c r="M114" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N114" s="6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="O114" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P114" s="6">
         <v>1</v>
@@ -6626,7 +7039,7 @@
         <v>40113</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C115" s="6">
         <v>30041</v>
@@ -6665,7 +7078,7 @@
         <v>40114</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C116" s="6">
         <v>30041</v>
@@ -6704,7 +7117,7 @@
         <v>40115</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="C117" s="6">
         <v>30042</v>
@@ -6722,7 +7135,7 @@
         <v>52</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="P117" s="6">
         <v>1</v>
@@ -6736,7 +7149,7 @@
         <v>40116</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C118" s="6">
         <v>30043</v>
@@ -6751,16 +7164,16 @@
         <v>1</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="N118" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="P118" s="6">
         <v>3</v>
@@ -6774,7 +7187,7 @@
         <v>40117</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C119" s="6">
         <v>30043</v>
@@ -6789,16 +7202,16 @@
         <v>1</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="M119" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="N119" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P119" s="6">
         <v>3</v>
@@ -6812,7 +7225,7 @@
         <v>40118</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C120" s="6">
         <v>30043</v>
@@ -6827,16 +7240,16 @@
         <v>0</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M120" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="N120" s="6" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="P120" s="6">
         <v>3</v>
@@ -6850,7 +7263,7 @@
         <v>40119</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C121" s="6">
         <v>30044</v>
@@ -6868,17 +7281,17 @@
         <v>10</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
       <c r="M121" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N121" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="O121" s="4"/>
       <c r="P121" s="6">
@@ -6893,7 +7306,7 @@
         <v>40120</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C122" s="6">
         <v>30044</v>
@@ -6911,17 +7324,17 @@
         <v>10</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
       <c r="M122" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N122" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="O122" s="4"/>
       <c r="P122" s="6">
@@ -6936,7 +7349,7 @@
         <v>40121</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C123" s="6">
         <v>30044</v>
@@ -6954,17 +7367,17 @@
         <v>10</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N123" s="6" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="O123" s="4"/>
       <c r="P123" s="6">
@@ -6979,7 +7392,7 @@
         <v>40122</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C124" s="6">
         <v>30045</v>
@@ -6997,17 +7410,17 @@
         <v>10</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
       <c r="M124" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="O124" s="4"/>
       <c r="P124" s="6">
@@ -7022,7 +7435,7 @@
         <v>40123</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C125" s="6">
         <v>30045</v>
@@ -7040,17 +7453,17 @@
         <v>10</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
       <c r="M125" s="6" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="N125" s="6" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="O125" s="4"/>
       <c r="P125" s="6">
@@ -7065,7 +7478,7 @@
         <v>40124</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C126" s="6">
         <v>30046</v>
@@ -7083,17 +7496,17 @@
         <v>10</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
       <c r="M126" s="6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="N126" s="6" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="O126" s="4"/>
       <c r="P126" s="6">
@@ -7108,7 +7521,7 @@
         <v>40125</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C127" s="6">
         <v>30046</v>
@@ -7126,17 +7539,17 @@
         <v>10</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
       <c r="M127" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="N127" s="6" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="O127" s="4"/>
       <c r="P127" s="6">
@@ -7151,7 +7564,7 @@
         <v>40126</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="C128" s="6">
         <v>30046</v>
@@ -7169,17 +7582,17 @@
         <v>10</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
       <c r="M128" s="6" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="N128" s="6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="O128" s="4"/>
       <c r="P128" s="6">
@@ -7194,7 +7607,7 @@
         <v>40127</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C129" s="6">
         <v>30047</v>
@@ -7215,10 +7628,10 @@
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
       <c r="M129" s="6" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="N129" s="6" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="O129" s="6" t="s">
         <v>27</v>
@@ -7235,7 +7648,7 @@
         <v>40128</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C130" s="6">
         <v>30047</v>
@@ -7256,13 +7669,13 @@
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
       <c r="M130" s="6" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="N130" s="6" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="O130" s="6" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P130" s="6">
         <v>1</v>
@@ -7276,7 +7689,7 @@
         <v>40129</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C131" s="6">
         <v>30047</v>
@@ -7297,13 +7710,13 @@
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
       <c r="M131" s="6" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="N131" s="6" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="O131" s="6" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="P131" s="6">
         <v>1</v>
@@ -7317,7 +7730,7 @@
         <v>40130</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C132" s="6">
         <v>30048</v>
@@ -7357,7 +7770,7 @@
         <v>40131</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C133" s="6">
         <v>30048</v>
@@ -7378,10 +7791,10 @@
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
       <c r="M133" s="6" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="N133" s="6" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="O133" s="6" t="s">
         <v>27</v>
@@ -7399,7 +7812,7 @@
         <v>40132</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="C134" s="6">
         <v>30048</v>
@@ -7420,13 +7833,13 @@
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
       <c r="M134" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="N134" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="O134" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="N134" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="O134" s="6" t="s">
-        <v>274</v>
       </c>
       <c r="P134" s="6">
         <v>1</v>
@@ -7441,7 +7854,7 @@
         <v>40133</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C135" s="6">
         <v>30049</v>
@@ -7462,10 +7875,10 @@
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
       <c r="M135" s="6" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="N135" s="6" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O135" s="6"/>
       <c r="P135" s="6">
@@ -7480,7 +7893,7 @@
         <v>40134</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C136" s="6">
         <v>30049</v>
@@ -7501,13 +7914,13 @@
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
       <c r="M136" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="N136" s="6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="O136" s="6" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P136" s="6">
         <v>1</v>
@@ -7521,7 +7934,7 @@
         <v>40135</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="C137" s="6">
         <v>30049</v>
@@ -7542,13 +7955,13 @@
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
       <c r="M137" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="N137" s="6" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="O137" s="6" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="P137" s="6">
         <v>1</v>
@@ -7562,7 +7975,7 @@
         <v>40136</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C138" s="6">
         <v>30050</v>
@@ -7583,7 +7996,7 @@
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
       <c r="M138" s="6" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="N138" s="6">
         <v>10</v>
@@ -7601,7 +8014,7 @@
         <v>40137</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C139" s="6">
         <v>30050</v>
@@ -7622,13 +8035,13 @@
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
       <c r="M139" s="6" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="N139" s="6">
         <v>14</v>
       </c>
       <c r="O139" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P139" s="6">
         <v>3</v>
@@ -7642,7 +8055,7 @@
         <v>40138</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C140" s="6">
         <v>30050</v>
@@ -7663,13 +8076,13 @@
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
       <c r="M140" s="6" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N140" s="6">
         <v>15</v>
       </c>
       <c r="O140" s="6" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="P140" s="6">
         <v>3</v>
@@ -7683,7 +8096,7 @@
         <v>40139</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C141" s="6">
         <v>30051</v>
@@ -7704,13 +8117,13 @@
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
       <c r="M141" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="N141" s="6">
         <v>8</v>
       </c>
       <c r="O141" s="6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P141" s="6">
         <v>3</v>
@@ -7724,7 +8137,7 @@
         <v>40140</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C142" s="6">
         <v>30051</v>
@@ -7745,13 +8158,13 @@
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
       <c r="M142" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="N142" s="6">
         <v>12</v>
       </c>
       <c r="O142" s="6" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="P142" s="6">
         <v>3</v>
@@ -7765,7 +8178,7 @@
         <v>40141</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="C143" s="6">
         <v>30051</v>
@@ -7786,13 +8199,13 @@
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
       <c r="M143" s="6" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="N143" s="6">
         <v>18</v>
       </c>
       <c r="O143" s="6" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="P143" s="6">
         <v>3</v>
@@ -7806,7 +8219,7 @@
         <v>40142</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C144" s="6">
         <v>30052</v>
@@ -7827,13 +8240,13 @@
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
       <c r="M144" s="6" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="N144" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="O144" s="6" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P144" s="6">
         <v>1</v>
@@ -7847,7 +8260,7 @@
         <v>40143</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C145" s="6">
         <v>30052</v>
@@ -7868,13 +8281,13 @@
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
       <c r="M145" s="6" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="N145" s="6" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="O145" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P145" s="6">
         <v>1</v>
@@ -7888,7 +8301,7 @@
         <v>40144</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C146" s="6">
         <v>30052</v>
@@ -7909,13 +8322,13 @@
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
       <c r="M146" s="6" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="N146" s="6" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="O146" s="6" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P146" s="6">
         <v>1</v>
@@ -7929,7 +8342,7 @@
         <v>40145</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C147" s="6">
         <v>30053</v>
@@ -7950,13 +8363,13 @@
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
       <c r="M147" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="N147" s="6" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="O147" s="6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P147" s="6">
         <v>2</v>
@@ -7970,7 +8383,7 @@
         <v>40146</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C148" s="6">
         <v>30053</v>
@@ -7991,13 +8404,13 @@
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
       <c r="M148" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="N148" s="6" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="O148" s="6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P148" s="6">
         <v>2</v>
@@ -8011,7 +8424,7 @@
         <v>40147</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="C149" s="6">
         <v>30053</v>
@@ -8032,13 +8445,13 @@
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
       <c r="M149" s="6" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="N149" s="6" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="O149" s="6" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="P149" s="6">
         <v>2</v>
@@ -8052,7 +8465,7 @@
         <v>40148</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C150" s="6">
         <v>30054</v>
@@ -8070,17 +8483,17 @@
         <v>10</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
       <c r="M150" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="N150" s="6" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O150" s="6" t="s">
         <v>32</v>
@@ -8097,7 +8510,7 @@
         <v>40149</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C151" s="6">
         <v>30054</v>
@@ -8115,20 +8528,20 @@
         <v>10</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
       <c r="M151" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="N151" s="6" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O151" s="6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="P151" s="6">
         <v>3</v>
@@ -8142,7 +8555,7 @@
         <v>40150</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="C152" s="6">
         <v>30054</v>
@@ -8160,17 +8573,17 @@
         <v>10</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
       <c r="M152" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="N152" s="6" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="O152" s="6" t="s">
         <v>32</v>
@@ -8186,238 +8599,1906 @@
       <c r="A153" s="6">
         <v>40151</v>
       </c>
+      <c r="B153" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C153" s="6">
+        <v>30055</v>
+      </c>
+      <c r="D153" s="6">
+        <v>1</v>
+      </c>
+      <c r="E153" s="6">
+        <v>0</v>
+      </c>
+      <c r="F153" s="6">
+        <v>3</v>
+      </c>
+      <c r="G153" s="6"/>
+      <c r="I153" s="6"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="4"/>
+      <c r="L153" s="4"/>
+      <c r="M153" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="N153" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="O153" s="6"/>
+      <c r="P153" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q153" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="154" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>40152</v>
       </c>
+      <c r="B154" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="C154" s="6">
+        <v>30055</v>
+      </c>
+      <c r="D154" s="6">
+        <v>2</v>
+      </c>
+      <c r="E154" s="6">
+        <v>0</v>
+      </c>
+      <c r="F154" s="6">
+        <v>2</v>
+      </c>
+      <c r="G154" s="6"/>
+      <c r="I154" s="6"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="6">
+        <v>10</v>
+      </c>
+      <c r="N154" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="O154" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="P154" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q154" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="155" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>40153</v>
       </c>
+      <c r="B155" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C155" s="6">
+        <v>30056</v>
+      </c>
+      <c r="D155" s="6">
+        <v>1</v>
+      </c>
+      <c r="E155" s="6">
+        <v>2</v>
+      </c>
+      <c r="F155" s="6">
+        <v>2</v>
+      </c>
+      <c r="G155" s="6"/>
+      <c r="H155" s="6"/>
+      <c r="I155" s="6"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="6"/>
+      <c r="M155" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N155" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="O155" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="P155" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q155" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="156" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>40154</v>
       </c>
+      <c r="B156" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C156" s="6">
+        <v>30056</v>
+      </c>
+      <c r="D156" s="6">
+        <v>2</v>
+      </c>
+      <c r="E156" s="6">
+        <v>3</v>
+      </c>
+      <c r="F156" s="6">
+        <v>2</v>
+      </c>
+      <c r="G156" s="6"/>
+      <c r="H156" s="6"/>
+      <c r="I156" s="6"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="6"/>
+      <c r="M156" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="N156" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="O156" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="P156" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q156" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="157" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>40155</v>
       </c>
+      <c r="B157" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="C157" s="6">
+        <v>30056</v>
+      </c>
+      <c r="D157" s="6">
+        <v>3</v>
+      </c>
+      <c r="E157" s="6">
+        <v>3</v>
+      </c>
+      <c r="F157" s="6">
+        <v>2</v>
+      </c>
+      <c r="G157" s="6"/>
+      <c r="H157" s="6"/>
+      <c r="I157" s="6"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="6"/>
+      <c r="M157" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="N157" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="O157" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="P157" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q157" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="158" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>40156</v>
       </c>
+      <c r="B158" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C158" s="6">
+        <v>30057</v>
+      </c>
+      <c r="D158" s="6">
+        <v>1</v>
+      </c>
+      <c r="E158" s="6">
+        <v>0</v>
+      </c>
+      <c r="F158" s="6">
+        <v>1</v>
+      </c>
+      <c r="G158" s="6"/>
+      <c r="I158" s="6"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="4"/>
+      <c r="L158" s="4"/>
+      <c r="M158" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="N158" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="O158" s="6"/>
+      <c r="P158" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q158" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="159" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>40157</v>
       </c>
+      <c r="B159" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="C159" s="6">
+        <v>30057</v>
+      </c>
+      <c r="D159" s="6">
+        <v>2</v>
+      </c>
+      <c r="E159" s="6">
+        <v>0</v>
+      </c>
+      <c r="F159" s="6">
+        <v>1</v>
+      </c>
+      <c r="G159" s="6"/>
+      <c r="I159" s="6"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="4"/>
+      <c r="L159" s="4"/>
+      <c r="M159" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="N159" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="O159" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="P159" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q159" s="6">
+        <v>4</v>
+      </c>
     </row>
     <row r="160" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>40158</v>
       </c>
-    </row>
-    <row r="161" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B160" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C160" s="6">
+        <v>30058</v>
+      </c>
+      <c r="D160" s="6">
+        <v>1</v>
+      </c>
+      <c r="E160" s="6">
+        <v>0</v>
+      </c>
+      <c r="F160" s="6">
+        <v>1</v>
+      </c>
+      <c r="G160" s="6"/>
+      <c r="I160" s="6"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="4"/>
+      <c r="L160" s="4"/>
+      <c r="M160" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="N160" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="O160" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="P160" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q160" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>40159</v>
       </c>
-    </row>
-    <row r="162" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B161" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C161" s="6">
+        <v>30058</v>
+      </c>
+      <c r="D161" s="6">
+        <v>2</v>
+      </c>
+      <c r="E161" s="6">
+        <v>0</v>
+      </c>
+      <c r="F161" s="6">
+        <v>1</v>
+      </c>
+      <c r="G161" s="6"/>
+      <c r="I161" s="6"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="4"/>
+      <c r="L161" s="4"/>
+      <c r="M161" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="N161" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="O161" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="P161" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q161" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>40160</v>
       </c>
-    </row>
-    <row r="163" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B162" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="C162" s="6">
+        <v>30058</v>
+      </c>
+      <c r="D162" s="6">
+        <v>3</v>
+      </c>
+      <c r="E162" s="6">
+        <v>0</v>
+      </c>
+      <c r="F162" s="6">
+        <v>0</v>
+      </c>
+      <c r="G162" s="6"/>
+      <c r="I162" s="6"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="4"/>
+      <c r="L162" s="4"/>
+      <c r="M162" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="N162" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="O162" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="P162" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q162" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>40161</v>
       </c>
-    </row>
-    <row r="164" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B163" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="C163" s="6">
+        <v>30059</v>
+      </c>
+      <c r="D163" s="6">
+        <v>1</v>
+      </c>
+      <c r="E163" s="6">
+        <v>0</v>
+      </c>
+      <c r="F163" s="6">
+        <v>2</v>
+      </c>
+      <c r="G163" s="6"/>
+      <c r="I163" s="6"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="4"/>
+      <c r="L163" s="4"/>
+      <c r="M163" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="N163" s="6"/>
+      <c r="O163" s="6"/>
+      <c r="P163" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q163" s="6">
+        <v>4</v>
+      </c>
+      <c r="R163" s="4"/>
+      <c r="S163" s="4"/>
+    </row>
+    <row r="164" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>40162</v>
       </c>
-    </row>
-    <row r="165" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B164" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C164" s="6">
+        <v>30059</v>
+      </c>
+      <c r="D164" s="6">
+        <v>2</v>
+      </c>
+      <c r="E164" s="6">
+        <v>0</v>
+      </c>
+      <c r="F164" s="6">
+        <v>1</v>
+      </c>
+      <c r="G164" s="6"/>
+      <c r="I164" s="6"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="4"/>
+      <c r="L164" s="4"/>
+      <c r="M164" s="6">
+        <v>44</v>
+      </c>
+      <c r="N164" s="6"/>
+      <c r="O164" s="6"/>
+      <c r="P164" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q164" s="6">
+        <v>4</v>
+      </c>
+      <c r="R164" s="4"/>
+      <c r="S164" s="4"/>
+    </row>
+    <row r="165" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>40163</v>
       </c>
-    </row>
-    <row r="166" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B165" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C165" s="6">
+        <v>30060</v>
+      </c>
+      <c r="D165" s="6">
+        <v>1</v>
+      </c>
+      <c r="E165" s="6">
+        <v>0</v>
+      </c>
+      <c r="F165" s="6">
+        <v>2</v>
+      </c>
+      <c r="G165" s="6"/>
+      <c r="I165" s="6"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="4"/>
+      <c r="L165" s="4"/>
+      <c r="M165" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="N165" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="O165" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="P165" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q165" s="6">
+        <v>4</v>
+      </c>
+      <c r="R165" s="4"/>
+      <c r="S165" s="4"/>
+    </row>
+    <row r="166" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>40164</v>
       </c>
-    </row>
-    <row r="167" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B166" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="C166" s="6">
+        <v>30060</v>
+      </c>
+      <c r="D166" s="6">
+        <v>2</v>
+      </c>
+      <c r="E166" s="6">
+        <v>0</v>
+      </c>
+      <c r="F166" s="6">
+        <v>2</v>
+      </c>
+      <c r="G166" s="6"/>
+      <c r="I166" s="6"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="4"/>
+      <c r="L166" s="4"/>
+      <c r="M166" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="N166" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="O166" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="P166" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q166" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>40165</v>
       </c>
-    </row>
-    <row r="168" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B167" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C167" s="6">
+        <v>30061</v>
+      </c>
+      <c r="D167" s="6">
+        <v>1</v>
+      </c>
+      <c r="E167" s="6">
+        <v>1</v>
+      </c>
+      <c r="F167" s="6">
+        <v>1</v>
+      </c>
+      <c r="G167" s="6"/>
+      <c r="H167" s="6"/>
+      <c r="I167" s="6"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="6"/>
+      <c r="M167" s="6">
+        <v>45</v>
+      </c>
+      <c r="N167" s="6">
+        <v>1</v>
+      </c>
+      <c r="O167" s="6"/>
+      <c r="P167" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q167" s="6">
+        <v>1</v>
+      </c>
+      <c r="R167" s="6"/>
+      <c r="S167" s="4"/>
+      <c r="T167" s="4"/>
+      <c r="U167" s="6"/>
+    </row>
+    <row r="168" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>40166</v>
       </c>
-    </row>
-    <row r="169" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B168" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C168" s="6">
+        <v>30061</v>
+      </c>
+      <c r="D168" s="6">
+        <v>2</v>
+      </c>
+      <c r="E168" s="6">
+        <v>2</v>
+      </c>
+      <c r="F168" s="6">
+        <v>0</v>
+      </c>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="6"/>
+      <c r="M168" s="6">
+        <v>45</v>
+      </c>
+      <c r="N168" s="6">
+        <v>3</v>
+      </c>
+      <c r="O168" s="6"/>
+      <c r="P168" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q168" s="6">
+        <v>1</v>
+      </c>
+      <c r="R168" s="6"/>
+      <c r="S168" s="4"/>
+      <c r="T168" s="4"/>
+      <c r="U168" s="6"/>
+    </row>
+    <row r="169" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>40167</v>
       </c>
-    </row>
-    <row r="170" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B169" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C169" s="6">
+        <v>30062</v>
+      </c>
+      <c r="D169" s="6">
+        <v>1</v>
+      </c>
+      <c r="E169" s="6">
+        <v>1</v>
+      </c>
+      <c r="F169" s="6">
+        <v>2</v>
+      </c>
+      <c r="G169" s="6">
+        <v>10</v>
+      </c>
+      <c r="H169" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="I169" s="6"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="6"/>
+      <c r="L169" s="6"/>
+      <c r="M169" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="N169" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="O169" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P169" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q169" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>40168</v>
       </c>
-    </row>
-    <row r="171" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B170" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C170" s="6">
+        <v>30062</v>
+      </c>
+      <c r="D170" s="6">
+        <v>2</v>
+      </c>
+      <c r="E170" s="6">
+        <v>2</v>
+      </c>
+      <c r="F170" s="6">
+        <v>1</v>
+      </c>
+      <c r="G170" s="6">
+        <v>10</v>
+      </c>
+      <c r="H170" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="I170" s="6"/>
+      <c r="J170" s="6"/>
+      <c r="K170" s="6"/>
+      <c r="L170" s="6"/>
+      <c r="M170" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="N170" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="O170" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P170" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q170" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>40169</v>
       </c>
-    </row>
-    <row r="172" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B171" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C171" s="6">
+        <v>30063</v>
+      </c>
+      <c r="D171" s="6">
+        <v>1</v>
+      </c>
+      <c r="E171" s="6">
+        <v>0</v>
+      </c>
+      <c r="F171" s="6">
+        <v>3</v>
+      </c>
+      <c r="G171" s="6">
+        <v>10</v>
+      </c>
+      <c r="H171" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="I171" s="6"/>
+      <c r="J171" s="6"/>
+      <c r="K171" s="4"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="6">
+        <v>10</v>
+      </c>
+      <c r="N171" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="O171" s="6"/>
+      <c r="P171" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q171" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>40170</v>
       </c>
-    </row>
-    <row r="173" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B172" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="C172" s="6">
+        <v>30063</v>
+      </c>
+      <c r="D172" s="6">
+        <v>2</v>
+      </c>
+      <c r="E172" s="6">
+        <v>0</v>
+      </c>
+      <c r="F172" s="6">
+        <v>2</v>
+      </c>
+      <c r="G172" s="6">
+        <v>10</v>
+      </c>
+      <c r="H172" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="I172" s="6"/>
+      <c r="J172" s="6"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="N172" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="O172" s="6"/>
+      <c r="P172" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q172" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>40171</v>
       </c>
-    </row>
-    <row r="174" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B173" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C173" s="6">
+        <v>30064</v>
+      </c>
+      <c r="D173" s="6">
+        <v>1</v>
+      </c>
+      <c r="E173" s="6">
+        <v>1</v>
+      </c>
+      <c r="F173" s="6">
+        <v>1</v>
+      </c>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+      <c r="I173" s="6"/>
+      <c r="J173" s="6"/>
+      <c r="K173" s="6"/>
+      <c r="L173" s="6"/>
+      <c r="M173" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="N173" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="O173" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P173" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q173" s="6">
+        <v>1</v>
+      </c>
+      <c r="R173" s="6"/>
+      <c r="S173" s="4"/>
+    </row>
+    <row r="174" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>40172</v>
       </c>
-    </row>
-    <row r="175" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B174" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C174" s="6">
+        <v>30064</v>
+      </c>
+      <c r="D174" s="6">
+        <v>2</v>
+      </c>
+      <c r="E174" s="6">
+        <v>2</v>
+      </c>
+      <c r="F174" s="6">
+        <v>1</v>
+      </c>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+      <c r="I174" s="6"/>
+      <c r="J174" s="6"/>
+      <c r="K174" s="6"/>
+      <c r="L174" s="6"/>
+      <c r="M174" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="N174" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="O174" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="P174" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q174" s="6">
+        <v>1</v>
+      </c>
+      <c r="R174" s="6"/>
+      <c r="S174" s="4"/>
+    </row>
+    <row r="175" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>40173</v>
       </c>
-    </row>
-    <row r="176" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B175" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C175" s="6">
+        <v>30065</v>
+      </c>
+      <c r="D175" s="6">
+        <v>1</v>
+      </c>
+      <c r="E175" s="6">
+        <v>0</v>
+      </c>
+      <c r="F175" s="6">
+        <v>2</v>
+      </c>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+      <c r="I175" s="6"/>
+      <c r="J175" s="6"/>
+      <c r="K175" s="6"/>
+      <c r="L175" s="6"/>
+      <c r="M175" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="N175" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="O175" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="P175" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q175" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>40174</v>
       </c>
-    </row>
-    <row r="177" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B176" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="C176" s="6">
+        <v>30065</v>
+      </c>
+      <c r="D176" s="6">
+        <v>2</v>
+      </c>
+      <c r="E176" s="6">
+        <v>0</v>
+      </c>
+      <c r="F176" s="6">
+        <v>1</v>
+      </c>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+      <c r="I176" s="6"/>
+      <c r="J176" s="6"/>
+      <c r="K176" s="6"/>
+      <c r="L176" s="6"/>
+      <c r="M176" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="N176" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="O176" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="P176" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q176" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>40175</v>
       </c>
-    </row>
-    <row r="178" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B177" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="C177" s="6">
+        <v>30066</v>
+      </c>
+      <c r="D177" s="6">
+        <v>1</v>
+      </c>
+      <c r="E177" s="6">
+        <v>0</v>
+      </c>
+      <c r="F177" s="6">
+        <v>1</v>
+      </c>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+      <c r="I177" s="6"/>
+      <c r="J177" s="6"/>
+      <c r="K177" s="6"/>
+      <c r="L177" s="6"/>
+      <c r="M177" s="6">
+        <v>46</v>
+      </c>
+      <c r="N177" s="6">
+        <v>2</v>
+      </c>
+      <c r="O177" s="6"/>
+      <c r="P177" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q177" s="6">
+        <v>4</v>
+      </c>
+      <c r="R177" s="4"/>
+    </row>
+    <row r="178" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>40176</v>
       </c>
-    </row>
-    <row r="179" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B178" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="C178" s="6">
+        <v>30066</v>
+      </c>
+      <c r="D178" s="6">
+        <v>2</v>
+      </c>
+      <c r="E178" s="6">
+        <v>0</v>
+      </c>
+      <c r="F178" s="6">
+        <v>1</v>
+      </c>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+      <c r="I178" s="6"/>
+      <c r="J178" s="6"/>
+      <c r="K178" s="6"/>
+      <c r="L178" s="6"/>
+      <c r="M178" s="6">
+        <v>46</v>
+      </c>
+      <c r="N178" s="6">
+        <v>6</v>
+      </c>
+      <c r="O178" s="6"/>
+      <c r="P178" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q178" s="6">
+        <v>4</v>
+      </c>
+      <c r="R178" s="4"/>
+    </row>
+    <row r="179" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>40177</v>
       </c>
-    </row>
-    <row r="180" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B179" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="C179" s="6">
+        <v>30067</v>
+      </c>
+      <c r="D179" s="6">
+        <v>1</v>
+      </c>
+      <c r="E179" s="6">
+        <v>2</v>
+      </c>
+      <c r="F179" s="6">
+        <v>1</v>
+      </c>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+      <c r="I179" s="6"/>
+      <c r="J179" s="6"/>
+      <c r="K179" s="6"/>
+      <c r="L179" s="6"/>
+      <c r="M179" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="N179" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="O179" s="6"/>
+      <c r="P179" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q179" s="6">
+        <v>1</v>
+      </c>
+      <c r="R179" s="4"/>
+    </row>
+    <row r="180" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>40178</v>
       </c>
-    </row>
-    <row r="181" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B180" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C180" s="6">
+        <v>30067</v>
+      </c>
+      <c r="D180" s="6">
+        <v>2</v>
+      </c>
+      <c r="E180" s="6">
+        <v>3</v>
+      </c>
+      <c r="F180" s="6">
+        <v>1</v>
+      </c>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="6"/>
+      <c r="J180" s="6"/>
+      <c r="K180" s="6"/>
+      <c r="L180" s="6"/>
+      <c r="M180" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="N180" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="O180" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="P180" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q180" s="6">
+        <v>2</v>
+      </c>
+      <c r="R180" s="4"/>
+    </row>
+    <row r="181" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>40179</v>
       </c>
-    </row>
-    <row r="182" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B181" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C181" s="6">
+        <v>30067</v>
+      </c>
+      <c r="D181" s="6">
+        <v>3</v>
+      </c>
+      <c r="E181" s="6">
+        <v>3</v>
+      </c>
+      <c r="F181" s="6">
+        <v>1</v>
+      </c>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+      <c r="I181" s="6"/>
+      <c r="J181" s="6"/>
+      <c r="K181" s="6"/>
+      <c r="L181" s="6"/>
+      <c r="M181" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="N181" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="O181" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="P181" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q181" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>40180</v>
       </c>
-    </row>
-    <row r="183" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B182" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C182" s="6">
+        <v>30068</v>
+      </c>
+      <c r="D182" s="6">
+        <v>1</v>
+      </c>
+      <c r="E182" s="6">
+        <v>2</v>
+      </c>
+      <c r="F182" s="6">
+        <v>1</v>
+      </c>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+      <c r="I182" s="6"/>
+      <c r="J182" s="6"/>
+      <c r="K182" s="6"/>
+      <c r="L182" s="6"/>
+      <c r="M182" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="N182" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="O182" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="P182" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q182" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>40181</v>
       </c>
-    </row>
-    <row r="184" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B183" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C183" s="6">
+        <v>30068</v>
+      </c>
+      <c r="D183" s="6">
+        <v>2</v>
+      </c>
+      <c r="E183" s="6">
+        <v>3</v>
+      </c>
+      <c r="F183" s="6">
+        <v>1</v>
+      </c>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+      <c r="I183" s="6"/>
+      <c r="J183" s="6"/>
+      <c r="K183" s="6"/>
+      <c r="L183" s="6"/>
+      <c r="M183" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="N183" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="O183" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="P183" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q183" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>40182</v>
       </c>
-    </row>
-    <row r="185" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B184" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="C184" s="6">
+        <v>30068</v>
+      </c>
+      <c r="D184" s="6">
+        <v>3</v>
+      </c>
+      <c r="E184" s="6">
+        <v>3</v>
+      </c>
+      <c r="F184" s="6">
+        <v>1</v>
+      </c>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="6"/>
+      <c r="J184" s="6"/>
+      <c r="K184" s="6"/>
+      <c r="L184" s="6"/>
+      <c r="M184" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="N184" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="O184" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="P184" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q184" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>40183</v>
       </c>
-    </row>
-    <row r="186" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B185" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C185" s="6">
+        <v>30069</v>
+      </c>
+      <c r="D185" s="6">
+        <v>1</v>
+      </c>
+      <c r="E185" s="6">
+        <v>0</v>
+      </c>
+      <c r="F185" s="6">
+        <v>1</v>
+      </c>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+      <c r="I185" s="6"/>
+      <c r="J185" s="6"/>
+      <c r="K185" s="6"/>
+      <c r="L185" s="6"/>
+      <c r="M185" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="N185" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="O185" s="6"/>
+      <c r="P185" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q185" s="6">
+        <v>12</v>
+      </c>
+      <c r="R185" s="4"/>
+    </row>
+    <row r="186" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>40184</v>
       </c>
-    </row>
-    <row r="187" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B186" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C186" s="6">
+        <v>30069</v>
+      </c>
+      <c r="D186" s="6">
+        <v>2</v>
+      </c>
+      <c r="E186" s="6">
+        <v>0</v>
+      </c>
+      <c r="F186" s="6">
+        <v>1</v>
+      </c>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6"/>
+      <c r="M186" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="N186" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="O186" s="6"/>
+      <c r="P186" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q186" s="6">
+        <v>12</v>
+      </c>
+      <c r="R186" s="4"/>
+    </row>
+    <row r="187" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>40185</v>
       </c>
-    </row>
-    <row r="188" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B187" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="C187" s="6">
+        <v>30069</v>
+      </c>
+      <c r="D187" s="6">
+        <v>3</v>
+      </c>
+      <c r="E187" s="6">
+        <v>0</v>
+      </c>
+      <c r="F187" s="6">
+        <v>1</v>
+      </c>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+      <c r="I187" s="6"/>
+      <c r="J187" s="6"/>
+      <c r="K187" s="6"/>
+      <c r="L187" s="6"/>
+      <c r="M187" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="N187" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="O187" s="6"/>
+      <c r="P187" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q187" s="6">
+        <v>12</v>
+      </c>
+      <c r="R187" s="4"/>
+    </row>
+    <row r="188" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>40186</v>
       </c>
-    </row>
-    <row r="189" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B188" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C188" s="6">
+        <v>30070</v>
+      </c>
+      <c r="D188" s="6">
+        <v>1</v>
+      </c>
+      <c r="E188" s="6">
+        <v>0</v>
+      </c>
+      <c r="F188" s="6">
+        <v>2</v>
+      </c>
+      <c r="G188" s="6"/>
+      <c r="I188" s="6"/>
+      <c r="J188" s="6"/>
+      <c r="K188" s="4"/>
+      <c r="L188" s="4"/>
+      <c r="M188" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="N188" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="O188" s="6"/>
+      <c r="P188" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q188" s="6">
+        <v>4</v>
+      </c>
+      <c r="R188" s="4"/>
+    </row>
+    <row r="189" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>40187</v>
       </c>
-    </row>
-    <row r="190" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B189" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="C189" s="6">
+        <v>30070</v>
+      </c>
+      <c r="D189" s="6">
+        <v>2</v>
+      </c>
+      <c r="E189" s="6">
+        <v>0</v>
+      </c>
+      <c r="F189" s="6">
+        <v>2</v>
+      </c>
+      <c r="G189" s="6"/>
+      <c r="I189" s="6"/>
+      <c r="J189" s="6"/>
+      <c r="K189" s="4"/>
+      <c r="L189" s="4"/>
+      <c r="M189" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="N189" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="O189" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="P189" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q189" s="6">
+        <v>4</v>
+      </c>
+      <c r="R189" s="4"/>
+    </row>
+    <row r="190" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>40188</v>
       </c>
-    </row>
-    <row r="191" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B190" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="C190" s="6">
+        <v>30070</v>
+      </c>
+      <c r="D190" s="6">
+        <v>3</v>
+      </c>
+      <c r="E190" s="6">
+        <v>0</v>
+      </c>
+      <c r="F190" s="6">
+        <v>2</v>
+      </c>
+      <c r="G190" s="6"/>
+      <c r="I190" s="6"/>
+      <c r="J190" s="6"/>
+      <c r="K190" s="4"/>
+      <c r="L190" s="4"/>
+      <c r="M190" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="N190" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="O190" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="P190" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q190" s="6">
+        <v>4</v>
+      </c>
+      <c r="R190" s="4"/>
+    </row>
+    <row r="191" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>40189</v>
       </c>
-    </row>
-    <row r="192" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B191" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C191" s="6">
+        <v>30071</v>
+      </c>
+      <c r="D191" s="6">
+        <v>1</v>
+      </c>
+      <c r="E191" s="6">
+        <v>3</v>
+      </c>
+      <c r="F191" s="6">
+        <v>2</v>
+      </c>
+      <c r="G191" s="6">
+        <v>10</v>
+      </c>
+      <c r="H191" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I191" s="6"/>
+      <c r="J191" s="6"/>
+      <c r="K191" s="6"/>
+      <c r="L191" s="6"/>
+      <c r="M191" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="N191" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="O191" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="P191" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q191" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>40190</v>
       </c>
-    </row>
-    <row r="193" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B192" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="C192" s="6">
+        <v>30071</v>
+      </c>
+      <c r="D192" s="6">
+        <v>2</v>
+      </c>
+      <c r="E192" s="6">
+        <v>3</v>
+      </c>
+      <c r="F192" s="6">
+        <v>2</v>
+      </c>
+      <c r="G192" s="6">
+        <v>10</v>
+      </c>
+      <c r="H192" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I192" s="6"/>
+      <c r="J192" s="6"/>
+      <c r="K192" s="6"/>
+      <c r="L192" s="6"/>
+      <c r="M192" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="N192" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="O192" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="P192" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q192" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>40191</v>
       </c>
-    </row>
-    <row r="194" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B193" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="C193" s="6">
+        <v>30071</v>
+      </c>
+      <c r="D193" s="6">
+        <v>3</v>
+      </c>
+      <c r="E193" s="6">
+        <v>3</v>
+      </c>
+      <c r="F193" s="6">
+        <v>2</v>
+      </c>
+      <c r="G193" s="6">
+        <v>10</v>
+      </c>
+      <c r="H193" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="I193" s="6"/>
+      <c r="J193" s="6"/>
+      <c r="K193" s="6"/>
+      <c r="L193" s="6"/>
+      <c r="M193" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="N193" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="O193" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="P193" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q193" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>40192</v>
       </c>
-    </row>
-    <row r="195" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B194" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C194" s="6">
+        <v>30072</v>
+      </c>
+      <c r="D194" s="6">
+        <v>1</v>
+      </c>
+      <c r="E194" s="6">
+        <v>0</v>
+      </c>
+      <c r="F194" s="6">
+        <v>1</v>
+      </c>
+      <c r="G194" s="6"/>
+      <c r="I194" s="6"/>
+      <c r="J194" s="6"/>
+      <c r="K194" s="4"/>
+      <c r="L194" s="4"/>
+      <c r="M194" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="N194" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="O194" s="6"/>
+      <c r="P194" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q194" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>40193</v>
       </c>
-    </row>
-    <row r="196" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B195" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="C195" s="6">
+        <v>30072</v>
+      </c>
+      <c r="D195" s="6">
+        <v>2</v>
+      </c>
+      <c r="E195" s="6">
+        <v>0</v>
+      </c>
+      <c r="F195" s="6">
+        <v>1</v>
+      </c>
+      <c r="G195" s="6"/>
+      <c r="I195" s="6"/>
+      <c r="J195" s="6"/>
+      <c r="K195" s="4"/>
+      <c r="L195" s="4"/>
+      <c r="M195" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="N195" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="O195" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="P195" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q195" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>40194</v>
       </c>
-    </row>
-    <row r="197" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B196" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="C196" s="6">
+        <v>30072</v>
+      </c>
+      <c r="D196" s="6">
+        <v>3</v>
+      </c>
+      <c r="E196" s="6">
+        <v>0</v>
+      </c>
+      <c r="F196" s="6">
+        <v>1</v>
+      </c>
+      <c r="G196" s="6"/>
+      <c r="I196" s="6"/>
+      <c r="J196" s="6"/>
+      <c r="K196" s="4"/>
+      <c r="L196" s="4"/>
+      <c r="M196" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="N196" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="O196" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="P196" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q196" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>40195</v>
       </c>
-    </row>
-    <row r="198" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B197" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="C197" s="6">
+        <v>30073</v>
+      </c>
+      <c r="D197" s="6">
+        <v>1</v>
+      </c>
+      <c r="E197" s="6">
+        <v>0</v>
+      </c>
+      <c r="F197" s="6">
+        <v>2</v>
+      </c>
+      <c r="G197" s="6"/>
+      <c r="I197" s="6"/>
+      <c r="J197" s="6"/>
+      <c r="K197" s="4"/>
+      <c r="L197" s="4"/>
+      <c r="M197" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="N197" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="O197" s="6"/>
+      <c r="P197" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q197" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <v>40196</v>
       </c>
-    </row>
-    <row r="199" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B198" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C198" s="6">
+        <v>30073</v>
+      </c>
+      <c r="D198" s="6">
+        <v>2</v>
+      </c>
+      <c r="E198" s="6">
+        <v>0</v>
+      </c>
+      <c r="F198" s="6">
+        <v>1</v>
+      </c>
+      <c r="G198" s="6"/>
+      <c r="I198" s="6"/>
+      <c r="J198" s="6"/>
+      <c r="K198" s="4"/>
+      <c r="L198" s="4"/>
+      <c r="M198" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="N198" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="O198" s="6"/>
+      <c r="P198" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q198" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>40197</v>
       </c>
-    </row>
-    <row r="200" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B199" s="6"/>
+      <c r="C199" s="6"/>
+      <c r="D199" s="6"/>
+      <c r="E199" s="6"/>
+      <c r="F199" s="6"/>
+      <c r="G199" s="6"/>
+      <c r="I199" s="6"/>
+      <c r="J199" s="6"/>
+      <c r="K199" s="4"/>
+      <c r="L199" s="4"/>
+      <c r="M199" s="6"/>
+      <c r="N199" s="6"/>
+      <c r="O199" s="6"/>
+      <c r="P199" s="6"/>
+      <c r="Q199" s="6"/>
+    </row>
+    <row r="200" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>40198</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -252,7 +252,8 @@
 10.治疗2个，target及其前面一个
 11.治疗全部
 12.特殊效果1个
-13.特殊效果2个，target和其后面一个#14.特殊效果2个，target和其前面一个
+13.特殊效果2个，target和其后面一个
+#14.特殊效果2个，target和其前面一个
 15.特殊效果全部
 16。伤害所有人
 17.护盾所有人
@@ -294,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="468">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -847,7 +848,1112 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6|50003,2</t>
+    <t>5|50001,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50001,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50001,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#2E5AD7&gt;点穴&lt;/c&gt;敌人%{r2}次步进</t>
+  </si>
+  <si>
+    <t>&lt;color=#2E5AD7&gt;点穴&lt;/c&gt;敌人%{r2}次步进</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|50016,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|50016,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|50016,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用之后,本场战斗中,同名卡牌造成伤害增加&lt;color=#b53030&gt;%{r2}&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50008,5|50018,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50008,8|50018,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|22</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50009,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50009,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50009,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使目标&lt;color=#2E5AD7&gt;及其后面的一个单位&lt;/c&gt;获得%{r2}层&lt;color=#1ac7c8&gt;寒冷&lt;/c&gt;</t>
+  </si>
+  <si>
+    <t>5|50013,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50013,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50013,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使目标获得%{r2}层&lt;color=#1ac7c8&gt;寒冷&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50041,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15|50041,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20|50041,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|50019,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50019,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50019,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15|50009,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25|50009,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|50010,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50010,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50010,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|50004,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|50004,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|50004,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50005,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50005,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50022,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50022,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50022,12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,24,25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15|2,30028|1,30029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22|3,30028|1,30029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30|3,30028|1,30029</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>快斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,30036,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,30036,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天音乱气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体获得%{r2}层&lt;color=#3079b5&gt;乱气&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体获得%{r2}层&lt;color=#3079b6&gt;乱气&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体获得%{r2}层&lt;color=#3079b7&gt;乱气&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40,10,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|50050,3|20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|50050,3|50004,5|20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞龙在天</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,8|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,12|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50061,16|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙跃于渊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50062,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50062,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50062,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>终日乾乾</t>
+  </si>
+  <si>
+    <t>50063,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你蓄力时,额外获得3层&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你蓄力时,额外获得3层&lt;color=#b5a431&gt;蓄力&lt;/c&gt;</t>
+  </si>
+  <si>
+    <t>祁连山诀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50064,5|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50064,7|7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50064,9|9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当回合结束时,获得%{r2}层的&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当回合结束时,获得%{r2}层的&lt;color=#b5a431&gt;蓄力&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当回合结束时,获得%{r2}层的&lt;color=#b5a432&gt;蓄力&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当回合结束时,你的&lt;color=#b5a430&gt;蓄力&lt;/c&gt;翻倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当回合结束时,你的&lt;color=#b5a431&gt;蓄力&lt;/c&gt;翻倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当回合结束时,你的&lt;color=#b5a432&gt;蓄力&lt;/c&gt;翻倍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阴无悔式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>太阴无悔式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,3</t>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50065,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14|50065,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18|50065,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏龙掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9|50061,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11|50061,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猛虎拳</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|8|50061,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梦幻泡影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,5,34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,21,34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,14,34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无间轮回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红莲地狱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50067,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>18|50067,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10,21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|50068,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|50068,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50068,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火贪斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>红莲心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|50069,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50069,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50069,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你每燃烧一张牌,自身获得%{r2}x5点&lt;color=#b5a430&gt;护盾&lt;/c&gt;,并且层数减少</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵罡不灭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50006,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>凌波渡雪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,28</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,28,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9|100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13|140</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|180|50006,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁布衫</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,1</t>
+  </si>
+  <si>
+    <t>5,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以血行气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|14|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|8|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|20|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>般若心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>般若心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>44,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>龟息功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>25|50033,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35|50033,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>须弥山神掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>须弥山神掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>渊渟岳峙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50070,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14|50070,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的下%{r2}回合开始时&lt;color=#b5a430&gt;护盾&lt;/c&gt;不会消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>你的下%{r2}回合开始时&lt;color=#b5a430&gt;护盾&lt;/c&gt;不会消失</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大哉昆仑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50070,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50070,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>十字手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|50074,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50074,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>报虎归山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50074,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50074,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和光同尘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>和光同尘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无招</t>
+  </si>
+  <si>
+    <t>8|50019,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50020,1|50019,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50020,1|50019,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>number[]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#3079b5&gt;剑意&lt;/c&gt;改为对所有敌方单位造成伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荡剑诀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>荡剑诀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|50019,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13|50019,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9|50019,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落剑诀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9|50013,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13|50013,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17|50013,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊鸿照影</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50013,4|1,30036,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50013,7|1,30036,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50013,8|2,30036,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫气东来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫气东来</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50013,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13|50013,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,10,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|50013,6|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑·十三式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑·十三式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13|50021,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次战斗&lt;color=#3079b5&gt;剑气&lt;/c&gt;额外触发一次伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍松迎客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>苍松迎客</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|50019,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9|50019,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50019,5|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以气行血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>以气行血</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50029,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50029,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑在意先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑在意先</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50075,1,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50075,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50075,2,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,34,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在回合开始时,获得%{r2}张快斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在回合开始时,获得%{r2}张快斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|50003,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -855,90 +1961,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5|50001,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|50001,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12|50001,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#2E5AD7&gt;点穴&lt;/c&gt;敌人%{r2}次步进</t>
-  </si>
-  <si>
-    <t>&lt;color=#2E5AD7&gt;点穴&lt;/c&gt;敌人%{r2}次步进</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|50016,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4|50016,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6|50016,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使用之后,本场战斗中,同名卡牌造成伤害增加&lt;color=#b53030&gt;%{r2}&lt;/c&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50008,5|50018,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50008,8|50018,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|22</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,43</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50009,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50009,3</t>
+    <t>雪夜飞花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50041,1|50003,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50003,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁花似锦</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50003,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>繁花落尽</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -946,989 +2005,145 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10|50009,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使目标&lt;color=#2E5AD7&gt;及其后面的一个单位&lt;/c&gt;获得%{r2}层&lt;color=#1ac7c8&gt;寒冷&lt;/c&gt;</t>
-  </si>
-  <si>
-    <t>5|50013,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|50013,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12|50013,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>使目标获得%{r2}层&lt;color=#1ac7c8&gt;寒冷&lt;/c&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50041,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15|50041,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20|50041,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|50019,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|50019,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12|50019,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15|50009,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25|50009,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|50010,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|50010,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12|50010,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|50004,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1|50004,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2|50004,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50005,7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50005,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50022,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50022,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50022,12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,24,25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>15|2,30028|1,30029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>22|3,30028|1,30029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30|3,30028|1,30029</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12|12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16|16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试牌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>29,1,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>35,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>快斩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3,30036,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,30036,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>天音乱气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方全体获得%{r2}层&lt;color=#3079b5&gt;乱气&lt;/c&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方全体获得%{r2}层&lt;color=#3079b6&gt;乱气&lt;/c&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方全体获得%{r2}层&lt;color=#3079b7&gt;乱气&lt;/c&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50058,3|50018,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50061,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50061,18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50061,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40,10,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,3,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|50050,3|20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|50050,3|50004,5|20</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>飞龙在天</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50061,8|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50061,12|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50061,16|2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙跃于渊</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50062,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50062,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50062,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>终日乾乾</t>
-  </si>
-  <si>
-    <t>50063,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当你蓄力时,额外获得3层&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当你蓄力时,额外获得3层&lt;color=#b5a431&gt;蓄力&lt;/c&gt;</t>
-  </si>
-  <si>
-    <t>祁连山诀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50064,5|5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50064,7|7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50064,9|9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当回合结束时,获得%{r2}层的&lt;color=#b5a430&gt;蓄力&lt;/c&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当回合结束时,获得%{r2}层的&lt;color=#b5a431&gt;蓄力&lt;/c&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当回合结束时,获得%{r2}层的&lt;color=#b5a432&gt;蓄力&lt;/c&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当回合结束时,你的&lt;color=#b5a430&gt;蓄力&lt;/c&gt;翻倍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当回合结束时,你的&lt;color=#b5a431&gt;蓄力&lt;/c&gt;翻倍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>每当回合结束时,你的&lt;color=#b5a432&gt;蓄力&lt;/c&gt;翻倍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阴无悔式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>太阴无悔式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,3</t>
-  </si>
-  <si>
-    <t>1,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50065,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>14|50065,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18|50065,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>伏龙掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9|50061,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11|50061,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>猛虎拳</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,5,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|8|50061,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梦幻泡影</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,5,34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,21,34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,14,34</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无间轮回</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,3,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红莲地狱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|50067,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>18|50067,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10,21</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4|50068,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6|50068,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|50068,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>火贪斩</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>红莲心法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|50069,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|50069,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12|50069,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你每燃烧一张牌,自身获得%{r2}x5点&lt;color=#b5a430&gt;护盾&lt;/c&gt;,并且层数减少</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,10,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,10,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵罡不灭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50006,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>凌波渡雪</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,28</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,28,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9|100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13|140</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16|180|50006,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>铁布衫</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,3,1</t>
-  </si>
-  <si>
-    <t>5,3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以血行气</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5,31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,3,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|14|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5|8|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|20|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>般若心法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>般若心法</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>44,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>龟息功</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>25|50033,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>35|50033,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>须弥山神掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>须弥山神掌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>渊渟岳峙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50070,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>14|50070,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,1,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的下%{r2}回合开始时&lt;color=#b5a430&gt;护盾&lt;/c&gt;不会消失</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>你的下%{r2}回合开始时&lt;color=#b5a430&gt;护盾&lt;/c&gt;不会消失</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大哉昆仑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50070,6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50070,8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>十字手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6|50074,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50074,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>报虎归山</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50074,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50074,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和光同尘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>和光同尘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>无招</t>
-  </si>
-  <si>
-    <t>8|50019,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50020,1|50019,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50020,1|50019,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>number[]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#3079b5&gt;剑意&lt;/c&gt;改为对所有敌方单位造成伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,10,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,10,10,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,10,10,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>荡剑诀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>荡剑诀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6|50019,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13|50019,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9|50019,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>落剑诀</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9|50013,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13|50013,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17|50013,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>惊鸿照影</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10,36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50013,4|1,30036,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50013,7|1,30036,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50013,8|2,30036,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫气东来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫气东来</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50013,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13|50013,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,10,9</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16|50013,6|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑·十三式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑·十三式</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>13|50021,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次战斗&lt;color=#3079b5&gt;剑气&lt;/c&gt;额外触发一次伤害</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,10,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>苍松迎客</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>苍松迎客</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6|50019,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9|50019,4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>12|50019,5|1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5,1,1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以气行血</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>以气行血</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50029,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,10,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,10,14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10|50029,1</t>
+    <t>3|50003,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|50003,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7|50011,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|50003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9|50011,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落红无情</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50076,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当对敌人造成伤害时,施加%{r2}层&lt;color=#b53030&gt;流血&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50077,3|50018,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万毒心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>万毒心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当对敌人造成伤害时,施加%{r2}层&lt;color=#86C115&gt;毒&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50077,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50077,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火贪心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当对敌人造成伤害时,施加%{r2}层&lt;color=#CF0707&gt;燃烧&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当对敌人造成伤害时,施加%{r2}层&lt;color=#CF0707&gt;燃烧&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50078,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50078,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两仪心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>两仪心法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每当你打出一张心法牌,随机获得一点&lt;color=#9630b5&gt;阴&lt;/c&gt;/&lt;color=#b5a430&gt;阳&lt;/c&gt;</t>
+  </si>
+  <si>
+    <t>50080,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50080,2</t>
+  </si>
+  <si>
+    <t>黑山掌法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑山掌法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9|50011,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13|50011,5|50009,3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2296,10 +2511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X200"/>
+  <dimension ref="A1:X250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B172" workbookViewId="0">
-      <selection activeCell="J195" sqref="J195"/>
+    <sheetView tabSelected="1" topLeftCell="B198" workbookViewId="0">
+      <selection activeCell="K215" sqref="K215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2337,7 +2552,7 @@
         <v>15</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>119</v>
@@ -3344,7 +3559,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
@@ -3361,7 +3576,7 @@
         <v>2</v>
       </c>
       <c r="Q25" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R25" s="1"/>
     </row>
@@ -3382,7 +3597,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
@@ -3390,7 +3605,7 @@
         <v>40</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>141</v>
+        <v>419</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>30</v>
@@ -3428,7 +3643,7 @@
         <v>40</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>142</v>
+        <v>420</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>30</v>
@@ -3464,13 +3679,13 @@
         <v>8</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>27</v>
@@ -3506,13 +3721,13 @@
         <v>8</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>27</v>
@@ -3548,13 +3763,13 @@
         <v>8</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>40</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>27</v>
@@ -3704,13 +3919,13 @@
         <v>10</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P34" s="1">
         <v>1</v>
@@ -3748,13 +3963,13 @@
         <v>10</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P35" s="1">
         <v>1</v>
@@ -3792,13 +4007,13 @@
         <v>10</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>50</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="P36" s="1">
         <v>1</v>
@@ -4002,7 +4217,7 @@
         <v>52</v>
       </c>
       <c r="N41" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P41" s="1">
         <v>3</v>
@@ -4037,7 +4252,7 @@
         <v>52</v>
       </c>
       <c r="N42" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P42" s="1">
         <v>3</v>
@@ -4078,7 +4293,7 @@
         <v>122</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O43" s="1" t="s">
         <v>27</v>
@@ -4121,7 +4336,7 @@
         <v>122</v>
       </c>
       <c r="N44" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="O44" s="1" t="s">
         <v>65</v>
@@ -4198,10 +4413,10 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
       <c r="M46" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N46" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P46" s="6">
         <v>1</v>
@@ -4232,10 +4447,10 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
       <c r="M47" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="N47" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="N47" s="6" t="s">
-        <v>161</v>
       </c>
       <c r="P47" s="6">
         <v>1</v>
@@ -4266,10 +4481,10 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
       <c r="M48" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N48" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P48" s="6">
         <v>1</v>
@@ -4309,7 +4524,7 @@
         <v>122</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="O49" s="1" t="s">
         <v>27</v>
@@ -4352,7 +4567,7 @@
         <v>122</v>
       </c>
       <c r="N50" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O50" s="1" t="s">
         <v>27</v>
@@ -4395,7 +4610,7 @@
         <v>122</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="O51" s="1" t="s">
         <v>65</v>
@@ -4541,13 +4756,13 @@
         <v>8</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M55" s="3">
         <v>8</v>
       </c>
       <c r="N55" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O55" s="3" t="s">
         <v>30</v>
@@ -4585,13 +4800,13 @@
         <v>8</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M56" s="3">
         <v>8</v>
       </c>
       <c r="N56" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="O56" s="3" t="s">
         <v>31</v>
@@ -4629,13 +4844,13 @@
         <v>8</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>31</v>
@@ -4679,7 +4894,7 @@
         <v>73</v>
       </c>
       <c r="N58" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>30</v>
@@ -4721,7 +4936,7 @@
         <v>73</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>30</v>
@@ -4763,7 +4978,7 @@
         <v>73</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>31</v>
@@ -4805,7 +5020,7 @@
         <v>41</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="O61" s="3" t="s">
         <v>30</v>
@@ -4846,7 +5061,7 @@
         <v>41</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>31</v>
@@ -4887,7 +5102,7 @@
         <v>41</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="O63" s="3" t="s">
         <v>31</v>
@@ -4904,7 +5119,7 @@
         <v>40062</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C64" s="5">
         <v>30021</v>
@@ -4925,10 +5140,10 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="5" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="O64" s="5"/>
       <c r="P64" s="5">
@@ -4943,7 +5158,7 @@
         <v>40063</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C65" s="5">
         <v>30021</v>
@@ -4958,20 +5173,20 @@
         <v>1</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="O65" s="5"/>
       <c r="P65" s="5">
@@ -4986,7 +5201,7 @@
         <v>40064</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C66" s="5">
         <v>30021</v>
@@ -5001,20 +5216,20 @@
         <v>0</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="O66" s="5"/>
       <c r="P66" s="5">
@@ -5053,7 +5268,7 @@
         <v>50</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="O67" s="6" t="s">
         <v>30</v>
@@ -5094,7 +5309,7 @@
         <v>50</v>
       </c>
       <c r="N68" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="O68" s="6" t="s">
         <v>30</v>
@@ -5135,7 +5350,7 @@
         <v>50</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="O69" s="6" t="s">
         <v>31</v>
@@ -5176,7 +5391,7 @@
         <v>78</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="O70" s="6" t="s">
         <v>27</v>
@@ -5258,7 +5473,7 @@
         <v>78</v>
       </c>
       <c r="N72" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="O72" s="6" t="s">
         <v>28</v>
@@ -5299,7 +5514,7 @@
         <v>41</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="O73" s="6" t="s">
         <v>27</v>
@@ -5340,7 +5555,7 @@
         <v>41</v>
       </c>
       <c r="N74" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="O74" s="6" t="s">
         <v>28</v>
@@ -5381,7 +5596,7 @@
         <v>41</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="O75" s="6" t="s">
         <v>28</v>
@@ -5415,7 +5630,7 @@
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
       <c r="I76" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>124</v>
@@ -5423,10 +5638,10 @@
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="N76" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="N76" s="4" t="s">
-        <v>185</v>
       </c>
       <c r="O76" s="4"/>
       <c r="P76" s="6">
@@ -5462,7 +5677,7 @@
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
       <c r="I77" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J77" s="4" t="s">
         <v>124</v>
@@ -5470,10 +5685,10 @@
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N77" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O77" s="4"/>
       <c r="P77" s="6">
@@ -5509,7 +5724,7 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
       <c r="I78" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="J78" s="4" t="s">
         <v>124</v>
@@ -5517,10 +5732,10 @@
       <c r="K78" s="4"/>
       <c r="L78" s="4"/>
       <c r="M78" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O78" s="4"/>
       <c r="P78" s="6">
@@ -5602,7 +5817,7 @@
         <v>10</v>
       </c>
       <c r="N80" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O80" s="4"/>
       <c r="P80" s="6">
@@ -5641,7 +5856,7 @@
         <v>10</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O81" s="4"/>
       <c r="P81" s="6">
@@ -5684,7 +5899,7 @@
         <v>10</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O82" s="4"/>
       <c r="P82" s="6">
@@ -5725,7 +5940,7 @@
         <v>10</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O83" s="4"/>
       <c r="P83" s="6">
@@ -5766,7 +5981,7 @@
         <v>10</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O84" s="4"/>
       <c r="P84" s="6">
@@ -5804,10 +6019,10 @@
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
       <c r="M85" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="N85" s="6" t="s">
         <v>194</v>
-      </c>
-      <c r="N85" s="6" t="s">
-        <v>196</v>
       </c>
       <c r="O85" s="6" t="s">
         <v>28</v>
@@ -5847,13 +6062,13 @@
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
       <c r="M86" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="P86" s="6">
         <v>1</v>
@@ -5890,13 +6105,13 @@
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
       <c r="M87" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="O87" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P87" s="6">
         <v>1</v>
@@ -5929,7 +6144,7 @@
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
       <c r="I88" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="J88" s="4" t="s">
         <v>87</v>
@@ -5940,7 +6155,7 @@
         <v>90</v>
       </c>
       <c r="N88" s="6" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="O88" s="6"/>
       <c r="P88" s="6">
@@ -5972,7 +6187,7 @@
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
       <c r="I89" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="J89" s="4" t="s">
         <v>88</v>
@@ -5983,7 +6198,7 @@
         <v>90</v>
       </c>
       <c r="N89" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="O89" s="6" t="s">
         <v>27</v>
@@ -6017,7 +6232,7 @@
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
       <c r="I90" s="4" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="J90" s="4" t="s">
         <v>89</v>
@@ -6028,7 +6243,7 @@
         <v>90</v>
       </c>
       <c r="N90" s="6" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="O90" s="6" t="s">
         <v>28</v>
@@ -6111,7 +6326,7 @@
         <v>7</v>
       </c>
       <c r="O92" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P92" s="6">
         <v>1</v>
@@ -6152,7 +6367,7 @@
         <v>10</v>
       </c>
       <c r="O93" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P93" s="6">
         <v>1</v>
@@ -6187,7 +6402,7 @@
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N94" s="6">
         <v>2</v>
@@ -6230,7 +6445,7 @@
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N95" s="6">
         <v>2</v>
@@ -6273,7 +6488,7 @@
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="N96" s="6">
         <v>3</v>
@@ -6362,7 +6577,7 @@
         <v>36</v>
       </c>
       <c r="N98" s="7" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="O98" s="4"/>
       <c r="P98" s="6">
@@ -6405,7 +6620,7 @@
         <v>36</v>
       </c>
       <c r="N99" s="7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="O99" s="4"/>
       <c r="P99" s="6">
@@ -6424,7 +6639,7 @@
         <v>40098</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C100" s="6">
         <v>30036</v>
@@ -6441,13 +6656,13 @@
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
       <c r="M100" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N100" s="6">
         <v>4</v>
       </c>
       <c r="O100" s="6" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="P100" s="6">
         <v>2</v>
@@ -6461,7 +6676,7 @@
         <v>40099</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C101" s="6">
         <v>30036</v>
@@ -6482,7 +6697,7 @@
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N101" s="6">
         <v>6</v>
@@ -6502,7 +6717,7 @@
         <v>40100</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C102" s="6">
         <v>30036</v>
@@ -6523,7 +6738,7 @@
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N102" s="6">
         <v>8</v>
@@ -6543,7 +6758,7 @@
         <v>40101</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C103" s="6">
         <v>30037</v>
@@ -6561,7 +6776,7 @@
         <v>8</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I103" s="4"/>
       <c r="J103" s="4"/>
@@ -6586,7 +6801,7 @@
         <v>40102</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C104" s="6">
         <v>30037</v>
@@ -6604,7 +6819,7 @@
         <v>8</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
@@ -6629,7 +6844,7 @@
         <v>40103</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C105" s="6">
         <v>30037</v>
@@ -6647,7 +6862,7 @@
         <v>8</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I105" s="4"/>
       <c r="J105" s="4"/>
@@ -6827,7 +7042,7 @@
         <v>10</v>
       </c>
       <c r="N109" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="O109" s="6"/>
       <c r="P109" s="6">
@@ -6862,10 +7077,10 @@
         <v>10</v>
       </c>
       <c r="N110" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="O110" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P110" s="6">
         <v>1</v>
@@ -6899,10 +7114,10 @@
         <v>10</v>
       </c>
       <c r="N111" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="O111" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P111" s="6">
         <v>1</v>
@@ -6937,13 +7152,13 @@
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="6" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N112" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="O112" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="P112" s="6">
         <v>1</v>
@@ -6978,13 +7193,13 @@
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="N113" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="N113" s="6" t="s">
-        <v>226</v>
-      </c>
       <c r="O113" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P113" s="6">
         <v>1</v>
@@ -7022,10 +7237,10 @@
         <v>101</v>
       </c>
       <c r="N114" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="O114" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P114" s="6">
         <v>1</v>
@@ -7117,7 +7332,7 @@
         <v>40115</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C117" s="6">
         <v>30042</v>
@@ -7135,7 +7350,7 @@
         <v>52</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>217</v>
+        <v>444</v>
       </c>
       <c r="P117" s="6">
         <v>1</v>
@@ -7149,7 +7364,7 @@
         <v>40116</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C118" s="6">
         <v>30043</v>
@@ -7164,16 +7379,16 @@
         <v>1</v>
       </c>
       <c r="I118" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J118" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="M118" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N118" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P118" s="6">
         <v>3</v>
@@ -7187,7 +7402,7 @@
         <v>40117</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C119" s="6">
         <v>30043</v>
@@ -7202,16 +7417,16 @@
         <v>1</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J119" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M119" s="6" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="N119" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P119" s="6">
         <v>3</v>
@@ -7225,7 +7440,7 @@
         <v>40118</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C120" s="6">
         <v>30043</v>
@@ -7240,16 +7455,16 @@
         <v>0</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J120" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M120" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="N120" s="6" t="s">
         <v>230</v>
-      </c>
-      <c r="N120" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="P120" s="6">
         <v>3</v>
@@ -7263,7 +7478,7 @@
         <v>40119</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C121" s="6">
         <v>30044</v>
@@ -7281,17 +7496,17 @@
         <v>10</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I121" s="6"/>
       <c r="J121" s="6"/>
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
       <c r="M121" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N121" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O121" s="4"/>
       <c r="P121" s="6">
@@ -7306,7 +7521,7 @@
         <v>40120</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C122" s="6">
         <v>30044</v>
@@ -7324,17 +7539,17 @@
         <v>10</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="I122" s="6"/>
       <c r="J122" s="6"/>
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
       <c r="M122" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N122" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="O122" s="4"/>
       <c r="P122" s="6">
@@ -7349,7 +7564,7 @@
         <v>40121</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C123" s="6">
         <v>30044</v>
@@ -7367,17 +7582,17 @@
         <v>10</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I123" s="6"/>
       <c r="J123" s="6"/>
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N123" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O123" s="4"/>
       <c r="P123" s="6">
@@ -7392,7 +7607,7 @@
         <v>40122</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C124" s="6">
         <v>30045</v>
@@ -7410,17 +7625,17 @@
         <v>10</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="I124" s="6"/>
       <c r="J124" s="6"/>
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
       <c r="M124" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N124" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O124" s="4"/>
       <c r="P124" s="6">
@@ -7435,7 +7650,7 @@
         <v>40123</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C125" s="6">
         <v>30045</v>
@@ -7453,17 +7668,17 @@
         <v>10</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I125" s="6"/>
       <c r="J125" s="6"/>
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
       <c r="M125" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N125" s="6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="O125" s="4"/>
       <c r="P125" s="6">
@@ -7478,7 +7693,7 @@
         <v>40124</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C126" s="6">
         <v>30046</v>
@@ -7496,17 +7711,17 @@
         <v>10</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="I126" s="6"/>
       <c r="J126" s="6"/>
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
       <c r="M126" s="6" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N126" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O126" s="4"/>
       <c r="P126" s="6">
@@ -7521,7 +7736,7 @@
         <v>40125</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C127" s="6">
         <v>30046</v>
@@ -7539,17 +7754,17 @@
         <v>10</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="I127" s="6"/>
       <c r="J127" s="6"/>
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
       <c r="M127" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N127" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="O127" s="4"/>
       <c r="P127" s="6">
@@ -7564,7 +7779,7 @@
         <v>40126</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C128" s="6">
         <v>30046</v>
@@ -7582,17 +7797,17 @@
         <v>10</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="I128" s="6"/>
       <c r="J128" s="6"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
       <c r="M128" s="6" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="N128" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="O128" s="4"/>
       <c r="P128" s="6">
@@ -7607,7 +7822,7 @@
         <v>40127</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C129" s="6">
         <v>30047</v>
@@ -7628,10 +7843,10 @@
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
       <c r="M129" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N129" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="O129" s="6" t="s">
         <v>27</v>
@@ -7648,7 +7863,7 @@
         <v>40128</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C130" s="6">
         <v>30047</v>
@@ -7669,13 +7884,13 @@
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
       <c r="M130" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N130" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="O130" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="P130" s="6">
         <v>1</v>
@@ -7689,7 +7904,7 @@
         <v>40129</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C131" s="6">
         <v>30047</v>
@@ -7710,13 +7925,13 @@
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
       <c r="M131" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="N131" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="N131" s="6" t="s">
-        <v>265</v>
-      </c>
       <c r="O131" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="P131" s="6">
         <v>1</v>
@@ -7730,7 +7945,7 @@
         <v>40130</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C132" s="6">
         <v>30048</v>
@@ -7770,7 +7985,7 @@
         <v>40131</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C133" s="6">
         <v>30048</v>
@@ -7791,10 +8006,10 @@
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
       <c r="M133" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N133" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="O133" s="6" t="s">
         <v>27</v>
@@ -7812,7 +8027,7 @@
         <v>40132</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C134" s="6">
         <v>30048</v>
@@ -7833,13 +8048,13 @@
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
       <c r="M134" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="N134" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="O134" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P134" s="6">
         <v>1</v>
@@ -7854,7 +8069,7 @@
         <v>40133</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C135" s="6">
         <v>30049</v>
@@ -7875,10 +8090,10 @@
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
       <c r="M135" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="N135" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="O135" s="6"/>
       <c r="P135" s="6">
@@ -7893,7 +8108,7 @@
         <v>40134</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C136" s="6">
         <v>30049</v>
@@ -7914,13 +8129,13 @@
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
       <c r="M136" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N136" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O136" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P136" s="6">
         <v>1</v>
@@ -7934,7 +8149,7 @@
         <v>40135</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C137" s="6">
         <v>30049</v>
@@ -7955,13 +8170,13 @@
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
       <c r="M137" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="N137" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O137" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="P137" s="6">
         <v>1</v>
@@ -7975,7 +8190,7 @@
         <v>40136</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C138" s="6">
         <v>30050</v>
@@ -7996,7 +8211,7 @@
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
       <c r="M138" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="N138" s="6">
         <v>10</v>
@@ -8014,7 +8229,7 @@
         <v>40137</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C139" s="6">
         <v>30050</v>
@@ -8035,13 +8250,13 @@
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
       <c r="M139" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="N139" s="6">
         <v>14</v>
       </c>
       <c r="O139" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P139" s="6">
         <v>3</v>
@@ -8055,7 +8270,7 @@
         <v>40138</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C140" s="6">
         <v>30050</v>
@@ -8076,13 +8291,13 @@
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
       <c r="M140" s="6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="N140" s="6">
         <v>15</v>
       </c>
       <c r="O140" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="P140" s="6">
         <v>3</v>
@@ -8096,7 +8311,7 @@
         <v>40139</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C141" s="6">
         <v>30051</v>
@@ -8117,13 +8332,13 @@
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
       <c r="M141" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N141" s="6">
         <v>8</v>
       </c>
       <c r="O141" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P141" s="6">
         <v>3</v>
@@ -8137,7 +8352,7 @@
         <v>40140</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C142" s="6">
         <v>30051</v>
@@ -8158,13 +8373,13 @@
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
       <c r="M142" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N142" s="6">
         <v>12</v>
       </c>
       <c r="O142" s="6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="P142" s="6">
         <v>3</v>
@@ -8178,7 +8393,7 @@
         <v>40141</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C143" s="6">
         <v>30051</v>
@@ -8199,13 +8414,13 @@
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
       <c r="M143" s="6" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="N143" s="6">
         <v>18</v>
       </c>
       <c r="O143" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P143" s="6">
         <v>3</v>
@@ -8219,7 +8434,7 @@
         <v>40142</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C144" s="6">
         <v>30052</v>
@@ -8240,13 +8455,13 @@
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
       <c r="M144" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="N144" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="O144" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="P144" s="6">
         <v>1</v>
@@ -8260,7 +8475,7 @@
         <v>40143</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C145" s="6">
         <v>30052</v>
@@ -8281,13 +8496,13 @@
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
       <c r="M145" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="N145" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="O145" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="O145" s="6" t="s">
-        <v>289</v>
       </c>
       <c r="P145" s="6">
         <v>1</v>
@@ -8301,7 +8516,7 @@
         <v>40144</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C146" s="6">
         <v>30052</v>
@@ -8322,13 +8537,13 @@
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
       <c r="M146" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="N146" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="N146" s="6" t="s">
-        <v>290</v>
-      </c>
       <c r="O146" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="P146" s="6">
         <v>1</v>
@@ -8342,7 +8557,7 @@
         <v>40145</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C147" s="6">
         <v>30053</v>
@@ -8363,13 +8578,13 @@
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
       <c r="M147" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N147" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="O147" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P147" s="6">
         <v>2</v>
@@ -8383,7 +8598,7 @@
         <v>40146</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C148" s="6">
         <v>30053</v>
@@ -8404,13 +8619,13 @@
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
       <c r="M148" s="6" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="N148" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="O148" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P148" s="6">
         <v>2</v>
@@ -8424,7 +8639,7 @@
         <v>40147</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C149" s="6">
         <v>30053</v>
@@ -8445,13 +8660,13 @@
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
       <c r="M149" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="N149" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="N149" s="6" t="s">
-        <v>297</v>
-      </c>
       <c r="O149" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P149" s="6">
         <v>2</v>
@@ -8465,7 +8680,7 @@
         <v>40148</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C150" s="6">
         <v>30054</v>
@@ -8483,17 +8698,17 @@
         <v>10</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
       <c r="M150" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N150" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="O150" s="6" t="s">
         <v>32</v>
@@ -8510,7 +8725,7 @@
         <v>40149</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C151" s="6">
         <v>30054</v>
@@ -8528,20 +8743,20 @@
         <v>10</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
       <c r="M151" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="N151" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="O151" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="P151" s="6">
         <v>3</v>
@@ -8555,7 +8770,7 @@
         <v>40150</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C152" s="6">
         <v>30054</v>
@@ -8573,17 +8788,17 @@
         <v>10</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
       <c r="M152" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N152" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="O152" s="6" t="s">
         <v>32</v>
@@ -8600,7 +8815,7 @@
         <v>40151</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C153" s="6">
         <v>30055</v>
@@ -8620,10 +8835,10 @@
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
       <c r="M153" s="6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="N153" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O153" s="6"/>
       <c r="P153" s="6">
@@ -8638,7 +8853,7 @@
         <v>40152</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C154" s="6">
         <v>30055</v>
@@ -8661,10 +8876,10 @@
         <v>10</v>
       </c>
       <c r="N154" s="6" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="O154" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P154" s="6">
         <v>3</v>
@@ -8678,7 +8893,7 @@
         <v>40153</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C155" s="6">
         <v>30056</v>
@@ -8699,13 +8914,13 @@
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
       <c r="M155" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N155" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="O155" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P155" s="6">
         <v>2</v>
@@ -8719,7 +8934,7 @@
         <v>40154</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C156" s="6">
         <v>30056</v>
@@ -8740,13 +8955,13 @@
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
       <c r="M156" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="N156" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="N156" s="8" t="s">
-        <v>317</v>
-      </c>
       <c r="O156" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P156" s="6">
         <v>2</v>
@@ -8760,7 +8975,7 @@
         <v>40155</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C157" s="6">
         <v>30056</v>
@@ -8781,13 +8996,13 @@
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
       <c r="M157" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="N157" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="N157" s="8" t="s">
-        <v>318</v>
-      </c>
       <c r="O157" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P157" s="6">
         <v>2</v>
@@ -8801,7 +9016,7 @@
         <v>40156</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C158" s="6">
         <v>30057</v>
@@ -8821,10 +9036,10 @@
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
       <c r="M158" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N158" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="O158" s="6"/>
       <c r="P158" s="6">
@@ -8839,7 +9054,7 @@
         <v>40157</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C159" s="6">
         <v>30057</v>
@@ -8859,13 +9074,13 @@
       <c r="K159" s="4"/>
       <c r="L159" s="4"/>
       <c r="M159" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N159" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="O159" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P159" s="6">
         <v>3</v>
@@ -8879,7 +9094,7 @@
         <v>40158</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C160" s="6">
         <v>30058</v>
@@ -8899,13 +9114,13 @@
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
       <c r="M160" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="N160" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="N160" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="O160" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P160" s="6">
         <v>3</v>
@@ -8919,7 +9134,7 @@
         <v>40159</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C161" s="6">
         <v>30058</v>
@@ -8939,13 +9154,13 @@
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
       <c r="M161" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N161" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="O161" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P161" s="6">
         <v>3</v>
@@ -8959,7 +9174,7 @@
         <v>40160</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C162" s="6">
         <v>30058</v>
@@ -8979,13 +9194,13 @@
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
       <c r="M162" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N162" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="O162" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P162" s="6">
         <v>3</v>
@@ -8999,7 +9214,7 @@
         <v>40161</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C163" s="6">
         <v>30059</v>
@@ -9019,7 +9234,7 @@
       <c r="K163" s="4"/>
       <c r="L163" s="4"/>
       <c r="M163" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="N163" s="6"/>
       <c r="O163" s="6"/>
@@ -9037,7 +9252,7 @@
         <v>40162</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C164" s="6">
         <v>30059</v>
@@ -9075,7 +9290,7 @@
         <v>40163</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C165" s="6">
         <v>30060</v>
@@ -9095,13 +9310,13 @@
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
       <c r="M165" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N165" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="O165" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="P165" s="6">
         <v>3</v>
@@ -9117,7 +9332,7 @@
         <v>40164</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C166" s="6">
         <v>30060</v>
@@ -9137,13 +9352,13 @@
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
       <c r="M166" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N166" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="O166" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P166" s="6">
         <v>3</v>
@@ -9157,7 +9372,7 @@
         <v>40165</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C167" s="6">
         <v>30061</v>
@@ -9200,7 +9415,7 @@
         <v>40166</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C168" s="6">
         <v>30061</v>
@@ -9243,7 +9458,7 @@
         <v>40167</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C169" s="6">
         <v>30062</v>
@@ -9261,20 +9476,20 @@
         <v>10</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
       <c r="M169" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="N169" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="O169" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="N169" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="O169" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="P169" s="6">
         <v>1</v>
@@ -9288,7 +9503,7 @@
         <v>40168</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C170" s="6">
         <v>30062</v>
@@ -9306,20 +9521,20 @@
         <v>10</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
       <c r="K170" s="6"/>
       <c r="L170" s="6"/>
       <c r="M170" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="N170" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="O170" s="6" t="s">
         <v>341</v>
-      </c>
-      <c r="N170" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="O170" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="P170" s="6">
         <v>1</v>
@@ -9333,7 +9548,7 @@
         <v>40169</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C171" s="6">
         <v>30063</v>
@@ -9351,7 +9566,7 @@
         <v>10</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
@@ -9361,7 +9576,7 @@
         <v>10</v>
       </c>
       <c r="N171" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="O171" s="6"/>
       <c r="P171" s="6">
@@ -9376,7 +9591,7 @@
         <v>40170</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C172" s="6">
         <v>30063</v>
@@ -9394,17 +9609,17 @@
         <v>10</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
       <c r="K172" s="4"/>
       <c r="L172" s="4"/>
       <c r="M172" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="N172" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="O172" s="6"/>
       <c r="P172" s="6">
@@ -9419,7 +9634,7 @@
         <v>40171</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C173" s="6">
         <v>30064</v>
@@ -9440,13 +9655,13 @@
       <c r="K173" s="6"/>
       <c r="L173" s="6"/>
       <c r="M173" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="N173" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="O173" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P173" s="6">
         <v>1</v>
@@ -9462,7 +9677,7 @@
         <v>40172</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C174" s="6">
         <v>30064</v>
@@ -9483,13 +9698,13 @@
       <c r="K174" s="6"/>
       <c r="L174" s="6"/>
       <c r="M174" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="N174" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="O174" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P174" s="6">
         <v>1</v>
@@ -9505,7 +9720,7 @@
         <v>40173</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C175" s="6">
         <v>30065</v>
@@ -9526,13 +9741,13 @@
       <c r="K175" s="6"/>
       <c r="L175" s="6"/>
       <c r="M175" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N175" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="O175" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="P175" s="6">
         <v>1</v>
@@ -9546,7 +9761,7 @@
         <v>40174</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C176" s="6">
         <v>30065</v>
@@ -9567,13 +9782,13 @@
       <c r="K176" s="6"/>
       <c r="L176" s="6"/>
       <c r="M176" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N176" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="O176" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="P176" s="6">
         <v>1</v>
@@ -9587,7 +9802,7 @@
         <v>40175</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C177" s="6">
         <v>30066</v>
@@ -9627,7 +9842,7 @@
         <v>40176</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C178" s="6">
         <v>30066</v>
@@ -9667,7 +9882,7 @@
         <v>40177</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C179" s="6">
         <v>30067</v>
@@ -9688,10 +9903,10 @@
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
       <c r="M179" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N179" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="O179" s="6"/>
       <c r="P179" s="6">
@@ -9707,7 +9922,7 @@
         <v>40178</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C180" s="6">
         <v>30067</v>
@@ -9728,13 +9943,13 @@
       <c r="K180" s="6"/>
       <c r="L180" s="6"/>
       <c r="M180" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N180" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="O180" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P180" s="6">
         <v>2</v>
@@ -9749,7 +9964,7 @@
         <v>40179</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C181" s="6">
         <v>30067</v>
@@ -9770,13 +9985,13 @@
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
       <c r="M181" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N181" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="O181" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P181" s="6">
         <v>2</v>
@@ -9790,7 +10005,7 @@
         <v>40180</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C182" s="6">
         <v>30068</v>
@@ -9811,13 +10026,13 @@
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
       <c r="M182" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N182" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="O182" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P182" s="6">
         <v>2</v>
@@ -9831,7 +10046,7 @@
         <v>40181</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C183" s="6">
         <v>30068</v>
@@ -9852,13 +10067,13 @@
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
       <c r="M183" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N183" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="O183" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P183" s="6">
         <v>2</v>
@@ -9872,7 +10087,7 @@
         <v>40182</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C184" s="6">
         <v>30068</v>
@@ -9893,13 +10108,13 @@
       <c r="K184" s="6"/>
       <c r="L184" s="6"/>
       <c r="M184" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="N184" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O184" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P184" s="6">
         <v>2</v>
@@ -9913,7 +10128,7 @@
         <v>40183</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C185" s="6">
         <v>30069</v>
@@ -9934,10 +10149,10 @@
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
       <c r="M185" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N185" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="O185" s="6"/>
       <c r="P185" s="6">
@@ -9953,7 +10168,7 @@
         <v>40184</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C186" s="6">
         <v>30069</v>
@@ -9974,10 +10189,10 @@
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
       <c r="M186" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N186" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="O186" s="6"/>
       <c r="P186" s="6">
@@ -9993,7 +10208,7 @@
         <v>40185</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C187" s="6">
         <v>30069</v>
@@ -10014,10 +10229,10 @@
       <c r="K187" s="6"/>
       <c r="L187" s="6"/>
       <c r="M187" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="N187" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="N187" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="O187" s="6"/>
       <c r="P187" s="6">
@@ -10033,7 +10248,7 @@
         <v>40186</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C188" s="6">
         <v>30070</v>
@@ -10053,10 +10268,10 @@
       <c r="K188" s="4"/>
       <c r="L188" s="4"/>
       <c r="M188" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N188" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="O188" s="6"/>
       <c r="P188" s="6">
@@ -10072,7 +10287,7 @@
         <v>40187</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C189" s="6">
         <v>30070</v>
@@ -10092,13 +10307,13 @@
       <c r="K189" s="4"/>
       <c r="L189" s="4"/>
       <c r="M189" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N189" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O189" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P189" s="6">
         <v>3</v>
@@ -10113,7 +10328,7 @@
         <v>40188</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C190" s="6">
         <v>30070</v>
@@ -10133,13 +10348,13 @@
       <c r="K190" s="4"/>
       <c r="L190" s="4"/>
       <c r="M190" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N190" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="O190" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P190" s="6">
         <v>3</v>
@@ -10154,7 +10369,7 @@
         <v>40189</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C191" s="6">
         <v>30071</v>
@@ -10172,20 +10387,20 @@
         <v>10</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
       <c r="K191" s="6"/>
       <c r="L191" s="6"/>
       <c r="M191" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="N191" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O191" s="6" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="P191" s="6">
         <v>2</v>
@@ -10199,7 +10414,7 @@
         <v>40190</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C192" s="6">
         <v>30071</v>
@@ -10217,20 +10432,20 @@
         <v>10</v>
       </c>
       <c r="H192" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
       <c r="L192" s="6"/>
       <c r="M192" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="N192" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O192" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="P192" s="6">
         <v>2</v>
@@ -10244,7 +10459,7 @@
         <v>40191</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C193" s="6">
         <v>30071</v>
@@ -10262,20 +10477,20 @@
         <v>10</v>
       </c>
       <c r="H193" s="6" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>
       <c r="L193" s="6"/>
       <c r="M193" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="N193" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="O193" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P193" s="6">
         <v>2</v>
@@ -10289,7 +10504,7 @@
         <v>40192</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C194" s="6">
         <v>30072</v>
@@ -10309,10 +10524,10 @@
       <c r="K194" s="4"/>
       <c r="L194" s="4"/>
       <c r="M194" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N194" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="O194" s="6"/>
       <c r="P194" s="6">
@@ -10327,7 +10542,7 @@
         <v>40193</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C195" s="6">
         <v>30072</v>
@@ -10347,13 +10562,13 @@
       <c r="K195" s="4"/>
       <c r="L195" s="4"/>
       <c r="M195" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N195" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="O195" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P195" s="6">
         <v>3</v>
@@ -10367,7 +10582,7 @@
         <v>40194</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C196" s="6">
         <v>30072</v>
@@ -10387,13 +10602,13 @@
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
       <c r="M196" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N196" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="O196" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P196" s="6">
         <v>3</v>
@@ -10407,7 +10622,7 @@
         <v>40195</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C197" s="6">
         <v>30073</v>
@@ -10427,10 +10642,10 @@
       <c r="K197" s="4"/>
       <c r="L197" s="4"/>
       <c r="M197" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="N197" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="O197" s="6"/>
       <c r="P197" s="6">
@@ -10445,7 +10660,7 @@
         <v>40196</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C198" s="6">
         <v>30073</v>
@@ -10465,10 +10680,10 @@
       <c r="K198" s="4"/>
       <c r="L198" s="4"/>
       <c r="M198" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="N198" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="O198" s="6"/>
       <c r="P198" s="6">
@@ -10482,25 +10697,1108 @@
       <c r="A199" s="6">
         <v>40197</v>
       </c>
-      <c r="B199" s="6"/>
-      <c r="C199" s="6"/>
-      <c r="D199" s="6"/>
-      <c r="E199" s="6"/>
-      <c r="F199" s="6"/>
-      <c r="G199" s="6"/>
+      <c r="B199" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C199" s="6">
+        <v>30074</v>
+      </c>
+      <c r="D199" s="6">
+        <v>1</v>
+      </c>
+      <c r="E199" s="6">
+        <v>0</v>
+      </c>
+      <c r="F199" s="6">
+        <v>1</v>
+      </c>
+      <c r="G199" s="6">
+        <v>10</v>
+      </c>
+      <c r="H199" s="4" t="s">
+        <v>417</v>
+      </c>
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
       <c r="K199" s="4"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="6"/>
-      <c r="N199" s="6"/>
+      <c r="M199" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N199" s="6" t="s">
+        <v>414</v>
+      </c>
       <c r="O199" s="6"/>
-      <c r="P199" s="6"/>
-      <c r="Q199" s="6"/>
+      <c r="P199" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q199" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="200" spans="1:17" ht="15" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>40198</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="C200" s="6">
+        <v>30074</v>
+      </c>
+      <c r="D200" s="6">
+        <v>2</v>
+      </c>
+      <c r="E200" s="6">
+        <v>0</v>
+      </c>
+      <c r="F200" s="6">
+        <v>1</v>
+      </c>
+      <c r="G200" s="6">
+        <v>10</v>
+      </c>
+      <c r="H200" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="I200" s="6"/>
+      <c r="J200" s="6"/>
+      <c r="K200" s="4"/>
+      <c r="L200" s="4"/>
+      <c r="M200" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="N200" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="O200" s="6"/>
+      <c r="P200" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q200" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A201" s="6">
+        <v>40199</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C201" s="6">
+        <v>30074</v>
+      </c>
+      <c r="D201" s="6">
+        <v>3</v>
+      </c>
+      <c r="E201" s="6">
+        <v>0</v>
+      </c>
+      <c r="F201" s="6">
+        <v>1</v>
+      </c>
+      <c r="G201" s="6">
+        <v>10</v>
+      </c>
+      <c r="H201" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="M201" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="N201" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="P201" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q201" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A202" s="6">
+        <v>40200</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C202" s="6">
+        <v>30075</v>
+      </c>
+      <c r="D202" s="6">
+        <v>1</v>
+      </c>
+      <c r="E202" s="6">
+        <v>1</v>
+      </c>
+      <c r="F202" s="6">
+        <v>1</v>
+      </c>
+      <c r="G202" s="6"/>
+      <c r="I202" s="6">
+        <v>9</v>
+      </c>
+      <c r="J202" s="6">
+        <v>1</v>
+      </c>
+      <c r="K202" s="4"/>
+      <c r="L202" s="4"/>
+      <c r="M202" s="6">
+        <v>8</v>
+      </c>
+      <c r="N202" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="O202" s="6"/>
+      <c r="P202" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q202" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A203" s="6">
+        <v>40201</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C203" s="6">
+        <v>30075</v>
+      </c>
+      <c r="D203" s="6">
+        <v>2</v>
+      </c>
+      <c r="E203" s="6">
+        <v>2</v>
+      </c>
+      <c r="F203" s="6">
+        <v>1</v>
+      </c>
+      <c r="G203" s="6"/>
+      <c r="I203" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="J203" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="K203" s="4"/>
+      <c r="L203" s="4"/>
+      <c r="M203" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="N203" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="O203" s="6"/>
+      <c r="P203" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q203" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A204" s="6">
+        <v>40202</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="C204" s="6">
+        <v>30075</v>
+      </c>
+      <c r="D204" s="6">
+        <v>3</v>
+      </c>
+      <c r="E204" s="6">
+        <v>2</v>
+      </c>
+      <c r="F204" s="6">
+        <v>0</v>
+      </c>
+      <c r="G204" s="6"/>
+      <c r="I204" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="J204" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="K204" s="4"/>
+      <c r="L204" s="4"/>
+      <c r="M204" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="N204" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="O204" s="4"/>
+      <c r="P204" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q204" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A205" s="6">
+        <v>40203</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C205" s="6">
+        <v>30076</v>
+      </c>
+      <c r="D205" s="6">
+        <v>1</v>
+      </c>
+      <c r="E205" s="6">
+        <v>2</v>
+      </c>
+      <c r="F205" s="6">
+        <v>2</v>
+      </c>
+      <c r="G205" s="6"/>
+      <c r="I205" s="6">
+        <v>5</v>
+      </c>
+      <c r="J205" s="6"/>
+      <c r="K205" s="4"/>
+      <c r="L205" s="4"/>
+      <c r="M205" s="6">
+        <v>8</v>
+      </c>
+      <c r="N205" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="O205" s="6"/>
+      <c r="P205" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q205" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A206" s="6">
+        <v>40204</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="C206" s="6">
+        <v>30076</v>
+      </c>
+      <c r="D206" s="6">
+        <v>2</v>
+      </c>
+      <c r="E206" s="6">
+        <v>2</v>
+      </c>
+      <c r="F206" s="6">
+        <v>1</v>
+      </c>
+      <c r="G206" s="6"/>
+      <c r="I206" s="6">
+        <v>5</v>
+      </c>
+      <c r="J206" s="6"/>
+      <c r="K206" s="4"/>
+      <c r="L206" s="4"/>
+      <c r="M206" s="6">
+        <v>8</v>
+      </c>
+      <c r="N206" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="O206" s="6"/>
+      <c r="P206" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q206" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A207" s="6">
+        <v>40205</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C207" s="6">
+        <v>30077</v>
+      </c>
+      <c r="D207" s="6">
+        <v>1</v>
+      </c>
+      <c r="E207" s="6">
+        <v>1</v>
+      </c>
+      <c r="F207" s="6">
+        <v>1</v>
+      </c>
+      <c r="G207" s="6"/>
+      <c r="I207" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="J207" s="6"/>
+      <c r="K207" s="4"/>
+      <c r="L207" s="4"/>
+      <c r="M207" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="N207" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="O207" s="6"/>
+      <c r="P207" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q207" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="A208" s="6">
+        <v>40206</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="C208" s="6">
+        <v>30077</v>
+      </c>
+      <c r="D208" s="6">
+        <v>2</v>
+      </c>
+      <c r="E208" s="6">
+        <v>2</v>
+      </c>
+      <c r="F208" s="6">
+        <v>1</v>
+      </c>
+      <c r="G208" s="6"/>
+      <c r="I208" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="J208" s="6"/>
+      <c r="K208" s="4"/>
+      <c r="L208" s="4"/>
+      <c r="M208" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="N208" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="O208" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="P208" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q208" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A209" s="6">
+        <v>40207</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C209" s="6">
+        <v>30078</v>
+      </c>
+      <c r="D209" s="6">
+        <v>1</v>
+      </c>
+      <c r="E209" s="6">
+        <v>1</v>
+      </c>
+      <c r="F209" s="6">
+        <v>1</v>
+      </c>
+      <c r="G209" s="6"/>
+      <c r="I209" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="J209" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="K209" s="4"/>
+      <c r="L209" s="4"/>
+      <c r="M209" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="N209" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="O209" s="6"/>
+      <c r="P209" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q209" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A210" s="6">
+        <v>40208</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C210" s="6">
+        <v>30078</v>
+      </c>
+      <c r="D210" s="6">
+        <v>2</v>
+      </c>
+      <c r="E210" s="6">
+        <v>2</v>
+      </c>
+      <c r="F210" s="6">
+        <v>1</v>
+      </c>
+      <c r="G210" s="6"/>
+      <c r="I210" s="6"/>
+      <c r="J210" s="6"/>
+      <c r="K210" s="4"/>
+      <c r="L210" s="4"/>
+      <c r="M210" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="N210" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="O210" s="6"/>
+      <c r="P210" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q210" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A211" s="6">
+        <v>40209</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C211" s="6">
+        <v>30079</v>
+      </c>
+      <c r="D211" s="6">
+        <v>1</v>
+      </c>
+      <c r="E211" s="6">
+        <v>0</v>
+      </c>
+      <c r="F211" s="6">
+        <v>3</v>
+      </c>
+      <c r="G211" s="6">
+        <v>10</v>
+      </c>
+      <c r="H211" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="I211" s="6"/>
+      <c r="J211" s="6"/>
+      <c r="K211" s="4"/>
+      <c r="L211" s="4"/>
+      <c r="M211" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N211" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="O211" s="6"/>
+      <c r="P211" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q211" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A212" s="6">
+        <v>40210</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C212" s="6">
+        <v>30079</v>
+      </c>
+      <c r="D212" s="6">
+        <v>2</v>
+      </c>
+      <c r="E212" s="6">
+        <v>0</v>
+      </c>
+      <c r="F212" s="6">
+        <v>2</v>
+      </c>
+      <c r="G212" s="6">
+        <v>10</v>
+      </c>
+      <c r="H212" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="I212" s="6"/>
+      <c r="J212" s="6"/>
+      <c r="K212" s="4"/>
+      <c r="L212" s="4"/>
+      <c r="M212" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N212" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="O212" s="6"/>
+      <c r="P212" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q212" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A213" s="6">
+        <v>40211</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="C213" s="6">
+        <v>30079</v>
+      </c>
+      <c r="D213" s="6">
+        <v>3</v>
+      </c>
+      <c r="E213" s="6">
+        <v>0</v>
+      </c>
+      <c r="F213" s="6">
+        <v>2</v>
+      </c>
+      <c r="G213" s="6">
+        <v>10</v>
+      </c>
+      <c r="H213" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="I213" s="4"/>
+      <c r="J213" s="4"/>
+      <c r="K213" s="4"/>
+      <c r="L213" s="4"/>
+      <c r="M213" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="N213" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="O213" s="4"/>
+      <c r="P213" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q213" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A214" s="6">
+        <v>40212</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="C214" s="6">
+        <v>30080</v>
+      </c>
+      <c r="D214" s="6">
+        <v>1</v>
+      </c>
+      <c r="E214" s="6">
+        <v>0</v>
+      </c>
+      <c r="F214" s="6">
+        <v>2</v>
+      </c>
+      <c r="G214" s="6">
+        <v>10</v>
+      </c>
+      <c r="H214" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I214" s="6"/>
+      <c r="J214" s="6"/>
+      <c r="K214" s="4"/>
+      <c r="L214" s="4"/>
+      <c r="M214" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N214" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="O214" s="6"/>
+      <c r="P214" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q214" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A215" s="6">
+        <v>40213</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="C215" s="6">
+        <v>30080</v>
+      </c>
+      <c r="D215" s="6">
+        <v>2</v>
+      </c>
+      <c r="E215" s="6">
+        <v>0</v>
+      </c>
+      <c r="F215" s="6">
+        <v>1</v>
+      </c>
+      <c r="G215" s="6">
+        <v>10</v>
+      </c>
+      <c r="H215" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="I215" s="6"/>
+      <c r="J215" s="6"/>
+      <c r="K215" s="4"/>
+      <c r="L215" s="4"/>
+      <c r="M215" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N215" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="O215" s="6"/>
+      <c r="P215" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q215" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A216" s="6">
+        <v>40214</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C216" s="6">
+        <v>30081</v>
+      </c>
+      <c r="D216" s="6">
+        <v>1</v>
+      </c>
+      <c r="E216" s="6">
+        <v>0</v>
+      </c>
+      <c r="F216" s="6">
+        <v>2</v>
+      </c>
+      <c r="G216" s="6">
+        <v>10</v>
+      </c>
+      <c r="H216" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="I216" s="6"/>
+      <c r="J216" s="6"/>
+      <c r="K216" s="4"/>
+      <c r="L216" s="4"/>
+      <c r="M216" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N216" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="O216" s="6"/>
+      <c r="P216" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q216" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A217" s="6">
+        <v>40215</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="C217" s="6">
+        <v>30081</v>
+      </c>
+      <c r="D217" s="6">
+        <v>2</v>
+      </c>
+      <c r="E217" s="6">
+        <v>0</v>
+      </c>
+      <c r="F217" s="6">
+        <v>2</v>
+      </c>
+      <c r="G217" s="6">
+        <v>10</v>
+      </c>
+      <c r="H217" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="I217" s="6"/>
+      <c r="J217" s="6"/>
+      <c r="K217" s="4"/>
+      <c r="L217" s="4"/>
+      <c r="M217" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="N217" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="O217" s="6"/>
+      <c r="P217" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q217" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A218" s="6">
+        <v>40216</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C218" s="6">
+        <v>30082</v>
+      </c>
+      <c r="D218" s="6">
+        <v>1</v>
+      </c>
+      <c r="E218" s="6">
+        <v>0</v>
+      </c>
+      <c r="F218" s="6">
+        <v>2</v>
+      </c>
+      <c r="G218" s="6">
+        <v>10</v>
+      </c>
+      <c r="H218" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="I218" s="6"/>
+      <c r="J218" s="6"/>
+      <c r="K218" s="4"/>
+      <c r="L218" s="4"/>
+      <c r="M218" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N218" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="O218" s="6"/>
+      <c r="P218" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q218" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A219" s="6">
+        <v>40217</v>
+      </c>
+      <c r="B219" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="C219" s="6">
+        <v>30082</v>
+      </c>
+      <c r="D219" s="6">
+        <v>2</v>
+      </c>
+      <c r="E219" s="6">
+        <v>0</v>
+      </c>
+      <c r="F219" s="6">
+        <v>1</v>
+      </c>
+      <c r="G219" s="6">
+        <v>10</v>
+      </c>
+      <c r="H219" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="I219" s="6"/>
+      <c r="J219" s="6"/>
+      <c r="K219" s="4"/>
+      <c r="L219" s="4"/>
+      <c r="M219" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="N219" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="O219" s="6"/>
+      <c r="P219" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q219" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A220" s="6">
+        <v>40218</v>
+      </c>
+      <c r="B220" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C220" s="6">
+        <v>30083</v>
+      </c>
+      <c r="D220" s="6">
+        <v>1</v>
+      </c>
+      <c r="E220" s="6">
+        <v>2</v>
+      </c>
+      <c r="F220" s="6">
+        <v>2</v>
+      </c>
+      <c r="G220" s="6"/>
+      <c r="H220" s="6"/>
+      <c r="I220" s="6"/>
+      <c r="J220" s="6"/>
+      <c r="K220" s="6"/>
+      <c r="L220" s="6"/>
+      <c r="M220" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="N220" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="O220" s="6"/>
+      <c r="P220" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q220" s="6">
+        <v>1</v>
+      </c>
+      <c r="R220" s="6"/>
+    </row>
+    <row r="221" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A221" s="6">
+        <v>40219</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="C221" s="6">
+        <v>30083</v>
+      </c>
+      <c r="D221" s="6">
+        <v>2</v>
+      </c>
+      <c r="E221" s="6">
+        <v>2</v>
+      </c>
+      <c r="F221" s="6">
+        <v>2</v>
+      </c>
+      <c r="G221" s="6"/>
+      <c r="H221" s="6"/>
+      <c r="I221" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="J221" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="K221" s="6"/>
+      <c r="L221" s="6"/>
+      <c r="M221" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="N221" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="O221" s="6"/>
+      <c r="P221" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q221" s="6">
+        <v>1</v>
+      </c>
+      <c r="R221" s="6"/>
+    </row>
+    <row r="222" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A222" s="6">
+        <v>40220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A223" s="6">
+        <v>40221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+      <c r="A224" s="6">
+        <v>40222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A225" s="6">
+        <v>40223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A226" s="6">
+        <v>40224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A227" s="6">
+        <v>40225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A228" s="6">
+        <v>40226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A229" s="6">
+        <v>40227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A230" s="6">
+        <v>40228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A231" s="6">
+        <v>40229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A232" s="6">
+        <v>40230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A233" s="6">
+        <v>40231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A234" s="6">
+        <v>40232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A235" s="6">
+        <v>40233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A236" s="6">
+        <v>40234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A237" s="6">
+        <v>40235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A238" s="6">
+        <v>40236</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A239" s="6">
+        <v>40237</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A240" s="6">
+        <v>40238</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A241" s="6">
+        <v>40239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A242" s="6">
+        <v>40240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A243" s="6">
+        <v>40241</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A244" s="6">
+        <v>40242</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A245" s="6">
+        <v>40243</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A246" s="6">
+        <v>40244</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A247" s="6">
+        <v>40245</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A248" s="6">
+        <v>40246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A249" s="6">
+        <v>40247</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A250" s="6">
+        <v>40248</v>
       </c>
     </row>
   </sheetData>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="508">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2144,6 +2144,166 @@
   </si>
   <si>
     <t>13|50011,5|50009,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>天剑诀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,47</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|2,1,50019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|2,1,50019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒之体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>五毒之体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1,50057</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,2,50057</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚀心指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚀心指</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,48,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|50011,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|50011,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃木气斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃木气斩</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50010,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50010,7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50010,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛤蟆冲击</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0|3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50011,4|50015,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>13|50011,5|50015,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16|50011,6|50015,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沾衣十八跌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|50034,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50034,5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2513,8 +2673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B198" workbookViewId="0">
-      <selection activeCell="K215" sqref="K215"/>
+    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
+      <selection activeCell="I226" sqref="I226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11660,93 +11820,589 @@
       <c r="A222" s="6">
         <v>40220</v>
       </c>
+      <c r="B222" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C222" s="6">
+        <v>30084</v>
+      </c>
+      <c r="D222" s="6">
+        <v>1</v>
+      </c>
+      <c r="E222" s="6">
+        <v>2</v>
+      </c>
+      <c r="F222" s="6">
+        <v>1</v>
+      </c>
+      <c r="M222" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="N222" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="P222" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q222" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="223" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>40221</v>
       </c>
+      <c r="B223" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C223" s="6">
+        <v>30084</v>
+      </c>
+      <c r="D223" s="6">
+        <v>2</v>
+      </c>
+      <c r="E223" s="6">
+        <v>3</v>
+      </c>
+      <c r="F223" s="6">
+        <v>0</v>
+      </c>
+      <c r="M223" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="N223" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="P223" s="6">
+        <v>2</v>
+      </c>
+      <c r="Q223" s="6">
+        <v>1</v>
+      </c>
     </row>
     <row r="224" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>40222</v>
       </c>
-    </row>
-    <row r="225" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B224" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="C224" s="6">
+        <v>30085</v>
+      </c>
+      <c r="D224" s="6">
+        <v>1</v>
+      </c>
+      <c r="E224" s="6">
+        <v>0</v>
+      </c>
+      <c r="F224" s="6">
+        <v>1</v>
+      </c>
+      <c r="I224" s="4"/>
+      <c r="J224" s="4"/>
+      <c r="K224" s="4"/>
+      <c r="L224" s="4"/>
+      <c r="M224" s="6">
+        <v>47</v>
+      </c>
+      <c r="N224" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="O224" s="4"/>
+      <c r="P224" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q224" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>40223</v>
       </c>
-    </row>
-    <row r="226" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B225" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="C225" s="6">
+        <v>30085</v>
+      </c>
+      <c r="D225" s="6">
+        <v>2</v>
+      </c>
+      <c r="E225" s="6">
+        <v>0</v>
+      </c>
+      <c r="F225" s="6">
+        <v>1</v>
+      </c>
+      <c r="I225" s="4"/>
+      <c r="J225" s="4"/>
+      <c r="K225" s="4"/>
+      <c r="L225" s="4"/>
+      <c r="M225" s="6">
+        <v>47</v>
+      </c>
+      <c r="N225" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="O225" s="4"/>
+      <c r="P225" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q225" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>40224</v>
       </c>
-    </row>
-    <row r="227" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B226" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="C226" s="6">
+        <v>30086</v>
+      </c>
+      <c r="D226" s="6">
+        <v>1</v>
+      </c>
+      <c r="E226" s="6">
+        <v>1</v>
+      </c>
+      <c r="F226" s="6">
+        <v>1</v>
+      </c>
+      <c r="G226" s="6"/>
+      <c r="H226" s="6"/>
+      <c r="I226" s="6"/>
+      <c r="J226" s="6"/>
+      <c r="K226" s="6"/>
+      <c r="L226" s="6"/>
+      <c r="M226" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="N226" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="O226" s="6"/>
+      <c r="P226" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q226" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>40225</v>
       </c>
-    </row>
-    <row r="228" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B227" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="C227" s="6">
+        <v>30086</v>
+      </c>
+      <c r="D227" s="6">
+        <v>2</v>
+      </c>
+      <c r="E227" s="6">
+        <v>2</v>
+      </c>
+      <c r="F227" s="6">
+        <v>1</v>
+      </c>
+      <c r="G227" s="6"/>
+      <c r="H227" s="6"/>
+      <c r="I227" s="6"/>
+      <c r="J227" s="6"/>
+      <c r="K227" s="6"/>
+      <c r="L227" s="6"/>
+      <c r="M227" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="N227" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="O227" s="6"/>
+      <c r="P227" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q227" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>40226</v>
       </c>
-    </row>
-    <row r="229" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B228" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C228" s="6">
+        <v>30087</v>
+      </c>
+      <c r="D228" s="6">
+        <v>1</v>
+      </c>
+      <c r="E228" s="6">
+        <v>3</v>
+      </c>
+      <c r="F228" s="6">
+        <v>3</v>
+      </c>
+      <c r="G228" s="6"/>
+      <c r="H228" s="6"/>
+      <c r="I228" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="J228" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="K228" s="6"/>
+      <c r="L228" s="6"/>
+      <c r="M228" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="N228" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="O228" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="P228" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q228" s="6">
+        <v>3</v>
+      </c>
+      <c r="R228" s="4"/>
+    </row>
+    <row r="229" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>40227</v>
       </c>
-    </row>
-    <row r="230" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B229" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C229" s="6">
+        <v>30087</v>
+      </c>
+      <c r="D229" s="6">
+        <v>2</v>
+      </c>
+      <c r="E229" s="6">
+        <v>3</v>
+      </c>
+      <c r="F229" s="6">
+        <v>3</v>
+      </c>
+      <c r="G229" s="6"/>
+      <c r="H229" s="6"/>
+      <c r="I229" s="6" t="s">
+        <v>491</v>
+      </c>
+      <c r="J229" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="K229" s="6"/>
+      <c r="L229" s="6"/>
+      <c r="M229" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="N229" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="O229" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="P229" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q229" s="6">
+        <v>3</v>
+      </c>
+      <c r="R229" s="4"/>
+    </row>
+    <row r="230" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>40228</v>
       </c>
-    </row>
-    <row r="231" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B230" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="C230" s="6">
+        <v>30087</v>
+      </c>
+      <c r="D230" s="6">
+        <v>3</v>
+      </c>
+      <c r="E230" s="6">
+        <v>3</v>
+      </c>
+      <c r="F230" s="6">
+        <v>3</v>
+      </c>
+      <c r="I230" s="6"/>
+      <c r="J230" s="6"/>
+      <c r="M230" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="N230" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="O230" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="P230" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q230" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>40229</v>
       </c>
-    </row>
-    <row r="232" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B231" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C231" s="6">
+        <v>30088</v>
+      </c>
+      <c r="D231" s="6">
+        <v>1</v>
+      </c>
+      <c r="E231" s="6">
+        <v>3</v>
+      </c>
+      <c r="F231" s="6">
+        <v>2</v>
+      </c>
+      <c r="G231" s="6"/>
+      <c r="H231" s="6"/>
+      <c r="I231" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="J231" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="K231" s="6"/>
+      <c r="L231" s="6"/>
+      <c r="M231" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="N231" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="O231" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="P231" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q231" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>40230</v>
       </c>
-    </row>
-    <row r="233" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B232" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C232" s="6">
+        <v>30088</v>
+      </c>
+      <c r="D232" s="6">
+        <v>2</v>
+      </c>
+      <c r="E232" s="6">
+        <v>3</v>
+      </c>
+      <c r="F232" s="6">
+        <v>2</v>
+      </c>
+      <c r="G232" s="6"/>
+      <c r="H232" s="6"/>
+      <c r="I232" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="J232" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="K232" s="6"/>
+      <c r="L232" s="6"/>
+      <c r="M232" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="N232" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="O232" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="P232" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q232" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>40231</v>
       </c>
-    </row>
-    <row r="234" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B233" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C233" s="6">
+        <v>30088</v>
+      </c>
+      <c r="D233" s="6">
+        <v>3</v>
+      </c>
+      <c r="E233" s="6">
+        <v>3</v>
+      </c>
+      <c r="F233" s="6">
+        <v>2</v>
+      </c>
+      <c r="I233" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="J233" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="K233" s="4"/>
+      <c r="L233" s="4"/>
+      <c r="M233" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="N233" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="O233" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="P233" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q233" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>40232</v>
       </c>
-    </row>
-    <row r="235" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B234" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C234" s="6">
+        <v>30089</v>
+      </c>
+      <c r="D234" s="6">
+        <v>1</v>
+      </c>
+      <c r="E234" s="6">
+        <v>1</v>
+      </c>
+      <c r="F234" s="6">
+        <v>1</v>
+      </c>
+      <c r="G234" s="6"/>
+      <c r="H234" s="6"/>
+      <c r="I234" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="J234" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="K234" s="6"/>
+      <c r="L234" s="6"/>
+      <c r="M234" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="N234" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="O234" s="6"/>
+      <c r="P234" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q234" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="235" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>40233</v>
       </c>
-    </row>
-    <row r="236" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B235" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="C235" s="6">
+        <v>30089</v>
+      </c>
+      <c r="D235" s="6">
+        <v>2</v>
+      </c>
+      <c r="E235" s="6">
+        <v>1</v>
+      </c>
+      <c r="F235" s="6">
+        <v>1</v>
+      </c>
+      <c r="G235" s="6"/>
+      <c r="H235" s="6"/>
+      <c r="I235" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="J235" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="K235" s="6"/>
+      <c r="L235" s="6"/>
+      <c r="M235" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="N235" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="O235" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="P235" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q235" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>40234</v>
       </c>
     </row>
-    <row r="237" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>40235</v>
       </c>
     </row>
-    <row r="238" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>40236</v>
       </c>
     </row>
-    <row r="239" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>40237</v>
       </c>
     </row>
-    <row r="240" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>40238</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -295,7 +295,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="516">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2304,6 +2304,38 @@
   </si>
   <si>
     <t>8|50034,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>峰回路转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出的下%{r2}张牌,会被放置到抽牌堆顶端</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50066,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50066,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳暗花明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>柳暗花明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>52,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2673,8 +2705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="I226" sqref="I226"/>
+    <sheetView tabSelected="1" topLeftCell="A213" workbookViewId="0">
+      <selection activeCell="H236" sqref="H236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12386,20 +12418,163 @@
       <c r="A236" s="6">
         <v>40234</v>
       </c>
+      <c r="B236" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C236" s="6">
+        <v>30090</v>
+      </c>
+      <c r="D236" s="6">
+        <v>1</v>
+      </c>
+      <c r="E236" s="6">
+        <v>0</v>
+      </c>
+      <c r="F236" s="6">
+        <v>1</v>
+      </c>
+      <c r="G236" s="6">
+        <v>10</v>
+      </c>
+      <c r="H236" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="M236" s="6">
+        <v>10</v>
+      </c>
+      <c r="N236" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="P236" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q236" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="237" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>40235</v>
       </c>
+      <c r="B237" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="C237" s="6">
+        <v>30090</v>
+      </c>
+      <c r="D237" s="6">
+        <v>2</v>
+      </c>
+      <c r="E237" s="6">
+        <v>0</v>
+      </c>
+      <c r="F237" s="6">
+        <v>1</v>
+      </c>
+      <c r="G237" s="6">
+        <v>10</v>
+      </c>
+      <c r="H237" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="I237" s="4"/>
+      <c r="J237" s="4"/>
+      <c r="K237" s="4"/>
+      <c r="L237" s="4"/>
+      <c r="M237" s="6">
+        <v>10</v>
+      </c>
+      <c r="N237" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="O237" s="4"/>
+      <c r="P237" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q237" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="238" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>40236</v>
       </c>
+      <c r="B238" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="C238" s="6">
+        <v>30091</v>
+      </c>
+      <c r="D238" s="6">
+        <v>1</v>
+      </c>
+      <c r="E238" s="6">
+        <v>0</v>
+      </c>
+      <c r="F238" s="6">
+        <v>1</v>
+      </c>
+      <c r="G238" s="6"/>
+      <c r="I238" s="4"/>
+      <c r="J238" s="4"/>
+      <c r="K238" s="4">
+        <v>49</v>
+      </c>
+      <c r="L238" s="4">
+        <v>1</v>
+      </c>
+      <c r="M238" s="6">
+        <v>52</v>
+      </c>
+      <c r="N238" s="6"/>
+      <c r="O238" s="4"/>
+      <c r="P238" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q238" s="6">
+        <v>12</v>
+      </c>
     </row>
     <row r="239" spans="1:18" ht="15" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>40237</v>
+      </c>
+      <c r="B239" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C239" s="6">
+        <v>30091</v>
+      </c>
+      <c r="D239" s="6">
+        <v>2</v>
+      </c>
+      <c r="E239" s="6">
+        <v>0</v>
+      </c>
+      <c r="F239" s="6">
+        <v>0</v>
+      </c>
+      <c r="G239" s="6"/>
+      <c r="I239" s="4"/>
+      <c r="J239" s="4"/>
+      <c r="K239" s="4">
+        <v>49</v>
+      </c>
+      <c r="L239" s="4">
+        <v>1</v>
+      </c>
+      <c r="M239" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="N239" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="O239" s="4"/>
+      <c r="P239" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q239" s="6">
+        <v>12</v>
       </c>
     </row>
     <row r="240" spans="1:18" ht="15" x14ac:dyDescent="0.25">

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myProject\LakeHeroPro\LakeHeroConfig\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B59C2B7-D005-483D-8F8F-569A9C046976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Murphy Ma</author>
     <author>Windows 用户</author>
   </authors>
   <commentList>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +58,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +74,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="1" shapeId="0">
+    <comment ref="F2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -99,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -127,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -154,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O2" authorId="1" shapeId="0">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -183,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P2" authorId="0" shapeId="0">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -217,7 +218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q2" authorId="0" shapeId="0">
+    <comment ref="Q2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="1" shapeId="0">
+    <comment ref="S2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -295,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="609">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="666">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2704,13 +2705,240 @@
   </si>
   <si>
     <t>1,1,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰真气</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50058,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50058,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>狮子吼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50002,1|50058,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50002,1|50058,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50002,1|50058,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使全部敌人眩晕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>踏燕惊龙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,28,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50032,2|200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|80</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登萍渡水</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>六气之变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>54,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移星换斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50037,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50037,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50037,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取%{r2}张以自己为目标的牌的复制</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉出昆罡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50045,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50045,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开山裂石掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|50073,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50073,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>风起青萍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下%{r2}张牌作为目标时必定闪避(每使用一张卡牌,失去一层)</t>
+  </si>
+  <si>
+    <t>下%{r2}张牌作为目标时必定闪避(每使用一张卡牌,失去一层)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下%{r2}张牌暴击伤害翻倍(每使用一张卡牌,失去一层)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下%{r2}张牌必定暴击(每使用一张卡牌,失去一层)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50048,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50048,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>截脉九式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50053,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12|50053,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14|50053,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合开始时,真气减少%{r2}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>北斗神功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4|50072,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6|50072,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50072,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下回合开始额外活得%{r2}点&lt;color=#3079b5&gt;真气&lt;/c&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3070,29 +3298,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X290"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G253" workbookViewId="0">
-      <selection activeCell="Q269" sqref="Q269"/>
+    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
+      <selection activeCell="J310" sqref="J310"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="44.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="44.88671875" style="4" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="10" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="19.5" customWidth="1"/>
-    <col min="14" max="14" width="23.5" customWidth="1"/>
-    <col min="16" max="16" width="17.375" customWidth="1"/>
-    <col min="17" max="18" width="16" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" customWidth="1"/>
+    <col min="14" max="14" width="23.44140625" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" customWidth="1"/>
+    <col min="17" max="17" width="16" customWidth="1"/>
+    <col min="18" max="18" width="20.33203125" customWidth="1"/>
     <col min="19" max="19" width="14" customWidth="1"/>
-    <col min="20" max="20" width="14.125" customWidth="1"/>
+    <col min="20" max="20" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3160,7 +3389,7 @@
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
     </row>
-    <row r="2" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3228,7 +3457,7 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>40001</v>
       </c>
@@ -3272,7 +3501,7 @@
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>40002</v>
       </c>
@@ -3316,7 +3545,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>40003</v>
       </c>
@@ -3362,7 +3591,7 @@
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
     </row>
-    <row r="6" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>40004</v>
       </c>
@@ -3406,7 +3635,7 @@
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
     </row>
-    <row r="7" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>40005</v>
       </c>
@@ -3452,7 +3681,7 @@
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
     </row>
-    <row r="8" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>40006</v>
       </c>
@@ -3500,7 +3729,7 @@
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
     </row>
-    <row r="9" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>40007</v>
       </c>
@@ -3536,7 +3765,7 @@
       </c>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>40008</v>
       </c>
@@ -3574,7 +3803,7 @@
       </c>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>40009</v>
       </c>
@@ -3612,7 +3841,7 @@
       </c>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>40010</v>
       </c>
@@ -3651,7 +3880,7 @@
       </c>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>40011</v>
       </c>
@@ -3690,7 +3919,7 @@
       </c>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>40012</v>
       </c>
@@ -3729,7 +3958,7 @@
       </c>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>40013</v>
       </c>
@@ -3768,7 +3997,7 @@
       </c>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:24" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>40014</v>
       </c>
@@ -3803,7 +4032,7 @@
       </c>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>40015</v>
       </c>
@@ -3838,7 +4067,7 @@
       </c>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>40016</v>
       </c>
@@ -3873,7 +4102,7 @@
       </c>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>40017</v>
       </c>
@@ -3908,7 +4137,7 @@
       </c>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>40018</v>
       </c>
@@ -3943,7 +4172,7 @@
       </c>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>40019</v>
       </c>
@@ -3978,7 +4207,7 @@
       </c>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>40020</v>
       </c>
@@ -4014,7 +4243,7 @@
       </c>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>40021</v>
       </c>
@@ -4050,7 +4279,7 @@
       </c>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>40022</v>
       </c>
@@ -4088,7 +4317,7 @@
       </c>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>40023</v>
       </c>
@@ -4124,7 +4353,7 @@
       </c>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>40024</v>
       </c>
@@ -4160,7 +4389,7 @@
       </c>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>40025</v>
       </c>
@@ -4198,7 +4427,7 @@
       </c>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>40026</v>
       </c>
@@ -4238,7 +4467,7 @@
       </c>
       <c r="R28" s="1"/>
     </row>
-    <row r="29" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>40027</v>
       </c>
@@ -4278,7 +4507,7 @@
       </c>
       <c r="R29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>40028</v>
       </c>
@@ -4320,7 +4549,7 @@
       </c>
       <c r="R30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>40029</v>
       </c>
@@ -4356,7 +4585,7 @@
       </c>
       <c r="R31" s="1"/>
     </row>
-    <row r="32" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>40030</v>
       </c>
@@ -4392,7 +4621,7 @@
       </c>
       <c r="R32" s="1"/>
     </row>
-    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>40031</v>
       </c>
@@ -4430,7 +4659,7 @@
       </c>
       <c r="R33" s="1"/>
     </row>
-    <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>40032</v>
       </c>
@@ -4474,7 +4703,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>40033</v>
       </c>
@@ -4518,7 +4747,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>40034</v>
       </c>
@@ -4562,7 +4791,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>40035</v>
       </c>
@@ -4605,7 +4834,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40036</v>
       </c>
@@ -4648,7 +4877,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>40037</v>
       </c>
@@ -4691,7 +4920,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40038</v>
       </c>
@@ -4726,7 +4955,7 @@
       </c>
       <c r="R40" s="1"/>
     </row>
-    <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40039</v>
       </c>
@@ -4761,7 +4990,7 @@
       </c>
       <c r="R41" s="1"/>
     </row>
-    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40040</v>
       </c>
@@ -4796,7 +5025,7 @@
       </c>
       <c r="R42" s="1"/>
     </row>
-    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>40041</v>
       </c>
@@ -4837,7 +5066,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40042</v>
       </c>
@@ -4880,7 +5109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40043</v>
       </c>
@@ -4923,7 +5152,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40044</v>
       </c>
@@ -4957,7 +5186,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40045</v>
       </c>
@@ -4991,7 +5220,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40046</v>
       </c>
@@ -5025,7 +5254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40047</v>
       </c>
@@ -5066,7 +5295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40048</v>
       </c>
@@ -5109,7 +5338,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40049</v>
       </c>
@@ -5152,7 +5381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40050</v>
       </c>
@@ -5187,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40051</v>
       </c>
@@ -5222,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40052</v>
       </c>
@@ -5259,7 +5488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40053</v>
       </c>
@@ -5295,13 +5524,17 @@
         <v>1</v>
       </c>
       <c r="Q55" s="3">
-        <v>1</v>
-      </c>
-      <c r="R55" s="3"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-    </row>
-    <row r="56" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="R55" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40054</v>
       </c>
@@ -5341,11 +5574,15 @@
       <c r="Q56" s="3">
         <v>2</v>
       </c>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="R56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40055</v>
       </c>
@@ -5385,11 +5622,15 @@
       <c r="Q57" s="3">
         <v>2</v>
       </c>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-    </row>
-    <row r="58" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+      <c r="R57" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40056</v>
       </c>
@@ -5429,7 +5670,7 @@
       </c>
       <c r="R58" s="3"/>
     </row>
-    <row r="59" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40057</v>
       </c>
@@ -5471,7 +5712,7 @@
       </c>
       <c r="R59" s="3"/>
     </row>
-    <row r="60" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40058</v>
       </c>
@@ -5513,7 +5754,7 @@
       </c>
       <c r="R60" s="3"/>
     </row>
-    <row r="61" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40059</v>
       </c>
@@ -5552,7 +5793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40060</v>
       </c>
@@ -5593,7 +5834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40061</v>
       </c>
@@ -5634,7 +5875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:20" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40062</v>
       </c>
@@ -5673,7 +5914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40063</v>
       </c>
@@ -5716,7 +5957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40064</v>
       </c>
@@ -5759,7 +6000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40065</v>
       </c>
@@ -5798,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40066</v>
       </c>
@@ -5839,7 +6080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40067</v>
       </c>
@@ -5880,7 +6121,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40068</v>
       </c>
@@ -5919,7 +6160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>40069</v>
       </c>
@@ -5960,7 +6201,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
         <v>40070</v>
       </c>
@@ -6001,7 +6242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
         <v>40071</v>
       </c>
@@ -6040,7 +6281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
         <v>40072</v>
       </c>
@@ -6081,7 +6322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
         <v>40073</v>
       </c>
@@ -6122,7 +6363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
         <v>40074</v>
       </c>
@@ -6169,7 +6410,7 @@
       <c r="T76" s="4"/>
       <c r="U76" s="4"/>
     </row>
-    <row r="77" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
         <v>40075</v>
       </c>
@@ -6216,7 +6457,7 @@
       <c r="T77" s="4"/>
       <c r="U77" s="4"/>
     </row>
-    <row r="78" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
         <v>40076</v>
       </c>
@@ -6263,7 +6504,7 @@
       <c r="T78" s="4"/>
       <c r="U78" s="4"/>
     </row>
-    <row r="79" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
         <v>40077</v>
       </c>
@@ -6302,7 +6543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
         <v>40078</v>
       </c>
@@ -6341,7 +6582,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>40079</v>
       </c>
@@ -6380,7 +6621,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>40080</v>
       </c>
@@ -6425,7 +6666,7 @@
       <c r="R82" s="4"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>40081</v>
       </c>
@@ -6466,7 +6707,7 @@
       <c r="R83" s="4"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>40082</v>
       </c>
@@ -6507,7 +6748,7 @@
       <c r="R84" s="4"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
         <v>40083</v>
       </c>
@@ -6548,7 +6789,7 @@
       <c r="R85" s="6"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="6">
         <v>40084</v>
       </c>
@@ -6591,7 +6832,7 @@
       <c r="R86" s="6"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="6">
         <v>40085</v>
       </c>
@@ -6634,7 +6875,7 @@
       <c r="R87" s="6"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
         <v>40086</v>
       </c>
@@ -6677,7 +6918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
         <v>40087</v>
       </c>
@@ -6722,7 +6963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
         <v>40088</v>
       </c>
@@ -6767,7 +7008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
         <v>40089</v>
       </c>
@@ -6806,7 +7047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
         <v>40090</v>
       </c>
@@ -6847,7 +7088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
         <v>40091</v>
       </c>
@@ -6888,7 +7129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
         <v>40092</v>
       </c>
@@ -6931,7 +7172,7 @@
       <c r="T94" s="4"/>
       <c r="U94" s="6"/>
     </row>
-    <row r="95" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
         <v>40093</v>
       </c>
@@ -6974,7 +7215,7 @@
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
     </row>
-    <row r="96" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
         <v>40094</v>
       </c>
@@ -7017,7 +7258,7 @@
       <c r="T96" s="6"/>
       <c r="U96" s="6"/>
     </row>
-    <row r="97" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
         <v>40095</v>
       </c>
@@ -7060,7 +7301,7 @@
       <c r="T97" s="4"/>
       <c r="U97" s="4"/>
     </row>
-    <row r="98" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
         <v>40096</v>
       </c>
@@ -7103,7 +7344,7 @@
       <c r="T98" s="4"/>
       <c r="U98" s="4"/>
     </row>
-    <row r="99" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
         <v>40097</v>
       </c>
@@ -7146,7 +7387,7 @@
       <c r="T99" s="4"/>
       <c r="U99" s="4"/>
     </row>
-    <row r="100" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="6">
         <v>40098</v>
       </c>
@@ -7181,7 +7422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="6">
         <v>40099</v>
       </c>
@@ -7222,7 +7463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="6">
         <v>40100</v>
       </c>
@@ -7263,7 +7504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="6">
         <v>40101</v>
       </c>
@@ -7306,7 +7547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="6">
         <v>40102</v>
       </c>
@@ -7349,7 +7590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="6">
         <v>40103</v>
       </c>
@@ -7392,7 +7633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="6">
         <v>40104</v>
       </c>
@@ -7437,7 +7678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="6">
         <v>40105</v>
       </c>
@@ -7482,7 +7723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="6">
         <v>40106</v>
       </c>
@@ -7527,7 +7768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="6">
         <v>40107</v>
       </c>
@@ -7562,7 +7803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="6">
         <v>40108</v>
       </c>
@@ -7599,7 +7840,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="111" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="6">
         <v>40109</v>
       </c>
@@ -7636,7 +7877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="6">
         <v>40110</v>
       </c>
@@ -7675,7 +7916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113" s="6">
         <v>40111</v>
       </c>
@@ -7716,7 +7957,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114" s="6">
         <v>40112</v>
       </c>
@@ -7757,7 +7998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115" s="6">
         <v>40113</v>
       </c>
@@ -7796,7 +8037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116" s="6">
         <v>40114</v>
       </c>
@@ -7835,7 +8076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117" s="6">
         <v>40115</v>
       </c>
@@ -7854,8 +8095,8 @@
       <c r="F117" s="6">
         <v>1</v>
       </c>
-      <c r="M117" s="6" t="s">
-        <v>50</v>
+      <c r="M117" s="6">
+        <v>8</v>
       </c>
       <c r="N117" s="4" t="s">
         <v>425</v>
@@ -7867,7 +8108,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118" s="6">
         <v>40116</v>
       </c>
@@ -7905,7 +8146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119" s="6">
         <v>40117</v>
       </c>
@@ -7943,7 +8184,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120" s="6">
         <v>40118</v>
       </c>
@@ -7981,7 +8222,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121" s="6">
         <v>40119</v>
       </c>
@@ -8024,7 +8265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122" s="6">
         <v>40120</v>
       </c>
@@ -8067,7 +8308,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123" s="6">
         <v>40121</v>
       </c>
@@ -8110,7 +8351,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124" s="6">
         <v>40122</v>
       </c>
@@ -8153,7 +8394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125" s="6">
         <v>40123</v>
       </c>
@@ -8196,7 +8437,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126" s="6">
         <v>40124</v>
       </c>
@@ -8239,7 +8480,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127" s="6">
         <v>40125</v>
       </c>
@@ -8282,7 +8523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128" s="6">
         <v>40126</v>
       </c>
@@ -8325,7 +8566,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="129" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" s="6">
         <v>40127</v>
       </c>
@@ -8366,7 +8607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" s="6">
         <v>40128</v>
       </c>
@@ -8407,7 +8648,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" s="6">
         <v>40129</v>
       </c>
@@ -8448,7 +8689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" s="6">
         <v>40130</v>
       </c>
@@ -8488,7 +8729,7 @@
       </c>
       <c r="R132" s="4"/>
     </row>
-    <row r="133" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" s="6">
         <v>40131</v>
       </c>
@@ -8530,7 +8771,7 @@
       </c>
       <c r="R133" s="4"/>
     </row>
-    <row r="134" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" s="6">
         <v>40132</v>
       </c>
@@ -8572,7 +8813,7 @@
       </c>
       <c r="R134" s="4"/>
     </row>
-    <row r="135" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" s="6">
         <v>40133</v>
       </c>
@@ -8611,7 +8852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" s="6">
         <v>40134</v>
       </c>
@@ -8652,7 +8893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" s="6">
         <v>40135</v>
       </c>
@@ -8693,7 +8934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" s="6">
         <v>40136</v>
       </c>
@@ -8732,7 +8973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="139" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" s="6">
         <v>40137</v>
       </c>
@@ -8771,7 +9012,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="140" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A140" s="6">
         <v>40138</v>
       </c>
@@ -8812,7 +9053,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="141" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A141" s="6">
         <v>40139</v>
       </c>
@@ -8851,7 +9092,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="142" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A142" s="6">
         <v>40140</v>
       </c>
@@ -8892,7 +9133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A143" s="6">
         <v>40141</v>
       </c>
@@ -8933,7 +9174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A144" s="6">
         <v>40142</v>
       </c>
@@ -8972,7 +9213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A145" s="6">
         <v>40143</v>
       </c>
@@ -9013,7 +9254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A146" s="6">
         <v>40144</v>
       </c>
@@ -9054,7 +9295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A147" s="6">
         <v>40145</v>
       </c>
@@ -9093,7 +9334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A148" s="6">
         <v>40146</v>
       </c>
@@ -9134,7 +9375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A149" s="6">
         <v>40147</v>
       </c>
@@ -9175,7 +9416,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A150" s="6">
         <v>40148</v>
       </c>
@@ -9218,7 +9459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="151" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A151" s="6">
         <v>40149</v>
       </c>
@@ -9263,7 +9504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A152" s="6">
         <v>40150</v>
       </c>
@@ -9308,7 +9549,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A153" s="6">
         <v>40151</v>
       </c>
@@ -9346,7 +9587,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="154" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A154" s="6">
         <v>40152</v>
       </c>
@@ -9386,7 +9627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="155" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A155" s="6">
         <v>40153</v>
       </c>
@@ -9425,7 +9666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A156" s="6">
         <v>40154</v>
       </c>
@@ -9466,7 +9707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A157" s="6">
         <v>40155</v>
       </c>
@@ -9507,7 +9748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A158" s="6">
         <v>40156</v>
       </c>
@@ -9545,7 +9786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A159" s="6">
         <v>40157</v>
       </c>
@@ -9585,7 +9826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="160" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A160" s="6">
         <v>40158</v>
       </c>
@@ -9623,7 +9864,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="161" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="6">
         <v>40159</v>
       </c>
@@ -9663,7 +9904,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="162" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="6">
         <v>40160</v>
       </c>
@@ -9703,7 +9944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="163" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="6">
         <v>40161</v>
       </c>
@@ -9741,7 +9982,7 @@
       <c r="R163" s="4"/>
       <c r="S163" s="4"/>
     </row>
-    <row r="164" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="6">
         <v>40162</v>
       </c>
@@ -9779,7 +10020,7 @@
       <c r="R164" s="4"/>
       <c r="S164" s="4"/>
     </row>
-    <row r="165" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="6">
         <v>40163</v>
       </c>
@@ -9821,7 +10062,7 @@
       <c r="R165" s="4"/>
       <c r="S165" s="4"/>
     </row>
-    <row r="166" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="6">
         <v>40164</v>
       </c>
@@ -9861,7 +10102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="167" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="6">
         <v>40165</v>
       </c>
@@ -9904,7 +10145,7 @@
       <c r="T167" s="4"/>
       <c r="U167" s="6"/>
     </row>
-    <row r="168" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="6">
         <v>40166</v>
       </c>
@@ -9947,7 +10188,7 @@
       <c r="T168" s="4"/>
       <c r="U168" s="6"/>
     </row>
-    <row r="169" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="6">
         <v>40167</v>
       </c>
@@ -9992,7 +10233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="6">
         <v>40168</v>
       </c>
@@ -10037,7 +10278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="6">
         <v>40169</v>
       </c>
@@ -10080,7 +10321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="6">
         <v>40170</v>
       </c>
@@ -10123,7 +10364,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="173" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="6">
         <v>40171</v>
       </c>
@@ -10166,7 +10407,7 @@
       <c r="R173" s="6"/>
       <c r="S173" s="4"/>
     </row>
-    <row r="174" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="6">
         <v>40172</v>
       </c>
@@ -10209,7 +10450,7 @@
       <c r="R174" s="6"/>
       <c r="S174" s="4"/>
     </row>
-    <row r="175" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="6">
         <v>40173</v>
       </c>
@@ -10250,7 +10491,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="6">
         <v>40174</v>
       </c>
@@ -10291,7 +10532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="177" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A177" s="6">
         <v>40175</v>
       </c>
@@ -10331,7 +10572,7 @@
       </c>
       <c r="R177" s="4"/>
     </row>
-    <row r="178" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A178" s="6">
         <v>40176</v>
       </c>
@@ -10371,7 +10612,7 @@
       </c>
       <c r="R178" s="4"/>
     </row>
-    <row r="179" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A179" s="6">
         <v>40177</v>
       </c>
@@ -10411,7 +10652,7 @@
       </c>
       <c r="R179" s="4"/>
     </row>
-    <row r="180" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A180" s="6">
         <v>40178</v>
       </c>
@@ -10453,7 +10694,7 @@
       </c>
       <c r="R180" s="4"/>
     </row>
-    <row r="181" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A181" s="6">
         <v>40179</v>
       </c>
@@ -10494,7 +10735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A182" s="6">
         <v>40180</v>
       </c>
@@ -10533,7 +10774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A183" s="6">
         <v>40181</v>
       </c>
@@ -10574,7 +10815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A184" s="6">
         <v>40182</v>
       </c>
@@ -10615,7 +10856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A185" s="6">
         <v>40183</v>
       </c>
@@ -10655,7 +10896,7 @@
       </c>
       <c r="R185" s="4"/>
     </row>
-    <row r="186" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A186" s="6">
         <v>40184</v>
       </c>
@@ -10695,7 +10936,7 @@
       </c>
       <c r="R186" s="4"/>
     </row>
-    <row r="187" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A187" s="6">
         <v>40185</v>
       </c>
@@ -10735,7 +10976,7 @@
       </c>
       <c r="R187" s="4"/>
     </row>
-    <row r="188" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A188" s="6">
         <v>40186</v>
       </c>
@@ -10774,7 +11015,7 @@
       </c>
       <c r="R188" s="4"/>
     </row>
-    <row r="189" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A189" s="6">
         <v>40187</v>
       </c>
@@ -10815,7 +11056,7 @@
       </c>
       <c r="R189" s="4"/>
     </row>
-    <row r="190" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A190" s="6">
         <v>40188</v>
       </c>
@@ -10856,7 +11097,7 @@
       </c>
       <c r="R190" s="4"/>
     </row>
-    <row r="191" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A191" s="6">
         <v>40189</v>
       </c>
@@ -10901,7 +11142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A192" s="6">
         <v>40190</v>
       </c>
@@ -10946,7 +11187,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A193" s="6">
         <v>40191</v>
       </c>
@@ -10991,7 +11232,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A194" s="6">
         <v>40192</v>
       </c>
@@ -11029,7 +11270,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="195" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A195" s="6">
         <v>40193</v>
       </c>
@@ -11069,7 +11310,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="196" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A196" s="6">
         <v>40194</v>
       </c>
@@ -11109,7 +11350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A197" s="6">
         <v>40195</v>
       </c>
@@ -11147,7 +11388,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A198" s="6">
         <v>40196</v>
       </c>
@@ -11185,7 +11426,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A199" s="6">
         <v>40197</v>
       </c>
@@ -11228,7 +11469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="200" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A200" s="6">
         <v>40198</v>
       </c>
@@ -11271,7 +11512,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="201" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A201" s="6">
         <v>40199</v>
       </c>
@@ -11309,7 +11550,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="202" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A202" s="6">
         <v>40200</v>
       </c>
@@ -11351,7 +11592,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="203" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A203" s="6">
         <v>40201</v>
       </c>
@@ -11393,7 +11634,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="204" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A204" s="6">
         <v>40202</v>
       </c>
@@ -11435,7 +11676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="205" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A205" s="6">
         <v>40203</v>
       </c>
@@ -11475,7 +11716,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="206" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A206" s="6">
         <v>40204</v>
       </c>
@@ -11515,7 +11756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="207" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A207" s="6">
         <v>40205</v>
       </c>
@@ -11555,7 +11796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A208" s="6">
         <v>40206</v>
       </c>
@@ -11597,7 +11838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A209" s="6">
         <v>40207</v>
       </c>
@@ -11639,7 +11880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A210" s="6">
         <v>40208</v>
       </c>
@@ -11677,7 +11918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A211" s="6">
         <v>40209</v>
       </c>
@@ -11720,7 +11961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="212" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A212" s="6">
         <v>40210</v>
       </c>
@@ -11763,7 +12004,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A213" s="6">
         <v>40211</v>
       </c>
@@ -11806,7 +12047,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A214" s="6">
         <v>40212</v>
       </c>
@@ -11849,7 +12090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A215" s="6">
         <v>40213</v>
       </c>
@@ -11892,7 +12133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="216" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A216" s="6">
         <v>40214</v>
       </c>
@@ -11935,7 +12176,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="217" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A217" s="6">
         <v>40215</v>
       </c>
@@ -11978,7 +12219,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="218" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A218" s="6">
         <v>40216</v>
       </c>
@@ -12021,7 +12262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="219" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A219" s="6">
         <v>40217</v>
       </c>
@@ -12064,7 +12305,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="220" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A220" s="6">
         <v>40218</v>
       </c>
@@ -12104,7 +12345,7 @@
       </c>
       <c r="R220" s="6"/>
     </row>
-    <row r="221" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A221" s="6">
         <v>40219</v>
       </c>
@@ -12148,7 +12389,7 @@
       </c>
       <c r="R221" s="6"/>
     </row>
-    <row r="222" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A222" s="6">
         <v>40220</v>
       </c>
@@ -12180,7 +12421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A223" s="6">
         <v>40221</v>
       </c>
@@ -12212,7 +12453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A224" s="6">
         <v>40222</v>
       </c>
@@ -12249,7 +12490,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="225" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A225" s="6">
         <v>40223</v>
       </c>
@@ -12286,7 +12527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="226" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A226" s="6">
         <v>40224</v>
       </c>
@@ -12325,7 +12566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A227" s="6">
         <v>40225</v>
       </c>
@@ -12364,7 +12605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A228" s="6">
         <v>40226</v>
       </c>
@@ -12408,7 +12649,7 @@
       </c>
       <c r="R228" s="4"/>
     </row>
-    <row r="229" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A229" s="6">
         <v>40227</v>
       </c>
@@ -12454,7 +12695,7 @@
       </c>
       <c r="R229" s="4"/>
     </row>
-    <row r="230" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A230" s="6">
         <v>40228</v>
       </c>
@@ -12491,7 +12732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="231" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A231" s="6">
         <v>40229</v>
       </c>
@@ -12534,7 +12775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A232" s="6">
         <v>40230</v>
       </c>
@@ -12579,7 +12820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A233" s="6">
         <v>40231</v>
       </c>
@@ -12622,7 +12863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A234" s="6">
         <v>40232</v>
       </c>
@@ -12665,7 +12906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A235" s="6">
         <v>40233</v>
       </c>
@@ -12710,7 +12951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A236" s="6">
         <v>40234</v>
       </c>
@@ -12748,7 +12989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="237" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A237" s="6">
         <v>40235</v>
       </c>
@@ -12791,7 +13032,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="238" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A238" s="6">
         <v>40236</v>
       </c>
@@ -12831,7 +13072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="239" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A239" s="6">
         <v>40237</v>
       </c>
@@ -12873,7 +13114,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="240" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A240" s="6">
         <v>40238</v>
       </c>
@@ -12913,7 +13154,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="241" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" s="6">
         <v>40239</v>
       </c>
@@ -12955,7 +13196,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="242" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" s="6">
         <v>40240</v>
       </c>
@@ -12997,7 +13238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="243" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243" s="6">
         <v>40241</v>
       </c>
@@ -13037,7 +13278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244" s="6">
         <v>40242</v>
       </c>
@@ -13079,7 +13320,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="245" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" s="6">
         <v>40243</v>
       </c>
@@ -13114,7 +13355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" s="6">
         <v>40244</v>
       </c>
@@ -13153,7 +13394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" s="6">
         <v>40245</v>
       </c>
@@ -13189,7 +13430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="248" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" s="6">
         <v>40246</v>
       </c>
@@ -13225,7 +13466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="249" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="6">
         <v>40247</v>
       </c>
@@ -13270,7 +13511,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="250" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" s="6">
         <v>40248</v>
       </c>
@@ -13315,7 +13556,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="251" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" s="6">
         <v>40249</v>
       </c>
@@ -13356,7 +13597,7 @@
       <c r="T251" s="4"/>
       <c r="U251" s="4"/>
     </row>
-    <row r="252" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" s="6">
         <v>40250</v>
       </c>
@@ -13395,7 +13636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" s="6">
         <v>40251</v>
       </c>
@@ -13438,7 +13679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="254" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="6">
         <v>40252</v>
       </c>
@@ -13481,7 +13722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="255" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" s="6">
         <v>40253</v>
       </c>
@@ -13519,7 +13760,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="256" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256" s="6">
         <v>40254</v>
       </c>
@@ -13559,7 +13800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="257" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A257" s="6">
         <v>40255</v>
       </c>
@@ -13599,7 +13840,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="258" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A258" s="6">
         <v>40256</v>
       </c>
@@ -13636,7 +13877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A259" s="6">
         <v>40257</v>
       </c>
@@ -13675,7 +13916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A260" s="6">
         <v>40258</v>
       </c>
@@ -13712,7 +13953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A261" s="6">
         <v>40259</v>
       </c>
@@ -13749,7 +13990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A262" s="6">
         <v>40260</v>
       </c>
@@ -13786,7 +14027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A263" s="6">
         <v>40261</v>
       </c>
@@ -13825,7 +14066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A264" s="6">
         <v>40262</v>
       </c>
@@ -13862,7 +14103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A265" s="6">
         <v>40263</v>
       </c>
@@ -13901,7 +14142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A266" s="6">
         <v>40264</v>
       </c>
@@ -13944,7 +14185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A267" s="6">
         <v>40265</v>
       </c>
@@ -13987,7 +14228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A268" s="6">
         <v>40266</v>
       </c>
@@ -14030,7 +14271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A269" s="6">
         <v>40267</v>
       </c>
@@ -14075,7 +14316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A270" s="6">
         <v>40268</v>
       </c>
@@ -14119,7 +14360,7 @@
       </c>
       <c r="R270" s="4"/>
     </row>
-    <row r="271" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A271" s="6">
         <v>40269</v>
       </c>
@@ -14163,7 +14404,7 @@
       </c>
       <c r="R271" s="4"/>
     </row>
-    <row r="272" spans="1:18" ht="15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A272" s="6">
         <v>40270</v>
       </c>
@@ -14207,7 +14448,7 @@
       </c>
       <c r="R272" s="4"/>
     </row>
-    <row r="273" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A273" s="6">
         <v>40271</v>
       </c>
@@ -14245,7 +14486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="274" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A274" s="6">
         <v>40272</v>
       </c>
@@ -14285,7 +14526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A275" s="6">
         <v>40273</v>
       </c>
@@ -14325,7 +14566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="276" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A276" s="6">
         <v>40274</v>
       </c>
@@ -14363,7 +14604,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="277" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A277" s="6">
         <v>40275</v>
       </c>
@@ -14401,7 +14642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="278" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A278" s="6">
         <v>40276</v>
       </c>
@@ -14439,7 +14680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="279" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A279" s="6">
         <v>40277</v>
       </c>
@@ -14477,7 +14718,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="280" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A280" s="6">
         <v>40278</v>
       </c>
@@ -14515,7 +14756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="281" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A281" s="6">
         <v>40279</v>
       </c>
@@ -14553,7 +14794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="282" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A282" s="6">
         <v>40280</v>
       </c>
@@ -14593,7 +14834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A283" s="6">
         <v>40281</v>
       </c>
@@ -14633,7 +14874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A284" s="6">
         <v>40282</v>
       </c>
@@ -14673,34 +14914,1400 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A285" s="6">
         <v>40283</v>
       </c>
-    </row>
-    <row r="286" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="B285" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="C285" s="6">
+        <v>30112</v>
+      </c>
+      <c r="D285" s="6">
+        <v>1</v>
+      </c>
+      <c r="E285" s="6">
+        <v>2</v>
+      </c>
+      <c r="F285" s="6">
+        <v>1</v>
+      </c>
+      <c r="G285" s="6"/>
+      <c r="I285" s="6">
+        <v>1</v>
+      </c>
+      <c r="J285" s="6">
+        <v>50009</v>
+      </c>
+      <c r="K285" s="4"/>
+      <c r="L285" s="4"/>
+      <c r="M285" s="6">
+        <v>8</v>
+      </c>
+      <c r="N285" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="O285" s="6"/>
+      <c r="P285" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q285" s="6">
+        <v>1</v>
+      </c>
+      <c r="R285" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S285" s="4"/>
+      <c r="T285" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A286" s="6">
         <v>40284</v>
       </c>
-    </row>
-    <row r="287" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="B286" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="C286" s="6">
+        <v>30112</v>
+      </c>
+      <c r="D286" s="6">
+        <v>2</v>
+      </c>
+      <c r="E286" s="6">
+        <v>2</v>
+      </c>
+      <c r="F286" s="6">
+        <v>1</v>
+      </c>
+      <c r="G286" s="6"/>
+      <c r="I286" s="6">
+        <v>1</v>
+      </c>
+      <c r="J286" s="6">
+        <v>50009</v>
+      </c>
+      <c r="K286" s="4"/>
+      <c r="L286" s="4"/>
+      <c r="M286" s="6">
+        <v>8</v>
+      </c>
+      <c r="N286" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="O286" s="6"/>
+      <c r="P286" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q286" s="6">
+        <v>2</v>
+      </c>
+      <c r="R286" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S286" s="4"/>
+      <c r="T286" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A287" s="6">
         <v>40285</v>
       </c>
-    </row>
-    <row r="288" spans="1:17" ht="15" x14ac:dyDescent="0.25">
+      <c r="B287" s="6" t="s">
+        <v>609</v>
+      </c>
+      <c r="C287" s="6">
+        <v>30112</v>
+      </c>
+      <c r="D287" s="6">
+        <v>3</v>
+      </c>
+      <c r="E287" s="6">
+        <v>3</v>
+      </c>
+      <c r="F287" s="6">
+        <v>1</v>
+      </c>
+      <c r="G287" s="6"/>
+      <c r="I287" s="6">
+        <v>1</v>
+      </c>
+      <c r="J287" s="6">
+        <v>50009</v>
+      </c>
+      <c r="K287" s="4"/>
+      <c r="L287" s="4"/>
+      <c r="M287" s="6">
+        <v>8</v>
+      </c>
+      <c r="N287" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="O287" s="6"/>
+      <c r="P287" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q287" s="6">
+        <v>3</v>
+      </c>
+      <c r="R287" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="S287" s="4"/>
+      <c r="T287" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A288" s="6">
         <v>40286</v>
       </c>
-    </row>
-    <row r="289" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B288" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C288" s="6">
+        <v>30113</v>
+      </c>
+      <c r="D288" s="6">
+        <v>1</v>
+      </c>
+      <c r="E288" s="6">
+        <v>3</v>
+      </c>
+      <c r="F288" s="6">
+        <v>3</v>
+      </c>
+      <c r="G288" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="H288" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="I288" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="J288" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="K288" s="4"/>
+      <c r="L288" s="4"/>
+      <c r="M288" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="N288" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="O288" s="6"/>
+      <c r="P288" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q288" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A289" s="6">
         <v>40287</v>
       </c>
-    </row>
-    <row r="290" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B289" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C289" s="6">
+        <v>30113</v>
+      </c>
+      <c r="D289" s="6">
+        <v>2</v>
+      </c>
+      <c r="E289" s="6">
+        <v>3</v>
+      </c>
+      <c r="F289" s="6">
+        <v>3</v>
+      </c>
+      <c r="G289" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="H289" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="I289" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="J289" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="K289" s="4"/>
+      <c r="L289" s="4"/>
+      <c r="M289" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="N289" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="O289" s="6"/>
+      <c r="P289" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q289" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A290" s="6">
         <v>40288</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="C290" s="6">
+        <v>30113</v>
+      </c>
+      <c r="D290" s="6">
+        <v>3</v>
+      </c>
+      <c r="E290" s="6">
+        <v>3</v>
+      </c>
+      <c r="F290" s="6">
+        <v>2</v>
+      </c>
+      <c r="G290" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="H290" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="I290" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="J290" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="K290" s="4"/>
+      <c r="L290" s="4"/>
+      <c r="M290" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="N290" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="O290" s="6"/>
+      <c r="P290" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q290" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A291" s="6">
+        <v>40289</v>
+      </c>
+      <c r="B291" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="C291" s="6">
+        <v>30114</v>
+      </c>
+      <c r="D291" s="6">
+        <v>1</v>
+      </c>
+      <c r="E291" s="6">
+        <v>0</v>
+      </c>
+      <c r="F291" s="6">
+        <v>2</v>
+      </c>
+      <c r="G291" s="6"/>
+      <c r="I291" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="J291" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="K291" s="4"/>
+      <c r="L291" s="4"/>
+      <c r="M291" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="N291" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="O291" s="4"/>
+      <c r="P291" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q291" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A292" s="6">
+        <v>40290</v>
+      </c>
+      <c r="B292" s="6" t="s">
+        <v>623</v>
+      </c>
+      <c r="C292" s="6">
+        <v>30114</v>
+      </c>
+      <c r="D292" s="6">
+        <v>2</v>
+      </c>
+      <c r="E292" s="6">
+        <v>0</v>
+      </c>
+      <c r="F292" s="6">
+        <v>1</v>
+      </c>
+      <c r="G292" s="6"/>
+      <c r="I292" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="J292" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="K292" s="4"/>
+      <c r="L292" s="4"/>
+      <c r="M292" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="N292" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="O292" s="4"/>
+      <c r="P292" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q292" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A293" s="6">
+        <v>40291</v>
+      </c>
+      <c r="B293" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C293" s="6">
+        <v>30115</v>
+      </c>
+      <c r="D293" s="6">
+        <v>1</v>
+      </c>
+      <c r="E293" s="6">
+        <v>0</v>
+      </c>
+      <c r="F293" s="6">
+        <v>1</v>
+      </c>
+      <c r="G293" s="6"/>
+      <c r="I293" s="6"/>
+      <c r="J293" s="6"/>
+      <c r="K293" s="4"/>
+      <c r="L293" s="4"/>
+      <c r="M293" s="6">
+        <v>28</v>
+      </c>
+      <c r="N293" s="6">
+        <v>200</v>
+      </c>
+      <c r="O293" s="4"/>
+      <c r="P293" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q293" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A294" s="6">
+        <v>40292</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="C294" s="6">
+        <v>30115</v>
+      </c>
+      <c r="D294" s="6">
+        <v>2</v>
+      </c>
+      <c r="E294" s="6">
+        <v>0</v>
+      </c>
+      <c r="F294" s="6">
+        <v>1</v>
+      </c>
+      <c r="G294" s="6"/>
+      <c r="I294" s="6"/>
+      <c r="J294" s="6"/>
+      <c r="K294" s="4"/>
+      <c r="L294" s="4"/>
+      <c r="M294" s="6">
+        <v>28</v>
+      </c>
+      <c r="N294" s="6">
+        <v>300</v>
+      </c>
+      <c r="O294" s="4"/>
+      <c r="P294" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q294" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A295" s="6">
+        <v>40293</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C295" s="6">
+        <v>30116</v>
+      </c>
+      <c r="D295" s="6">
+        <v>1</v>
+      </c>
+      <c r="E295" s="6">
+        <v>6</v>
+      </c>
+      <c r="F295" s="6">
+        <v>3</v>
+      </c>
+      <c r="I295" s="6">
+        <v>16</v>
+      </c>
+      <c r="M295" s="6">
+        <v>54</v>
+      </c>
+      <c r="N295" s="6">
+        <v>6</v>
+      </c>
+      <c r="O295" t="s">
+        <v>630</v>
+      </c>
+      <c r="P295" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q295" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A296" s="6">
+        <v>40294</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C296" s="6">
+        <v>30116</v>
+      </c>
+      <c r="D296" s="6">
+        <v>2</v>
+      </c>
+      <c r="E296" s="6">
+        <v>6</v>
+      </c>
+      <c r="F296" s="6">
+        <v>3</v>
+      </c>
+      <c r="I296" s="6">
+        <v>16</v>
+      </c>
+      <c r="M296" s="6">
+        <v>54</v>
+      </c>
+      <c r="N296" s="6">
+        <v>6</v>
+      </c>
+      <c r="O296" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="P296" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q296" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A297" s="6">
+        <v>40295</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C297" s="6">
+        <v>30116</v>
+      </c>
+      <c r="D297" s="6">
+        <v>3</v>
+      </c>
+      <c r="E297" s="6">
+        <v>6</v>
+      </c>
+      <c r="F297" s="6">
+        <v>2</v>
+      </c>
+      <c r="I297" s="6">
+        <v>16</v>
+      </c>
+      <c r="M297" s="6">
+        <v>54</v>
+      </c>
+      <c r="N297" s="6">
+        <v>6</v>
+      </c>
+      <c r="O297" s="4" t="s">
+        <v>630</v>
+      </c>
+      <c r="P297" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q297" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A298" s="6">
+        <v>40296</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C298" s="6">
+        <v>30117</v>
+      </c>
+      <c r="D298" s="6">
+        <v>1</v>
+      </c>
+      <c r="E298" s="6">
+        <v>0</v>
+      </c>
+      <c r="F298" s="6">
+        <v>2</v>
+      </c>
+      <c r="G298" s="6">
+        <v>10</v>
+      </c>
+      <c r="H298" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="M298" s="6">
+        <v>10</v>
+      </c>
+      <c r="N298" t="s">
+        <v>632</v>
+      </c>
+      <c r="P298" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q298" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="299" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A299" s="6">
+        <v>40297</v>
+      </c>
+      <c r="B299" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C299" s="6">
+        <v>30117</v>
+      </c>
+      <c r="D299" s="6">
+        <v>2</v>
+      </c>
+      <c r="E299" s="6">
+        <v>0</v>
+      </c>
+      <c r="F299" s="6">
+        <v>1</v>
+      </c>
+      <c r="G299" s="6">
+        <v>10</v>
+      </c>
+      <c r="H299" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="M299" s="6">
+        <v>10</v>
+      </c>
+      <c r="N299" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="P299" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q299" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="300" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A300" s="6">
+        <v>40298</v>
+      </c>
+      <c r="B300" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="C300" s="6">
+        <v>30117</v>
+      </c>
+      <c r="D300" s="6">
+        <v>3</v>
+      </c>
+      <c r="E300" s="6">
+        <v>0</v>
+      </c>
+      <c r="F300" s="6">
+        <v>0</v>
+      </c>
+      <c r="G300" s="6">
+        <v>10</v>
+      </c>
+      <c r="H300" s="4" t="s">
+        <v>635</v>
+      </c>
+      <c r="M300" s="6">
+        <v>10</v>
+      </c>
+      <c r="N300" s="4" t="s">
+        <v>634</v>
+      </c>
+      <c r="P300" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q300" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="301" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A301" s="6">
+        <v>40299</v>
+      </c>
+      <c r="B301" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="C301" s="6">
+        <v>30118</v>
+      </c>
+      <c r="D301" s="6">
+        <v>1</v>
+      </c>
+      <c r="E301" s="6">
+        <v>0</v>
+      </c>
+      <c r="F301" s="6">
+        <v>2</v>
+      </c>
+      <c r="G301" s="6">
+        <v>10</v>
+      </c>
+      <c r="H301" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="I301" s="4"/>
+      <c r="J301" s="4"/>
+      <c r="K301" s="4"/>
+      <c r="L301" s="4"/>
+      <c r="M301" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="N301" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="O301" s="4"/>
+      <c r="P301" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q301" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="302" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A302" s="6">
+        <v>40300</v>
+      </c>
+      <c r="B302" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="C302" s="6">
+        <v>30118</v>
+      </c>
+      <c r="D302" s="6">
+        <v>2</v>
+      </c>
+      <c r="E302" s="6">
+        <v>0</v>
+      </c>
+      <c r="F302" s="6">
+        <v>1</v>
+      </c>
+      <c r="G302" s="6">
+        <v>10</v>
+      </c>
+      <c r="H302" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="I302" s="4"/>
+      <c r="J302" s="4"/>
+      <c r="K302" s="4"/>
+      <c r="L302" s="4"/>
+      <c r="M302" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="N302" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="O302" s="4"/>
+      <c r="P302" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q302" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="303" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A303" s="6">
+        <v>40301</v>
+      </c>
+      <c r="B303" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C303" s="6">
+        <v>30119</v>
+      </c>
+      <c r="D303" s="6">
+        <v>1</v>
+      </c>
+      <c r="E303" s="6">
+        <v>1</v>
+      </c>
+      <c r="F303" s="6">
+        <v>1</v>
+      </c>
+      <c r="G303" s="6">
+        <v>10</v>
+      </c>
+      <c r="H303" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="I303" s="4"/>
+      <c r="J303" s="4"/>
+      <c r="K303" s="4"/>
+      <c r="L303" s="4"/>
+      <c r="M303" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="N303" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="O303" s="4"/>
+      <c r="P303" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q303" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A304" s="6">
+        <v>40302</v>
+      </c>
+      <c r="B304" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C304" s="6">
+        <v>30119</v>
+      </c>
+      <c r="D304" s="6">
+        <v>2</v>
+      </c>
+      <c r="E304" s="6">
+        <v>2</v>
+      </c>
+      <c r="F304" s="6">
+        <v>1</v>
+      </c>
+      <c r="G304" s="6">
+        <v>10</v>
+      </c>
+      <c r="H304" s="4" t="s">
+        <v>647</v>
+      </c>
+      <c r="I304" s="4"/>
+      <c r="J304" s="4"/>
+      <c r="K304" s="4"/>
+      <c r="L304" s="4"/>
+      <c r="M304" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="N304" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="O304" s="4"/>
+      <c r="P304" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q304" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="305" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A305" s="6">
+        <v>40303</v>
+      </c>
+      <c r="B305" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C305" s="6">
+        <v>30120</v>
+      </c>
+      <c r="D305" s="6">
+        <v>1</v>
+      </c>
+      <c r="E305" s="6">
+        <v>0</v>
+      </c>
+      <c r="F305" s="6">
+        <v>2</v>
+      </c>
+      <c r="G305" s="6">
+        <v>10</v>
+      </c>
+      <c r="H305" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="I305" s="4"/>
+      <c r="J305" s="4"/>
+      <c r="K305" s="4"/>
+      <c r="L305" s="4"/>
+      <c r="M305" s="6">
+        <v>10</v>
+      </c>
+      <c r="N305" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="O305" s="4"/>
+      <c r="P305" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q305" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="306" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A306" s="6">
+        <v>40304</v>
+      </c>
+      <c r="B306" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C306" s="6">
+        <v>30120</v>
+      </c>
+      <c r="D306" s="6">
+        <v>2</v>
+      </c>
+      <c r="E306" s="6">
+        <v>0</v>
+      </c>
+      <c r="F306" s="6">
+        <v>2</v>
+      </c>
+      <c r="G306" s="6">
+        <v>10</v>
+      </c>
+      <c r="H306" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="I306" s="4"/>
+      <c r="J306" s="4"/>
+      <c r="K306" s="4"/>
+      <c r="L306" s="4"/>
+      <c r="M306" s="6">
+        <v>10</v>
+      </c>
+      <c r="N306" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="O306" s="4"/>
+      <c r="P306" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q306" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="307" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A307" s="6">
+        <v>40305</v>
+      </c>
+      <c r="B307" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C307" s="6">
+        <v>30121</v>
+      </c>
+      <c r="D307" s="6">
+        <v>1</v>
+      </c>
+      <c r="E307" s="6">
+        <v>1</v>
+      </c>
+      <c r="F307" s="6">
+        <v>2</v>
+      </c>
+      <c r="G307" s="6">
+        <v>8</v>
+      </c>
+      <c r="H307" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="I307" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="J307" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="K307" s="4"/>
+      <c r="L307" s="4"/>
+      <c r="M307" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N307" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="P307" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q307" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="308" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A308" s="6">
+        <v>40306</v>
+      </c>
+      <c r="B308" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C308" s="6">
+        <v>30121</v>
+      </c>
+      <c r="D308" s="6">
+        <v>2</v>
+      </c>
+      <c r="E308" s="6">
+        <v>2</v>
+      </c>
+      <c r="F308" s="6">
+        <v>2</v>
+      </c>
+      <c r="G308" s="6">
+        <v>8</v>
+      </c>
+      <c r="H308" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="I308" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="J308" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="M308" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N308" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="P308" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q308" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A309" s="6">
+        <v>40307</v>
+      </c>
+      <c r="B309" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="C309" s="6">
+        <v>30121</v>
+      </c>
+      <c r="D309" s="6">
+        <v>3</v>
+      </c>
+      <c r="E309" s="6">
+        <v>3</v>
+      </c>
+      <c r="F309" s="6">
+        <v>1</v>
+      </c>
+      <c r="G309" s="6">
+        <v>8</v>
+      </c>
+      <c r="H309" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="I309" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="J309" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="M309" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N309" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="P309" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q309" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A310" s="6">
+        <v>40308</v>
+      </c>
+      <c r="B310" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="C310" s="6">
+        <v>30122</v>
+      </c>
+      <c r="D310" s="6">
+        <v>1</v>
+      </c>
+      <c r="E310" s="6">
+        <v>0</v>
+      </c>
+      <c r="F310" s="6">
+        <v>1</v>
+      </c>
+      <c r="G310" s="6">
+        <v>10</v>
+      </c>
+      <c r="H310" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="I310" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="J310" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="M310" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="N310" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="P310" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q310" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="311" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A311" s="6">
+        <v>40309</v>
+      </c>
+      <c r="B311" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="C311" s="6">
+        <v>30123</v>
+      </c>
+      <c r="D311" s="6">
+        <v>2</v>
+      </c>
+      <c r="E311" s="6">
+        <v>0</v>
+      </c>
+      <c r="F311" s="6">
+        <v>1</v>
+      </c>
+      <c r="G311" s="6">
+        <v>10</v>
+      </c>
+      <c r="H311" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="I311" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="J311" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="M311" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="N311" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="O311" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="P311" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q311" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="312" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A312" s="6">
+        <v>40310</v>
+      </c>
+      <c r="B312" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="C312" s="6">
+        <v>30124</v>
+      </c>
+      <c r="D312" s="6">
+        <v>3</v>
+      </c>
+      <c r="E312" s="6">
+        <v>0</v>
+      </c>
+      <c r="F312" s="6">
+        <v>1</v>
+      </c>
+      <c r="G312" s="6">
+        <v>10</v>
+      </c>
+      <c r="H312" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="I312" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="J312" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="M312" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="N312" s="6" t="s">
+        <v>659</v>
+      </c>
+      <c r="O312" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="P312" s="6">
+        <v>3</v>
+      </c>
+      <c r="Q312" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="313" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A313" s="6">
+        <v>40311</v>
+      </c>
+    </row>
+    <row r="314" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A314" s="6">
+        <v>40312</v>
+      </c>
+    </row>
+    <row r="315" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A315" s="6">
+        <v>40313</v>
+      </c>
+    </row>
+    <row r="316" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A316" s="6">
+        <v>40314</v>
+      </c>
+    </row>
+    <row r="317" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A317" s="6">
+        <v>40315</v>
+      </c>
+    </row>
+    <row r="318" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A318" s="6">
+        <v>40316</v>
+      </c>
+    </row>
+    <row r="319" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A319" s="6">
+        <v>40317</v>
+      </c>
+    </row>
+    <row r="320" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A320" s="6">
+        <v>40318</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" s="6">
+        <v>40319</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="6">
+        <v>40320</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" s="6">
+        <v>40321</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="6">
+        <v>40322</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="6">
+        <v>40323</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="6">
+        <v>40324</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="6">
+        <v>40325</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="6">
+        <v>40326</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="6">
+        <v>40327</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" s="6">
+        <v>40328</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" s="6">
+        <v>40329</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" s="6">
+        <v>40330</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" s="6">
+        <v>40331</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="6">
+        <v>40332</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" s="6">
+        <v>40333</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="6">
+        <v>40334</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="6">
+        <v>40335</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="6">
+        <v>40336</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="6">
+        <v>40337</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="6">
+        <v>40338</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="6">
+        <v>40339</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="6">
+        <v>40340</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" s="6">
+        <v>40341</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="6">
+        <v>40342</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" s="6">
+        <v>40343</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" s="6">
+        <v>40344</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" s="6">
+        <v>40345</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" s="6">
+        <v>40346</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" s="6">
+        <v>40347</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="6">
+        <v>40348</v>
       </c>
     </row>
   </sheetData>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B59C2B7-D005-483D-8F8F-569A9C046976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0DA21F-0445-4167-A8BD-A8E81F4B4F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="673">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2931,7 +2931,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0|0</t>
+    <t>千手如来掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>54,1,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>易经神功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰蝉神掌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,8,14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50009,3|50011,6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50009,4|50011,8</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50009,5|50011,10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3302,7 +3330,7 @@
   <dimension ref="A1:X350"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="J310" sqref="J310"/>
+      <selection activeCell="P321" sqref="P321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -16011,7 +16039,7 @@
         <v>661</v>
       </c>
       <c r="J310" s="6" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="M310" s="6" t="s">
         <v>316</v>
@@ -16034,7 +16062,7 @@
         <v>656</v>
       </c>
       <c r="C311" s="6">
-        <v>30123</v>
+        <v>30122</v>
       </c>
       <c r="D311" s="6">
         <v>2</v>
@@ -16081,7 +16109,7 @@
         <v>656</v>
       </c>
       <c r="C312" s="6">
-        <v>30124</v>
+        <v>30122</v>
       </c>
       <c r="D312" s="6">
         <v>3</v>
@@ -16124,118 +16152,435 @@
       <c r="A313" s="6">
         <v>40311</v>
       </c>
+      <c r="B313" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C313" s="6">
+        <v>30123</v>
+      </c>
+      <c r="D313" s="6">
+        <v>1</v>
+      </c>
+      <c r="E313" s="6">
+        <v>9</v>
+      </c>
+      <c r="F313" s="6">
+        <v>2</v>
+      </c>
+      <c r="I313" s="6">
+        <v>17</v>
+      </c>
+      <c r="J313" s="6">
+        <v>3</v>
+      </c>
+      <c r="K313" s="4"/>
+      <c r="L313" s="4"/>
+      <c r="M313" s="6">
+        <v>54</v>
+      </c>
+      <c r="N313" s="6">
+        <v>3</v>
+      </c>
+      <c r="O313" s="4"/>
+      <c r="P313" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q313" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="314" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A314" s="6">
         <v>40312</v>
       </c>
+      <c r="B314" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C314" s="6">
+        <v>30123</v>
+      </c>
+      <c r="D314" s="6">
+        <v>2</v>
+      </c>
+      <c r="E314" s="6">
+        <v>9</v>
+      </c>
+      <c r="F314" s="6">
+        <v>2</v>
+      </c>
+      <c r="I314" s="6">
+        <v>17</v>
+      </c>
+      <c r="J314" s="6">
+        <v>4</v>
+      </c>
+      <c r="K314" s="4"/>
+      <c r="L314" s="4"/>
+      <c r="M314" s="6">
+        <v>54</v>
+      </c>
+      <c r="N314" s="6">
+        <v>4</v>
+      </c>
+      <c r="O314" s="4"/>
+      <c r="P314" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q314" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="315" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A315" s="6">
         <v>40313</v>
       </c>
+      <c r="B315" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C315" s="6">
+        <v>30123</v>
+      </c>
+      <c r="D315" s="6">
+        <v>3</v>
+      </c>
+      <c r="E315" s="6">
+        <v>9</v>
+      </c>
+      <c r="F315" s="6">
+        <v>2</v>
+      </c>
+      <c r="I315" s="6">
+        <v>17</v>
+      </c>
+      <c r="J315" s="6">
+        <v>4</v>
+      </c>
+      <c r="K315" s="4"/>
+      <c r="L315" s="4"/>
+      <c r="M315" s="6">
+        <v>54</v>
+      </c>
+      <c r="N315" s="6">
+        <v>5</v>
+      </c>
+      <c r="O315" s="4" t="s">
+        <v>666</v>
+      </c>
+      <c r="P315" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q315" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="316" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A316" s="6">
         <v>40314</v>
       </c>
+      <c r="B316" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="C316" s="6">
+        <v>30124</v>
+      </c>
+      <c r="D316" s="6">
+        <v>1</v>
+      </c>
+      <c r="E316" s="6">
+        <v>9</v>
+      </c>
+      <c r="F316" s="6">
+        <v>3</v>
+      </c>
+      <c r="I316" s="6">
+        <v>17</v>
+      </c>
+      <c r="J316" s="6">
+        <v>2</v>
+      </c>
+      <c r="K316" s="4"/>
+      <c r="L316" s="4"/>
+      <c r="M316" s="6">
+        <v>1</v>
+      </c>
+      <c r="N316" s="6">
+        <v>8</v>
+      </c>
+      <c r="P316" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q316" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="317" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A317" s="6">
         <v>40315</v>
       </c>
+      <c r="B317" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="C317" s="6">
+        <v>30124</v>
+      </c>
+      <c r="D317" s="6">
+        <v>2</v>
+      </c>
+      <c r="E317" s="6">
+        <v>9</v>
+      </c>
+      <c r="F317" s="6">
+        <v>2</v>
+      </c>
+      <c r="I317" s="6">
+        <v>17</v>
+      </c>
+      <c r="J317" s="6">
+        <v>2</v>
+      </c>
+      <c r="K317" s="4"/>
+      <c r="L317" s="4"/>
+      <c r="M317" s="6">
+        <v>1</v>
+      </c>
+      <c r="N317" s="6">
+        <v>9</v>
+      </c>
+      <c r="O317" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="P317" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q317" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="318" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A318" s="6">
         <v>40316</v>
       </c>
+      <c r="B318" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="C318" s="6">
+        <v>30124</v>
+      </c>
+      <c r="D318" s="6">
+        <v>3</v>
+      </c>
+      <c r="E318" s="6">
+        <v>9</v>
+      </c>
+      <c r="F318" s="6">
+        <v>1</v>
+      </c>
+      <c r="I318" s="6">
+        <v>17</v>
+      </c>
+      <c r="J318" s="6">
+        <v>2</v>
+      </c>
+      <c r="K318" s="4"/>
+      <c r="L318" s="4"/>
+      <c r="M318" s="6">
+        <v>1</v>
+      </c>
+      <c r="N318" s="6">
+        <v>10</v>
+      </c>
+      <c r="O318" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="P318" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q318" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="319" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A319" s="6">
         <v>40317</v>
       </c>
+      <c r="B319" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C319" s="6">
+        <v>30125</v>
+      </c>
+      <c r="D319" s="6">
+        <v>1</v>
+      </c>
+      <c r="E319" s="6">
+        <v>9</v>
+      </c>
+      <c r="F319" s="6">
+        <v>3</v>
+      </c>
+      <c r="I319" s="6"/>
+      <c r="J319" s="6"/>
+      <c r="K319" s="4"/>
+      <c r="L319" s="4"/>
+      <c r="M319" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="N319" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="O319" s="4"/>
+      <c r="P319" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q319" s="6">
+        <v>3</v>
+      </c>
     </row>
     <row r="320" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A320" s="6">
         <v>40318</v>
       </c>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B320" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C320" s="6">
+        <v>30125</v>
+      </c>
+      <c r="D320" s="6">
+        <v>2</v>
+      </c>
+      <c r="E320" s="6">
+        <v>9</v>
+      </c>
+      <c r="F320" s="6">
+        <v>2</v>
+      </c>
+      <c r="I320" s="6"/>
+      <c r="J320" s="6"/>
+      <c r="K320" s="4"/>
+      <c r="L320" s="4"/>
+      <c r="M320" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="N320" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="O320" s="4"/>
+      <c r="P320" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q320" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A321" s="6">
         <v>40319</v>
       </c>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B321" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C321" s="6">
+        <v>30125</v>
+      </c>
+      <c r="D321" s="6">
+        <v>3</v>
+      </c>
+      <c r="E321" s="6">
+        <v>9</v>
+      </c>
+      <c r="F321" s="6">
+        <v>2</v>
+      </c>
+      <c r="I321" s="6"/>
+      <c r="J321" s="6"/>
+      <c r="K321" s="4"/>
+      <c r="L321" s="4"/>
+      <c r="M321" s="6" t="s">
+        <v>669</v>
+      </c>
+      <c r="N321" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="O321" s="4"/>
+      <c r="P321" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q321" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A322" s="6">
         <v>40320</v>
       </c>
     </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A323" s="6">
         <v>40321</v>
       </c>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A324" s="6">
         <v>40322</v>
       </c>
     </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A325" s="6">
         <v>40323</v>
       </c>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A326" s="6">
         <v>40324</v>
       </c>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A327" s="6">
         <v>40325</v>
       </c>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A328" s="6">
         <v>40326</v>
       </c>
     </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A329" s="6">
         <v>40327</v>
       </c>
     </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A330" s="6">
         <v>40328</v>
       </c>
     </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A331" s="6">
         <v>40329</v>
       </c>
     </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A332" s="6">
         <v>40330</v>
       </c>
     </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A333" s="6">
         <v>40331</v>
       </c>
     </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A334" s="6">
         <v>40332</v>
       </c>
     </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A335" s="6">
         <v>40333</v>
       </c>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A336" s="6">
         <v>40334</v>
       </c>

--- a/excel/skill.xlsx
+++ b/excel/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\LakeHeroPro\LakeHeroConfig\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB0DA21F-0445-4167-A8BD-A8E81F4B4F48}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E13989-3B96-46F6-89D2-6FA0E03967D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1144" uniqueCount="672">
   <si>
     <t>number</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1296,10 +1296,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>8|6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>10|8|50061,4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1639,10 +1635,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>10|50074,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>5,1,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1806,10 +1798,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6|50019,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>9|50019,4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1950,10 +1938,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>7|50011,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1962,10 +1946,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9|50011,5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>落红无情</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2427,14 +2407,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5|50071,2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8|50071,3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>扫堂腿</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2960,6 +2932,30 @@
   </si>
   <si>
     <t>50009,5|50011,10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本场战斗中每当&lt;color=#b5a432&gt;蓄力&lt;/c&gt;释放时,保留一半</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7|50011,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5|50071,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8|50071,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10|50074,1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3329,8 +3325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X350"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A300" workbookViewId="0">
-      <selection activeCell="P321" sqref="P321"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="K239" sqref="K239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3369,7 +3365,7 @@
         <v>15</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>117</v>
@@ -3605,7 +3601,7 @@
         <v>11</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="P5" s="1">
         <v>1</v>
@@ -3741,7 +3737,7 @@
         <v>8</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="P8" s="1">
         <v>2</v>
@@ -3820,9 +3816,7 @@
       <c r="N10" s="1">
         <v>6</v>
       </c>
-      <c r="O10" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="O10" s="1"/>
       <c r="P10" s="6">
         <v>1</v>
       </c>
@@ -4406,7 +4400,7 @@
         <v>38</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1">
@@ -4442,7 +4436,7 @@
         <v>38</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>29</v>
@@ -5128,7 +5122,7 @@
         <v>154</v>
       </c>
       <c r="O44" s="1" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="P44" s="1">
         <v>1</v>
@@ -5400,7 +5394,7 @@
         <v>152</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="P51" s="1">
         <v>1</v>
@@ -5507,7 +5501,7 @@
         <v>20</v>
       </c>
       <c r="O54" s="1" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="P54" s="1">
         <v>1</v>
@@ -5594,7 +5588,7 @@
         <v>160</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="P56" s="3">
         <v>2</v>
@@ -5639,7 +5633,7 @@
         <v>161</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>30</v>
@@ -5727,7 +5721,7 @@
         <v>71</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="O59" s="3" t="s">
         <v>29</v>
@@ -5769,7 +5763,7 @@
         <v>71</v>
       </c>
       <c r="N60" s="6" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>30</v>
@@ -5811,7 +5805,7 @@
         <v>39</v>
       </c>
       <c r="N61" s="3" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="O61" s="3"/>
       <c r="P61" s="3">
@@ -5850,7 +5844,7 @@
         <v>39</v>
       </c>
       <c r="N62" s="6" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>30</v>
@@ -5891,7 +5885,7 @@
         <v>39</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="O63" s="3" t="s">
         <v>30</v>
@@ -5908,7 +5902,7 @@
         <v>40062</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C64" s="5">
         <v>30021</v>
@@ -5929,10 +5923,10 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="N64" s="5" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="O64" s="5"/>
       <c r="P64" s="5">
@@ -5947,7 +5941,7 @@
         <v>40063</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C65" s="5">
         <v>30021</v>
@@ -5962,20 +5956,20 @@
         <v>1</v>
       </c>
       <c r="G65" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="H65" s="6" t="s">
         <v>347</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>349</v>
       </c>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
       <c r="M65" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="O65" s="5"/>
       <c r="P65" s="5">
@@ -5990,7 +5984,7 @@
         <v>40064</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C66" s="5">
         <v>30021</v>
@@ -6005,20 +5999,20 @@
         <v>0</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="4"/>
       <c r="L66" s="4"/>
       <c r="M66" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="N66" s="5" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="O66" s="5"/>
       <c r="P66" s="5">
@@ -6178,7 +6172,7 @@
         <v>76</v>
       </c>
       <c r="N70" s="6" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="O70" s="6"/>
       <c r="P70" s="6">
@@ -6217,10 +6211,10 @@
         <v>76</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="O71" s="6" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="P71" s="6">
         <v>1</v>
@@ -6805,7 +6799,7 @@
         <v>181</v>
       </c>
       <c r="N85" s="6" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="O85" s="6"/>
       <c r="P85" s="6">
@@ -6846,10 +6840,10 @@
         <v>181</v>
       </c>
       <c r="N86" s="6" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="O86" s="6" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="P86" s="6">
         <v>1</v>
@@ -6889,7 +6883,7 @@
         <v>181</v>
       </c>
       <c r="N87" s="6" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="O87" s="6" t="s">
         <v>182</v>
@@ -7976,7 +7970,7 @@
         <v>207</v>
       </c>
       <c r="O113" s="6" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="P113" s="6">
         <v>1</v>
@@ -8127,7 +8121,7 @@
         <v>8</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="P117" s="6">
         <v>1</v>
@@ -8538,7 +8532,7 @@
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
       <c r="M127" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N127" s="6" t="s">
         <v>231</v>
@@ -8581,7 +8575,7 @@
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
       <c r="M128" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="N128" s="6" t="s">
         <v>232</v>
@@ -8613,8 +8607,12 @@
       <c r="F129" s="6">
         <v>3</v>
       </c>
-      <c r="G129" s="6"/>
-      <c r="H129" s="6"/>
+      <c r="G129" s="6">
+        <v>10</v>
+      </c>
+      <c r="H129" s="6" t="s">
+        <v>666</v>
+      </c>
       <c r="I129" s="6"/>
       <c r="J129" s="6"/>
       <c r="K129" s="6"/>
@@ -8654,8 +8652,12 @@
       <c r="F130" s="6">
         <v>2</v>
       </c>
-      <c r="G130" s="6"/>
-      <c r="H130" s="6"/>
+      <c r="G130" s="6">
+        <v>10</v>
+      </c>
+      <c r="H130" s="6" t="s">
+        <v>666</v>
+      </c>
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
@@ -8695,8 +8697,12 @@
       <c r="F131" s="6">
         <v>1</v>
       </c>
-      <c r="G131" s="6"/>
-      <c r="H131" s="6"/>
+      <c r="G131" s="6">
+        <v>10</v>
+      </c>
+      <c r="H131" s="6" t="s">
+        <v>666</v>
+      </c>
       <c r="I131" s="6"/>
       <c r="J131" s="6"/>
       <c r="K131" s="6"/>
@@ -8870,7 +8876,7 @@
         <v>252</v>
       </c>
       <c r="N135" s="6" t="s">
-        <v>254</v>
+        <v>668</v>
       </c>
       <c r="O135" s="6"/>
       <c r="P135" s="6">
@@ -8909,7 +8915,7 @@
         <v>253</v>
       </c>
       <c r="N136" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O136" s="6" t="s">
         <v>249</v>
@@ -8950,7 +8956,7 @@
         <v>253</v>
       </c>
       <c r="N137" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O137" s="6" t="s">
         <v>249</v>
@@ -8967,7 +8973,7 @@
         <v>40136</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C138" s="6">
         <v>30050</v>
@@ -8988,7 +8994,7 @@
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
       <c r="M138" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="N138" s="6">
         <v>10</v>
@@ -9006,7 +9012,7 @@
         <v>40137</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C139" s="6">
         <v>30050</v>
@@ -9027,7 +9033,7 @@
       <c r="K139" s="6"/>
       <c r="L139" s="6"/>
       <c r="M139" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="N139" s="6">
         <v>14</v>
@@ -9045,7 +9051,7 @@
         <v>40138</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C140" s="6">
         <v>30050</v>
@@ -9066,13 +9072,13 @@
       <c r="K140" s="6"/>
       <c r="L140" s="6"/>
       <c r="M140" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="N140" s="6">
         <v>15</v>
       </c>
       <c r="O140" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="P140" s="6">
         <v>3</v>
@@ -9086,7 +9092,7 @@
         <v>40139</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C141" s="6">
         <v>30051</v>
@@ -9107,7 +9113,7 @@
       <c r="K141" s="6"/>
       <c r="L141" s="6"/>
       <c r="M141" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N141" s="6">
         <v>8</v>
@@ -9125,7 +9131,7 @@
         <v>40140</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C142" s="6">
         <v>30051</v>
@@ -9146,13 +9152,13 @@
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
       <c r="M142" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N142" s="6">
         <v>12</v>
       </c>
       <c r="O142" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P142" s="6">
         <v>3</v>
@@ -9166,7 +9172,7 @@
         <v>40141</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C143" s="6">
         <v>30051</v>
@@ -9187,13 +9193,13 @@
       <c r="K143" s="6"/>
       <c r="L143" s="6"/>
       <c r="M143" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="N143" s="6">
         <v>18</v>
       </c>
       <c r="O143" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P143" s="6">
         <v>3</v>
@@ -9207,7 +9213,7 @@
         <v>40142</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C144" s="6">
         <v>30052</v>
@@ -9228,10 +9234,10 @@
       <c r="K144" s="6"/>
       <c r="L144" s="6"/>
       <c r="M144" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="N144" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O144" s="6"/>
       <c r="P144" s="6">
@@ -9246,7 +9252,7 @@
         <v>40143</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C145" s="6">
         <v>30052</v>
@@ -9267,13 +9273,13 @@
       <c r="K145" s="6"/>
       <c r="L145" s="6"/>
       <c r="M145" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N145" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O145" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P145" s="6">
         <v>1</v>
@@ -9287,7 +9293,7 @@
         <v>40144</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C146" s="6">
         <v>30052</v>
@@ -9308,13 +9314,13 @@
       <c r="K146" s="6"/>
       <c r="L146" s="6"/>
       <c r="M146" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="N146" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O146" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="P146" s="6">
         <v>1</v>
@@ -9328,7 +9334,7 @@
         <v>40145</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C147" s="6">
         <v>30053</v>
@@ -9349,10 +9355,10 @@
       <c r="K147" s="6"/>
       <c r="L147" s="6"/>
       <c r="M147" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="N147" s="6" t="s">
         <v>275</v>
-      </c>
-      <c r="N147" s="6" t="s">
-        <v>276</v>
       </c>
       <c r="O147" s="6"/>
       <c r="P147" s="6">
@@ -9367,7 +9373,7 @@
         <v>40146</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C148" s="6">
         <v>30053</v>
@@ -9388,13 +9394,13 @@
       <c r="K148" s="6"/>
       <c r="L148" s="6"/>
       <c r="M148" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N148" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O148" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P148" s="6">
         <v>2</v>
@@ -9408,7 +9414,7 @@
         <v>40147</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C149" s="6">
         <v>30053</v>
@@ -9429,13 +9435,13 @@
       <c r="K149" s="6"/>
       <c r="L149" s="6"/>
       <c r="M149" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N149" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O149" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P149" s="6">
         <v>2</v>
@@ -9449,7 +9455,7 @@
         <v>40148</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C150" s="6">
         <v>30054</v>
@@ -9467,17 +9473,17 @@
         <v>10</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="6"/>
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
       <c r="M150" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N150" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O150" s="6"/>
       <c r="P150" s="6">
@@ -9492,7 +9498,7 @@
         <v>40149</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C151" s="6">
         <v>30054</v>
@@ -9510,20 +9516,20 @@
         <v>10</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I151" s="6"/>
       <c r="J151" s="6"/>
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
       <c r="M151" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="N151" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O151" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="P151" s="6">
         <v>3</v>
@@ -9537,7 +9543,7 @@
         <v>40150</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C152" s="6">
         <v>30054</v>
@@ -9555,17 +9561,17 @@
         <v>10</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I152" s="6"/>
       <c r="J152" s="6"/>
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
       <c r="M152" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="N152" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O152" s="6" t="s">
         <v>31</v>
@@ -9582,7 +9588,7 @@
         <v>40151</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C153" s="6">
         <v>30055</v>
@@ -9602,10 +9608,10 @@
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
       <c r="M153" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N153" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O153" s="6"/>
       <c r="P153" s="6">
@@ -9620,7 +9626,7 @@
         <v>40152</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C154" s="6">
         <v>30055</v>
@@ -9643,10 +9649,10 @@
         <v>10</v>
       </c>
       <c r="N154" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="O154" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="P154" s="6">
         <v>3</v>
@@ -9660,7 +9666,7 @@
         <v>40153</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C155" s="6">
         <v>30056</v>
@@ -9681,10 +9687,10 @@
       <c r="K155" s="6"/>
       <c r="L155" s="6"/>
       <c r="M155" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N155" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="O155" s="6"/>
       <c r="P155" s="6">
@@ -9699,7 +9705,7 @@
         <v>40154</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C156" s="6">
         <v>30056</v>
@@ -9720,13 +9726,13 @@
       <c r="K156" s="6"/>
       <c r="L156" s="6"/>
       <c r="M156" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="N156" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="O156" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P156" s="6">
         <v>2</v>
@@ -9740,7 +9746,7 @@
         <v>40155</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C157" s="6">
         <v>30056</v>
@@ -9761,13 +9767,13 @@
       <c r="K157" s="6"/>
       <c r="L157" s="6"/>
       <c r="M157" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="N157" s="8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="O157" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P157" s="6">
         <v>2</v>
@@ -9781,7 +9787,7 @@
         <v>40156</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C158" s="6">
         <v>30057</v>
@@ -9801,10 +9807,10 @@
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
       <c r="M158" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="N158" s="6" t="s">
         <v>301</v>
-      </c>
-      <c r="N158" s="6" t="s">
-        <v>302</v>
       </c>
       <c r="O158" s="6"/>
       <c r="P158" s="6">
@@ -9819,7 +9825,7 @@
         <v>40157</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C159" s="6">
         <v>30057</v>
@@ -9839,13 +9845,13 @@
       <c r="K159" s="4"/>
       <c r="L159" s="4"/>
       <c r="M159" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N159" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="O159" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P159" s="6">
         <v>3</v>
@@ -9859,7 +9865,7 @@
         <v>40158</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C160" s="6">
         <v>30058</v>
@@ -9879,10 +9885,10 @@
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
       <c r="M160" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N160" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="O160" s="6"/>
       <c r="P160" s="6">
@@ -9897,7 +9903,7 @@
         <v>40159</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C161" s="6">
         <v>30058</v>
@@ -9917,13 +9923,13 @@
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
       <c r="M161" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="N161" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="O161" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P161" s="6">
         <v>3</v>
@@ -9937,7 +9943,7 @@
         <v>40160</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C162" s="6">
         <v>30058</v>
@@ -9957,13 +9963,13 @@
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
       <c r="M162" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="N162" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="O162" s="6" t="s">
         <v>307</v>
-      </c>
-      <c r="N162" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="O162" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="P162" s="6">
         <v>3</v>
@@ -9977,7 +9983,7 @@
         <v>40161</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C163" s="6">
         <v>30059</v>
@@ -9997,7 +10003,7 @@
       <c r="K163" s="4"/>
       <c r="L163" s="4"/>
       <c r="M163" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N163" s="6"/>
       <c r="O163" s="6"/>
@@ -10015,7 +10021,7 @@
         <v>40162</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C164" s="6">
         <v>30059</v>
@@ -10053,7 +10059,7 @@
         <v>40163</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C165" s="6">
         <v>30060</v>
@@ -10073,13 +10079,13 @@
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
       <c r="M165" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="N165" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="N165" s="6" t="s">
-        <v>317</v>
-      </c>
       <c r="O165" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="P165" s="6">
         <v>3</v>
@@ -10095,7 +10101,7 @@
         <v>40164</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C166" s="6">
         <v>30060</v>
@@ -10115,13 +10121,13 @@
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
       <c r="M166" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N166" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="O166" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P166" s="6">
         <v>3</v>
@@ -10135,7 +10141,7 @@
         <v>40165</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C167" s="6">
         <v>30061</v>
@@ -10178,7 +10184,7 @@
         <v>40166</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C168" s="6">
         <v>30061</v>
@@ -10221,7 +10227,7 @@
         <v>40167</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C169" s="6">
         <v>30062</v>
@@ -10239,20 +10245,20 @@
         <v>10</v>
       </c>
       <c r="H169" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I169" s="6"/>
       <c r="J169" s="6"/>
       <c r="K169" s="6"/>
       <c r="L169" s="6"/>
       <c r="M169" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="N169" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="N169" s="6" t="s">
-        <v>323</v>
-      </c>
       <c r="O169" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P169" s="6">
         <v>1</v>
@@ -10266,7 +10272,7 @@
         <v>40168</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C170" s="6">
         <v>30062</v>
@@ -10284,20 +10290,20 @@
         <v>10</v>
       </c>
       <c r="H170" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I170" s="6"/>
       <c r="J170" s="6"/>
       <c r="K170" s="6"/>
       <c r="L170" s="6"/>
       <c r="M170" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N170" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="O170" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="O170" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="P170" s="6">
         <v>1</v>
@@ -10311,7 +10317,7 @@
         <v>40169</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C171" s="6">
         <v>30063</v>
@@ -10329,7 +10335,7 @@
         <v>10</v>
       </c>
       <c r="H171" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I171" s="6"/>
       <c r="J171" s="6"/>
@@ -10339,7 +10345,7 @@
         <v>10</v>
       </c>
       <c r="N171" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="O171" s="6"/>
       <c r="P171" s="6">
@@ -10354,7 +10360,7 @@
         <v>40170</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C172" s="6">
         <v>30063</v>
@@ -10372,17 +10378,17 @@
         <v>10</v>
       </c>
       <c r="H172" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I172" s="6"/>
       <c r="J172" s="6"/>
       <c r="K172" s="4"/>
       <c r="L172" s="4"/>
       <c r="M172" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="N172" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O172" s="6"/>
       <c r="P172" s="6">
@@ -10397,7 +10403,7 @@
         <v>40171</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C173" s="6">
         <v>30064</v>
@@ -10418,13 +10424,13 @@
       <c r="K173" s="6"/>
       <c r="L173" s="6"/>
       <c r="M173" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="N173" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="O173" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P173" s="6">
         <v>1</v>
@@ -10440,7 +10446,7 @@
         <v>40172</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C174" s="6">
         <v>30064</v>
@@ -10461,13 +10467,13 @@
       <c r="K174" s="6"/>
       <c r="L174" s="6"/>
       <c r="M174" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="N174" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="N174" s="6" t="s">
-        <v>335</v>
-      </c>
       <c r="O174" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="P174" s="6">
         <v>1</v>
@@ -10483,7 +10489,7 @@
         <v>40173</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C175" s="6">
         <v>30065</v>
@@ -10504,13 +10510,13 @@
       <c r="K175" s="6"/>
       <c r="L175" s="6"/>
       <c r="M175" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="N175" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="O175" s="6" t="s">
         <v>339</v>
-      </c>
-      <c r="O175" s="6" t="s">
-        <v>341</v>
       </c>
       <c r="P175" s="6">
         <v>1</v>
@@ -10524,7 +10530,7 @@
         <v>40174</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C176" s="6">
         <v>30065</v>
@@ -10545,13 +10551,13 @@
       <c r="K176" s="6"/>
       <c r="L176" s="6"/>
       <c r="M176" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="N176" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="N176" s="6" t="s">
+      <c r="O176" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="O176" s="6" t="s">
-        <v>342</v>
       </c>
       <c r="P176" s="6">
         <v>1</v>
@@ -10565,7 +10571,7 @@
         <v>40175</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C177" s="6">
         <v>30066</v>
@@ -10605,7 +10611,7 @@
         <v>40176</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C178" s="6">
         <v>30066</v>
@@ -10645,7 +10651,7 @@
         <v>40177</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C179" s="6">
         <v>30067</v>
@@ -10666,10 +10672,10 @@
       <c r="K179" s="6"/>
       <c r="L179" s="6"/>
       <c r="M179" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N179" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O179" s="6"/>
       <c r="P179" s="6">
@@ -10685,7 +10691,7 @@
         <v>40178</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C180" s="6">
         <v>30067</v>
@@ -10706,13 +10712,13 @@
       <c r="K180" s="6"/>
       <c r="L180" s="6"/>
       <c r="M180" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N180" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="O180" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P180" s="6">
         <v>2</v>
@@ -10727,7 +10733,7 @@
         <v>40179</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C181" s="6">
         <v>30067</v>
@@ -10748,13 +10754,13 @@
       <c r="K181" s="6"/>
       <c r="L181" s="6"/>
       <c r="M181" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N181" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="O181" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P181" s="6">
         <v>2</v>
@@ -10768,7 +10774,7 @@
         <v>40180</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C182" s="6">
         <v>30068</v>
@@ -10789,10 +10795,10 @@
       <c r="K182" s="6"/>
       <c r="L182" s="6"/>
       <c r="M182" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N182" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="O182" s="6"/>
       <c r="P182" s="6">
@@ -10807,7 +10813,7 @@
         <v>40181</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C183" s="6">
         <v>30068</v>
@@ -10828,10 +10834,10 @@
       <c r="K183" s="6"/>
       <c r="L183" s="6"/>
       <c r="M183" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N183" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="O183" s="6" t="s">
         <v>29</v>
@@ -10848,7 +10854,7 @@
         <v>40182</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C184" s="6">
         <v>30068</v>
@@ -10869,13 +10875,13 @@
       <c r="K184" s="6"/>
       <c r="L184" s="6"/>
       <c r="M184" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N184" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="O184" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P184" s="6">
         <v>2</v>
@@ -10889,7 +10895,7 @@
         <v>40183</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C185" s="6">
         <v>30069</v>
@@ -10910,10 +10916,10 @@
       <c r="K185" s="6"/>
       <c r="L185" s="6"/>
       <c r="M185" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N185" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="O185" s="6"/>
       <c r="P185" s="6">
@@ -10929,7 +10935,7 @@
         <v>40184</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C186" s="6">
         <v>30069</v>
@@ -10950,10 +10956,10 @@
       <c r="K186" s="6"/>
       <c r="L186" s="6"/>
       <c r="M186" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="N186" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="N186" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="O186" s="6"/>
       <c r="P186" s="6">
@@ -10969,7 +10975,7 @@
         <v>40185</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C187" s="6">
         <v>30069</v>
@@ -10990,10 +10996,10 @@
       <c r="K187" s="6"/>
       <c r="L187" s="6"/>
       <c r="M187" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="N187" s="7" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O187" s="6"/>
       <c r="P187" s="6">
@@ -11009,7 +11015,7 @@
         <v>40186</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C188" s="6">
         <v>30070</v>
@@ -11029,10 +11035,10 @@
       <c r="K188" s="4"/>
       <c r="L188" s="4"/>
       <c r="M188" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N188" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="O188" s="6"/>
       <c r="P188" s="6">
@@ -11048,7 +11054,7 @@
         <v>40187</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C189" s="6">
         <v>30070</v>
@@ -11068,13 +11074,13 @@
       <c r="K189" s="4"/>
       <c r="L189" s="4"/>
       <c r="M189" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N189" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="O189" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="P189" s="6">
         <v>3</v>
@@ -11089,7 +11095,7 @@
         <v>40188</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C190" s="6">
         <v>30070</v>
@@ -11109,13 +11115,13 @@
       <c r="K190" s="4"/>
       <c r="L190" s="4"/>
       <c r="M190" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N190" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="O190" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="P190" s="6">
         <v>3</v>
@@ -11130,7 +11136,7 @@
         <v>40189</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C191" s="6">
         <v>30071</v>
@@ -11148,20 +11154,20 @@
         <v>10</v>
       </c>
       <c r="H191" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I191" s="6"/>
       <c r="J191" s="6"/>
       <c r="K191" s="6"/>
       <c r="L191" s="6"/>
       <c r="M191" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N191" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O191" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="P191" s="6">
         <v>2</v>
@@ -11175,7 +11181,7 @@
         <v>40190</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C192" s="6">
         <v>30071</v>
@@ -11193,20 +11199,20 @@
         <v>10</v>
       </c>
       <c r="H192" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I192" s="6"/>
       <c r="J192" s="6"/>
       <c r="K192" s="6"/>
       <c r="L192" s="6"/>
       <c r="M192" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="N192" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O192" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P192" s="6">
         <v>2</v>
@@ -11220,7 +11226,7 @@
         <v>40191</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C193" s="6">
         <v>30071</v>
@@ -11238,20 +11244,20 @@
         <v>10</v>
       </c>
       <c r="H193" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="I193" s="6"/>
       <c r="J193" s="6"/>
       <c r="K193" s="6"/>
       <c r="L193" s="6"/>
       <c r="M193" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="N193" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="O193" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="P193" s="6">
         <v>2</v>
@@ -11265,7 +11271,7 @@
         <v>40192</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C194" s="6">
         <v>30072</v>
@@ -11285,10 +11291,10 @@
       <c r="K194" s="4"/>
       <c r="L194" s="4"/>
       <c r="M194" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N194" s="6" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="O194" s="6"/>
       <c r="P194" s="6">
@@ -11303,7 +11309,7 @@
         <v>40193</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="C195" s="6">
         <v>30072</v>
@@ -11323,13 +11329,13 @@
       <c r="K195" s="4"/>
       <c r="L195" s="4"/>
       <c r="M195" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="N195" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="O195" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="P195" s="6">
         <v>3</v>
@@ -11343,7 +11349,7 @@
         <v>40194</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C196" s="6">
         <v>30072</v>
@@ -11363,13 +11369,13 @@
       <c r="K196" s="4"/>
       <c r="L196" s="4"/>
       <c r="M196" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="N196" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="O196" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="P196" s="6">
         <v>3</v>
@@ -11383,7 +11389,7 @@
         <v>40195</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C197" s="6">
         <v>30073</v>
@@ -11403,10 +11409,10 @@
       <c r="K197" s="4"/>
       <c r="L197" s="4"/>
       <c r="M197" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N197" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="O197" s="6"/>
       <c r="P197" s="6">
@@ -11421,7 +11427,7 @@
         <v>40196</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C198" s="6">
         <v>30073</v>
@@ -11441,10 +11447,10 @@
       <c r="K198" s="4"/>
       <c r="L198" s="4"/>
       <c r="M198" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="N198" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="O198" s="6"/>
       <c r="P198" s="6">
@@ -11459,7 +11465,7 @@
         <v>40197</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C199" s="6">
         <v>30074</v>
@@ -11477,7 +11483,7 @@
         <v>10</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="I199" s="6"/>
       <c r="J199" s="6"/>
@@ -11487,7 +11493,7 @@
         <v>223</v>
       </c>
       <c r="N199" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="O199" s="6"/>
       <c r="P199" s="6">
@@ -11502,7 +11508,7 @@
         <v>40198</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C200" s="6">
         <v>30074</v>
@@ -11520,17 +11526,17 @@
         <v>10</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I200" s="6"/>
       <c r="J200" s="6"/>
       <c r="K200" s="4"/>
       <c r="L200" s="4"/>
       <c r="M200" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="N200" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="O200" s="6"/>
       <c r="P200" s="6">
@@ -11545,7 +11551,7 @@
         <v>40199</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C201" s="6">
         <v>30074</v>
@@ -11563,13 +11569,13 @@
         <v>10</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M201" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="N201" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="P201" s="6">
         <v>2</v>
@@ -11583,7 +11589,7 @@
         <v>40200</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C202" s="6">
         <v>30075</v>
@@ -11610,7 +11616,7 @@
         <v>8</v>
       </c>
       <c r="N202" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="O202" s="6"/>
       <c r="P202" s="6">
@@ -11625,7 +11631,7 @@
         <v>40201</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C203" s="6">
         <v>30075</v>
@@ -11641,18 +11647,18 @@
       </c>
       <c r="G203" s="6"/>
       <c r="I203" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J203" s="6" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K203" s="4"/>
       <c r="L203" s="4"/>
       <c r="M203" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="N203" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="O203" s="6"/>
       <c r="P203" s="6">
@@ -11667,7 +11673,7 @@
         <v>40202</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C204" s="6">
         <v>30075</v>
@@ -11683,18 +11689,18 @@
       </c>
       <c r="G204" s="6"/>
       <c r="I204" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="J204" s="6" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="K204" s="4"/>
       <c r="L204" s="4"/>
       <c r="M204" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="N204" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="O204" s="4"/>
       <c r="P204" s="6">
@@ -11709,7 +11715,7 @@
         <v>40203</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C205" s="6">
         <v>30076</v>
@@ -11734,7 +11740,7 @@
         <v>8</v>
       </c>
       <c r="N205" s="6" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="O205" s="6"/>
       <c r="P205" s="6">
@@ -11749,7 +11755,7 @@
         <v>40204</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C206" s="6">
         <v>30076</v>
@@ -11774,7 +11780,7 @@
         <v>8</v>
       </c>
       <c r="N206" s="6" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="O206" s="6"/>
       <c r="P206" s="6">
@@ -11789,7 +11795,7 @@
         <v>40205</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C207" s="6">
         <v>30077</v>
@@ -11805,16 +11811,16 @@
       </c>
       <c r="G207" s="6"/>
       <c r="I207" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J207" s="6"/>
       <c r="K207" s="4"/>
       <c r="L207" s="4"/>
       <c r="M207" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="N207" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="O207" s="6"/>
       <c r="P207" s="6">
@@ -11829,7 +11835,7 @@
         <v>40206</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C208" s="6">
         <v>30077</v>
@@ -11845,19 +11851,19 @@
       </c>
       <c r="G208" s="6"/>
       <c r="I208" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J208" s="6"/>
       <c r="K208" s="4"/>
       <c r="L208" s="4"/>
       <c r="M208" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="N208" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="N208" s="6" t="s">
-        <v>415</v>
-      </c>
       <c r="O208" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="P208" s="6">
         <v>2</v>
@@ -11871,7 +11877,7 @@
         <v>40207</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C209" s="6">
         <v>30078</v>
@@ -11887,18 +11893,18 @@
       </c>
       <c r="G209" s="6"/>
       <c r="I209" s="6" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="J209" s="6" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="K209" s="4"/>
       <c r="L209" s="4"/>
       <c r="M209" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="N209" s="6" t="s">
-        <v>418</v>
+        <v>135</v>
       </c>
       <c r="O209" s="6"/>
       <c r="P209" s="6">
@@ -11913,7 +11919,7 @@
         <v>40208</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C210" s="6">
         <v>30078</v>
@@ -11933,10 +11939,10 @@
       <c r="K210" s="4"/>
       <c r="L210" s="4"/>
       <c r="M210" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="N210" s="6" t="s">
-        <v>421</v>
+        <v>667</v>
       </c>
       <c r="O210" s="6"/>
       <c r="P210" s="6">
@@ -11951,7 +11957,7 @@
         <v>40209</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C211" s="6">
         <v>30079</v>
@@ -11969,7 +11975,7 @@
         <v>10</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="I211" s="6"/>
       <c r="J211" s="6"/>
@@ -11979,7 +11985,7 @@
         <v>223</v>
       </c>
       <c r="N211" s="6" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="O211" s="6"/>
       <c r="P211" s="6">
@@ -11994,7 +12000,7 @@
         <v>40210</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C212" s="6">
         <v>30079</v>
@@ -12012,7 +12018,7 @@
         <v>10</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
@@ -12022,7 +12028,7 @@
         <v>223</v>
       </c>
       <c r="N212" s="6" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="O212" s="6"/>
       <c r="P212" s="6">
@@ -12037,7 +12043,7 @@
         <v>40211</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C213" s="6">
         <v>30079</v>
@@ -12055,17 +12061,17 @@
         <v>10</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="I213" s="4"/>
       <c r="J213" s="4"/>
       <c r="K213" s="4"/>
       <c r="L213" s="4"/>
       <c r="M213" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="N213" s="6" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="O213" s="4"/>
       <c r="P213" s="6">
@@ -12080,7 +12086,7 @@
         <v>40212</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C214" s="6">
         <v>30080</v>
@@ -12098,7 +12104,7 @@
         <v>10</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
@@ -12108,7 +12114,7 @@
         <v>223</v>
       </c>
       <c r="N214" s="6" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="O214" s="6"/>
       <c r="P214" s="6">
@@ -12123,7 +12129,7 @@
         <v>40213</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C215" s="6">
         <v>30080</v>
@@ -12141,7 +12147,7 @@
         <v>10</v>
       </c>
       <c r="H215" s="4" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="I215" s="6"/>
       <c r="J215" s="6"/>
@@ -12151,7 +12157,7 @@
         <v>223</v>
       </c>
       <c r="N215" s="6" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="O215" s="6"/>
       <c r="P215" s="6">
@@ -12166,7 +12172,7 @@
         <v>40214</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C216" s="6">
         <v>30081</v>
@@ -12184,7 +12190,7 @@
         <v>10</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
@@ -12194,7 +12200,7 @@
         <v>223</v>
       </c>
       <c r="N216" s="6" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="O216" s="6"/>
       <c r="P216" s="6">
@@ -12209,7 +12215,7 @@
         <v>40215</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="C217" s="6">
         <v>30081</v>
@@ -12227,17 +12233,17 @@
         <v>10</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="I217" s="6"/>
       <c r="J217" s="6"/>
       <c r="K217" s="4"/>
       <c r="L217" s="4"/>
       <c r="M217" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="N217" s="6" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="O217" s="6"/>
       <c r="P217" s="6">
@@ -12252,7 +12258,7 @@
         <v>40216</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C218" s="6">
         <v>30082</v>
@@ -12270,7 +12276,7 @@
         <v>10</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I218" s="6"/>
       <c r="J218" s="6"/>
@@ -12280,7 +12286,7 @@
         <v>223</v>
       </c>
       <c r="N218" s="6" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="O218" s="6"/>
       <c r="P218" s="6">
@@ -12295,7 +12301,7 @@
         <v>40217</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="C219" s="6">
         <v>30082</v>
@@ -12313,7 +12319,7 @@
         <v>10</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="I219" s="6"/>
       <c r="J219" s="6"/>
@@ -12323,7 +12329,7 @@
         <v>223</v>
       </c>
       <c r="N219" s="6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="O219" s="6"/>
       <c r="P219" s="6">
@@ -12338,7 +12344,7 @@
         <v>40218</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="C220" s="6">
         <v>30083</v>
@@ -12359,10 +12365,10 @@
       <c r="K220" s="6"/>
       <c r="L220" s="6"/>
       <c r="M220" s="6" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="N220" s="6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="O220" s="6"/>
       <c r="P220" s="6">
@@ -12378,7 +12384,7 @@
         <v>40219</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="C221" s="6">
         <v>30083</v>
@@ -12395,18 +12401,18 @@
       <c r="G221" s="6"/>
       <c r="H221" s="6"/>
       <c r="I221" s="6" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="J221" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="K221" s="6"/>
       <c r="L221" s="6"/>
       <c r="M221" s="6" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="N221" s="6" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="O221" s="6"/>
       <c r="P221" s="6">
@@ -12422,7 +12428,7 @@
         <v>40220</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C222" s="6">
         <v>30084</v>
@@ -12437,10 +12443,10 @@
         <v>1</v>
       </c>
       <c r="M222" s="6" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="N222" s="6" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="P222" s="6">
         <v>2</v>
@@ -12454,7 +12460,7 @@
         <v>40221</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C223" s="6">
         <v>30084</v>
@@ -12469,10 +12475,10 @@
         <v>0</v>
       </c>
       <c r="M223" s="6" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="N223" s="6" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="P223" s="6">
         <v>2</v>
@@ -12486,7 +12492,7 @@
         <v>40222</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C224" s="6">
         <v>30085</v>
@@ -12508,7 +12514,7 @@
         <v>47</v>
       </c>
       <c r="N224" s="6" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="O224" s="4"/>
       <c r="P224" s="6">
@@ -12523,7 +12529,7 @@
         <v>40223</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C225" s="6">
         <v>30085</v>
@@ -12545,7 +12551,7 @@
         <v>47</v>
       </c>
       <c r="N225" s="6" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="O225" s="4"/>
       <c r="P225" s="6">
@@ -12560,7 +12566,7 @@
         <v>40224</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C226" s="6">
         <v>30086</v>
@@ -12581,10 +12587,10 @@
       <c r="K226" s="6"/>
       <c r="L226" s="6"/>
       <c r="M226" s="6" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="N226" s="6" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="O226" s="6"/>
       <c r="P226" s="6">
@@ -12599,7 +12605,7 @@
         <v>40225</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C227" s="6">
         <v>30086</v>
@@ -12620,10 +12626,10 @@
       <c r="K227" s="6"/>
       <c r="L227" s="6"/>
       <c r="M227" s="6" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="N227" s="6" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="O227" s="6"/>
       <c r="P227" s="6">
@@ -12638,7 +12644,7 @@
         <v>40226</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C228" s="6">
         <v>30087</v>
@@ -12655,18 +12661,18 @@
       <c r="G228" s="6"/>
       <c r="H228" s="6"/>
       <c r="I228" s="6" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="J228" s="6" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K228" s="6"/>
       <c r="L228" s="6"/>
       <c r="M228" s="6" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="N228" s="6" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="O228" s="6"/>
       <c r="P228" s="6">
@@ -12682,7 +12688,7 @@
         <v>40227</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C229" s="6">
         <v>30087</v>
@@ -12699,21 +12705,21 @@
       <c r="G229" s="6"/>
       <c r="H229" s="6"/>
       <c r="I229" s="6" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="J229" s="6" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="K229" s="6"/>
       <c r="L229" s="6"/>
       <c r="M229" s="6" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="N229" s="6" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="O229" s="6" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="P229" s="6">
         <v>1</v>
@@ -12728,7 +12734,7 @@
         <v>40228</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C230" s="6">
         <v>30087</v>
@@ -12745,13 +12751,13 @@
       <c r="I230" s="6"/>
       <c r="J230" s="6"/>
       <c r="M230" s="6" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="N230" s="6" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="O230" s="6" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="P230" s="6">
         <v>1</v>
@@ -12765,7 +12771,7 @@
         <v>40229</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C231" s="6">
         <v>30088</v>
@@ -12782,18 +12788,18 @@
       <c r="G231" s="6"/>
       <c r="H231" s="6"/>
       <c r="I231" s="6" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="J231" s="6" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="K231" s="6"/>
       <c r="L231" s="6"/>
       <c r="M231" s="6" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="N231" s="6" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="O231" s="6"/>
       <c r="P231" s="6">
@@ -12808,7 +12814,7 @@
         <v>40230</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C232" s="6">
         <v>30088</v>
@@ -12825,21 +12831,21 @@
       <c r="G232" s="6"/>
       <c r="H232" s="6"/>
       <c r="I232" s="6" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="J232" s="6" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="K232" s="6"/>
       <c r="L232" s="6"/>
       <c r="M232" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="N232" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="N232" s="6" t="s">
-        <v>479</v>
-      </c>
       <c r="O232" s="6" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="P232" s="6">
         <v>1</v>
@@ -12853,7 +12859,7 @@
         <v>40231</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C233" s="6">
         <v>30088</v>
@@ -12868,21 +12874,21 @@
         <v>2</v>
       </c>
       <c r="I233" s="6" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="J233" s="6" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="K233" s="4"/>
       <c r="L233" s="4"/>
       <c r="M233" s="6" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="N233" s="6" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="O233" s="6" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="P233" s="6">
         <v>1</v>
@@ -12896,7 +12902,7 @@
         <v>40232</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C234" s="6">
         <v>30089</v>
@@ -12913,18 +12919,18 @@
       <c r="G234" s="6"/>
       <c r="H234" s="6"/>
       <c r="I234" s="6" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="J234" s="6" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="K234" s="6"/>
       <c r="L234" s="6"/>
       <c r="M234" s="6" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="N234" s="6" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="O234" s="6"/>
       <c r="P234" s="6">
@@ -12939,7 +12945,7 @@
         <v>40233</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="C235" s="6">
         <v>30089</v>
@@ -12956,21 +12962,21 @@
       <c r="G235" s="6"/>
       <c r="H235" s="6"/>
       <c r="I235" s="6" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="J235" s="6" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="K235" s="6"/>
       <c r="L235" s="6"/>
       <c r="M235" s="6" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="N235" s="6" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="O235" s="6" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="P235" s="6">
         <v>1</v>
@@ -12984,7 +12990,7 @@
         <v>40234</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C236" s="6">
         <v>30090</v>
@@ -13002,13 +13008,13 @@
         <v>10</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="M236" s="6">
         <v>10</v>
       </c>
       <c r="N236" s="6" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="P236" s="6">
         <v>1</v>
@@ -13022,7 +13028,7 @@
         <v>40235</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="C237" s="6">
         <v>30090</v>
@@ -13040,7 +13046,7 @@
         <v>10</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="I237" s="4"/>
       <c r="J237" s="4"/>
@@ -13050,7 +13056,7 @@
         <v>10</v>
       </c>
       <c r="N237" s="6" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="O237" s="4"/>
       <c r="P237" s="6">
@@ -13065,7 +13071,7 @@
         <v>40236</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="C238" s="6">
         <v>30091</v>
@@ -13089,7 +13095,7 @@
         <v>1</v>
       </c>
       <c r="M238" s="6" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N238" s="6"/>
       <c r="O238" s="4"/>
@@ -13105,7 +13111,7 @@
         <v>40237</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="C239" s="6">
         <v>30091</v>
@@ -13129,10 +13135,10 @@
         <v>1</v>
       </c>
       <c r="M239" s="6" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="N239" s="6" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="O239" s="4"/>
       <c r="P239" s="6">
@@ -13147,7 +13153,7 @@
         <v>40238</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C240" s="6">
         <v>30092</v>
@@ -13171,7 +13177,7 @@
         <v>1</v>
       </c>
       <c r="M240" s="6" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N240" s="6"/>
       <c r="O240" s="4"/>
@@ -13187,7 +13193,7 @@
         <v>40239</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C241" s="6">
         <v>30092</v>
@@ -13211,10 +13217,10 @@
         <v>1</v>
       </c>
       <c r="M241" s="6" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="N241" s="6" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="O241" s="4"/>
       <c r="P241" s="6">
@@ -13229,7 +13235,7 @@
         <v>40240</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C242" s="6">
         <v>30092</v>
@@ -13253,10 +13259,10 @@
         <v>1</v>
       </c>
       <c r="M242" s="6" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="N242" s="6" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="O242" s="4"/>
       <c r="P242" s="6">
@@ -13271,7 +13277,7 @@
         <v>40241</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C243" s="6">
         <v>30093</v>
@@ -13295,7 +13301,7 @@
         <v>1</v>
       </c>
       <c r="M243" s="6" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="N243" s="6"/>
       <c r="O243" s="4"/>
@@ -13311,7 +13317,7 @@
         <v>40242</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C244" s="6">
         <v>30093</v>
@@ -13335,7 +13341,7 @@
         <v>1</v>
       </c>
       <c r="M244" s="6" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="N244" s="6">
         <v>0</v>
@@ -13353,7 +13359,7 @@
         <v>40243</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C245" s="6">
         <v>30094</v>
@@ -13368,7 +13374,7 @@
         <v>3</v>
       </c>
       <c r="M245" s="6" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="N245" s="6">
         <v>18</v>
@@ -13388,7 +13394,7 @@
         <v>40244</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C246" s="6">
         <v>30094</v>
@@ -13407,13 +13413,13 @@
       <c r="K246" s="4"/>
       <c r="L246" s="4"/>
       <c r="M246" s="6" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="N246" s="6">
         <v>24</v>
       </c>
       <c r="O246" s="6" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="P246" s="6">
         <v>1</v>
@@ -13427,7 +13433,7 @@
         <v>40245</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C247" s="6">
         <v>30095</v>
@@ -13463,7 +13469,7 @@
         <v>40246</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C248" s="6">
         <v>30095</v>
@@ -13499,7 +13505,7 @@
         <v>40247</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C249" s="6">
         <v>30096</v>
@@ -13518,13 +13524,13 @@
       <c r="K249" s="4"/>
       <c r="L249" s="4"/>
       <c r="M249" s="6" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="N249" s="6">
         <v>5</v>
       </c>
       <c r="O249" s="6" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="P249" s="6">
         <v>1</v>
@@ -13536,7 +13542,7 @@
       <c r="S249" s="4"/>
       <c r="T249" s="4"/>
       <c r="U249" s="4" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.25">
@@ -13544,7 +13550,7 